--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC291"/>
+  <dimension ref="A1:AC290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10154,7 +10154,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6504281</v>
+        <v>6666977</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10166,76 +10166,76 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109">
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K109">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="L109">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M109">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N109">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O109">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P109">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q109">
         <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T109">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U109">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X109">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA109">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10243,7 +10243,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6666977</v>
+        <v>6504281</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10255,76 +10255,76 @@
         <v>45067.66666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K110">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="L110">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N110">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O110">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P110">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q110">
         <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S110">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W110">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -13447,7 +13447,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13459,76 +13459,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G146" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K146">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L146">
         <v>3.6</v>
       </c>
       <c r="M146">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N146">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O146">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P146">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S146">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V146">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA146">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13536,7 +13536,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13548,76 +13548,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K147">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L147">
         <v>3.6</v>
       </c>
       <c r="M147">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N147">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O147">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W147">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z147">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC147">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -20567,7 +20567,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7331150</v>
+        <v>7329845</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20579,76 +20579,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G226" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226">
         <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K226">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L226">
+        <v>3.4</v>
+      </c>
+      <c r="M226">
+        <v>2.05</v>
+      </c>
+      <c r="N226">
+        <v>3.4</v>
+      </c>
+      <c r="O226">
         <v>3.5</v>
       </c>
-      <c r="M226">
-        <v>2.875</v>
-      </c>
-      <c r="N226">
-        <v>2.4</v>
-      </c>
-      <c r="O226">
-        <v>3.6</v>
-      </c>
       <c r="P226">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R226">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S226">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T226">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U226">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V226">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y226">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA226">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC226">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20656,7 +20656,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7329845</v>
+        <v>7331150</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20668,76 +20668,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G227" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227">
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K227">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L227">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M227">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="N227">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O227">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P227">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q227">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R227">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="S227">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U227">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V227">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W227">
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z227">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB227">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -23682,7 +23682,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7532414</v>
+        <v>7532430</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23694,40 +23694,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F261" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G261" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H261">
+        <v>4</v>
+      </c>
+      <c r="I261">
         <v>1</v>
-      </c>
-      <c r="I261">
-        <v>0</v>
       </c>
       <c r="J261" t="s">
         <v>50</v>
       </c>
       <c r="K261">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="L261">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M261">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N261">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O261">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P261">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Q261">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R261">
         <v>2</v>
@@ -23739,13 +23739,13 @@
         <v>3</v>
       </c>
       <c r="U261">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V261">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W261">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X261">
         <v>-1</v>
@@ -23754,16 +23754,16 @@
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA261">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB261">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC261">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23771,7 +23771,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7532430</v>
+        <v>7532412</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23783,76 +23783,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F262" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G262" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>3</v>
+      </c>
+      <c r="J262" t="s">
+        <v>51</v>
+      </c>
+      <c r="K262">
+        <v>1.727</v>
+      </c>
+      <c r="L262">
+        <v>3.75</v>
+      </c>
+      <c r="M262">
         <v>4</v>
       </c>
-      <c r="I262">
-        <v>1</v>
-      </c>
-      <c r="J262" t="s">
-        <v>50</v>
-      </c>
-      <c r="K262">
-        <v>1.4</v>
-      </c>
-      <c r="L262">
-        <v>4.2</v>
-      </c>
-      <c r="M262">
-        <v>7</v>
-      </c>
       <c r="N262">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O262">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P262">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q262">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R262">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S262">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T262">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U262">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V262">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W262">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z262">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA262">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB262">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC262">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23949,7 +23949,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7532412</v>
+        <v>7532414</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23961,76 +23961,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G264" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H264">
+        <v>1</v>
+      </c>
+      <c r="I264">
         <v>0</v>
       </c>
-      <c r="I264">
-        <v>3</v>
-      </c>
       <c r="J264" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K264">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L264">
         <v>3.75</v>
       </c>
       <c r="M264">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N264">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="O264">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P264">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q264">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R264">
+        <v>2</v>
+      </c>
+      <c r="S264">
+        <v>1.8</v>
+      </c>
+      <c r="T264">
+        <v>3</v>
+      </c>
+      <c r="U264">
+        <v>1.85</v>
+      </c>
+      <c r="V264">
         <v>1.95</v>
       </c>
-      <c r="S264">
-        <v>1.85</v>
-      </c>
-      <c r="T264">
-        <v>2.75</v>
-      </c>
-      <c r="U264">
-        <v>1.925</v>
-      </c>
-      <c r="V264">
-        <v>1.875</v>
-      </c>
       <c r="W264">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
         <v>-1</v>
       </c>
       <c r="AA264">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB264">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24216,7 +24216,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7532420</v>
+        <v>7532421</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24228,13 +24228,13 @@
         <v>45265.875</v>
       </c>
       <c r="F267" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G267" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H267">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I267">
         <v>0</v>
@@ -24243,43 +24243,43 @@
         <v>50</v>
       </c>
       <c r="K267">
+        <v>1.4</v>
+      </c>
+      <c r="L267">
+        <v>4.5</v>
+      </c>
+      <c r="M267">
+        <v>7.5</v>
+      </c>
+      <c r="N267">
         <v>1.333</v>
       </c>
-      <c r="L267">
-        <v>5</v>
-      </c>
-      <c r="M267">
-        <v>8</v>
-      </c>
-      <c r="N267">
-        <v>1.3</v>
-      </c>
       <c r="O267">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P267">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q267">
         <v>-1.5</v>
       </c>
       <c r="R267">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S267">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T267">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U267">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V267">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W267">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X267">
         <v>-1</v>
@@ -24288,16 +24288,16 @@
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA267">
         <v>-1</v>
       </c>
       <c r="AB267">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC267">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24305,7 +24305,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7532419</v>
+        <v>7532420</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24317,10 +24317,10 @@
         <v>45265.875</v>
       </c>
       <c r="F268" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G268" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H268">
         <v>3</v>
@@ -24332,34 +24332,34 @@
         <v>50</v>
       </c>
       <c r="K268">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L268">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="M268">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="N268">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O268">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="P268">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q268">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R268">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S268">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T268">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U268">
         <v>1.95</v>
@@ -24368,7 +24368,7 @@
         <v>1.85</v>
       </c>
       <c r="W268">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X268">
         <v>-1</v>
@@ -24377,16 +24377,16 @@
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA268">
         <v>-1</v>
       </c>
       <c r="AB268">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC268">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24394,7 +24394,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7532421</v>
+        <v>7532419</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24406,13 +24406,13 @@
         <v>45265.875</v>
       </c>
       <c r="F269" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G269" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I269">
         <v>0</v>
@@ -24421,43 +24421,43 @@
         <v>50</v>
       </c>
       <c r="K269">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L269">
+        <v>2.5</v>
+      </c>
+      <c r="M269">
         <v>4.5</v>
       </c>
-      <c r="M269">
-        <v>7.5</v>
-      </c>
       <c r="N269">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="O269">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="P269">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q269">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R269">
+        <v>1.9</v>
+      </c>
+      <c r="S269">
+        <v>1.9</v>
+      </c>
+      <c r="T269">
+        <v>2</v>
+      </c>
+      <c r="U269">
+        <v>1.95</v>
+      </c>
+      <c r="V269">
         <v>1.85</v>
       </c>
-      <c r="S269">
-        <v>1.95</v>
-      </c>
-      <c r="T269">
-        <v>3</v>
-      </c>
-      <c r="U269">
-        <v>1.825</v>
-      </c>
-      <c r="V269">
-        <v>1.975</v>
-      </c>
       <c r="W269">
-        <v>0.333</v>
+        <v>1.375</v>
       </c>
       <c r="X269">
         <v>-1</v>
@@ -24466,16 +24466,16 @@
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA269">
         <v>-1</v>
       </c>
       <c r="AB269">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC269">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -26013,6 +26013,15 @@
       <c r="G287" t="s">
         <v>40</v>
       </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287" t="s">
+        <v>52</v>
+      </c>
       <c r="K287">
         <v>2.25</v>
       </c>
@@ -26023,46 +26032,52 @@
         <v>2.875</v>
       </c>
       <c r="N287">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O287">
         <v>3.3</v>
       </c>
       <c r="P287">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q287">
         <v>-0.25</v>
       </c>
       <c r="R287">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S287">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T287">
         <v>2.5</v>
       </c>
       <c r="U287">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V287">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W287">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X287">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y287">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z287">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA287">
-        <v>0</v>
+        <v>0.4625</v>
+      </c>
+      <c r="AB287">
+        <v>-1</v>
+      </c>
+      <c r="AC287">
+        <v>0.8</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26070,7 +26085,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7801323</v>
+        <v>7801324</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26079,34 +26094,34 @@
         <v>29</v>
       </c>
       <c r="E288" s="2">
-        <v>45346.77083333334</v>
+        <v>45347.66666666666</v>
       </c>
       <c r="F288" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G288" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K288">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L288">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M288">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="N288">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="O288">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P288">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q288">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R288">
         <v>2.025</v>
@@ -26115,13 +26130,13 @@
         <v>1.775</v>
       </c>
       <c r="T288">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U288">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V288">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W288">
         <v>0</v>
@@ -26144,7 +26159,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7801324</v>
+        <v>7801325</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26153,49 +26168,49 @@
         <v>29</v>
       </c>
       <c r="E289" s="2">
-        <v>45347.66666666666</v>
+        <v>45347.77083333334</v>
       </c>
       <c r="F289" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G289" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="K289">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L289">
+        <v>3.6</v>
+      </c>
+      <c r="M289">
+        <v>2.8</v>
+      </c>
+      <c r="N289">
+        <v>1.833</v>
+      </c>
+      <c r="O289">
+        <v>3.8</v>
+      </c>
+      <c r="P289">
         <v>3.4</v>
       </c>
-      <c r="M289">
-        <v>2.45</v>
-      </c>
-      <c r="N289">
-        <v>4</v>
-      </c>
-      <c r="O289">
-        <v>3.6</v>
-      </c>
-      <c r="P289">
-        <v>1.75</v>
-      </c>
       <c r="Q289">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R289">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S289">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T289">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U289">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V289">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W289">
         <v>0</v>
@@ -26218,7 +26233,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7801325</v>
+        <v>7801326</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26227,49 +26242,49 @@
         <v>29</v>
       </c>
       <c r="E290" s="2">
-        <v>45347.77083333334</v>
+        <v>45347.85416666666</v>
       </c>
       <c r="F290" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G290" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K290">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L290">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M290">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N290">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="O290">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P290">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q290">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R290">
+        <v>1.775</v>
+      </c>
+      <c r="S290">
+        <v>2.025</v>
+      </c>
+      <c r="T290">
+        <v>2.5</v>
+      </c>
+      <c r="U290">
         <v>1.875</v>
       </c>
-      <c r="S290">
+      <c r="V290">
         <v>1.925</v>
-      </c>
-      <c r="T290">
-        <v>3</v>
-      </c>
-      <c r="U290">
-        <v>1.8</v>
-      </c>
-      <c r="V290">
-        <v>2</v>
       </c>
       <c r="W290">
         <v>0</v>
@@ -26284,80 +26299,6 @@
         <v>0</v>
       </c>
       <c r="AA290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:27">
-      <c r="A291" s="1">
-        <v>289</v>
-      </c>
-      <c r="B291">
-        <v>7801326</v>
-      </c>
-      <c r="C291" t="s">
-        <v>28</v>
-      </c>
-      <c r="D291" t="s">
-        <v>29</v>
-      </c>
-      <c r="E291" s="2">
-        <v>45347.85416666666</v>
-      </c>
-      <c r="F291" t="s">
-        <v>36</v>
-      </c>
-      <c r="G291" t="s">
-        <v>33</v>
-      </c>
-      <c r="K291">
-        <v>2.3</v>
-      </c>
-      <c r="L291">
-        <v>3.4</v>
-      </c>
-      <c r="M291">
-        <v>2.7</v>
-      </c>
-      <c r="N291">
-        <v>2</v>
-      </c>
-      <c r="O291">
-        <v>3.5</v>
-      </c>
-      <c r="P291">
-        <v>3.2</v>
-      </c>
-      <c r="Q291">
-        <v>-0.25</v>
-      </c>
-      <c r="R291">
-        <v>1.775</v>
-      </c>
-      <c r="S291">
-        <v>2.025</v>
-      </c>
-      <c r="T291">
-        <v>2.5</v>
-      </c>
-      <c r="U291">
-        <v>1.875</v>
-      </c>
-      <c r="V291">
-        <v>1.925</v>
-      </c>
-      <c r="W291">
-        <v>0</v>
-      </c>
-      <c r="X291">
-        <v>0</v>
-      </c>
-      <c r="Y291">
-        <v>0</v>
-      </c>
-      <c r="Z291">
-        <v>0</v>
-      </c>
-      <c r="AA291">
         <v>0</v>
       </c>
     </row>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -23682,7 +23682,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7532430</v>
+        <v>7532412</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23694,76 +23694,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F261" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G261" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>3</v>
+      </c>
+      <c r="J261" t="s">
+        <v>51</v>
+      </c>
+      <c r="K261">
+        <v>1.727</v>
+      </c>
+      <c r="L261">
+        <v>3.75</v>
+      </c>
+      <c r="M261">
         <v>4</v>
       </c>
-      <c r="I261">
-        <v>1</v>
-      </c>
-      <c r="J261" t="s">
-        <v>50</v>
-      </c>
-      <c r="K261">
-        <v>1.4</v>
-      </c>
-      <c r="L261">
-        <v>4.2</v>
-      </c>
-      <c r="M261">
-        <v>7</v>
-      </c>
       <c r="N261">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O261">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P261">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q261">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R261">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S261">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T261">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U261">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V261">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W261">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z261">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA261">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB261">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23771,7 +23771,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7532412</v>
+        <v>7532413</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23783,34 +23783,34 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F262" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G262" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H262">
         <v>0</v>
       </c>
       <c r="I262">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J262" t="s">
         <v>51</v>
       </c>
       <c r="K262">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L262">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M262">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N262">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O262">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P262">
         <v>2.875</v>
@@ -23819,19 +23819,19 @@
         <v>-0.25</v>
       </c>
       <c r="R262">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S262">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T262">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U262">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V262">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W262">
         <v>-1</v>
@@ -23846,13 +23846,13 @@
         <v>-1</v>
       </c>
       <c r="AA262">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB262">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23860,7 +23860,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7532413</v>
+        <v>7532430</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23872,49 +23872,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F263" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G263" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I263">
         <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K263">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L263">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M263">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="N263">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O263">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P263">
-        <v>2.875</v>
+        <v>8.5</v>
       </c>
       <c r="Q263">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R263">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S263">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T263">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U263">
         <v>1.9</v>
@@ -23923,25 +23923,25 @@
         <v>1.9</v>
       </c>
       <c r="W263">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA263">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC263">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC172"/>
+  <dimension ref="A1:AC173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,76 +2868,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L27">
         <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N27">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,76 +2957,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L28">
         <v>3.6</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -4636,7 +4636,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6504578</v>
+        <v>6504291</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4648,16 +4648,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>1</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>52</v>
@@ -4669,34 +4669,34 @@
         <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N47">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O47">
         <v>3.6</v>
       </c>
       <c r="P47">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q47">
         <v>-0.75</v>
       </c>
       <c r="R47">
+        <v>1.85</v>
+      </c>
+      <c r="S47">
         <v>1.95</v>
-      </c>
-      <c r="S47">
-        <v>1.85</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4705,19 +4705,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6504291</v>
+        <v>6504578</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4737,16 +4737,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>52</v>
@@ -4758,34 +4758,34 @@
         <v>3.2</v>
       </c>
       <c r="M48">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N48">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q48">
         <v>-0.75</v>
       </c>
       <c r="R48">
+        <v>1.95</v>
+      </c>
+      <c r="S48">
         <v>1.85</v>
-      </c>
-      <c r="S48">
-        <v>1.95</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4794,19 +4794,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7462738</v>
+        <v>7462542</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,76 +11857,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M128">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="N128">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="O128">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P128">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q128">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R128">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X128">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11934,7 +11934,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7462542</v>
+        <v>7462738</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11946,76 +11946,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129" t="s">
+        <v>51</v>
+      </c>
+      <c r="K129">
+        <v>4</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129">
+        <v>1.666</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129">
+        <v>3.8</v>
+      </c>
+      <c r="P129">
+        <v>1.75</v>
+      </c>
+      <c r="Q129">
+        <v>0.75</v>
+      </c>
+      <c r="R129">
+        <v>1.8</v>
+      </c>
+      <c r="S129">
+        <v>2</v>
+      </c>
+      <c r="T129">
         <v>3</v>
       </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129" t="s">
-        <v>50</v>
-      </c>
-      <c r="K129">
-        <v>1.363</v>
-      </c>
-      <c r="L129">
-        <v>4.75</v>
-      </c>
-      <c r="M129">
-        <v>6.5</v>
-      </c>
-      <c r="N129">
-        <v>1.285</v>
-      </c>
-      <c r="O129">
-        <v>6.5</v>
-      </c>
-      <c r="P129">
-        <v>8</v>
-      </c>
-      <c r="Q129">
-        <v>-1.75</v>
-      </c>
-      <c r="R129">
-        <v>1.9</v>
-      </c>
-      <c r="S129">
-        <v>1.9</v>
-      </c>
-      <c r="T129">
-        <v>3.25</v>
-      </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC129">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532412</v>
+        <v>7532430</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,76 +13103,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>50</v>
+      </c>
+      <c r="K142">
+        <v>1.4</v>
+      </c>
+      <c r="L142">
+        <v>4.2</v>
+      </c>
+      <c r="M142">
+        <v>7</v>
+      </c>
+      <c r="N142">
+        <v>1.363</v>
+      </c>
+      <c r="O142">
+        <v>4.5</v>
+      </c>
+      <c r="P142">
+        <v>8.5</v>
+      </c>
+      <c r="Q142">
+        <v>-1.5</v>
+      </c>
+      <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
+        <v>1.8</v>
+      </c>
+      <c r="T142">
         <v>3</v>
       </c>
-      <c r="J142" t="s">
-        <v>52</v>
-      </c>
-      <c r="K142">
-        <v>1.727</v>
-      </c>
-      <c r="L142">
-        <v>3.75</v>
-      </c>
-      <c r="M142">
-        <v>4</v>
-      </c>
-      <c r="N142">
-        <v>2.3</v>
-      </c>
-      <c r="O142">
-        <v>3.6</v>
-      </c>
-      <c r="P142">
-        <v>2.875</v>
-      </c>
-      <c r="Q142">
-        <v>-0.25</v>
-      </c>
-      <c r="R142">
-        <v>1.95</v>
-      </c>
-      <c r="S142">
-        <v>1.85</v>
-      </c>
-      <c r="T142">
-        <v>2.75</v>
-      </c>
       <c r="U142">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532414</v>
+        <v>7532413</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,76 +13192,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
         <v>1</v>
       </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K143">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M143">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N143">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O143">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q143">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532413</v>
+        <v>7532412</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,34 +13281,34 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
         <v>52</v>
       </c>
       <c r="K144">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N144">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P144">
         <v>2.875</v>
@@ -13317,19 +13317,19 @@
         <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -13344,13 +13344,13 @@
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532430</v>
+        <v>7532414</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,40 +13370,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G145" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>50</v>
       </c>
       <c r="K145">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="L145">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M145">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N145">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O145">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P145">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Q145">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R145">
         <v>2</v>
@@ -13415,13 +13415,13 @@
         <v>3</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W145">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13430,16 +13430,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532421</v>
+        <v>7532419</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13652,43 +13652,43 @@
         <v>50</v>
       </c>
       <c r="K148">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L148">
+        <v>2.5</v>
+      </c>
+      <c r="M148">
         <v>4.5</v>
       </c>
-      <c r="M148">
-        <v>7.5</v>
-      </c>
       <c r="N148">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="O148">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="P148">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q148">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
+        <v>1.9</v>
+      </c>
+      <c r="S148">
+        <v>1.9</v>
+      </c>
+      <c r="T148">
+        <v>2</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
         <v>1.85</v>
       </c>
-      <c r="S148">
-        <v>1.95</v>
-      </c>
-      <c r="T148">
-        <v>3</v>
-      </c>
-      <c r="U148">
-        <v>1.825</v>
-      </c>
-      <c r="V148">
-        <v>1.975</v>
-      </c>
       <c r="W148">
-        <v>0.333</v>
+        <v>1.375</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC148">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532419</v>
+        <v>7532421</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,13 +13815,13 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13830,43 +13830,43 @@
         <v>50</v>
       </c>
       <c r="K150">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L150">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M150">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N150">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="O150">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="P150">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q150">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>1.375</v>
+        <v>0.333</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,76 +14082,76 @@
         <v>45266.875</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
         <v>50</v>
       </c>
       <c r="K153">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M153">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="N153">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O153">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P153">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="Q153">
+        <v>-2.25</v>
+      </c>
+      <c r="R153">
+        <v>1.95</v>
+      </c>
+      <c r="S153">
+        <v>1.85</v>
+      </c>
+      <c r="T153">
+        <v>3.75</v>
+      </c>
+      <c r="U153">
+        <v>1.975</v>
+      </c>
+      <c r="V153">
+        <v>1.825</v>
+      </c>
+      <c r="W153">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
+        <v>0.95</v>
+      </c>
+      <c r="AA153">
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>0.4875</v>
+      </c>
+      <c r="AC153">
         <v>-0.5</v>
-      </c>
-      <c r="R153">
-        <v>1.825</v>
-      </c>
-      <c r="S153">
-        <v>1.975</v>
-      </c>
-      <c r="T153">
-        <v>3</v>
-      </c>
-      <c r="U153">
-        <v>2</v>
-      </c>
-      <c r="V153">
-        <v>1.8</v>
-      </c>
-      <c r="W153">
-        <v>0.833</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
-      <c r="Z153">
-        <v>0.825</v>
-      </c>
-      <c r="AA153">
-        <v>-1</v>
-      </c>
-      <c r="AB153">
-        <v>0</v>
-      </c>
-      <c r="AC153">
-        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,58 +14171,58 @@
         <v>45266.875</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
         <v>50</v>
       </c>
       <c r="K154">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L154">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M154">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="N154">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O154">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P154">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q154">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T154">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U154">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V154">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14231,16 +14231,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -15761,7 +15761,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7801327</v>
+        <v>7801326</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15770,63 +15770,152 @@
         <v>29</v>
       </c>
       <c r="E172" s="2">
-        <v>45348.875</v>
+        <v>45347.85416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="H172">
+        <v>2</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172" t="s">
+        <v>50</v>
       </c>
       <c r="K172">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="L172">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M172">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="N172">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O172">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P172">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q172">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S172">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T172">
         <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V172">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W172">
+        <v>1.2</v>
+      </c>
+      <c r="X172">
+        <v>-1</v>
+      </c>
+      <c r="Y172">
+        <v>-1</v>
+      </c>
+      <c r="Z172">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA172">
+        <v>-1</v>
+      </c>
+      <c r="AB172">
+        <v>0.875</v>
+      </c>
+      <c r="AC172">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>7801328</v>
+      </c>
+      <c r="C173" t="s">
+        <v>28</v>
+      </c>
+      <c r="D173" t="s">
+        <v>29</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45349.875</v>
+      </c>
+      <c r="F173" t="s">
+        <v>46</v>
+      </c>
+      <c r="G173" t="s">
+        <v>41</v>
+      </c>
+      <c r="K173">
+        <v>2.5</v>
+      </c>
+      <c r="L173">
+        <v>3.4</v>
+      </c>
+      <c r="M173">
+        <v>2.6</v>
+      </c>
+      <c r="N173">
+        <v>2.05</v>
+      </c>
+      <c r="O173">
+        <v>3.5</v>
+      </c>
+      <c r="P173">
+        <v>3.4</v>
+      </c>
+      <c r="Q173">
+        <v>-0.25</v>
+      </c>
+      <c r="R173">
+        <v>1.775</v>
+      </c>
+      <c r="S173">
+        <v>2.025</v>
+      </c>
+      <c r="T173">
+        <v>2.75</v>
+      </c>
+      <c r="U173">
+        <v>1.9</v>
+      </c>
+      <c r="V173">
+        <v>1.9</v>
+      </c>
+      <c r="W173">
         <v>0</v>
       </c>
-      <c r="X172">
+      <c r="X173">
         <v>0</v>
       </c>
-      <c r="Y172">
+      <c r="Y173">
         <v>0</v>
       </c>
-      <c r="Z172">
+      <c r="Z173">
         <v>0</v>
       </c>
-      <c r="AA172">
+      <c r="AA173">
         <v>0</v>
       </c>
     </row>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC173"/>
+  <dimension ref="A1:AC175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,76 +2868,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L27">
         <v>3.6</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z27">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,76 +2957,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L28">
         <v>3.6</v>
       </c>
       <c r="M28">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -9709,7 +9709,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7331148</v>
+        <v>7331149</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9721,13 +9721,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9736,25 +9736,25 @@
         <v>50</v>
       </c>
       <c r="K104">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L104">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N104">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="O104">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>16</v>
+        <v>2.8</v>
       </c>
       <c r="Q104">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R104">
         <v>1.8</v>
@@ -9763,16 +9763,16 @@
         <v>2</v>
       </c>
       <c r="T104">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>0.1659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9781,16 +9781,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7331149</v>
+        <v>7331148</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,13 +9810,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9825,25 +9825,25 @@
         <v>50</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M105">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="N105">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P105">
-        <v>2.8</v>
+        <v>16</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R105">
         <v>1.8</v>
@@ -9852,16 +9852,16 @@
         <v>2</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>1.3</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9870,16 +9870,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7331150</v>
+        <v>7329845</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,76 +9988,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K107">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L107">
+        <v>3.4</v>
+      </c>
+      <c r="M107">
+        <v>2.05</v>
+      </c>
+      <c r="N107">
+        <v>3.4</v>
+      </c>
+      <c r="O107">
         <v>3.5</v>
       </c>
-      <c r="M107">
-        <v>2.875</v>
-      </c>
-      <c r="N107">
-        <v>2.4</v>
-      </c>
-      <c r="O107">
-        <v>3.6</v>
-      </c>
       <c r="P107">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S107">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y107">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA107">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7329845</v>
+        <v>7331150</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,76 +10077,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G108" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K108">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="N108">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="S108">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532430</v>
+        <v>7532414</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,40 +13103,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
         <v>50</v>
       </c>
       <c r="K142">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="L142">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M142">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N142">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O142">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P142">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Q142">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R142">
         <v>2</v>
@@ -13148,13 +13148,13 @@
         <v>3</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13163,16 +13163,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532414</v>
+        <v>7532430</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,40 +13370,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H145">
+        <v>4</v>
+      </c>
+      <c r="I145">
         <v>1</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>50</v>
       </c>
       <c r="K145">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="L145">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M145">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N145">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O145">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P145">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Q145">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R145">
         <v>2</v>
@@ -13415,13 +13415,13 @@
         <v>3</v>
       </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13430,16 +13430,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC145">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532419</v>
+        <v>7532421</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13652,43 +13652,43 @@
         <v>50</v>
       </c>
       <c r="K148">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L148">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M148">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N148">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="O148">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="P148">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>1.375</v>
+        <v>0.333</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532421</v>
+        <v>7532419</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,13 +13815,13 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13830,43 +13830,43 @@
         <v>50</v>
       </c>
       <c r="K150">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L150">
+        <v>2.5</v>
+      </c>
+      <c r="M150">
         <v>4.5</v>
       </c>
-      <c r="M150">
-        <v>7.5</v>
-      </c>
       <c r="N150">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="O150">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="P150">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q150">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
+        <v>1.9</v>
+      </c>
+      <c r="S150">
+        <v>1.9</v>
+      </c>
+      <c r="T150">
+        <v>2</v>
+      </c>
+      <c r="U150">
+        <v>1.95</v>
+      </c>
+      <c r="V150">
         <v>1.85</v>
       </c>
-      <c r="S150">
-        <v>1.95</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
       <c r="W150">
-        <v>0.333</v>
+        <v>1.375</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -15850,7 +15850,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7801328</v>
+        <v>7801327</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15859,64 +15859,257 @@
         <v>29</v>
       </c>
       <c r="E173" s="2">
-        <v>45349.875</v>
+        <v>45348.875</v>
       </c>
       <c r="F173" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
+      <c r="J173" t="s">
+        <v>52</v>
       </c>
       <c r="K173">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L173">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M173">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="N173">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O173">
         <v>3.5</v>
       </c>
       <c r="P173">
+        <v>4.2</v>
+      </c>
+      <c r="Q173">
+        <v>-0.5</v>
+      </c>
+      <c r="R173">
+        <v>1.85</v>
+      </c>
+      <c r="S173">
+        <v>1.95</v>
+      </c>
+      <c r="T173">
+        <v>2.5</v>
+      </c>
+      <c r="U173">
+        <v>1.85</v>
+      </c>
+      <c r="V173">
+        <v>1.95</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
+        <v>-1</v>
+      </c>
+      <c r="Y173">
+        <v>3.2</v>
+      </c>
+      <c r="Z173">
+        <v>-1</v>
+      </c>
+      <c r="AA173">
+        <v>0.95</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>7801328</v>
+      </c>
+      <c r="C174" t="s">
+        <v>28</v>
+      </c>
+      <c r="D174" t="s">
+        <v>29</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45349.875</v>
+      </c>
+      <c r="F174" t="s">
+        <v>46</v>
+      </c>
+      <c r="G174" t="s">
+        <v>41</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174" t="s">
+        <v>51</v>
+      </c>
+      <c r="K174">
+        <v>2.5</v>
+      </c>
+      <c r="L174">
         <v>3.4</v>
       </c>
-      <c r="Q173">
-        <v>-0.25</v>
-      </c>
-      <c r="R173">
-        <v>1.775</v>
-      </c>
-      <c r="S173">
-        <v>2.025</v>
-      </c>
-      <c r="T173">
+      <c r="M174">
+        <v>2.6</v>
+      </c>
+      <c r="N174">
+        <v>2.4</v>
+      </c>
+      <c r="O174">
+        <v>3.4</v>
+      </c>
+      <c r="P174">
+        <v>2.8</v>
+      </c>
+      <c r="Q174">
+        <v>0</v>
+      </c>
+      <c r="R174">
+        <v>1.75</v>
+      </c>
+      <c r="S174">
+        <v>2.05</v>
+      </c>
+      <c r="T174">
         <v>2.75</v>
       </c>
-      <c r="U173">
+      <c r="U174">
         <v>1.9</v>
       </c>
-      <c r="V173">
+      <c r="V174">
         <v>1.9</v>
       </c>
-      <c r="W173">
+      <c r="W174">
+        <v>-1</v>
+      </c>
+      <c r="X174">
+        <v>2.4</v>
+      </c>
+      <c r="Y174">
+        <v>-1</v>
+      </c>
+      <c r="Z174">
         <v>0</v>
       </c>
-      <c r="X173">
-        <v>0</v>
-      </c>
-      <c r="Y173">
-        <v>0</v>
-      </c>
-      <c r="Z173">
-        <v>0</v>
-      </c>
-      <c r="AA173">
-        <v>0</v>
+      <c r="AA174">
+        <v>-0</v>
+      </c>
+      <c r="AB174">
+        <v>-1</v>
+      </c>
+      <c r="AC174">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>7892752</v>
+      </c>
+      <c r="C175" t="s">
+        <v>28</v>
+      </c>
+      <c r="D175" t="s">
+        <v>29</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45350.66666666666</v>
+      </c>
+      <c r="F175" t="s">
+        <v>49</v>
+      </c>
+      <c r="G175" t="s">
+        <v>36</v>
+      </c>
+      <c r="H175">
+        <v>5</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175" t="s">
+        <v>50</v>
+      </c>
+      <c r="K175">
+        <v>3.3</v>
+      </c>
+      <c r="L175">
+        <v>3.5</v>
+      </c>
+      <c r="M175">
+        <v>1.909</v>
+      </c>
+      <c r="N175">
+        <v>3.3</v>
+      </c>
+      <c r="O175">
+        <v>3.6</v>
+      </c>
+      <c r="P175">
+        <v>1.85</v>
+      </c>
+      <c r="Q175">
+        <v>0.5</v>
+      </c>
+      <c r="R175">
+        <v>1.8</v>
+      </c>
+      <c r="S175">
+        <v>2</v>
+      </c>
+      <c r="T175">
+        <v>2.75</v>
+      </c>
+      <c r="U175">
+        <v>1.95</v>
+      </c>
+      <c r="V175">
+        <v>1.85</v>
+      </c>
+      <c r="W175">
+        <v>2.3</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
+        <v>-1</v>
+      </c>
+      <c r="Z175">
+        <v>0.8</v>
+      </c>
+      <c r="AA175">
+        <v>-1</v>
+      </c>
+      <c r="AB175">
+        <v>0.95</v>
+      </c>
+      <c r="AC175">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC175"/>
+  <dimension ref="A1:AC180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9709,7 +9709,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7331149</v>
+        <v>7331148</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9721,13 +9721,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9736,25 +9736,25 @@
         <v>50</v>
       </c>
       <c r="K104">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M104">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="N104">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P104">
-        <v>2.8</v>
+        <v>16</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R104">
         <v>1.8</v>
@@ -9763,16 +9763,16 @@
         <v>2</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>1.3</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9781,16 +9781,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7331148</v>
+        <v>7331149</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,13 +9810,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9825,25 +9825,25 @@
         <v>50</v>
       </c>
       <c r="K105">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="O105">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>16</v>
+        <v>2.8</v>
       </c>
       <c r="Q105">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R105">
         <v>1.8</v>
@@ -9852,16 +9852,16 @@
         <v>2</v>
       </c>
       <c r="T105">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>0.1659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9870,16 +9870,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC105">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7329845</v>
+        <v>7331150</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,76 +9988,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K107">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="N107">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="S107">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z107">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7331150</v>
+        <v>7329845</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,76 +10077,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K108">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L108">
+        <v>3.4</v>
+      </c>
+      <c r="M108">
+        <v>2.05</v>
+      </c>
+      <c r="N108">
+        <v>3.4</v>
+      </c>
+      <c r="O108">
         <v>3.5</v>
       </c>
-      <c r="M108">
-        <v>2.875</v>
-      </c>
-      <c r="N108">
-        <v>2.4</v>
-      </c>
-      <c r="O108">
-        <v>3.6</v>
-      </c>
       <c r="P108">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S108">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y108">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA108">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532413</v>
+        <v>7532430</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,49 +13192,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K143">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M143">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="N143">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O143">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P143">
-        <v>2.875</v>
+        <v>8.5</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R143">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U143">
         <v>1.9</v>
@@ -13243,25 +13243,25 @@
         <v>1.9</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA143">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532430</v>
+        <v>7532413</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,49 +13370,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G145" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K145">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L145">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M145">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="N145">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O145">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q145">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
         <v>1.9</v>
@@ -13421,25 +13421,25 @@
         <v>1.9</v>
       </c>
       <c r="W145">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB145">
+        <v>-1</v>
+      </c>
+      <c r="AC145">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC145">
-        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532421</v>
+        <v>7532420</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13652,43 +13652,43 @@
         <v>50</v>
       </c>
       <c r="K148">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="L148">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M148">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N148">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O148">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P148">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q148">
         <v>-1.5</v>
       </c>
       <c r="R148">
+        <v>1.8</v>
+      </c>
+      <c r="S148">
+        <v>2</v>
+      </c>
+      <c r="T148">
+        <v>3.25</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
         <v>1.85</v>
       </c>
-      <c r="S148">
-        <v>1.95</v>
-      </c>
-      <c r="T148">
-        <v>3</v>
-      </c>
-      <c r="U148">
-        <v>1.825</v>
-      </c>
-      <c r="V148">
-        <v>1.975</v>
-      </c>
       <c r="W148">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC148">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532420</v>
+        <v>7532421</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,13 +13726,13 @@
         <v>45265.875</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -13741,43 +13741,43 @@
         <v>50</v>
       </c>
       <c r="K149">
+        <v>1.4</v>
+      </c>
+      <c r="L149">
+        <v>4.5</v>
+      </c>
+      <c r="M149">
+        <v>7.5</v>
+      </c>
+      <c r="N149">
         <v>1.333</v>
       </c>
-      <c r="L149">
-        <v>5</v>
-      </c>
-      <c r="M149">
-        <v>8</v>
-      </c>
-      <c r="N149">
-        <v>1.3</v>
-      </c>
       <c r="O149">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P149">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q149">
         <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U149">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W149">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -16110,6 +16110,391 @@
       </c>
       <c r="AC175">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>7897430</v>
+      </c>
+      <c r="C176" t="s">
+        <v>28</v>
+      </c>
+      <c r="D176" t="s">
+        <v>29</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45352.875</v>
+      </c>
+      <c r="F176" t="s">
+        <v>32</v>
+      </c>
+      <c r="G176" t="s">
+        <v>34</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176" t="s">
+        <v>52</v>
+      </c>
+      <c r="K176">
+        <v>2.5</v>
+      </c>
+      <c r="L176">
+        <v>3.5</v>
+      </c>
+      <c r="M176">
+        <v>2.625</v>
+      </c>
+      <c r="N176">
+        <v>2.55</v>
+      </c>
+      <c r="O176">
+        <v>3.5</v>
+      </c>
+      <c r="P176">
+        <v>2.7</v>
+      </c>
+      <c r="Q176">
+        <v>0</v>
+      </c>
+      <c r="R176">
+        <v>1.825</v>
+      </c>
+      <c r="S176">
+        <v>1.975</v>
+      </c>
+      <c r="T176">
+        <v>2.75</v>
+      </c>
+      <c r="U176">
+        <v>1.975</v>
+      </c>
+      <c r="V176">
+        <v>1.825</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
+        <v>-1</v>
+      </c>
+      <c r="Y176">
+        <v>1.7</v>
+      </c>
+      <c r="Z176">
+        <v>-1</v>
+      </c>
+      <c r="AA176">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB176">
+        <v>0.4875</v>
+      </c>
+      <c r="AC176">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>7897428</v>
+      </c>
+      <c r="C177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" t="s">
+        <v>29</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45353.66666666666</v>
+      </c>
+      <c r="F177" t="s">
+        <v>36</v>
+      </c>
+      <c r="G177" t="s">
+        <v>33</v>
+      </c>
+      <c r="K177">
+        <v>1.363</v>
+      </c>
+      <c r="L177">
+        <v>4.5</v>
+      </c>
+      <c r="M177">
+        <v>7</v>
+      </c>
+      <c r="N177">
+        <v>1.083</v>
+      </c>
+      <c r="O177">
+        <v>11</v>
+      </c>
+      <c r="P177">
+        <v>23</v>
+      </c>
+      <c r="Q177">
+        <v>-2.75</v>
+      </c>
+      <c r="R177">
+        <v>1.925</v>
+      </c>
+      <c r="S177">
+        <v>1.875</v>
+      </c>
+      <c r="T177">
+        <v>3.75</v>
+      </c>
+      <c r="U177">
+        <v>1.9</v>
+      </c>
+      <c r="V177">
+        <v>1.9</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <v>0</v>
+      </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
+      <c r="AA177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>7897433</v>
+      </c>
+      <c r="C178" t="s">
+        <v>28</v>
+      </c>
+      <c r="D178" t="s">
+        <v>29</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45353.77083333334</v>
+      </c>
+      <c r="F178" t="s">
+        <v>45</v>
+      </c>
+      <c r="G178" t="s">
+        <v>44</v>
+      </c>
+      <c r="K178">
+        <v>2.4</v>
+      </c>
+      <c r="L178">
+        <v>3.3</v>
+      </c>
+      <c r="M178">
+        <v>2.6</v>
+      </c>
+      <c r="N178">
+        <v>3.2</v>
+      </c>
+      <c r="O178">
+        <v>3.4</v>
+      </c>
+      <c r="P178">
+        <v>2.25</v>
+      </c>
+      <c r="Q178">
+        <v>0.25</v>
+      </c>
+      <c r="R178">
+        <v>1.825</v>
+      </c>
+      <c r="S178">
+        <v>1.975</v>
+      </c>
+      <c r="T178">
+        <v>2.75</v>
+      </c>
+      <c r="U178">
+        <v>1.975</v>
+      </c>
+      <c r="V178">
+        <v>1.825</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+      <c r="Y178">
+        <v>0</v>
+      </c>
+      <c r="Z178">
+        <v>0</v>
+      </c>
+      <c r="AA178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>7897432</v>
+      </c>
+      <c r="C179" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" t="s">
+        <v>29</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45353.875</v>
+      </c>
+      <c r="F179" t="s">
+        <v>38</v>
+      </c>
+      <c r="G179" t="s">
+        <v>43</v>
+      </c>
+      <c r="K179">
+        <v>2.2</v>
+      </c>
+      <c r="L179">
+        <v>3.5</v>
+      </c>
+      <c r="M179">
+        <v>2.75</v>
+      </c>
+      <c r="N179">
+        <v>1.727</v>
+      </c>
+      <c r="O179">
+        <v>4</v>
+      </c>
+      <c r="P179">
+        <v>4.5</v>
+      </c>
+      <c r="Q179">
+        <v>-0.75</v>
+      </c>
+      <c r="R179">
+        <v>1.875</v>
+      </c>
+      <c r="S179">
+        <v>1.925</v>
+      </c>
+      <c r="T179">
+        <v>2.75</v>
+      </c>
+      <c r="U179">
+        <v>1.925</v>
+      </c>
+      <c r="V179">
+        <v>1.875</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>0</v>
+      </c>
+      <c r="Z179">
+        <v>0</v>
+      </c>
+      <c r="AA179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>7897431</v>
+      </c>
+      <c r="C180" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" t="s">
+        <v>29</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45354.66666666666</v>
+      </c>
+      <c r="F180" t="s">
+        <v>41</v>
+      </c>
+      <c r="G180" t="s">
+        <v>31</v>
+      </c>
+      <c r="K180">
+        <v>1.571</v>
+      </c>
+      <c r="L180">
+        <v>3.6</v>
+      </c>
+      <c r="M180">
+        <v>5.25</v>
+      </c>
+      <c r="N180">
+        <v>1.7</v>
+      </c>
+      <c r="O180">
+        <v>3.5</v>
+      </c>
+      <c r="P180">
+        <v>4.5</v>
+      </c>
+      <c r="Q180">
+        <v>-0.75</v>
+      </c>
+      <c r="R180">
+        <v>1.925</v>
+      </c>
+      <c r="S180">
+        <v>1.875</v>
+      </c>
+      <c r="T180">
+        <v>3</v>
+      </c>
+      <c r="U180">
+        <v>1.825</v>
+      </c>
+      <c r="V180">
+        <v>1.975</v>
+      </c>
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+      <c r="Y180">
+        <v>0</v>
+      </c>
+      <c r="Z180">
+        <v>0</v>
+      </c>
+      <c r="AA180">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC180"/>
+  <dimension ref="A1:AC181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,76 +2868,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L27">
         <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N27">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,76 +2957,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L28">
         <v>3.6</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -4636,7 +4636,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6504291</v>
+        <v>6504578</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4648,16 +4648,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>52</v>
@@ -4669,34 +4669,34 @@
         <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N47">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O47">
         <v>3.6</v>
       </c>
       <c r="P47">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q47">
         <v>-0.75</v>
       </c>
       <c r="R47">
+        <v>1.95</v>
+      </c>
+      <c r="S47">
         <v>1.85</v>
-      </c>
-      <c r="S47">
-        <v>1.95</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4705,19 +4705,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6504578</v>
+        <v>6504291</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4737,16 +4737,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>1</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>52</v>
@@ -4758,34 +4758,34 @@
         <v>3.2</v>
       </c>
       <c r="M48">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N48">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q48">
         <v>-0.75</v>
       </c>
       <c r="R48">
+        <v>1.85</v>
+      </c>
+      <c r="S48">
         <v>1.95</v>
-      </c>
-      <c r="S48">
-        <v>1.85</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4794,19 +4794,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7462542</v>
+        <v>7462738</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,76 +11857,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128" t="s">
+        <v>51</v>
+      </c>
+      <c r="K128">
+        <v>4</v>
+      </c>
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
+        <v>1.666</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128">
+        <v>3.8</v>
+      </c>
+      <c r="P128">
+        <v>1.75</v>
+      </c>
+      <c r="Q128">
+        <v>0.75</v>
+      </c>
+      <c r="R128">
+        <v>1.8</v>
+      </c>
+      <c r="S128">
+        <v>2</v>
+      </c>
+      <c r="T128">
         <v>3</v>
       </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128" t="s">
-        <v>50</v>
-      </c>
-      <c r="K128">
-        <v>1.363</v>
-      </c>
-      <c r="L128">
-        <v>4.75</v>
-      </c>
-      <c r="M128">
-        <v>6.5</v>
-      </c>
-      <c r="N128">
-        <v>1.285</v>
-      </c>
-      <c r="O128">
-        <v>6.5</v>
-      </c>
-      <c r="P128">
-        <v>8</v>
-      </c>
-      <c r="Q128">
-        <v>-1.75</v>
-      </c>
-      <c r="R128">
-        <v>1.9</v>
-      </c>
-      <c r="S128">
-        <v>1.9</v>
-      </c>
-      <c r="T128">
-        <v>3.25</v>
-      </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W128">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC128">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11934,7 +11934,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7462738</v>
+        <v>7462542</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11946,76 +11946,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K129">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M129">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="N129">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="O129">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P129">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q129">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X129">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532414</v>
+        <v>7532430</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,40 +13103,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H142">
+        <v>4</v>
+      </c>
+      <c r="I142">
         <v>1</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
       </c>
       <c r="J142" t="s">
         <v>50</v>
       </c>
       <c r="K142">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="L142">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M142">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N142">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O142">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P142">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Q142">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R142">
         <v>2</v>
@@ -13148,13 +13148,13 @@
         <v>3</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13163,16 +13163,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532430</v>
+        <v>7532414</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,40 +13192,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
         <v>50</v>
       </c>
       <c r="K143">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="L143">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M143">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N143">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O143">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P143">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Q143">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R143">
         <v>2</v>
@@ -13237,13 +13237,13 @@
         <v>3</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13252,16 +13252,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532420</v>
+        <v>7532421</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13652,43 +13652,43 @@
         <v>50</v>
       </c>
       <c r="K148">
+        <v>1.4</v>
+      </c>
+      <c r="L148">
+        <v>4.5</v>
+      </c>
+      <c r="M148">
+        <v>7.5</v>
+      </c>
+      <c r="N148">
         <v>1.333</v>
       </c>
-      <c r="L148">
-        <v>5</v>
-      </c>
-      <c r="M148">
-        <v>8</v>
-      </c>
-      <c r="N148">
-        <v>1.3</v>
-      </c>
       <c r="O148">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P148">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q148">
         <v>-1.5</v>
       </c>
       <c r="R148">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S148">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532421</v>
+        <v>7532420</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,13 +13726,13 @@
         <v>45265.875</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -13741,43 +13741,43 @@
         <v>50</v>
       </c>
       <c r="K149">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="L149">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M149">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N149">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O149">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P149">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q149">
         <v>-1.5</v>
       </c>
       <c r="R149">
+        <v>1.8</v>
+      </c>
+      <c r="S149">
+        <v>2</v>
+      </c>
+      <c r="T149">
+        <v>3.25</v>
+      </c>
+      <c r="U149">
+        <v>1.95</v>
+      </c>
+      <c r="V149">
         <v>1.85</v>
       </c>
-      <c r="S149">
-        <v>1.95</v>
-      </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.825</v>
-      </c>
-      <c r="V149">
-        <v>1.975</v>
-      </c>
       <c r="W149">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC149">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,58 +14082,58 @@
         <v>45266.875</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
         <v>50</v>
       </c>
       <c r="K153">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L153">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="N153">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O153">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q153">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T153">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W153">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14142,16 +14142,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,76 +14171,76 @@
         <v>45266.875</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>50</v>
       </c>
       <c r="K154">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L154">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M154">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="N154">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O154">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P154">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="Q154">
+        <v>-2.25</v>
+      </c>
+      <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>1.85</v>
+      </c>
+      <c r="T154">
+        <v>3.75</v>
+      </c>
+      <c r="U154">
+        <v>1.975</v>
+      </c>
+      <c r="V154">
+        <v>1.825</v>
+      </c>
+      <c r="W154">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
+        <v>0.95</v>
+      </c>
+      <c r="AA154">
+        <v>-1</v>
+      </c>
+      <c r="AB154">
+        <v>0.4875</v>
+      </c>
+      <c r="AC154">
         <v>-0.5</v>
-      </c>
-      <c r="R154">
-        <v>1.825</v>
-      </c>
-      <c r="S154">
-        <v>1.975</v>
-      </c>
-      <c r="T154">
-        <v>3</v>
-      </c>
-      <c r="U154">
-        <v>2</v>
-      </c>
-      <c r="V154">
-        <v>1.8</v>
-      </c>
-      <c r="W154">
-        <v>0.833</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>-1</v>
-      </c>
-      <c r="Z154">
-        <v>0.825</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>0</v>
-      </c>
-      <c r="AC154">
-        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -16201,7 +16201,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="177" spans="1:27">
+    <row r="177" spans="1:29">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -16223,6 +16223,15 @@
       <c r="G177" t="s">
         <v>33</v>
       </c>
+      <c r="H177">
+        <v>2</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177" t="s">
+        <v>50</v>
+      </c>
       <c r="K177">
         <v>1.363</v>
       </c>
@@ -16260,27 +16269,33 @@
         <v>1.9</v>
       </c>
       <c r="W177">
-        <v>0</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:27">
+        <v>0.875</v>
+      </c>
+      <c r="AB177">
+        <v>-1</v>
+      </c>
+      <c r="AC177">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7897433</v>
+        <v>7897431</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16289,49 +16304,49 @@
         <v>29</v>
       </c>
       <c r="E178" s="2">
-        <v>45353.77083333334</v>
+        <v>45354.66666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G178" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="K178">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L178">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M178">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="N178">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O178">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P178">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q178">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S178">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T178">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U178">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W178">
         <v>0</v>
@@ -16349,12 +16364,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:27">
+    <row r="179" spans="1:29">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7897432</v>
+        <v>7897434</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16363,49 +16378,49 @@
         <v>29</v>
       </c>
       <c r="E179" s="2">
-        <v>45353.875</v>
+        <v>45354.77083333334</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K179">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L179">
         <v>3.5</v>
       </c>
       <c r="M179">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N179">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O179">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P179">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q179">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S179">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T179">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
         <v>0</v>
@@ -16423,12 +16438,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:27">
+    <row r="180" spans="1:29">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7897431</v>
+        <v>7897435</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16437,49 +16452,49 @@
         <v>29</v>
       </c>
       <c r="E180" s="2">
-        <v>45354.66666666666</v>
+        <v>45354.85416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K180">
+        <v>1.75</v>
+      </c>
+      <c r="L180">
+        <v>3.75</v>
+      </c>
+      <c r="M180">
+        <v>3.75</v>
+      </c>
+      <c r="N180">
         <v>1.571</v>
       </c>
-      <c r="L180">
-        <v>3.6</v>
-      </c>
-      <c r="M180">
-        <v>5.25</v>
-      </c>
-      <c r="N180">
-        <v>1.7</v>
-      </c>
       <c r="O180">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q180">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R180">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
         <v>3</v>
       </c>
       <c r="U180">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V180">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W180">
         <v>0</v>
@@ -16494,6 +16509,80 @@
         <v>0</v>
       </c>
       <c r="AA180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>7897429</v>
+      </c>
+      <c r="C181" t="s">
+        <v>28</v>
+      </c>
+      <c r="D181" t="s">
+        <v>29</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45355.66666666666</v>
+      </c>
+      <c r="F181" t="s">
+        <v>35</v>
+      </c>
+      <c r="G181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K181">
+        <v>1.909</v>
+      </c>
+      <c r="L181">
+        <v>3.4</v>
+      </c>
+      <c r="M181">
+        <v>3.5</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181">
+        <v>3.6</v>
+      </c>
+      <c r="P181">
+        <v>3.6</v>
+      </c>
+      <c r="Q181">
+        <v>-0.5</v>
+      </c>
+      <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
+        <v>1.8</v>
+      </c>
+      <c r="T181">
+        <v>2.75</v>
+      </c>
+      <c r="U181">
+        <v>1.975</v>
+      </c>
+      <c r="V181">
+        <v>1.825</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
+      <c r="Z181">
+        <v>0</v>
+      </c>
+      <c r="AA181">
         <v>0</v>
       </c>
     </row>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC181"/>
+  <dimension ref="A1:AC185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4636,7 +4636,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6504578</v>
+        <v>6504291</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4648,16 +4648,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>1</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>52</v>
@@ -4669,34 +4669,34 @@
         <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N47">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O47">
         <v>3.6</v>
       </c>
       <c r="P47">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q47">
         <v>-0.75</v>
       </c>
       <c r="R47">
+        <v>1.85</v>
+      </c>
+      <c r="S47">
         <v>1.95</v>
-      </c>
-      <c r="S47">
-        <v>1.85</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4705,19 +4705,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6504291</v>
+        <v>6504578</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4737,16 +4737,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>52</v>
@@ -4758,34 +4758,34 @@
         <v>3.2</v>
       </c>
       <c r="M48">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N48">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q48">
         <v>-0.75</v>
       </c>
       <c r="R48">
+        <v>1.95</v>
+      </c>
+      <c r="S48">
         <v>1.85</v>
-      </c>
-      <c r="S48">
-        <v>1.95</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4794,19 +4794,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -9709,7 +9709,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7331148</v>
+        <v>7331149</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9721,13 +9721,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9736,25 +9736,25 @@
         <v>50</v>
       </c>
       <c r="K104">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L104">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N104">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="O104">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>16</v>
+        <v>2.8</v>
       </c>
       <c r="Q104">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R104">
         <v>1.8</v>
@@ -9763,16 +9763,16 @@
         <v>2</v>
       </c>
       <c r="T104">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>0.1659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9781,16 +9781,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7331149</v>
+        <v>7331148</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,13 +9810,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9825,25 +9825,25 @@
         <v>50</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M105">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="N105">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P105">
-        <v>2.8</v>
+        <v>16</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R105">
         <v>1.8</v>
@@ -9852,16 +9852,16 @@
         <v>2</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>1.3</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9870,16 +9870,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7462738</v>
+        <v>7462542</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,76 +11857,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M128">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="N128">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="O128">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P128">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q128">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R128">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X128">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11934,7 +11934,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7462542</v>
+        <v>7462738</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11946,76 +11946,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129" t="s">
+        <v>51</v>
+      </c>
+      <c r="K129">
+        <v>4</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129">
+        <v>1.666</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129">
+        <v>3.8</v>
+      </c>
+      <c r="P129">
+        <v>1.75</v>
+      </c>
+      <c r="Q129">
+        <v>0.75</v>
+      </c>
+      <c r="R129">
+        <v>1.8</v>
+      </c>
+      <c r="S129">
+        <v>2</v>
+      </c>
+      <c r="T129">
         <v>3</v>
       </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129" t="s">
-        <v>50</v>
-      </c>
-      <c r="K129">
-        <v>1.363</v>
-      </c>
-      <c r="L129">
-        <v>4.75</v>
-      </c>
-      <c r="M129">
-        <v>6.5</v>
-      </c>
-      <c r="N129">
-        <v>1.285</v>
-      </c>
-      <c r="O129">
-        <v>6.5</v>
-      </c>
-      <c r="P129">
-        <v>8</v>
-      </c>
-      <c r="Q129">
-        <v>-1.75</v>
-      </c>
-      <c r="R129">
-        <v>1.9</v>
-      </c>
-      <c r="S129">
-        <v>1.9</v>
-      </c>
-      <c r="T129">
-        <v>3.25</v>
-      </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC129">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532430</v>
+        <v>7532414</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,40 +13103,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
         <v>50</v>
       </c>
       <c r="K142">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="L142">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M142">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N142">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O142">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P142">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Q142">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R142">
         <v>2</v>
@@ -13148,13 +13148,13 @@
         <v>3</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13163,16 +13163,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532414</v>
+        <v>7532430</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,40 +13192,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H143">
+        <v>4</v>
+      </c>
+      <c r="I143">
         <v>1</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
       </c>
       <c r="J143" t="s">
         <v>50</v>
       </c>
       <c r="K143">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M143">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N143">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O143">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P143">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Q143">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R143">
         <v>2</v>
@@ -13237,13 +13237,13 @@
         <v>3</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13252,16 +13252,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC143">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532412</v>
+        <v>7532413</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,34 +13281,34 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
         <v>52</v>
       </c>
       <c r="K144">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N144">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O144">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
         <v>2.875</v>
@@ -13317,19 +13317,19 @@
         <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -13344,13 +13344,13 @@
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB144">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532413</v>
+        <v>7532412</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,34 +13370,34 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J145" t="s">
         <v>52</v>
       </c>
       <c r="K145">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L145">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M145">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N145">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
         <v>2.875</v>
@@ -13406,19 +13406,19 @@
         <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13433,13 +13433,13 @@
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC145">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532421</v>
+        <v>7532420</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13652,43 +13652,43 @@
         <v>50</v>
       </c>
       <c r="K148">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="L148">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M148">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N148">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O148">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P148">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q148">
         <v>-1.5</v>
       </c>
       <c r="R148">
+        <v>1.8</v>
+      </c>
+      <c r="S148">
+        <v>2</v>
+      </c>
+      <c r="T148">
+        <v>3.25</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
         <v>1.85</v>
       </c>
-      <c r="S148">
-        <v>1.95</v>
-      </c>
-      <c r="T148">
-        <v>3</v>
-      </c>
-      <c r="U148">
-        <v>1.825</v>
-      </c>
-      <c r="V148">
-        <v>1.975</v>
-      </c>
       <c r="W148">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC148">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532420</v>
+        <v>7532421</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,13 +13726,13 @@
         <v>45265.875</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -13741,43 +13741,43 @@
         <v>50</v>
       </c>
       <c r="K149">
+        <v>1.4</v>
+      </c>
+      <c r="L149">
+        <v>4.5</v>
+      </c>
+      <c r="M149">
+        <v>7.5</v>
+      </c>
+      <c r="N149">
         <v>1.333</v>
       </c>
-      <c r="L149">
-        <v>5</v>
-      </c>
-      <c r="M149">
-        <v>8</v>
-      </c>
-      <c r="N149">
-        <v>1.3</v>
-      </c>
       <c r="O149">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P149">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q149">
         <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U149">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W149">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,76 +14082,76 @@
         <v>45266.875</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
         <v>50</v>
       </c>
       <c r="K153">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M153">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="N153">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O153">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P153">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="Q153">
+        <v>-2.25</v>
+      </c>
+      <c r="R153">
+        <v>1.95</v>
+      </c>
+      <c r="S153">
+        <v>1.85</v>
+      </c>
+      <c r="T153">
+        <v>3.75</v>
+      </c>
+      <c r="U153">
+        <v>1.975</v>
+      </c>
+      <c r="V153">
+        <v>1.825</v>
+      </c>
+      <c r="W153">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
+        <v>0.95</v>
+      </c>
+      <c r="AA153">
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>0.4875</v>
+      </c>
+      <c r="AC153">
         <v>-0.5</v>
-      </c>
-      <c r="R153">
-        <v>1.825</v>
-      </c>
-      <c r="S153">
-        <v>1.975</v>
-      </c>
-      <c r="T153">
-        <v>3</v>
-      </c>
-      <c r="U153">
-        <v>2</v>
-      </c>
-      <c r="V153">
-        <v>1.8</v>
-      </c>
-      <c r="W153">
-        <v>0.833</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
-      <c r="Z153">
-        <v>0.825</v>
-      </c>
-      <c r="AA153">
-        <v>-1</v>
-      </c>
-      <c r="AB153">
-        <v>0</v>
-      </c>
-      <c r="AC153">
-        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,58 +14171,58 @@
         <v>45266.875</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
         <v>50</v>
       </c>
       <c r="K154">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L154">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M154">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="N154">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O154">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P154">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q154">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T154">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U154">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V154">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14231,16 +14231,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7897431</v>
+        <v>7897433</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,64 +16304,79 @@
         <v>29</v>
       </c>
       <c r="E178" s="2">
-        <v>45354.66666666666</v>
+        <v>45353.77083333334</v>
       </c>
       <c r="F178" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G178" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>2</v>
+      </c>
+      <c r="J178" t="s">
+        <v>52</v>
       </c>
       <c r="K178">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L178">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M178">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="N178">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O178">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P178">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q178">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S178">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T178">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V178">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB178">
+        <v>0.4875</v>
+      </c>
+      <c r="AC178">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16369,7 +16384,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7897434</v>
+        <v>7897432</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16378,64 +16393,79 @@
         <v>29</v>
       </c>
       <c r="E179" s="2">
-        <v>45354.77083333334</v>
+        <v>45353.875</v>
       </c>
       <c r="F179" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="H179">
+        <v>3</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179" t="s">
+        <v>50</v>
       </c>
       <c r="K179">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L179">
         <v>3.5</v>
       </c>
       <c r="M179">
+        <v>2.75</v>
+      </c>
+      <c r="N179">
+        <v>1.75</v>
+      </c>
+      <c r="O179">
+        <v>4</v>
+      </c>
+      <c r="P179">
         <v>4.5</v>
       </c>
-      <c r="N179">
-        <v>1.833</v>
-      </c>
-      <c r="O179">
-        <v>3.6</v>
-      </c>
-      <c r="P179">
-        <v>4.333</v>
-      </c>
       <c r="Q179">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R179">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S179">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V179">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W179">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="X179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA179">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB179">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC179">
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16443,7 +16473,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7897435</v>
+        <v>7897431</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16452,34 +16482,43 @@
         <v>29</v>
       </c>
       <c r="E180" s="2">
-        <v>45354.85416666666</v>
+        <v>45354.66666666666</v>
       </c>
       <c r="F180" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G180" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180" t="s">
+        <v>50</v>
       </c>
       <c r="K180">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L180">
+        <v>3.6</v>
+      </c>
+      <c r="M180">
+        <v>5.25</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180">
+        <v>3.5</v>
+      </c>
+      <c r="P180">
         <v>3.75</v>
       </c>
-      <c r="M180">
-        <v>3.75</v>
-      </c>
-      <c r="N180">
-        <v>1.571</v>
-      </c>
-      <c r="O180">
-        <v>4</v>
-      </c>
-      <c r="P180">
-        <v>6</v>
-      </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
         <v>1.95</v>
@@ -16488,28 +16527,34 @@
         <v>1.85</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U180">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V180">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA180">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB180">
+        <v>-1</v>
+      </c>
+      <c r="AC180">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16517,7 +16562,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7897429</v>
+        <v>7897434</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16526,63 +16571,404 @@
         <v>29</v>
       </c>
       <c r="E181" s="2">
+        <v>45354.77083333334</v>
+      </c>
+      <c r="F181" t="s">
+        <v>42</v>
+      </c>
+      <c r="G181" t="s">
+        <v>46</v>
+      </c>
+      <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181" t="s">
+        <v>50</v>
+      </c>
+      <c r="K181">
+        <v>1.666</v>
+      </c>
+      <c r="L181">
+        <v>3.5</v>
+      </c>
+      <c r="M181">
+        <v>4.5</v>
+      </c>
+      <c r="N181">
+        <v>1.7</v>
+      </c>
+      <c r="O181">
+        <v>3.75</v>
+      </c>
+      <c r="P181">
+        <v>5</v>
+      </c>
+      <c r="Q181">
+        <v>-0.75</v>
+      </c>
+      <c r="R181">
+        <v>1.95</v>
+      </c>
+      <c r="S181">
+        <v>1.85</v>
+      </c>
+      <c r="T181">
+        <v>2.25</v>
+      </c>
+      <c r="U181">
+        <v>1.875</v>
+      </c>
+      <c r="V181">
+        <v>1.925</v>
+      </c>
+      <c r="W181">
+        <v>0.7</v>
+      </c>
+      <c r="X181">
+        <v>-1</v>
+      </c>
+      <c r="Y181">
+        <v>-1</v>
+      </c>
+      <c r="Z181">
+        <v>0.475</v>
+      </c>
+      <c r="AA181">
+        <v>-0.5</v>
+      </c>
+      <c r="AB181">
+        <v>0.875</v>
+      </c>
+      <c r="AC181">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>7897435</v>
+      </c>
+      <c r="C182" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182" t="s">
+        <v>29</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45354.85416666666</v>
+      </c>
+      <c r="F182" t="s">
+        <v>48</v>
+      </c>
+      <c r="G182" t="s">
+        <v>37</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>3</v>
+      </c>
+      <c r="J182" t="s">
+        <v>52</v>
+      </c>
+      <c r="K182">
+        <v>1.75</v>
+      </c>
+      <c r="L182">
+        <v>3.75</v>
+      </c>
+      <c r="M182">
+        <v>3.75</v>
+      </c>
+      <c r="N182">
+        <v>1.75</v>
+      </c>
+      <c r="O182">
+        <v>4</v>
+      </c>
+      <c r="P182">
+        <v>4.333</v>
+      </c>
+      <c r="Q182">
+        <v>-0.75</v>
+      </c>
+      <c r="R182">
+        <v>1.95</v>
+      </c>
+      <c r="S182">
+        <v>1.85</v>
+      </c>
+      <c r="T182">
+        <v>3</v>
+      </c>
+      <c r="U182">
+        <v>2</v>
+      </c>
+      <c r="V182">
+        <v>1.8</v>
+      </c>
+      <c r="W182">
+        <v>-1</v>
+      </c>
+      <c r="X182">
+        <v>-1</v>
+      </c>
+      <c r="Y182">
+        <v>3.333</v>
+      </c>
+      <c r="Z182">
+        <v>-1</v>
+      </c>
+      <c r="AA182">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB182">
+        <v>1</v>
+      </c>
+      <c r="AC182">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>7897429</v>
+      </c>
+      <c r="C183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183" t="s">
+        <v>29</v>
+      </c>
+      <c r="E183" s="2">
         <v>45355.66666666666</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F183" t="s">
         <v>35</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G183" t="s">
         <v>49</v>
       </c>
-      <c r="K181">
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>3</v>
+      </c>
+      <c r="J183" t="s">
+        <v>52</v>
+      </c>
+      <c r="K183">
         <v>1.909</v>
       </c>
-      <c r="L181">
+      <c r="L183">
         <v>3.4</v>
       </c>
-      <c r="M181">
+      <c r="M183">
         <v>3.5</v>
       </c>
-      <c r="N181">
+      <c r="N183">
+        <v>2.625</v>
+      </c>
+      <c r="O183">
+        <v>3.3</v>
+      </c>
+      <c r="P183">
+        <v>2.625</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183">
+        <v>1.9</v>
+      </c>
+      <c r="S183">
+        <v>1.9</v>
+      </c>
+      <c r="T183">
+        <v>2.5</v>
+      </c>
+      <c r="U183">
+        <v>1.95</v>
+      </c>
+      <c r="V183">
+        <v>1.85</v>
+      </c>
+      <c r="W183">
+        <v>-1</v>
+      </c>
+      <c r="X183">
+        <v>-1</v>
+      </c>
+      <c r="Y183">
+        <v>1.625</v>
+      </c>
+      <c r="Z183">
+        <v>-1</v>
+      </c>
+      <c r="AA183">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB183">
+        <v>0.95</v>
+      </c>
+      <c r="AC183">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>7928563</v>
+      </c>
+      <c r="C184" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" t="s">
+        <v>29</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45359.66666666666</v>
+      </c>
+      <c r="F184" t="s">
+        <v>35</v>
+      </c>
+      <c r="G184" t="s">
+        <v>38</v>
+      </c>
+      <c r="K184">
+        <v>2.75</v>
+      </c>
+      <c r="L184">
+        <v>3.6</v>
+      </c>
+      <c r="M184">
+        <v>2.4</v>
+      </c>
+      <c r="N184">
+        <v>2.875</v>
+      </c>
+      <c r="O184">
+        <v>3.6</v>
+      </c>
+      <c r="P184">
+        <v>2.3</v>
+      </c>
+      <c r="Q184">
+        <v>0.25</v>
+      </c>
+      <c r="R184">
+        <v>1.8</v>
+      </c>
+      <c r="S184">
         <v>2</v>
       </c>
-      <c r="O181">
-        <v>3.6</v>
-      </c>
-      <c r="P181">
-        <v>3.6</v>
-      </c>
-      <c r="Q181">
+      <c r="T184">
+        <v>2.5</v>
+      </c>
+      <c r="U184">
+        <v>1.85</v>
+      </c>
+      <c r="V184">
+        <v>1.95</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>7929910</v>
+      </c>
+      <c r="C185" t="s">
+        <v>28</v>
+      </c>
+      <c r="D185" t="s">
+        <v>29</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45359.89583333334</v>
+      </c>
+      <c r="F185" t="s">
+        <v>32</v>
+      </c>
+      <c r="G185" t="s">
+        <v>33</v>
+      </c>
+      <c r="K185">
+        <v>2.1</v>
+      </c>
+      <c r="L185">
+        <v>3.3</v>
+      </c>
+      <c r="M185">
+        <v>3.1</v>
+      </c>
+      <c r="N185">
+        <v>1.85</v>
+      </c>
+      <c r="O185">
+        <v>3.4</v>
+      </c>
+      <c r="P185">
+        <v>3.8</v>
+      </c>
+      <c r="Q185">
         <v>-0.5</v>
       </c>
-      <c r="R181">
-        <v>2</v>
-      </c>
-      <c r="S181">
-        <v>1.8</v>
-      </c>
-      <c r="T181">
-        <v>2.75</v>
-      </c>
-      <c r="U181">
-        <v>1.975</v>
-      </c>
-      <c r="V181">
-        <v>1.825</v>
-      </c>
-      <c r="W181">
+      <c r="R185">
+        <v>1.875</v>
+      </c>
+      <c r="S185">
+        <v>1.925</v>
+      </c>
+      <c r="T185">
+        <v>2.25</v>
+      </c>
+      <c r="U185">
+        <v>1.875</v>
+      </c>
+      <c r="V185">
+        <v>1.925</v>
+      </c>
+      <c r="W185">
         <v>0</v>
       </c>
-      <c r="X181">
+      <c r="X185">
         <v>0</v>
       </c>
-      <c r="Y181">
+      <c r="Y185">
         <v>0</v>
       </c>
-      <c r="Z181">
+      <c r="Z185">
         <v>0</v>
       </c>
-      <c r="AA181">
+      <c r="AA185">
         <v>0</v>
       </c>
     </row>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC185"/>
+  <dimension ref="A1:AC190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9709,7 +9709,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7331149</v>
+        <v>7331148</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9721,13 +9721,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9736,25 +9736,25 @@
         <v>50</v>
       </c>
       <c r="K104">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M104">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="N104">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P104">
-        <v>2.8</v>
+        <v>16</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R104">
         <v>1.8</v>
@@ -9763,16 +9763,16 @@
         <v>2</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>1.3</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9781,16 +9781,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7331148</v>
+        <v>7331149</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,13 +9810,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9825,25 +9825,25 @@
         <v>50</v>
       </c>
       <c r="K105">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="O105">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>16</v>
+        <v>2.8</v>
       </c>
       <c r="Q105">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R105">
         <v>1.8</v>
@@ -9852,16 +9852,16 @@
         <v>2</v>
       </c>
       <c r="T105">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>0.1659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9870,16 +9870,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC105">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7462542</v>
+        <v>7462738</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,76 +11857,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128" t="s">
+        <v>51</v>
+      </c>
+      <c r="K128">
+        <v>4</v>
+      </c>
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
+        <v>1.666</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128">
+        <v>3.8</v>
+      </c>
+      <c r="P128">
+        <v>1.75</v>
+      </c>
+      <c r="Q128">
+        <v>0.75</v>
+      </c>
+      <c r="R128">
+        <v>1.8</v>
+      </c>
+      <c r="S128">
+        <v>2</v>
+      </c>
+      <c r="T128">
         <v>3</v>
       </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128" t="s">
-        <v>50</v>
-      </c>
-      <c r="K128">
-        <v>1.363</v>
-      </c>
-      <c r="L128">
-        <v>4.75</v>
-      </c>
-      <c r="M128">
-        <v>6.5</v>
-      </c>
-      <c r="N128">
-        <v>1.285</v>
-      </c>
-      <c r="O128">
-        <v>6.5</v>
-      </c>
-      <c r="P128">
-        <v>8</v>
-      </c>
-      <c r="Q128">
-        <v>-1.75</v>
-      </c>
-      <c r="R128">
-        <v>1.9</v>
-      </c>
-      <c r="S128">
-        <v>1.9</v>
-      </c>
-      <c r="T128">
-        <v>3.25</v>
-      </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W128">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC128">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11934,7 +11934,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7462738</v>
+        <v>7462542</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11946,76 +11946,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K129">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M129">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="N129">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="O129">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P129">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q129">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X129">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532414</v>
+        <v>7532430</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,40 +13103,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H142">
+        <v>4</v>
+      </c>
+      <c r="I142">
         <v>1</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
       </c>
       <c r="J142" t="s">
         <v>50</v>
       </c>
       <c r="K142">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="L142">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M142">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N142">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O142">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P142">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Q142">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R142">
         <v>2</v>
@@ -13148,13 +13148,13 @@
         <v>3</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13163,16 +13163,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532430</v>
+        <v>7532412</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,76 +13192,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>3</v>
+      </c>
+      <c r="J143" t="s">
+        <v>52</v>
+      </c>
+      <c r="K143">
+        <v>1.727</v>
+      </c>
+      <c r="L143">
+        <v>3.75</v>
+      </c>
+      <c r="M143">
         <v>4</v>
       </c>
-      <c r="I143">
-        <v>1</v>
-      </c>
-      <c r="J143" t="s">
-        <v>50</v>
-      </c>
-      <c r="K143">
-        <v>1.4</v>
-      </c>
-      <c r="L143">
-        <v>4.2</v>
-      </c>
-      <c r="M143">
-        <v>7</v>
-      </c>
       <c r="N143">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O143">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q143">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W143">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532413</v>
+        <v>7532414</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,76 +13281,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
         <v>0</v>
       </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
       <c r="J144" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K144">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N144">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P144">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R144">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532412</v>
+        <v>7532413</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,34 +13370,34 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
         <v>52</v>
       </c>
       <c r="K145">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L145">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M145">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N145">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
         <v>2.875</v>
@@ -13406,19 +13406,19 @@
         <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S145">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13433,13 +13433,13 @@
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB145">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532420</v>
+        <v>7532419</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,10 +13637,10 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13652,34 +13652,34 @@
         <v>50</v>
       </c>
       <c r="K148">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L148">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M148">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N148">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O148">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="P148">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q148">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
+        <v>1.9</v>
+      </c>
+      <c r="T148">
         <v>2</v>
-      </c>
-      <c r="T148">
-        <v>3.25</v>
       </c>
       <c r="U148">
         <v>1.95</v>
@@ -13688,7 +13688,7 @@
         <v>1.85</v>
       </c>
       <c r="W148">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC148">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532419</v>
+        <v>7532420</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,10 +13815,10 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13830,34 +13830,34 @@
         <v>50</v>
       </c>
       <c r="K150">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L150">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="M150">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="N150">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O150">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="P150">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q150">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S150">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T150">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U150">
         <v>1.95</v>
@@ -13866,7 +13866,7 @@
         <v>1.85</v>
       </c>
       <c r="W150">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,58 +14082,58 @@
         <v>45266.875</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
         <v>50</v>
       </c>
       <c r="K153">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L153">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="N153">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O153">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q153">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T153">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W153">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14142,16 +14142,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,76 +14171,76 @@
         <v>45266.875</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>50</v>
       </c>
       <c r="K154">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L154">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M154">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="N154">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O154">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P154">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="Q154">
+        <v>-2.25</v>
+      </c>
+      <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>1.85</v>
+      </c>
+      <c r="T154">
+        <v>3.75</v>
+      </c>
+      <c r="U154">
+        <v>1.975</v>
+      </c>
+      <c r="V154">
+        <v>1.825</v>
+      </c>
+      <c r="W154">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
+        <v>0.95</v>
+      </c>
+      <c r="AA154">
+        <v>-1</v>
+      </c>
+      <c r="AB154">
+        <v>0.4875</v>
+      </c>
+      <c r="AC154">
         <v>-0.5</v>
-      </c>
-      <c r="R154">
-        <v>1.825</v>
-      </c>
-      <c r="S154">
-        <v>1.975</v>
-      </c>
-      <c r="T154">
-        <v>3</v>
-      </c>
-      <c r="U154">
-        <v>2</v>
-      </c>
-      <c r="V154">
-        <v>1.8</v>
-      </c>
-      <c r="W154">
-        <v>0.833</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>-1</v>
-      </c>
-      <c r="Z154">
-        <v>0.825</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>0</v>
-      </c>
-      <c r="AC154">
-        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -16846,6 +16846,15 @@
       <c r="G184" t="s">
         <v>38</v>
       </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184" t="s">
+        <v>51</v>
+      </c>
       <c r="K184">
         <v>2.75</v>
       </c>
@@ -16856,46 +16865,52 @@
         <v>2.4</v>
       </c>
       <c r="N184">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="O184">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P184">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="Q184">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R184">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S184">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T184">
         <v>2.5</v>
       </c>
       <c r="U184">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Y184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA184">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB184">
+        <v>-1</v>
+      </c>
+      <c r="AC184">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16920,6 +16935,15 @@
       <c r="G185" t="s">
         <v>33</v>
       </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185" t="s">
+        <v>51</v>
+      </c>
       <c r="K185">
         <v>2.1</v>
       </c>
@@ -16930,45 +16954,421 @@
         <v>3.1</v>
       </c>
       <c r="N185">
+        <v>1.7</v>
+      </c>
+      <c r="O185">
+        <v>3.75</v>
+      </c>
+      <c r="P185">
+        <v>5</v>
+      </c>
+      <c r="Q185">
+        <v>-0.75</v>
+      </c>
+      <c r="R185">
+        <v>1.95</v>
+      </c>
+      <c r="S185">
         <v>1.85</v>
       </c>
-      <c r="O185">
+      <c r="T185">
+        <v>2.5</v>
+      </c>
+      <c r="U185">
+        <v>1.975</v>
+      </c>
+      <c r="V185">
+        <v>1.825</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
+        <v>2.75</v>
+      </c>
+      <c r="Y185">
+        <v>-1</v>
+      </c>
+      <c r="Z185">
+        <v>-1</v>
+      </c>
+      <c r="AA185">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB185">
+        <v>-1</v>
+      </c>
+      <c r="AC185">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>7929911</v>
+      </c>
+      <c r="C186" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" t="s">
+        <v>29</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45360.66666666666</v>
+      </c>
+      <c r="F186" t="s">
+        <v>42</v>
+      </c>
+      <c r="G186" t="s">
+        <v>49</v>
+      </c>
+      <c r="K186">
+        <v>1.833</v>
+      </c>
+      <c r="L186">
+        <v>3.25</v>
+      </c>
+      <c r="M186">
+        <v>4</v>
+      </c>
+      <c r="N186">
+        <v>1.65</v>
+      </c>
+      <c r="O186">
+        <v>3.75</v>
+      </c>
+      <c r="P186">
+        <v>5.5</v>
+      </c>
+      <c r="Q186">
+        <v>-0.75</v>
+      </c>
+      <c r="R186">
+        <v>1.8</v>
+      </c>
+      <c r="S186">
+        <v>2</v>
+      </c>
+      <c r="T186">
+        <v>2.5</v>
+      </c>
+      <c r="U186">
+        <v>1.9</v>
+      </c>
+      <c r="V186">
+        <v>1.9</v>
+      </c>
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+      <c r="Z186">
+        <v>0</v>
+      </c>
+      <c r="AA186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>7929912</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" t="s">
+        <v>29</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45360.77083333334</v>
+      </c>
+      <c r="F187" t="s">
+        <v>43</v>
+      </c>
+      <c r="G187" t="s">
+        <v>48</v>
+      </c>
+      <c r="K187">
+        <v>1.4</v>
+      </c>
+      <c r="L187">
+        <v>4.2</v>
+      </c>
+      <c r="M187">
+        <v>6.5</v>
+      </c>
+      <c r="N187">
+        <v>1.4</v>
+      </c>
+      <c r="O187">
+        <v>4.75</v>
+      </c>
+      <c r="P187">
+        <v>7.5</v>
+      </c>
+      <c r="Q187">
+        <v>-1.25</v>
+      </c>
+      <c r="R187">
+        <v>1.85</v>
+      </c>
+      <c r="S187">
+        <v>1.95</v>
+      </c>
+      <c r="T187">
+        <v>3.25</v>
+      </c>
+      <c r="U187">
+        <v>1.9</v>
+      </c>
+      <c r="V187">
+        <v>1.9</v>
+      </c>
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>7929913</v>
+      </c>
+      <c r="C188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" t="s">
+        <v>29</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45360.875</v>
+      </c>
+      <c r="F188" t="s">
+        <v>41</v>
+      </c>
+      <c r="G188" t="s">
+        <v>46</v>
+      </c>
+      <c r="K188">
+        <v>1.3</v>
+      </c>
+      <c r="L188">
+        <v>5</v>
+      </c>
+      <c r="M188">
+        <v>7.5</v>
+      </c>
+      <c r="N188">
+        <v>1.55</v>
+      </c>
+      <c r="O188">
+        <v>4.333</v>
+      </c>
+      <c r="P188">
+        <v>4.5</v>
+      </c>
+      <c r="Q188">
+        <v>-1</v>
+      </c>
+      <c r="R188">
+        <v>1.95</v>
+      </c>
+      <c r="S188">
+        <v>1.85</v>
+      </c>
+      <c r="T188">
+        <v>3.25</v>
+      </c>
+      <c r="U188">
+        <v>1.975</v>
+      </c>
+      <c r="V188">
+        <v>1.825</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>0</v>
+      </c>
+      <c r="Z188">
+        <v>0</v>
+      </c>
+      <c r="AA188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>7929914</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" t="s">
+        <v>29</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45361.66666666666</v>
+      </c>
+      <c r="F189" t="s">
+        <v>45</v>
+      </c>
+      <c r="G189" t="s">
+        <v>31</v>
+      </c>
+      <c r="K189">
+        <v>2.55</v>
+      </c>
+      <c r="L189">
+        <v>3.3</v>
+      </c>
+      <c r="M189">
+        <v>2.45</v>
+      </c>
+      <c r="N189">
+        <v>2.15</v>
+      </c>
+      <c r="O189">
         <v>3.4</v>
       </c>
-      <c r="P185">
-        <v>3.8</v>
-      </c>
-      <c r="Q185">
-        <v>-0.5</v>
-      </c>
-      <c r="R185">
-        <v>1.875</v>
-      </c>
-      <c r="S185">
-        <v>1.925</v>
-      </c>
-      <c r="T185">
+      <c r="P189">
+        <v>2.9</v>
+      </c>
+      <c r="Q189">
+        <v>-0.25</v>
+      </c>
+      <c r="R189">
+        <v>1.9</v>
+      </c>
+      <c r="S189">
+        <v>1.9</v>
+      </c>
+      <c r="T189">
         <v>2.25</v>
       </c>
-      <c r="U185">
-        <v>1.875</v>
-      </c>
-      <c r="V185">
-        <v>1.925</v>
-      </c>
-      <c r="W185">
+      <c r="U189">
+        <v>1.8</v>
+      </c>
+      <c r="V189">
+        <v>2</v>
+      </c>
+      <c r="W189">
         <v>0</v>
       </c>
-      <c r="X185">
+      <c r="X189">
         <v>0</v>
       </c>
-      <c r="Y185">
+      <c r="Y189">
         <v>0</v>
       </c>
-      <c r="Z185">
+      <c r="Z189">
         <v>0</v>
       </c>
-      <c r="AA185">
+      <c r="AA189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>7929915</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>29</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45361.77083333334</v>
+      </c>
+      <c r="F190" t="s">
+        <v>36</v>
+      </c>
+      <c r="G190" t="s">
+        <v>44</v>
+      </c>
+      <c r="K190">
+        <v>2.55</v>
+      </c>
+      <c r="L190">
+        <v>3.6</v>
+      </c>
+      <c r="M190">
+        <v>2.3</v>
+      </c>
+      <c r="N190">
+        <v>2.1</v>
+      </c>
+      <c r="O190">
+        <v>3.6</v>
+      </c>
+      <c r="P190">
+        <v>2.875</v>
+      </c>
+      <c r="Q190">
+        <v>-0.25</v>
+      </c>
+      <c r="R190">
+        <v>1.9</v>
+      </c>
+      <c r="S190">
+        <v>1.9</v>
+      </c>
+      <c r="T190">
+        <v>3</v>
+      </c>
+      <c r="U190">
+        <v>1.8</v>
+      </c>
+      <c r="V190">
+        <v>2</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
         <v>0</v>
       </c>
     </row>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC190"/>
+  <dimension ref="A1:AC193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,76 +2868,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L27">
         <v>3.6</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z27">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,76 +2957,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L28">
         <v>3.6</v>
       </c>
       <c r="M28">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -4636,7 +4636,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6504291</v>
+        <v>6504578</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4648,16 +4648,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>52</v>
@@ -4669,34 +4669,34 @@
         <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N47">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O47">
         <v>3.6</v>
       </c>
       <c r="P47">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q47">
         <v>-0.75</v>
       </c>
       <c r="R47">
+        <v>1.95</v>
+      </c>
+      <c r="S47">
         <v>1.85</v>
-      </c>
-      <c r="S47">
-        <v>1.95</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4705,19 +4705,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6504578</v>
+        <v>6504291</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4737,16 +4737,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>1</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>52</v>
@@ -4758,34 +4758,34 @@
         <v>3.2</v>
       </c>
       <c r="M48">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N48">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q48">
         <v>-0.75</v>
       </c>
       <c r="R48">
+        <v>1.85</v>
+      </c>
+      <c r="S48">
         <v>1.95</v>
-      </c>
-      <c r="S48">
-        <v>1.85</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4794,19 +4794,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -9709,7 +9709,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7331148</v>
+        <v>7331149</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9721,13 +9721,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9736,25 +9736,25 @@
         <v>50</v>
       </c>
       <c r="K104">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L104">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N104">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="O104">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>16</v>
+        <v>2.8</v>
       </c>
       <c r="Q104">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R104">
         <v>1.8</v>
@@ -9763,16 +9763,16 @@
         <v>2</v>
       </c>
       <c r="T104">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>0.1659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9781,16 +9781,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7331149</v>
+        <v>7331148</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,13 +9810,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9825,25 +9825,25 @@
         <v>50</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M105">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="N105">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P105">
-        <v>2.8</v>
+        <v>16</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R105">
         <v>1.8</v>
@@ -9852,16 +9852,16 @@
         <v>2</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>1.3</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9870,16 +9870,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7331150</v>
+        <v>7329845</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,76 +9988,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K107">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L107">
+        <v>3.4</v>
+      </c>
+      <c r="M107">
+        <v>2.05</v>
+      </c>
+      <c r="N107">
+        <v>3.4</v>
+      </c>
+      <c r="O107">
         <v>3.5</v>
       </c>
-      <c r="M107">
-        <v>2.875</v>
-      </c>
-      <c r="N107">
-        <v>2.4</v>
-      </c>
-      <c r="O107">
-        <v>3.6</v>
-      </c>
       <c r="P107">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S107">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y107">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA107">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7329845</v>
+        <v>7331150</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,76 +10077,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G108" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K108">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="N108">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="S108">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7462738</v>
+        <v>7462542</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,76 +11857,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M128">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="N128">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="O128">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P128">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q128">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R128">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X128">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11934,7 +11934,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7462542</v>
+        <v>7462738</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11946,76 +11946,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129" t="s">
+        <v>51</v>
+      </c>
+      <c r="K129">
+        <v>4</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129">
+        <v>1.666</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129">
+        <v>3.8</v>
+      </c>
+      <c r="P129">
+        <v>1.75</v>
+      </c>
+      <c r="Q129">
+        <v>0.75</v>
+      </c>
+      <c r="R129">
+        <v>1.8</v>
+      </c>
+      <c r="S129">
+        <v>2</v>
+      </c>
+      <c r="T129">
         <v>3</v>
       </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129" t="s">
-        <v>50</v>
-      </c>
-      <c r="K129">
-        <v>1.363</v>
-      </c>
-      <c r="L129">
-        <v>4.75</v>
-      </c>
-      <c r="M129">
-        <v>6.5</v>
-      </c>
-      <c r="N129">
-        <v>1.285</v>
-      </c>
-      <c r="O129">
-        <v>6.5</v>
-      </c>
-      <c r="P129">
-        <v>8</v>
-      </c>
-      <c r="Q129">
-        <v>-1.75</v>
-      </c>
-      <c r="R129">
-        <v>1.9</v>
-      </c>
-      <c r="S129">
-        <v>1.9</v>
-      </c>
-      <c r="T129">
-        <v>3.25</v>
-      </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC129">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532430</v>
+        <v>7532414</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,40 +13103,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
         <v>50</v>
       </c>
       <c r="K142">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="L142">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M142">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N142">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O142">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P142">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Q142">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R142">
         <v>2</v>
@@ -13148,13 +13148,13 @@
         <v>3</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13163,16 +13163,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532412</v>
+        <v>7532430</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,76 +13192,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>50</v>
+      </c>
+      <c r="K143">
+        <v>1.4</v>
+      </c>
+      <c r="L143">
+        <v>4.2</v>
+      </c>
+      <c r="M143">
+        <v>7</v>
+      </c>
+      <c r="N143">
+        <v>1.363</v>
+      </c>
+      <c r="O143">
+        <v>4.5</v>
+      </c>
+      <c r="P143">
+        <v>8.5</v>
+      </c>
+      <c r="Q143">
+        <v>-1.5</v>
+      </c>
+      <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>1.8</v>
+      </c>
+      <c r="T143">
         <v>3</v>
       </c>
-      <c r="J143" t="s">
-        <v>52</v>
-      </c>
-      <c r="K143">
-        <v>1.727</v>
-      </c>
-      <c r="L143">
-        <v>3.75</v>
-      </c>
-      <c r="M143">
-        <v>4</v>
-      </c>
-      <c r="N143">
-        <v>2.3</v>
-      </c>
-      <c r="O143">
-        <v>3.6</v>
-      </c>
-      <c r="P143">
-        <v>2.875</v>
-      </c>
-      <c r="Q143">
-        <v>-0.25</v>
-      </c>
-      <c r="R143">
-        <v>1.95</v>
-      </c>
-      <c r="S143">
-        <v>1.85</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
       <c r="U143">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532414</v>
+        <v>7532413</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,76 +13281,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
         <v>1</v>
       </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K144">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N144">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O144">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q144">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S144">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532413</v>
+        <v>7532412</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,34 +13370,34 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J145" t="s">
         <v>52</v>
       </c>
       <c r="K145">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L145">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M145">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N145">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
         <v>2.875</v>
@@ -13406,19 +13406,19 @@
         <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13433,13 +13433,13 @@
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC145">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532419</v>
+        <v>7532421</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13652,43 +13652,43 @@
         <v>50</v>
       </c>
       <c r="K148">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L148">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M148">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N148">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="O148">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="P148">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>1.375</v>
+        <v>0.333</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532421</v>
+        <v>7532420</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,13 +13726,13 @@
         <v>45265.875</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -13741,43 +13741,43 @@
         <v>50</v>
       </c>
       <c r="K149">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="L149">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M149">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N149">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O149">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P149">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q149">
         <v>-1.5</v>
       </c>
       <c r="R149">
+        <v>1.8</v>
+      </c>
+      <c r="S149">
+        <v>2</v>
+      </c>
+      <c r="T149">
+        <v>3.25</v>
+      </c>
+      <c r="U149">
+        <v>1.95</v>
+      </c>
+      <c r="V149">
         <v>1.85</v>
       </c>
-      <c r="S149">
-        <v>1.95</v>
-      </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.825</v>
-      </c>
-      <c r="V149">
-        <v>1.975</v>
-      </c>
       <c r="W149">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC149">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532420</v>
+        <v>7532419</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,10 +13815,10 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13830,34 +13830,34 @@
         <v>50</v>
       </c>
       <c r="K150">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L150">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M150">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N150">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O150">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="P150">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q150">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S150">
+        <v>1.9</v>
+      </c>
+      <c r="T150">
         <v>2</v>
-      </c>
-      <c r="T150">
-        <v>3.25</v>
       </c>
       <c r="U150">
         <v>1.95</v>
@@ -13866,7 +13866,7 @@
         <v>1.85</v>
       </c>
       <c r="W150">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC150">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,76 +14082,76 @@
         <v>45266.875</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
         <v>50</v>
       </c>
       <c r="K153">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M153">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="N153">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O153">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P153">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="Q153">
+        <v>-2.25</v>
+      </c>
+      <c r="R153">
+        <v>1.95</v>
+      </c>
+      <c r="S153">
+        <v>1.85</v>
+      </c>
+      <c r="T153">
+        <v>3.75</v>
+      </c>
+      <c r="U153">
+        <v>1.975</v>
+      </c>
+      <c r="V153">
+        <v>1.825</v>
+      </c>
+      <c r="W153">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
+        <v>0.95</v>
+      </c>
+      <c r="AA153">
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>0.4875</v>
+      </c>
+      <c r="AC153">
         <v>-0.5</v>
-      </c>
-      <c r="R153">
-        <v>1.825</v>
-      </c>
-      <c r="S153">
-        <v>1.975</v>
-      </c>
-      <c r="T153">
-        <v>3</v>
-      </c>
-      <c r="U153">
-        <v>2</v>
-      </c>
-      <c r="V153">
-        <v>1.8</v>
-      </c>
-      <c r="W153">
-        <v>0.833</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
-      <c r="Z153">
-        <v>0.825</v>
-      </c>
-      <c r="AA153">
-        <v>-1</v>
-      </c>
-      <c r="AB153">
-        <v>0</v>
-      </c>
-      <c r="AC153">
-        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,58 +14171,58 @@
         <v>45266.875</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
         <v>50</v>
       </c>
       <c r="K154">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L154">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M154">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="N154">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O154">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P154">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q154">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T154">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U154">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V154">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14231,16 +14231,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -17024,6 +17024,15 @@
       <c r="G186" t="s">
         <v>49</v>
       </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186" t="s">
+        <v>50</v>
+      </c>
       <c r="K186">
         <v>1.833</v>
       </c>
@@ -17034,22 +17043,22 @@
         <v>4</v>
       </c>
       <c r="N186">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="O186">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P186">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q186">
         <v>-0.75</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S186">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T186">
         <v>2.5</v>
@@ -17061,19 +17070,25 @@
         <v>1.9</v>
       </c>
       <c r="W186">
-        <v>0</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA186">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB186">
+        <v>-1</v>
+      </c>
+      <c r="AC186">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17098,6 +17113,15 @@
       <c r="G187" t="s">
         <v>48</v>
       </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187" t="s">
+        <v>51</v>
+      </c>
       <c r="K187">
         <v>1.4</v>
       </c>
@@ -17108,46 +17132,52 @@
         <v>6.5</v>
       </c>
       <c r="N187">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O187">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P187">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Q187">
         <v>-1.25</v>
       </c>
       <c r="R187">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S187">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T187">
         <v>3.25</v>
       </c>
       <c r="U187">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V187">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>0</v>
+        <v>3.333</v>
       </c>
       <c r="Y187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB187">
+        <v>-1</v>
+      </c>
+      <c r="AC187">
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17164,7 +17194,7 @@
         <v>29</v>
       </c>
       <c r="E188" s="2">
-        <v>45360.875</v>
+        <v>45360.87152777778</v>
       </c>
       <c r="F188" t="s">
         <v>41</v>
@@ -17172,6 +17202,15 @@
       <c r="G188" t="s">
         <v>46</v>
       </c>
+      <c r="H188">
+        <v>3</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188" t="s">
+        <v>50</v>
+      </c>
       <c r="K188">
         <v>1.3</v>
       </c>
@@ -17182,22 +17221,22 @@
         <v>7.5</v>
       </c>
       <c r="N188">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="O188">
+        <v>4.2</v>
+      </c>
+      <c r="P188">
         <v>4.333</v>
       </c>
-      <c r="P188">
-        <v>4.5</v>
-      </c>
       <c r="Q188">
         <v>-1</v>
       </c>
       <c r="R188">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T188">
         <v>3.25</v>
@@ -17209,19 +17248,25 @@
         <v>1.825</v>
       </c>
       <c r="W188">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA188">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB188">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC188">
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17246,6 +17291,15 @@
       <c r="G189" t="s">
         <v>31</v>
       </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189" t="s">
+        <v>51</v>
+      </c>
       <c r="K189">
         <v>2.55</v>
       </c>
@@ -17256,46 +17310,52 @@
         <v>2.45</v>
       </c>
       <c r="N189">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O189">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P189">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R189">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S189">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T189">
         <v>2.25</v>
       </c>
       <c r="U189">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V189">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
         <v>0</v>
       </c>
       <c r="AA189">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB189">
+        <v>-0.5</v>
+      </c>
+      <c r="AC189">
+        <v>0.45</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17320,6 +17380,15 @@
       <c r="G190" t="s">
         <v>44</v>
       </c>
+      <c r="H190">
+        <v>2</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190" t="s">
+        <v>50</v>
+      </c>
       <c r="K190">
         <v>2.55</v>
       </c>
@@ -17330,45 +17399,288 @@
         <v>2.3</v>
       </c>
       <c r="N190">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O190">
         <v>3.6</v>
       </c>
       <c r="P190">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S190">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T190">
+        <v>3.25</v>
+      </c>
+      <c r="U190">
+        <v>1.975</v>
+      </c>
+      <c r="V190">
+        <v>1.825</v>
+      </c>
+      <c r="W190">
+        <v>1.45</v>
+      </c>
+      <c r="X190">
+        <v>-1</v>
+      </c>
+      <c r="Y190">
+        <v>-1</v>
+      </c>
+      <c r="Z190">
+        <v>0.825</v>
+      </c>
+      <c r="AA190">
+        <v>-1</v>
+      </c>
+      <c r="AB190">
+        <v>-0.5</v>
+      </c>
+      <c r="AC190">
+        <v>0.4125</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>7929916</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>29</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45361.85416666666</v>
+      </c>
+      <c r="F191" t="s">
+        <v>37</v>
+      </c>
+      <c r="G191" t="s">
+        <v>34</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191" t="s">
+        <v>51</v>
+      </c>
+      <c r="K191">
+        <v>2.55</v>
+      </c>
+      <c r="L191">
+        <v>3.4</v>
+      </c>
+      <c r="M191">
+        <v>2.4</v>
+      </c>
+      <c r="N191">
+        <v>2.45</v>
+      </c>
+      <c r="O191">
+        <v>3.3</v>
+      </c>
+      <c r="P191">
+        <v>2.9</v>
+      </c>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191">
+        <v>1.825</v>
+      </c>
+      <c r="S191">
+        <v>1.975</v>
+      </c>
+      <c r="T191">
+        <v>2.5</v>
+      </c>
+      <c r="U191">
+        <v>1.95</v>
+      </c>
+      <c r="V191">
+        <v>1.85</v>
+      </c>
+      <c r="W191">
+        <v>-1</v>
+      </c>
+      <c r="X191">
+        <v>2.3</v>
+      </c>
+      <c r="Y191">
+        <v>-1</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>-0</v>
+      </c>
+      <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>7931498</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>29</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45363.79166666666</v>
+      </c>
+      <c r="F192" t="s">
+        <v>43</v>
+      </c>
+      <c r="G192" t="s">
+        <v>38</v>
+      </c>
+      <c r="K192">
+        <v>1.4</v>
+      </c>
+      <c r="L192">
+        <v>4.5</v>
+      </c>
+      <c r="M192">
+        <v>5.75</v>
+      </c>
+      <c r="N192">
+        <v>1.45</v>
+      </c>
+      <c r="O192">
+        <v>4.5</v>
+      </c>
+      <c r="P192">
+        <v>5.75</v>
+      </c>
+      <c r="Q192">
+        <v>-1.25</v>
+      </c>
+      <c r="R192">
+        <v>2.025</v>
+      </c>
+      <c r="S192">
+        <v>1.775</v>
+      </c>
+      <c r="T192">
         <v>3</v>
       </c>
-      <c r="U190">
-        <v>1.8</v>
-      </c>
-      <c r="V190">
-        <v>2</v>
-      </c>
-      <c r="W190">
+      <c r="U192">
+        <v>1.95</v>
+      </c>
+      <c r="V192">
+        <v>1.85</v>
+      </c>
+      <c r="W192">
         <v>0</v>
       </c>
-      <c r="X190">
+      <c r="X192">
         <v>0</v>
       </c>
-      <c r="Y190">
+      <c r="Y192">
         <v>0</v>
       </c>
-      <c r="Z190">
+      <c r="Z192">
         <v>0</v>
       </c>
-      <c r="AA190">
+      <c r="AA192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>7931499</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>29</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45363.875</v>
+      </c>
+      <c r="F193" t="s">
+        <v>46</v>
+      </c>
+      <c r="G193" t="s">
+        <v>42</v>
+      </c>
+      <c r="K193">
+        <v>2.1</v>
+      </c>
+      <c r="L193">
+        <v>3.25</v>
+      </c>
+      <c r="M193">
+        <v>3.6</v>
+      </c>
+      <c r="N193">
+        <v>1.95</v>
+      </c>
+      <c r="O193">
+        <v>3.4</v>
+      </c>
+      <c r="P193">
+        <v>3.8</v>
+      </c>
+      <c r="Q193">
+        <v>-0.5</v>
+      </c>
+      <c r="R193">
+        <v>1.975</v>
+      </c>
+      <c r="S193">
+        <v>1.825</v>
+      </c>
+      <c r="T193">
+        <v>2.25</v>
+      </c>
+      <c r="U193">
+        <v>1.925</v>
+      </c>
+      <c r="V193">
+        <v>1.875</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
         <v>0</v>
       </c>
     </row>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC193"/>
+  <dimension ref="A1:AC199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4636,7 +4636,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6504578</v>
+        <v>6504291</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4648,16 +4648,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>1</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>52</v>
@@ -4669,34 +4669,34 @@
         <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N47">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O47">
         <v>3.6</v>
       </c>
       <c r="P47">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q47">
         <v>-0.75</v>
       </c>
       <c r="R47">
+        <v>1.85</v>
+      </c>
+      <c r="S47">
         <v>1.95</v>
-      </c>
-      <c r="S47">
-        <v>1.85</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4705,19 +4705,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6504291</v>
+        <v>6504578</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4737,16 +4737,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>52</v>
@@ -4758,34 +4758,34 @@
         <v>3.2</v>
       </c>
       <c r="M48">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N48">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q48">
         <v>-0.75</v>
       </c>
       <c r="R48">
+        <v>1.95</v>
+      </c>
+      <c r="S48">
         <v>1.85</v>
-      </c>
-      <c r="S48">
-        <v>1.95</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4794,19 +4794,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -9709,7 +9709,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7331149</v>
+        <v>7331148</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9721,13 +9721,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9736,25 +9736,25 @@
         <v>50</v>
       </c>
       <c r="K104">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M104">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="N104">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P104">
-        <v>2.8</v>
+        <v>16</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R104">
         <v>1.8</v>
@@ -9763,16 +9763,16 @@
         <v>2</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>1.3</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9781,16 +9781,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7331148</v>
+        <v>7331149</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,13 +9810,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9825,25 +9825,25 @@
         <v>50</v>
       </c>
       <c r="K105">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="O105">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>16</v>
+        <v>2.8</v>
       </c>
       <c r="Q105">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R105">
         <v>1.8</v>
@@ -9852,16 +9852,16 @@
         <v>2</v>
       </c>
       <c r="T105">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>0.1659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9870,16 +9870,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC105">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7329845</v>
+        <v>7331150</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,76 +9988,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K107">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="N107">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="S107">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z107">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7331150</v>
+        <v>7329845</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,76 +10077,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K108">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L108">
+        <v>3.4</v>
+      </c>
+      <c r="M108">
+        <v>2.05</v>
+      </c>
+      <c r="N108">
+        <v>3.4</v>
+      </c>
+      <c r="O108">
         <v>3.5</v>
       </c>
-      <c r="M108">
-        <v>2.875</v>
-      </c>
-      <c r="N108">
-        <v>2.4</v>
-      </c>
-      <c r="O108">
-        <v>3.6</v>
-      </c>
       <c r="P108">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S108">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y108">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA108">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7462542</v>
+        <v>7462738</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,76 +11857,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128" t="s">
+        <v>51</v>
+      </c>
+      <c r="K128">
+        <v>4</v>
+      </c>
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
+        <v>1.666</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128">
+        <v>3.8</v>
+      </c>
+      <c r="P128">
+        <v>1.75</v>
+      </c>
+      <c r="Q128">
+        <v>0.75</v>
+      </c>
+      <c r="R128">
+        <v>1.8</v>
+      </c>
+      <c r="S128">
+        <v>2</v>
+      </c>
+      <c r="T128">
         <v>3</v>
       </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128" t="s">
-        <v>50</v>
-      </c>
-      <c r="K128">
-        <v>1.363</v>
-      </c>
-      <c r="L128">
-        <v>4.75</v>
-      </c>
-      <c r="M128">
-        <v>6.5</v>
-      </c>
-      <c r="N128">
-        <v>1.285</v>
-      </c>
-      <c r="O128">
-        <v>6.5</v>
-      </c>
-      <c r="P128">
-        <v>8</v>
-      </c>
-      <c r="Q128">
-        <v>-1.75</v>
-      </c>
-      <c r="R128">
-        <v>1.9</v>
-      </c>
-      <c r="S128">
-        <v>1.9</v>
-      </c>
-      <c r="T128">
-        <v>3.25</v>
-      </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W128">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC128">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11934,7 +11934,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7462738</v>
+        <v>7462542</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11946,76 +11946,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K129">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M129">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="N129">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="O129">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P129">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q129">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X129">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532414</v>
+        <v>7532412</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,76 +13103,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K142">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L142">
         <v>3.75</v>
       </c>
       <c r="M142">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N142">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="O142">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q142">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W142">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC142">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532430</v>
+        <v>7532414</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,40 +13192,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
         <v>50</v>
       </c>
       <c r="K143">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="L143">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M143">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N143">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O143">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P143">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Q143">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R143">
         <v>2</v>
@@ -13237,13 +13237,13 @@
         <v>3</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13252,16 +13252,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532412</v>
+        <v>7532430</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,76 +13370,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>50</v>
+      </c>
+      <c r="K145">
+        <v>1.4</v>
+      </c>
+      <c r="L145">
+        <v>4.2</v>
+      </c>
+      <c r="M145">
+        <v>7</v>
+      </c>
+      <c r="N145">
+        <v>1.363</v>
+      </c>
+      <c r="O145">
+        <v>4.5</v>
+      </c>
+      <c r="P145">
+        <v>8.5</v>
+      </c>
+      <c r="Q145">
+        <v>-1.5</v>
+      </c>
+      <c r="R145">
+        <v>2</v>
+      </c>
+      <c r="S145">
+        <v>1.8</v>
+      </c>
+      <c r="T145">
         <v>3</v>
       </c>
-      <c r="J145" t="s">
-        <v>52</v>
-      </c>
-      <c r="K145">
-        <v>1.727</v>
-      </c>
-      <c r="L145">
-        <v>3.75</v>
-      </c>
-      <c r="M145">
-        <v>4</v>
-      </c>
-      <c r="N145">
-        <v>2.3</v>
-      </c>
-      <c r="O145">
-        <v>3.6</v>
-      </c>
-      <c r="P145">
-        <v>2.875</v>
-      </c>
-      <c r="Q145">
-        <v>-0.25</v>
-      </c>
-      <c r="R145">
-        <v>1.95</v>
-      </c>
-      <c r="S145">
-        <v>1.85</v>
-      </c>
-      <c r="T145">
-        <v>2.75</v>
-      </c>
       <c r="U145">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532420</v>
+        <v>7532419</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,10 +13726,10 @@
         <v>45265.875</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13741,34 +13741,34 @@
         <v>50</v>
       </c>
       <c r="K149">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L149">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M149">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N149">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O149">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="P149">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q149">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
+        <v>1.9</v>
+      </c>
+      <c r="T149">
         <v>2</v>
-      </c>
-      <c r="T149">
-        <v>3.25</v>
       </c>
       <c r="U149">
         <v>1.95</v>
@@ -13777,7 +13777,7 @@
         <v>1.85</v>
       </c>
       <c r="W149">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC149">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532419</v>
+        <v>7532420</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,10 +13815,10 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13830,34 +13830,34 @@
         <v>50</v>
       </c>
       <c r="K150">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L150">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="M150">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="N150">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O150">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="P150">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q150">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S150">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T150">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U150">
         <v>1.95</v>
@@ -13866,7 +13866,7 @@
         <v>1.85</v>
       </c>
       <c r="W150">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,58 +14082,58 @@
         <v>45266.875</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
         <v>50</v>
       </c>
       <c r="K153">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L153">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="N153">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O153">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q153">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T153">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W153">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14142,16 +14142,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,76 +14171,76 @@
         <v>45266.875</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>50</v>
       </c>
       <c r="K154">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L154">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M154">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="N154">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O154">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P154">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="Q154">
+        <v>-2.25</v>
+      </c>
+      <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>1.85</v>
+      </c>
+      <c r="T154">
+        <v>3.75</v>
+      </c>
+      <c r="U154">
+        <v>1.975</v>
+      </c>
+      <c r="V154">
+        <v>1.825</v>
+      </c>
+      <c r="W154">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
+        <v>0.95</v>
+      </c>
+      <c r="AA154">
+        <v>-1</v>
+      </c>
+      <c r="AB154">
+        <v>0.4875</v>
+      </c>
+      <c r="AC154">
         <v>-0.5</v>
-      </c>
-      <c r="R154">
-        <v>1.825</v>
-      </c>
-      <c r="S154">
-        <v>1.975</v>
-      </c>
-      <c r="T154">
-        <v>3</v>
-      </c>
-      <c r="U154">
-        <v>2</v>
-      </c>
-      <c r="V154">
-        <v>1.8</v>
-      </c>
-      <c r="W154">
-        <v>0.833</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>-1</v>
-      </c>
-      <c r="Z154">
-        <v>0.825</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>0</v>
-      </c>
-      <c r="AC154">
-        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -17558,6 +17558,15 @@
       <c r="G192" t="s">
         <v>38</v>
       </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192" t="s">
+        <v>50</v>
+      </c>
       <c r="K192">
         <v>1.4</v>
       </c>
@@ -17568,7 +17577,7 @@
         <v>5.75</v>
       </c>
       <c r="N192">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="O192">
         <v>4.5</v>
@@ -17577,40 +17586,46 @@
         <v>5.75</v>
       </c>
       <c r="Q192">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R192">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S192">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T192">
         <v>3</v>
       </c>
       <c r="U192">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V192">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W192">
-        <v>0</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
         <v>0</v>
       </c>
       <c r="AA192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB192">
+        <v>-1</v>
+      </c>
+      <c r="AC192">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -17632,6 +17647,15 @@
       <c r="G193" t="s">
         <v>42</v>
       </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193" t="s">
+        <v>50</v>
+      </c>
       <c r="K193">
         <v>2.1</v>
       </c>
@@ -17642,46 +17666,586 @@
         <v>3.6</v>
       </c>
       <c r="N193">
+        <v>2.25</v>
+      </c>
+      <c r="O193">
+        <v>3.25</v>
+      </c>
+      <c r="P193">
+        <v>3.25</v>
+      </c>
+      <c r="Q193">
+        <v>-0.25</v>
+      </c>
+      <c r="R193">
         <v>1.95</v>
       </c>
-      <c r="O193">
-        <v>3.4</v>
-      </c>
-      <c r="P193">
-        <v>3.8</v>
-      </c>
-      <c r="Q193">
-        <v>-0.5</v>
-      </c>
-      <c r="R193">
-        <v>1.975</v>
-      </c>
       <c r="S193">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
         <v>2.25</v>
       </c>
       <c r="U193">
+        <v>1.9</v>
+      </c>
+      <c r="V193">
+        <v>1.9</v>
+      </c>
+      <c r="W193">
+        <v>1.25</v>
+      </c>
+      <c r="X193">
+        <v>-1</v>
+      </c>
+      <c r="Y193">
+        <v>-1</v>
+      </c>
+      <c r="Z193">
+        <v>0.95</v>
+      </c>
+      <c r="AA193">
+        <v>-1</v>
+      </c>
+      <c r="AB193">
+        <v>-1</v>
+      </c>
+      <c r="AC193">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>7930864</v>
+      </c>
+      <c r="C194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" t="s">
+        <v>29</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45364.66666666666</v>
+      </c>
+      <c r="F194" t="s">
+        <v>49</v>
+      </c>
+      <c r="G194" t="s">
+        <v>35</v>
+      </c>
+      <c r="H194">
+        <v>2</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194" t="s">
+        <v>50</v>
+      </c>
+      <c r="K194">
+        <v>1.333</v>
+      </c>
+      <c r="L194">
+        <v>5</v>
+      </c>
+      <c r="M194">
+        <v>8.5</v>
+      </c>
+      <c r="N194">
+        <v>1.444</v>
+      </c>
+      <c r="O194">
+        <v>5</v>
+      </c>
+      <c r="P194">
+        <v>6.5</v>
+      </c>
+      <c r="Q194">
+        <v>-1.25</v>
+      </c>
+      <c r="R194">
+        <v>1.85</v>
+      </c>
+      <c r="S194">
+        <v>1.95</v>
+      </c>
+      <c r="T194">
+        <v>3.25</v>
+      </c>
+      <c r="U194">
+        <v>1.95</v>
+      </c>
+      <c r="V194">
+        <v>1.85</v>
+      </c>
+      <c r="W194">
+        <v>0.444</v>
+      </c>
+      <c r="X194">
+        <v>-1</v>
+      </c>
+      <c r="Y194">
+        <v>-1</v>
+      </c>
+      <c r="Z194">
+        <v>-0.5</v>
+      </c>
+      <c r="AA194">
+        <v>0.475</v>
+      </c>
+      <c r="AB194">
+        <v>-0.5</v>
+      </c>
+      <c r="AC194">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>7931500</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" t="s">
+        <v>29</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45364.79166666666</v>
+      </c>
+      <c r="F195" t="s">
+        <v>31</v>
+      </c>
+      <c r="G195" t="s">
+        <v>41</v>
+      </c>
+      <c r="H195">
+        <v>4</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195" t="s">
+        <v>50</v>
+      </c>
+      <c r="K195">
+        <v>1.909</v>
+      </c>
+      <c r="L195">
+        <v>3.75</v>
+      </c>
+      <c r="M195">
+        <v>3.6</v>
+      </c>
+      <c r="N195">
+        <v>1.8</v>
+      </c>
+      <c r="O195">
+        <v>3.8</v>
+      </c>
+      <c r="P195">
+        <v>4.333</v>
+      </c>
+      <c r="Q195">
+        <v>-0.75</v>
+      </c>
+      <c r="R195">
+        <v>2</v>
+      </c>
+      <c r="S195">
+        <v>1.8</v>
+      </c>
+      <c r="T195">
+        <v>2.75</v>
+      </c>
+      <c r="U195">
         <v>1.925</v>
       </c>
-      <c r="V193">
+      <c r="V195">
         <v>1.875</v>
       </c>
-      <c r="W193">
+      <c r="W195">
+        <v>0.8</v>
+      </c>
+      <c r="X195">
+        <v>-1</v>
+      </c>
+      <c r="Y195">
+        <v>-1</v>
+      </c>
+      <c r="Z195">
+        <v>1</v>
+      </c>
+      <c r="AA195">
+        <v>-1</v>
+      </c>
+      <c r="AB195">
+        <v>0.925</v>
+      </c>
+      <c r="AC195">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>7930865</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>29</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45364.87152777778</v>
+      </c>
+      <c r="F196" t="s">
+        <v>33</v>
+      </c>
+      <c r="G196" t="s">
+        <v>36</v>
+      </c>
+      <c r="H196">
+        <v>2</v>
+      </c>
+      <c r="I196">
         <v>0</v>
       </c>
-      <c r="X193">
+      <c r="J196" t="s">
+        <v>50</v>
+      </c>
+      <c r="K196">
+        <v>3</v>
+      </c>
+      <c r="L196">
+        <v>3.5</v>
+      </c>
+      <c r="M196">
+        <v>2.05</v>
+      </c>
+      <c r="N196">
+        <v>3.75</v>
+      </c>
+      <c r="O196">
+        <v>3.6</v>
+      </c>
+      <c r="P196">
+        <v>1.95</v>
+      </c>
+      <c r="Q196">
+        <v>0.5</v>
+      </c>
+      <c r="R196">
+        <v>1.85</v>
+      </c>
+      <c r="S196">
+        <v>1.95</v>
+      </c>
+      <c r="T196">
+        <v>2.5</v>
+      </c>
+      <c r="U196">
+        <v>1.875</v>
+      </c>
+      <c r="V196">
+        <v>1.925</v>
+      </c>
+      <c r="W196">
+        <v>2.75</v>
+      </c>
+      <c r="X196">
+        <v>-1</v>
+      </c>
+      <c r="Y196">
+        <v>-1</v>
+      </c>
+      <c r="Z196">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA196">
+        <v>-1</v>
+      </c>
+      <c r="AB196">
+        <v>-1</v>
+      </c>
+      <c r="AC196">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>7930866</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>29</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45365.79166666666</v>
+      </c>
+      <c r="F197" t="s">
+        <v>37</v>
+      </c>
+      <c r="G197" t="s">
+        <v>48</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197">
         <v>0</v>
       </c>
-      <c r="Y193">
+      <c r="J197" t="s">
+        <v>50</v>
+      </c>
+      <c r="K197">
+        <v>1.65</v>
+      </c>
+      <c r="L197">
+        <v>3.8</v>
+      </c>
+      <c r="M197">
+        <v>5</v>
+      </c>
+      <c r="N197">
+        <v>1.5</v>
+      </c>
+      <c r="O197">
+        <v>4.5</v>
+      </c>
+      <c r="P197">
+        <v>6.5</v>
+      </c>
+      <c r="Q197">
+        <v>-1.25</v>
+      </c>
+      <c r="R197">
+        <v>1.95</v>
+      </c>
+      <c r="S197">
+        <v>1.85</v>
+      </c>
+      <c r="T197">
+        <v>2.75</v>
+      </c>
+      <c r="U197">
+        <v>1.85</v>
+      </c>
+      <c r="V197">
+        <v>1.95</v>
+      </c>
+      <c r="W197">
+        <v>0.5</v>
+      </c>
+      <c r="X197">
+        <v>-1</v>
+      </c>
+      <c r="Y197">
+        <v>-1</v>
+      </c>
+      <c r="Z197">
+        <v>-0.5</v>
+      </c>
+      <c r="AA197">
+        <v>0.425</v>
+      </c>
+      <c r="AB197">
+        <v>-1</v>
+      </c>
+      <c r="AC197">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>7930867</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>29</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45365.875</v>
+      </c>
+      <c r="F198" t="s">
+        <v>44</v>
+      </c>
+      <c r="G198" t="s">
+        <v>45</v>
+      </c>
+      <c r="H198">
+        <v>2</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198" t="s">
+        <v>50</v>
+      </c>
+      <c r="K198">
+        <v>1.4</v>
+      </c>
+      <c r="L198">
+        <v>4.333</v>
+      </c>
+      <c r="M198">
+        <v>7</v>
+      </c>
+      <c r="N198">
+        <v>1.285</v>
+      </c>
+      <c r="O198">
+        <v>6.5</v>
+      </c>
+      <c r="P198">
+        <v>9.5</v>
+      </c>
+      <c r="Q198">
+        <v>-1.75</v>
+      </c>
+      <c r="R198">
+        <v>1.925</v>
+      </c>
+      <c r="S198">
+        <v>1.875</v>
+      </c>
+      <c r="T198">
+        <v>3.25</v>
+      </c>
+      <c r="U198">
+        <v>1.875</v>
+      </c>
+      <c r="V198">
+        <v>1.925</v>
+      </c>
+      <c r="W198">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X198">
+        <v>-1</v>
+      </c>
+      <c r="Y198">
+        <v>-1</v>
+      </c>
+      <c r="Z198">
+        <v>-1</v>
+      </c>
+      <c r="AA198">
+        <v>0.875</v>
+      </c>
+      <c r="AB198">
+        <v>-0.5</v>
+      </c>
+      <c r="AC198">
+        <v>0.4625</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>7930868</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>29</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45366.875</v>
+      </c>
+      <c r="F199" t="s">
+        <v>34</v>
+      </c>
+      <c r="G199" t="s">
+        <v>32</v>
+      </c>
+      <c r="H199">
         <v>0</v>
       </c>
-      <c r="Z193">
-        <v>0</v>
-      </c>
-      <c r="AA193">
-        <v>0</v>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199" t="s">
+        <v>52</v>
+      </c>
+      <c r="K199">
+        <v>1.833</v>
+      </c>
+      <c r="L199">
+        <v>3.6</v>
+      </c>
+      <c r="M199">
+        <v>3.8</v>
+      </c>
+      <c r="N199">
+        <v>2.25</v>
+      </c>
+      <c r="O199">
+        <v>3.4</v>
+      </c>
+      <c r="P199">
+        <v>3.2</v>
+      </c>
+      <c r="Q199">
+        <v>-0.25</v>
+      </c>
+      <c r="R199">
+        <v>1.975</v>
+      </c>
+      <c r="S199">
+        <v>1.825</v>
+      </c>
+      <c r="T199">
+        <v>2.75</v>
+      </c>
+      <c r="U199">
+        <v>1.975</v>
+      </c>
+      <c r="V199">
+        <v>1.825</v>
+      </c>
+      <c r="W199">
+        <v>-1</v>
+      </c>
+      <c r="X199">
+        <v>-1</v>
+      </c>
+      <c r="Y199">
+        <v>2.2</v>
+      </c>
+      <c r="Z199">
+        <v>-1</v>
+      </c>
+      <c r="AA199">
+        <v>0.825</v>
+      </c>
+      <c r="AB199">
+        <v>-1</v>
+      </c>
+      <c r="AC199">
+        <v>0.825</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC199"/>
+  <dimension ref="A1:AC200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4636,7 +4636,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6504291</v>
+        <v>6504578</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4648,16 +4648,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>52</v>
@@ -4669,34 +4669,34 @@
         <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N47">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O47">
         <v>3.6</v>
       </c>
       <c r="P47">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q47">
         <v>-0.75</v>
       </c>
       <c r="R47">
+        <v>1.95</v>
+      </c>
+      <c r="S47">
         <v>1.85</v>
-      </c>
-      <c r="S47">
-        <v>1.95</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4705,19 +4705,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6504578</v>
+        <v>6504291</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4737,16 +4737,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>1</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>52</v>
@@ -4758,34 +4758,34 @@
         <v>3.2</v>
       </c>
       <c r="M48">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N48">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q48">
         <v>-0.75</v>
       </c>
       <c r="R48">
+        <v>1.85</v>
+      </c>
+      <c r="S48">
         <v>1.95</v>
-      </c>
-      <c r="S48">
-        <v>1.85</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4794,19 +4794,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7331150</v>
+        <v>7329845</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,76 +9988,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K107">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L107">
+        <v>3.4</v>
+      </c>
+      <c r="M107">
+        <v>2.05</v>
+      </c>
+      <c r="N107">
+        <v>3.4</v>
+      </c>
+      <c r="O107">
         <v>3.5</v>
       </c>
-      <c r="M107">
-        <v>2.875</v>
-      </c>
-      <c r="N107">
-        <v>2.4</v>
-      </c>
-      <c r="O107">
-        <v>3.6</v>
-      </c>
       <c r="P107">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S107">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y107">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA107">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7329845</v>
+        <v>7331150</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,76 +10077,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G108" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K108">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="N108">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="S108">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532412</v>
+        <v>7532430</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,76 +13103,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>50</v>
+      </c>
+      <c r="K142">
+        <v>1.4</v>
+      </c>
+      <c r="L142">
+        <v>4.2</v>
+      </c>
+      <c r="M142">
+        <v>7</v>
+      </c>
+      <c r="N142">
+        <v>1.363</v>
+      </c>
+      <c r="O142">
+        <v>4.5</v>
+      </c>
+      <c r="P142">
+        <v>8.5</v>
+      </c>
+      <c r="Q142">
+        <v>-1.5</v>
+      </c>
+      <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
+        <v>1.8</v>
+      </c>
+      <c r="T142">
         <v>3</v>
       </c>
-      <c r="J142" t="s">
-        <v>52</v>
-      </c>
-      <c r="K142">
-        <v>1.727</v>
-      </c>
-      <c r="L142">
-        <v>3.75</v>
-      </c>
-      <c r="M142">
-        <v>4</v>
-      </c>
-      <c r="N142">
-        <v>2.3</v>
-      </c>
-      <c r="O142">
-        <v>3.6</v>
-      </c>
-      <c r="P142">
-        <v>2.875</v>
-      </c>
-      <c r="Q142">
-        <v>-0.25</v>
-      </c>
-      <c r="R142">
-        <v>1.95</v>
-      </c>
-      <c r="S142">
-        <v>1.85</v>
-      </c>
-      <c r="T142">
-        <v>2.75</v>
-      </c>
       <c r="U142">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532414</v>
+        <v>7532412</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,76 +13192,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K143">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L143">
         <v>3.75</v>
       </c>
       <c r="M143">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N143">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="O143">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q143">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W143">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC143">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532413</v>
+        <v>7532414</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,76 +13281,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
         <v>0</v>
       </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
       <c r="J144" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K144">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N144">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P144">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R144">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532430</v>
+        <v>7532413</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,49 +13370,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G145" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K145">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L145">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M145">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="N145">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O145">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q145">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
         <v>1.9</v>
@@ -13421,25 +13421,25 @@
         <v>1.9</v>
       </c>
       <c r="W145">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB145">
+        <v>-1</v>
+      </c>
+      <c r="AC145">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC145">
-        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532421</v>
+        <v>7532420</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13652,43 +13652,43 @@
         <v>50</v>
       </c>
       <c r="K148">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="L148">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M148">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N148">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O148">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P148">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q148">
         <v>-1.5</v>
       </c>
       <c r="R148">
+        <v>1.8</v>
+      </c>
+      <c r="S148">
+        <v>2</v>
+      </c>
+      <c r="T148">
+        <v>3.25</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
         <v>1.85</v>
       </c>
-      <c r="S148">
-        <v>1.95</v>
-      </c>
-      <c r="T148">
-        <v>3</v>
-      </c>
-      <c r="U148">
-        <v>1.825</v>
-      </c>
-      <c r="V148">
-        <v>1.975</v>
-      </c>
       <c r="W148">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC148">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532420</v>
+        <v>7532421</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,13 +13815,13 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13830,43 +13830,43 @@
         <v>50</v>
       </c>
       <c r="K150">
+        <v>1.4</v>
+      </c>
+      <c r="L150">
+        <v>4.5</v>
+      </c>
+      <c r="M150">
+        <v>7.5</v>
+      </c>
+      <c r="N150">
         <v>1.333</v>
       </c>
-      <c r="L150">
-        <v>5</v>
-      </c>
-      <c r="M150">
-        <v>8</v>
-      </c>
-      <c r="N150">
-        <v>1.3</v>
-      </c>
       <c r="O150">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P150">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q150">
         <v>-1.5</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -18246,6 +18246,95 @@
       </c>
       <c r="AC199">
         <v>0.825</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>7980297</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>29</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45371.83333333334</v>
+      </c>
+      <c r="F200" t="s">
+        <v>31</v>
+      </c>
+      <c r="G200" t="s">
+        <v>32</v>
+      </c>
+      <c r="H200">
+        <v>4</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200" t="s">
+        <v>50</v>
+      </c>
+      <c r="K200">
+        <v>1.4</v>
+      </c>
+      <c r="L200">
+        <v>4.2</v>
+      </c>
+      <c r="M200">
+        <v>6</v>
+      </c>
+      <c r="N200">
+        <v>1.45</v>
+      </c>
+      <c r="O200">
+        <v>4.333</v>
+      </c>
+      <c r="P200">
+        <v>7</v>
+      </c>
+      <c r="Q200">
+        <v>-1.25</v>
+      </c>
+      <c r="R200">
+        <v>2</v>
+      </c>
+      <c r="S200">
+        <v>1.8</v>
+      </c>
+      <c r="T200">
+        <v>2.75</v>
+      </c>
+      <c r="U200">
+        <v>1.975</v>
+      </c>
+      <c r="V200">
+        <v>1.825</v>
+      </c>
+      <c r="W200">
+        <v>0.45</v>
+      </c>
+      <c r="X200">
+        <v>-1</v>
+      </c>
+      <c r="Y200">
+        <v>-1</v>
+      </c>
+      <c r="Z200">
+        <v>1</v>
+      </c>
+      <c r="AA200">
+        <v>-1</v>
+      </c>
+      <c r="AB200">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC200">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC200"/>
+  <dimension ref="A1:AC202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4636,7 +4636,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6504578</v>
+        <v>6504291</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4648,16 +4648,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>1</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>52</v>
@@ -4669,34 +4669,34 @@
         <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N47">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O47">
         <v>3.6</v>
       </c>
       <c r="P47">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q47">
         <v>-0.75</v>
       </c>
       <c r="R47">
+        <v>1.85</v>
+      </c>
+      <c r="S47">
         <v>1.95</v>
-      </c>
-      <c r="S47">
-        <v>1.85</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4705,19 +4705,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6504291</v>
+        <v>6504578</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4737,16 +4737,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>52</v>
@@ -4758,34 +4758,34 @@
         <v>3.2</v>
       </c>
       <c r="M48">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N48">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q48">
         <v>-0.75</v>
       </c>
       <c r="R48">
+        <v>1.95</v>
+      </c>
+      <c r="S48">
         <v>1.85</v>
-      </c>
-      <c r="S48">
-        <v>1.95</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4794,19 +4794,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7329845</v>
+        <v>7331150</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,76 +9988,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K107">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="N107">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="S107">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z107">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7331150</v>
+        <v>7329845</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,76 +10077,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K108">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L108">
+        <v>3.4</v>
+      </c>
+      <c r="M108">
+        <v>2.05</v>
+      </c>
+      <c r="N108">
+        <v>3.4</v>
+      </c>
+      <c r="O108">
         <v>3.5</v>
       </c>
-      <c r="M108">
-        <v>2.875</v>
-      </c>
-      <c r="N108">
-        <v>2.4</v>
-      </c>
-      <c r="O108">
-        <v>3.6</v>
-      </c>
       <c r="P108">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S108">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y108">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA108">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532430</v>
+        <v>7532413</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,49 +13103,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K142">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L142">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M142">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="N142">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O142">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q142">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
         <v>1.9</v>
@@ -13154,25 +13154,25 @@
         <v>1.9</v>
       </c>
       <c r="W142">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC142">
-        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532412</v>
+        <v>7532414</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,76 +13192,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
         <v>0</v>
       </c>
-      <c r="I143">
-        <v>3</v>
-      </c>
       <c r="J143" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K143">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L143">
         <v>3.75</v>
       </c>
       <c r="M143">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N143">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P143">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>1.8</v>
+      </c>
+      <c r="T143">
+        <v>3</v>
+      </c>
+      <c r="U143">
+        <v>1.85</v>
+      </c>
+      <c r="V143">
         <v>1.95</v>
       </c>
-      <c r="S143">
-        <v>1.85</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
-      <c r="U143">
-        <v>1.925</v>
-      </c>
-      <c r="V143">
-        <v>1.875</v>
-      </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB143">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532414</v>
+        <v>7532430</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,40 +13281,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H144">
+        <v>4</v>
+      </c>
+      <c r="I144">
         <v>1</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>50</v>
       </c>
       <c r="K144">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M144">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N144">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O144">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P144">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Q144">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R144">
         <v>2</v>
@@ -13326,13 +13326,13 @@
         <v>3</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13341,16 +13341,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC144">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532413</v>
+        <v>7532412</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,34 +13370,34 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J145" t="s">
         <v>52</v>
       </c>
       <c r="K145">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L145">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M145">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N145">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
         <v>2.875</v>
@@ -13406,19 +13406,19 @@
         <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13433,13 +13433,13 @@
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC145">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532419</v>
+        <v>7532421</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,13 +13726,13 @@
         <v>45265.875</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -13741,43 +13741,43 @@
         <v>50</v>
       </c>
       <c r="K149">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L149">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M149">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N149">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="O149">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="P149">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U149">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W149">
-        <v>1.375</v>
+        <v>0.333</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532421</v>
+        <v>7532419</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,13 +13815,13 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13830,43 +13830,43 @@
         <v>50</v>
       </c>
       <c r="K150">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L150">
+        <v>2.5</v>
+      </c>
+      <c r="M150">
         <v>4.5</v>
       </c>
-      <c r="M150">
-        <v>7.5</v>
-      </c>
       <c r="N150">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="O150">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="P150">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q150">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
+        <v>1.9</v>
+      </c>
+      <c r="S150">
+        <v>1.9</v>
+      </c>
+      <c r="T150">
+        <v>2</v>
+      </c>
+      <c r="U150">
+        <v>1.95</v>
+      </c>
+      <c r="V150">
         <v>1.85</v>
       </c>
-      <c r="S150">
-        <v>1.95</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
       <c r="W150">
-        <v>0.333</v>
+        <v>1.375</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,76 +14082,76 @@
         <v>45266.875</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
         <v>50</v>
       </c>
       <c r="K153">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M153">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="N153">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O153">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P153">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="Q153">
+        <v>-2.25</v>
+      </c>
+      <c r="R153">
+        <v>1.95</v>
+      </c>
+      <c r="S153">
+        <v>1.85</v>
+      </c>
+      <c r="T153">
+        <v>3.75</v>
+      </c>
+      <c r="U153">
+        <v>1.975</v>
+      </c>
+      <c r="V153">
+        <v>1.825</v>
+      </c>
+      <c r="W153">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
+        <v>0.95</v>
+      </c>
+      <c r="AA153">
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>0.4875</v>
+      </c>
+      <c r="AC153">
         <v>-0.5</v>
-      </c>
-      <c r="R153">
-        <v>1.825</v>
-      </c>
-      <c r="S153">
-        <v>1.975</v>
-      </c>
-      <c r="T153">
-        <v>3</v>
-      </c>
-      <c r="U153">
-        <v>2</v>
-      </c>
-      <c r="V153">
-        <v>1.8</v>
-      </c>
-      <c r="W153">
-        <v>0.833</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
-      <c r="Z153">
-        <v>0.825</v>
-      </c>
-      <c r="AA153">
-        <v>-1</v>
-      </c>
-      <c r="AB153">
-        <v>0</v>
-      </c>
-      <c r="AC153">
-        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,58 +14171,58 @@
         <v>45266.875</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
         <v>50</v>
       </c>
       <c r="K154">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L154">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M154">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="N154">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O154">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P154">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q154">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T154">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U154">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V154">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14231,16 +14231,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -18335,6 +18335,184 @@
       </c>
       <c r="AC200">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>7980042</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>29</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45379.66666666666</v>
+      </c>
+      <c r="F201" t="s">
+        <v>48</v>
+      </c>
+      <c r="G201" t="s">
+        <v>43</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201" t="s">
+        <v>50</v>
+      </c>
+      <c r="K201">
+        <v>4.2</v>
+      </c>
+      <c r="L201">
+        <v>3.4</v>
+      </c>
+      <c r="M201">
+        <v>1.727</v>
+      </c>
+      <c r="N201">
+        <v>3.75</v>
+      </c>
+      <c r="O201">
+        <v>3.6</v>
+      </c>
+      <c r="P201">
+        <v>1.95</v>
+      </c>
+      <c r="Q201">
+        <v>0.5</v>
+      </c>
+      <c r="R201">
+        <v>1.9</v>
+      </c>
+      <c r="S201">
+        <v>1.9</v>
+      </c>
+      <c r="T201">
+        <v>3</v>
+      </c>
+      <c r="U201">
+        <v>1.925</v>
+      </c>
+      <c r="V201">
+        <v>1.875</v>
+      </c>
+      <c r="W201">
+        <v>2.75</v>
+      </c>
+      <c r="X201">
+        <v>-1</v>
+      </c>
+      <c r="Y201">
+        <v>-1</v>
+      </c>
+      <c r="Z201">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA201">
+        <v>-1</v>
+      </c>
+      <c r="AB201">
+        <v>-1</v>
+      </c>
+      <c r="AC201">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>7980298</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>29</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45379.875</v>
+      </c>
+      <c r="F202" t="s">
+        <v>34</v>
+      </c>
+      <c r="G202" t="s">
+        <v>31</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202" t="s">
+        <v>50</v>
+      </c>
+      <c r="K202">
+        <v>2.4</v>
+      </c>
+      <c r="L202">
+        <v>3.3</v>
+      </c>
+      <c r="M202">
+        <v>2.6</v>
+      </c>
+      <c r="N202">
+        <v>1.95</v>
+      </c>
+      <c r="O202">
+        <v>3.6</v>
+      </c>
+      <c r="P202">
+        <v>3.8</v>
+      </c>
+      <c r="Q202">
+        <v>-0.5</v>
+      </c>
+      <c r="R202">
+        <v>1.9</v>
+      </c>
+      <c r="S202">
+        <v>1.9</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
+        <v>1.9</v>
+      </c>
+      <c r="V202">
+        <v>1.9</v>
+      </c>
+      <c r="W202">
+        <v>0.95</v>
+      </c>
+      <c r="X202">
+        <v>-1</v>
+      </c>
+      <c r="Y202">
+        <v>-1</v>
+      </c>
+      <c r="Z202">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA202">
+        <v>-1</v>
+      </c>
+      <c r="AB202">
+        <v>-1</v>
+      </c>
+      <c r="AC202">
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -4636,7 +4636,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6504291</v>
+        <v>6504578</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4648,16 +4648,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>52</v>
@@ -4669,34 +4669,34 @@
         <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N47">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O47">
         <v>3.6</v>
       </c>
       <c r="P47">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q47">
         <v>-0.75</v>
       </c>
       <c r="R47">
+        <v>1.95</v>
+      </c>
+      <c r="S47">
         <v>1.85</v>
-      </c>
-      <c r="S47">
-        <v>1.95</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4705,19 +4705,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6504578</v>
+        <v>6504291</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4737,16 +4737,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>1</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>52</v>
@@ -4758,34 +4758,34 @@
         <v>3.2</v>
       </c>
       <c r="M48">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N48">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q48">
         <v>-0.75</v>
       </c>
       <c r="R48">
+        <v>1.85</v>
+      </c>
+      <c r="S48">
         <v>1.95</v>
-      </c>
-      <c r="S48">
-        <v>1.85</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4794,19 +4794,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -9709,7 +9709,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7331148</v>
+        <v>7331149</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9721,13 +9721,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9736,25 +9736,25 @@
         <v>50</v>
       </c>
       <c r="K104">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L104">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N104">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="O104">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>16</v>
+        <v>2.8</v>
       </c>
       <c r="Q104">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R104">
         <v>1.8</v>
@@ -9763,16 +9763,16 @@
         <v>2</v>
       </c>
       <c r="T104">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>0.1659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9781,16 +9781,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7331149</v>
+        <v>7331148</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,13 +9810,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9825,25 +9825,25 @@
         <v>50</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M105">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="N105">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P105">
-        <v>2.8</v>
+        <v>16</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R105">
         <v>1.8</v>
@@ -9852,16 +9852,16 @@
         <v>2</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>1.3</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9870,16 +9870,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532420</v>
+        <v>7532419</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,10 +13637,10 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13652,34 +13652,34 @@
         <v>50</v>
       </c>
       <c r="K148">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L148">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M148">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N148">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O148">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="P148">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q148">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
+        <v>1.9</v>
+      </c>
+      <c r="T148">
         <v>2</v>
-      </c>
-      <c r="T148">
-        <v>3.25</v>
       </c>
       <c r="U148">
         <v>1.95</v>
@@ -13688,7 +13688,7 @@
         <v>1.85</v>
       </c>
       <c r="W148">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC148">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532421</v>
+        <v>7532420</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,13 +13726,13 @@
         <v>45265.875</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -13741,43 +13741,43 @@
         <v>50</v>
       </c>
       <c r="K149">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="L149">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M149">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N149">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O149">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P149">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q149">
         <v>-1.5</v>
       </c>
       <c r="R149">
+        <v>1.8</v>
+      </c>
+      <c r="S149">
+        <v>2</v>
+      </c>
+      <c r="T149">
+        <v>3.25</v>
+      </c>
+      <c r="U149">
+        <v>1.95</v>
+      </c>
+      <c r="V149">
         <v>1.85</v>
       </c>
-      <c r="S149">
-        <v>1.95</v>
-      </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.825</v>
-      </c>
-      <c r="V149">
-        <v>1.975</v>
-      </c>
       <c r="W149">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC149">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532419</v>
+        <v>7532421</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,13 +13815,13 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13830,43 +13830,43 @@
         <v>50</v>
       </c>
       <c r="K150">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L150">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M150">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N150">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="O150">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="P150">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q150">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>1.375</v>
+        <v>0.333</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,58 +14082,58 @@
         <v>45266.875</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
         <v>50</v>
       </c>
       <c r="K153">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L153">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="N153">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O153">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q153">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T153">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W153">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14142,16 +14142,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,76 +14171,76 @@
         <v>45266.875</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>50</v>
       </c>
       <c r="K154">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L154">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M154">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="N154">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O154">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P154">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="Q154">
+        <v>-2.25</v>
+      </c>
+      <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>1.85</v>
+      </c>
+      <c r="T154">
+        <v>3.75</v>
+      </c>
+      <c r="U154">
+        <v>1.975</v>
+      </c>
+      <c r="V154">
+        <v>1.825</v>
+      </c>
+      <c r="W154">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
+        <v>0.95</v>
+      </c>
+      <c r="AA154">
+        <v>-1</v>
+      </c>
+      <c r="AB154">
+        <v>0.4875</v>
+      </c>
+      <c r="AC154">
         <v>-0.5</v>
-      </c>
-      <c r="R154">
-        <v>1.825</v>
-      </c>
-      <c r="S154">
-        <v>1.975</v>
-      </c>
-      <c r="T154">
-        <v>3</v>
-      </c>
-      <c r="U154">
-        <v>2</v>
-      </c>
-      <c r="V154">
-        <v>1.8</v>
-      </c>
-      <c r="W154">
-        <v>0.833</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>-1</v>
-      </c>
-      <c r="Z154">
-        <v>0.825</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>0</v>
-      </c>
-      <c r="AC154">
-        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC202"/>
+  <dimension ref="A1:AC206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9709,7 +9709,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7331149</v>
+        <v>7331148</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9721,13 +9721,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9736,25 +9736,25 @@
         <v>50</v>
       </c>
       <c r="K104">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M104">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="N104">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P104">
-        <v>2.8</v>
+        <v>16</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R104">
         <v>1.8</v>
@@ -9763,16 +9763,16 @@
         <v>2</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>1.3</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9781,16 +9781,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7331148</v>
+        <v>7331149</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,13 +9810,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9825,25 +9825,25 @@
         <v>50</v>
       </c>
       <c r="K105">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="O105">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>16</v>
+        <v>2.8</v>
       </c>
       <c r="Q105">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R105">
         <v>1.8</v>
@@ -9852,16 +9852,16 @@
         <v>2</v>
       </c>
       <c r="T105">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>0.1659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9870,16 +9870,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC105">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7462738</v>
+        <v>7462542</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,76 +11857,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M128">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="N128">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="O128">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P128">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q128">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R128">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X128">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11934,7 +11934,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7462542</v>
+        <v>7462738</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11946,76 +11946,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129" t="s">
+        <v>51</v>
+      </c>
+      <c r="K129">
+        <v>4</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129">
+        <v>1.666</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129">
+        <v>3.8</v>
+      </c>
+      <c r="P129">
+        <v>1.75</v>
+      </c>
+      <c r="Q129">
+        <v>0.75</v>
+      </c>
+      <c r="R129">
+        <v>1.8</v>
+      </c>
+      <c r="S129">
+        <v>2</v>
+      </c>
+      <c r="T129">
         <v>3</v>
       </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129" t="s">
-        <v>50</v>
-      </c>
-      <c r="K129">
-        <v>1.363</v>
-      </c>
-      <c r="L129">
-        <v>4.75</v>
-      </c>
-      <c r="M129">
-        <v>6.5</v>
-      </c>
-      <c r="N129">
-        <v>1.285</v>
-      </c>
-      <c r="O129">
-        <v>6.5</v>
-      </c>
-      <c r="P129">
-        <v>8</v>
-      </c>
-      <c r="Q129">
-        <v>-1.75</v>
-      </c>
-      <c r="R129">
-        <v>1.9</v>
-      </c>
-      <c r="S129">
-        <v>1.9</v>
-      </c>
-      <c r="T129">
-        <v>3.25</v>
-      </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC129">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532413</v>
+        <v>7532430</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,49 +13103,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K142">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L142">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M142">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="N142">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P142">
-        <v>2.875</v>
+        <v>8.5</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R142">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U142">
         <v>1.9</v>
@@ -13154,25 +13154,25 @@
         <v>1.9</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA142">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532414</v>
+        <v>7532413</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,76 +13192,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
         <v>1</v>
       </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K143">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M143">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N143">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O143">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q143">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532430</v>
+        <v>7532414</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,40 +13281,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>50</v>
       </c>
       <c r="K144">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="L144">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N144">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O144">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P144">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Q144">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R144">
         <v>2</v>
@@ -13326,13 +13326,13 @@
         <v>3</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W144">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13341,16 +13341,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532419</v>
+        <v>7532421</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13652,43 +13652,43 @@
         <v>50</v>
       </c>
       <c r="K148">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L148">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M148">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N148">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="O148">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="P148">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>1.375</v>
+        <v>0.333</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532421</v>
+        <v>7532419</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,13 +13815,13 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13830,43 +13830,43 @@
         <v>50</v>
       </c>
       <c r="K150">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L150">
+        <v>2.5</v>
+      </c>
+      <c r="M150">
         <v>4.5</v>
       </c>
-      <c r="M150">
-        <v>7.5</v>
-      </c>
       <c r="N150">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="O150">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="P150">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q150">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
+        <v>1.9</v>
+      </c>
+      <c r="S150">
+        <v>1.9</v>
+      </c>
+      <c r="T150">
+        <v>2</v>
+      </c>
+      <c r="U150">
+        <v>1.95</v>
+      </c>
+      <c r="V150">
         <v>1.85</v>
       </c>
-      <c r="S150">
-        <v>1.95</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
       <c r="W150">
-        <v>0.333</v>
+        <v>1.375</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,76 +14082,76 @@
         <v>45266.875</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
         <v>50</v>
       </c>
       <c r="K153">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M153">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="N153">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O153">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P153">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="Q153">
+        <v>-2.25</v>
+      </c>
+      <c r="R153">
+        <v>1.95</v>
+      </c>
+      <c r="S153">
+        <v>1.85</v>
+      </c>
+      <c r="T153">
+        <v>3.75</v>
+      </c>
+      <c r="U153">
+        <v>1.975</v>
+      </c>
+      <c r="V153">
+        <v>1.825</v>
+      </c>
+      <c r="W153">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
+        <v>0.95</v>
+      </c>
+      <c r="AA153">
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>0.4875</v>
+      </c>
+      <c r="AC153">
         <v>-0.5</v>
-      </c>
-      <c r="R153">
-        <v>1.825</v>
-      </c>
-      <c r="S153">
-        <v>1.975</v>
-      </c>
-      <c r="T153">
-        <v>3</v>
-      </c>
-      <c r="U153">
-        <v>2</v>
-      </c>
-      <c r="V153">
-        <v>1.8</v>
-      </c>
-      <c r="W153">
-        <v>0.833</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
-      <c r="Z153">
-        <v>0.825</v>
-      </c>
-      <c r="AA153">
-        <v>-1</v>
-      </c>
-      <c r="AB153">
-        <v>0</v>
-      </c>
-      <c r="AC153">
-        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,58 +14171,58 @@
         <v>45266.875</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
         <v>50</v>
       </c>
       <c r="K154">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L154">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M154">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="N154">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O154">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P154">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q154">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T154">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U154">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V154">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14231,16 +14231,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -18513,6 +18513,302 @@
       </c>
       <c r="AC202">
         <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>8010639</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>29</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45381.875</v>
+      </c>
+      <c r="F203" t="s">
+        <v>41</v>
+      </c>
+      <c r="G203" t="s">
+        <v>32</v>
+      </c>
+      <c r="K203">
+        <v>1.363</v>
+      </c>
+      <c r="L203">
+        <v>4.333</v>
+      </c>
+      <c r="M203">
+        <v>7</v>
+      </c>
+      <c r="N203">
+        <v>1.333</v>
+      </c>
+      <c r="O203">
+        <v>5</v>
+      </c>
+      <c r="P203">
+        <v>9.5</v>
+      </c>
+      <c r="Q203">
+        <v>-1.5</v>
+      </c>
+      <c r="R203">
+        <v>1.825</v>
+      </c>
+      <c r="S203">
+        <v>1.975</v>
+      </c>
+      <c r="T203">
+        <v>3.25</v>
+      </c>
+      <c r="U203">
+        <v>1.8</v>
+      </c>
+      <c r="V203">
+        <v>2</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AA203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>8010642</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>29</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45382.66666666666</v>
+      </c>
+      <c r="F204" t="s">
+        <v>43</v>
+      </c>
+      <c r="G204" t="s">
+        <v>46</v>
+      </c>
+      <c r="K204">
+        <v>1.4</v>
+      </c>
+      <c r="L204">
+        <v>4</v>
+      </c>
+      <c r="M204">
+        <v>7</v>
+      </c>
+      <c r="N204">
+        <v>1.444</v>
+      </c>
+      <c r="O204">
+        <v>4.333</v>
+      </c>
+      <c r="P204">
+        <v>8</v>
+      </c>
+      <c r="Q204">
+        <v>-1.25</v>
+      </c>
+      <c r="R204">
+        <v>1.9</v>
+      </c>
+      <c r="S204">
+        <v>1.9</v>
+      </c>
+      <c r="T204">
+        <v>2.75</v>
+      </c>
+      <c r="U204">
+        <v>1.8</v>
+      </c>
+      <c r="V204">
+        <v>2</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>8010640</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>29</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45382.77083333334</v>
+      </c>
+      <c r="F205" t="s">
+        <v>44</v>
+      </c>
+      <c r="G205" t="s">
+        <v>37</v>
+      </c>
+      <c r="K205">
+        <v>1.222</v>
+      </c>
+      <c r="L205">
+        <v>5.75</v>
+      </c>
+      <c r="M205">
+        <v>9</v>
+      </c>
+      <c r="N205">
+        <v>1.222</v>
+      </c>
+      <c r="O205">
+        <v>6</v>
+      </c>
+      <c r="P205">
+        <v>13</v>
+      </c>
+      <c r="Q205">
+        <v>-1.75</v>
+      </c>
+      <c r="R205">
+        <v>1.8</v>
+      </c>
+      <c r="S205">
+        <v>2</v>
+      </c>
+      <c r="T205">
+        <v>3.25</v>
+      </c>
+      <c r="U205">
+        <v>2.025</v>
+      </c>
+      <c r="V205">
+        <v>1.775</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>8011587</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>29</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45382.85416666666</v>
+      </c>
+      <c r="F206" t="s">
+        <v>31</v>
+      </c>
+      <c r="G206" t="s">
+        <v>34</v>
+      </c>
+      <c r="K206">
+        <v>1.533</v>
+      </c>
+      <c r="L206">
+        <v>3.75</v>
+      </c>
+      <c r="M206">
+        <v>5.5</v>
+      </c>
+      <c r="N206">
+        <v>1.4</v>
+      </c>
+      <c r="O206">
+        <v>4.333</v>
+      </c>
+      <c r="P206">
+        <v>8.5</v>
+      </c>
+      <c r="Q206">
+        <v>-1.25</v>
+      </c>
+      <c r="R206">
+        <v>1.925</v>
+      </c>
+      <c r="S206">
+        <v>1.875</v>
+      </c>
+      <c r="T206">
+        <v>2.75</v>
+      </c>
+      <c r="U206">
+        <v>1.85</v>
+      </c>
+      <c r="V206">
+        <v>1.95</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206">
+        <v>0</v>
+      </c>
+      <c r="Z206">
+        <v>0</v>
+      </c>
+      <c r="AA206">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC206"/>
+  <dimension ref="A1:AC204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,76 +2868,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L27">
         <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N27">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,76 +2957,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L28">
         <v>3.6</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532430</v>
+        <v>7532413</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,49 +13103,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K142">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L142">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M142">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="N142">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O142">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q142">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
         <v>1.9</v>
@@ -13154,25 +13154,25 @@
         <v>1.9</v>
       </c>
       <c r="W142">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC142">
-        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532413</v>
+        <v>7532430</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,49 +13192,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K143">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M143">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="N143">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O143">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P143">
-        <v>2.875</v>
+        <v>8.5</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R143">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U143">
         <v>1.9</v>
@@ -13243,25 +13243,25 @@
         <v>1.9</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA143">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532421</v>
+        <v>7532419</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13652,43 +13652,43 @@
         <v>50</v>
       </c>
       <c r="K148">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L148">
+        <v>2.5</v>
+      </c>
+      <c r="M148">
         <v>4.5</v>
       </c>
-      <c r="M148">
-        <v>7.5</v>
-      </c>
       <c r="N148">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="O148">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="P148">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q148">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
+        <v>1.9</v>
+      </c>
+      <c r="S148">
+        <v>1.9</v>
+      </c>
+      <c r="T148">
+        <v>2</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
         <v>1.85</v>
       </c>
-      <c r="S148">
-        <v>1.95</v>
-      </c>
-      <c r="T148">
-        <v>3</v>
-      </c>
-      <c r="U148">
-        <v>1.825</v>
-      </c>
-      <c r="V148">
-        <v>1.975</v>
-      </c>
       <c r="W148">
-        <v>0.333</v>
+        <v>1.375</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC148">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532419</v>
+        <v>7532421</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,13 +13815,13 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13830,43 +13830,43 @@
         <v>50</v>
       </c>
       <c r="K150">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L150">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M150">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N150">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="O150">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="P150">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q150">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>1.375</v>
+        <v>0.333</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -18520,7 +18520,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>8010639</v>
+        <v>8010637</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18529,64 +18529,79 @@
         <v>29</v>
       </c>
       <c r="E203" s="2">
-        <v>45381.875</v>
+        <v>45381.66666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G203" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H203">
+        <v>3</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203" t="s">
+        <v>50</v>
       </c>
       <c r="K203">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L203">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M203">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N203">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="O203">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P203">
-        <v>9.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q203">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R203">
+        <v>1.8</v>
+      </c>
+      <c r="S203">
+        <v>2</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>1.975</v>
+      </c>
+      <c r="V203">
         <v>1.825</v>
       </c>
-      <c r="S203">
-        <v>1.975</v>
-      </c>
-      <c r="T203">
-        <v>3.25</v>
-      </c>
-      <c r="U203">
-        <v>1.8</v>
-      </c>
-      <c r="V203">
-        <v>2</v>
-      </c>
       <c r="W203">
-        <v>0</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA203">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB203">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC203">
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18594,7 +18609,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>8010642</v>
+        <v>8011587</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18603,34 +18618,34 @@
         <v>29</v>
       </c>
       <c r="E204" s="2">
-        <v>45382.66666666666</v>
+        <v>45382.85416666666</v>
       </c>
       <c r="F204" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G204" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K204">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M204">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N204">
-        <v>1.444</v>
+        <v>1.55</v>
       </c>
       <c r="O204">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P204">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Q204">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R204">
         <v>1.9</v>
@@ -18642,10 +18657,10 @@
         <v>2.75</v>
       </c>
       <c r="U204">
+        <v>2</v>
+      </c>
+      <c r="V204">
         <v>1.8</v>
-      </c>
-      <c r="V204">
-        <v>2</v>
       </c>
       <c r="W204">
         <v>0</v>
@@ -18660,154 +18675,6 @@
         <v>0</v>
       </c>
       <c r="AA204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:29">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="B205">
-        <v>8010640</v>
-      </c>
-      <c r="C205" t="s">
-        <v>28</v>
-      </c>
-      <c r="D205" t="s">
-        <v>29</v>
-      </c>
-      <c r="E205" s="2">
-        <v>45382.77083333334</v>
-      </c>
-      <c r="F205" t="s">
-        <v>44</v>
-      </c>
-      <c r="G205" t="s">
-        <v>37</v>
-      </c>
-      <c r="K205">
-        <v>1.222</v>
-      </c>
-      <c r="L205">
-        <v>5.75</v>
-      </c>
-      <c r="M205">
-        <v>9</v>
-      </c>
-      <c r="N205">
-        <v>1.222</v>
-      </c>
-      <c r="O205">
-        <v>6</v>
-      </c>
-      <c r="P205">
-        <v>13</v>
-      </c>
-      <c r="Q205">
-        <v>-1.75</v>
-      </c>
-      <c r="R205">
-        <v>1.8</v>
-      </c>
-      <c r="S205">
-        <v>2</v>
-      </c>
-      <c r="T205">
-        <v>3.25</v>
-      </c>
-      <c r="U205">
-        <v>2.025</v>
-      </c>
-      <c r="V205">
-        <v>1.775</v>
-      </c>
-      <c r="W205">
-        <v>0</v>
-      </c>
-      <c r="X205">
-        <v>0</v>
-      </c>
-      <c r="Y205">
-        <v>0</v>
-      </c>
-      <c r="Z205">
-        <v>0</v>
-      </c>
-      <c r="AA205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:29">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="B206">
-        <v>8011587</v>
-      </c>
-      <c r="C206" t="s">
-        <v>28</v>
-      </c>
-      <c r="D206" t="s">
-        <v>29</v>
-      </c>
-      <c r="E206" s="2">
-        <v>45382.85416666666</v>
-      </c>
-      <c r="F206" t="s">
-        <v>31</v>
-      </c>
-      <c r="G206" t="s">
-        <v>34</v>
-      </c>
-      <c r="K206">
-        <v>1.533</v>
-      </c>
-      <c r="L206">
-        <v>3.75</v>
-      </c>
-      <c r="M206">
-        <v>5.5</v>
-      </c>
-      <c r="N206">
-        <v>1.4</v>
-      </c>
-      <c r="O206">
-        <v>4.333</v>
-      </c>
-      <c r="P206">
-        <v>8.5</v>
-      </c>
-      <c r="Q206">
-        <v>-1.25</v>
-      </c>
-      <c r="R206">
-        <v>1.925</v>
-      </c>
-      <c r="S206">
-        <v>1.875</v>
-      </c>
-      <c r="T206">
-        <v>2.75</v>
-      </c>
-      <c r="U206">
-        <v>1.85</v>
-      </c>
-      <c r="V206">
-        <v>1.95</v>
-      </c>
-      <c r="W206">
-        <v>0</v>
-      </c>
-      <c r="X206">
-        <v>0</v>
-      </c>
-      <c r="Y206">
-        <v>0</v>
-      </c>
-      <c r="Z206">
-        <v>0</v>
-      </c>
-      <c r="AA206">
         <v>0</v>
       </c>
     </row>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC204"/>
+  <dimension ref="A1:AC208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,76 +2868,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L27">
         <v>3.6</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z27">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,76 +2957,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L28">
         <v>3.6</v>
       </c>
       <c r="M28">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7331150</v>
+        <v>7329845</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,76 +9988,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K107">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L107">
+        <v>3.4</v>
+      </c>
+      <c r="M107">
+        <v>2.05</v>
+      </c>
+      <c r="N107">
+        <v>3.4</v>
+      </c>
+      <c r="O107">
         <v>3.5</v>
       </c>
-      <c r="M107">
-        <v>2.875</v>
-      </c>
-      <c r="N107">
-        <v>2.4</v>
-      </c>
-      <c r="O107">
-        <v>3.6</v>
-      </c>
       <c r="P107">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S107">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y107">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA107">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7329845</v>
+        <v>7331150</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,76 +10077,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G108" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K108">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="N108">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="S108">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7462542</v>
+        <v>7462738</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,76 +11857,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128" t="s">
+        <v>51</v>
+      </c>
+      <c r="K128">
+        <v>4</v>
+      </c>
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
+        <v>1.666</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128">
+        <v>3.8</v>
+      </c>
+      <c r="P128">
+        <v>1.75</v>
+      </c>
+      <c r="Q128">
+        <v>0.75</v>
+      </c>
+      <c r="R128">
+        <v>1.8</v>
+      </c>
+      <c r="S128">
+        <v>2</v>
+      </c>
+      <c r="T128">
         <v>3</v>
       </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128" t="s">
-        <v>50</v>
-      </c>
-      <c r="K128">
-        <v>1.363</v>
-      </c>
-      <c r="L128">
-        <v>4.75</v>
-      </c>
-      <c r="M128">
-        <v>6.5</v>
-      </c>
-      <c r="N128">
-        <v>1.285</v>
-      </c>
-      <c r="O128">
-        <v>6.5</v>
-      </c>
-      <c r="P128">
-        <v>8</v>
-      </c>
-      <c r="Q128">
-        <v>-1.75</v>
-      </c>
-      <c r="R128">
-        <v>1.9</v>
-      </c>
-      <c r="S128">
-        <v>1.9</v>
-      </c>
-      <c r="T128">
-        <v>3.25</v>
-      </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W128">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC128">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11934,7 +11934,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7462738</v>
+        <v>7462542</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11946,76 +11946,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K129">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M129">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="N129">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="O129">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P129">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q129">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X129">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532430</v>
+        <v>7532412</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,76 +13192,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>3</v>
+      </c>
+      <c r="J143" t="s">
+        <v>52</v>
+      </c>
+      <c r="K143">
+        <v>1.727</v>
+      </c>
+      <c r="L143">
+        <v>3.75</v>
+      </c>
+      <c r="M143">
         <v>4</v>
       </c>
-      <c r="I143">
-        <v>1</v>
-      </c>
-      <c r="J143" t="s">
-        <v>50</v>
-      </c>
-      <c r="K143">
-        <v>1.4</v>
-      </c>
-      <c r="L143">
-        <v>4.2</v>
-      </c>
-      <c r="M143">
-        <v>7</v>
-      </c>
       <c r="N143">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O143">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q143">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W143">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532412</v>
+        <v>7532430</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,76 +13370,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>50</v>
+      </c>
+      <c r="K145">
+        <v>1.4</v>
+      </c>
+      <c r="L145">
+        <v>4.2</v>
+      </c>
+      <c r="M145">
+        <v>7</v>
+      </c>
+      <c r="N145">
+        <v>1.363</v>
+      </c>
+      <c r="O145">
+        <v>4.5</v>
+      </c>
+      <c r="P145">
+        <v>8.5</v>
+      </c>
+      <c r="Q145">
+        <v>-1.5</v>
+      </c>
+      <c r="R145">
+        <v>2</v>
+      </c>
+      <c r="S145">
+        <v>1.8</v>
+      </c>
+      <c r="T145">
         <v>3</v>
       </c>
-      <c r="J145" t="s">
-        <v>52</v>
-      </c>
-      <c r="K145">
-        <v>1.727</v>
-      </c>
-      <c r="L145">
-        <v>3.75</v>
-      </c>
-      <c r="M145">
-        <v>4</v>
-      </c>
-      <c r="N145">
-        <v>2.3</v>
-      </c>
-      <c r="O145">
-        <v>3.6</v>
-      </c>
-      <c r="P145">
-        <v>2.875</v>
-      </c>
-      <c r="Q145">
-        <v>-0.25</v>
-      </c>
-      <c r="R145">
-        <v>1.95</v>
-      </c>
-      <c r="S145">
-        <v>1.85</v>
-      </c>
-      <c r="T145">
-        <v>2.75</v>
-      </c>
       <c r="U145">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -18609,7 +18609,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>8011587</v>
+        <v>8010638</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18618,64 +18618,435 @@
         <v>29</v>
       </c>
       <c r="E204" s="2">
+        <v>45381.77083333334</v>
+      </c>
+      <c r="F204" t="s">
+        <v>38</v>
+      </c>
+      <c r="G204" t="s">
+        <v>42</v>
+      </c>
+      <c r="H204">
+        <v>3</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204" t="s">
+        <v>50</v>
+      </c>
+      <c r="K204">
+        <v>2.2</v>
+      </c>
+      <c r="L204">
+        <v>3.3</v>
+      </c>
+      <c r="M204">
+        <v>3</v>
+      </c>
+      <c r="N204">
+        <v>1.85</v>
+      </c>
+      <c r="O204">
+        <v>3.5</v>
+      </c>
+      <c r="P204">
+        <v>4.5</v>
+      </c>
+      <c r="Q204">
+        <v>-0.5</v>
+      </c>
+      <c r="R204">
+        <v>1.825</v>
+      </c>
+      <c r="S204">
+        <v>1.975</v>
+      </c>
+      <c r="T204">
+        <v>2.25</v>
+      </c>
+      <c r="U204">
+        <v>1.825</v>
+      </c>
+      <c r="V204">
+        <v>1.975</v>
+      </c>
+      <c r="W204">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X204">
+        <v>-1</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>0.825</v>
+      </c>
+      <c r="AA204">
+        <v>-1</v>
+      </c>
+      <c r="AB204">
+        <v>0.825</v>
+      </c>
+      <c r="AC204">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>8010639</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>29</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45381.875</v>
+      </c>
+      <c r="F205" t="s">
+        <v>41</v>
+      </c>
+      <c r="G205" t="s">
+        <v>32</v>
+      </c>
+      <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205" t="s">
+        <v>50</v>
+      </c>
+      <c r="K205">
+        <v>1.363</v>
+      </c>
+      <c r="L205">
+        <v>4.333</v>
+      </c>
+      <c r="M205">
+        <v>7</v>
+      </c>
+      <c r="N205">
+        <v>1.333</v>
+      </c>
+      <c r="O205">
+        <v>5</v>
+      </c>
+      <c r="P205">
+        <v>9.5</v>
+      </c>
+      <c r="Q205">
+        <v>-1.5</v>
+      </c>
+      <c r="R205">
+        <v>1.875</v>
+      </c>
+      <c r="S205">
+        <v>1.925</v>
+      </c>
+      <c r="T205">
+        <v>3.25</v>
+      </c>
+      <c r="U205">
+        <v>1.9</v>
+      </c>
+      <c r="V205">
+        <v>1.9</v>
+      </c>
+      <c r="W205">
+        <v>0.333</v>
+      </c>
+      <c r="X205">
+        <v>-1</v>
+      </c>
+      <c r="Y205">
+        <v>-1</v>
+      </c>
+      <c r="Z205">
+        <v>0.875</v>
+      </c>
+      <c r="AA205">
+        <v>-1</v>
+      </c>
+      <c r="AB205">
+        <v>-1</v>
+      </c>
+      <c r="AC205">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>8010642</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>29</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45382.66666666666</v>
+      </c>
+      <c r="F206" t="s">
+        <v>43</v>
+      </c>
+      <c r="G206" t="s">
+        <v>46</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206" t="s">
+        <v>52</v>
+      </c>
+      <c r="K206">
+        <v>1.4</v>
+      </c>
+      <c r="L206">
+        <v>4</v>
+      </c>
+      <c r="M206">
+        <v>7</v>
+      </c>
+      <c r="N206">
+        <v>1.3</v>
+      </c>
+      <c r="O206">
+        <v>5.25</v>
+      </c>
+      <c r="P206">
+        <v>10</v>
+      </c>
+      <c r="Q206">
+        <v>-1.5</v>
+      </c>
+      <c r="R206">
+        <v>1.875</v>
+      </c>
+      <c r="S206">
+        <v>1.925</v>
+      </c>
+      <c r="T206">
+        <v>3</v>
+      </c>
+      <c r="U206">
+        <v>1.975</v>
+      </c>
+      <c r="V206">
+        <v>1.825</v>
+      </c>
+      <c r="W206">
+        <v>-1</v>
+      </c>
+      <c r="X206">
+        <v>-1</v>
+      </c>
+      <c r="Y206">
+        <v>9</v>
+      </c>
+      <c r="Z206">
+        <v>-1</v>
+      </c>
+      <c r="AA206">
+        <v>0.925</v>
+      </c>
+      <c r="AB206">
+        <v>-1</v>
+      </c>
+      <c r="AC206">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>8010640</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>29</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45382.77083333334</v>
+      </c>
+      <c r="F207" t="s">
+        <v>44</v>
+      </c>
+      <c r="G207" t="s">
+        <v>37</v>
+      </c>
+      <c r="H207">
+        <v>4</v>
+      </c>
+      <c r="I207">
+        <v>2</v>
+      </c>
+      <c r="J207" t="s">
+        <v>50</v>
+      </c>
+      <c r="K207">
+        <v>1.222</v>
+      </c>
+      <c r="L207">
+        <v>5.75</v>
+      </c>
+      <c r="M207">
+        <v>9</v>
+      </c>
+      <c r="N207">
+        <v>1.166</v>
+      </c>
+      <c r="O207">
+        <v>7</v>
+      </c>
+      <c r="P207">
+        <v>15</v>
+      </c>
+      <c r="Q207">
+        <v>-2.25</v>
+      </c>
+      <c r="R207">
+        <v>2</v>
+      </c>
+      <c r="S207">
+        <v>1.8</v>
+      </c>
+      <c r="T207">
+        <v>3.25</v>
+      </c>
+      <c r="U207">
+        <v>1.975</v>
+      </c>
+      <c r="V207">
+        <v>1.825</v>
+      </c>
+      <c r="W207">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X207">
+        <v>-1</v>
+      </c>
+      <c r="Y207">
+        <v>-1</v>
+      </c>
+      <c r="Z207">
+        <v>-0.5</v>
+      </c>
+      <c r="AA207">
+        <v>0.4</v>
+      </c>
+      <c r="AB207">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC207">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>8011587</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>29</v>
+      </c>
+      <c r="E208" s="2">
         <v>45382.85416666666</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F208" t="s">
         <v>31</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G208" t="s">
         <v>34</v>
       </c>
-      <c r="K204">
+      <c r="H208">
+        <v>4</v>
+      </c>
+      <c r="I208">
+        <v>2</v>
+      </c>
+      <c r="J208" t="s">
+        <v>50</v>
+      </c>
+      <c r="K208">
         <v>1.533</v>
       </c>
-      <c r="L204">
+      <c r="L208">
         <v>3.75</v>
       </c>
-      <c r="M204">
+      <c r="M208">
         <v>5.5</v>
       </c>
-      <c r="N204">
-        <v>1.55</v>
-      </c>
-      <c r="O204">
-        <v>3.8</v>
-      </c>
-      <c r="P204">
-        <v>6.5</v>
-      </c>
-      <c r="Q204">
-        <v>-1</v>
-      </c>
-      <c r="R204">
-        <v>1.9</v>
-      </c>
-      <c r="S204">
-        <v>1.9</v>
-      </c>
-      <c r="T204">
-        <v>2.75</v>
-      </c>
-      <c r="U204">
-        <v>2</v>
-      </c>
-      <c r="V204">
-        <v>1.8</v>
-      </c>
-      <c r="W204">
-        <v>0</v>
-      </c>
-      <c r="X204">
-        <v>0</v>
-      </c>
-      <c r="Y204">
-        <v>0</v>
-      </c>
-      <c r="Z204">
-        <v>0</v>
-      </c>
-      <c r="AA204">
-        <v>0</v>
+      <c r="N208">
+        <v>1.615</v>
+      </c>
+      <c r="O208">
+        <v>3.6</v>
+      </c>
+      <c r="P208">
+        <v>6</v>
+      </c>
+      <c r="Q208">
+        <v>-1</v>
+      </c>
+      <c r="R208">
+        <v>2.025</v>
+      </c>
+      <c r="S208">
+        <v>1.775</v>
+      </c>
+      <c r="T208">
+        <v>2.5</v>
+      </c>
+      <c r="U208">
+        <v>1.825</v>
+      </c>
+      <c r="V208">
+        <v>1.975</v>
+      </c>
+      <c r="W208">
+        <v>0.615</v>
+      </c>
+      <c r="X208">
+        <v>-1</v>
+      </c>
+      <c r="Y208">
+        <v>-1</v>
+      </c>
+      <c r="Z208">
+        <v>1.025</v>
+      </c>
+      <c r="AA208">
+        <v>-1</v>
+      </c>
+      <c r="AB208">
+        <v>0.825</v>
+      </c>
+      <c r="AC208">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC208"/>
+  <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,76 +2868,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L27">
         <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N27">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,76 +2957,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L28">
         <v>3.6</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -4636,7 +4636,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6504578</v>
+        <v>6504291</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4648,16 +4648,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>1</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>52</v>
@@ -4669,34 +4669,34 @@
         <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N47">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O47">
         <v>3.6</v>
       </c>
       <c r="P47">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q47">
         <v>-0.75</v>
       </c>
       <c r="R47">
+        <v>1.85</v>
+      </c>
+      <c r="S47">
         <v>1.95</v>
-      </c>
-      <c r="S47">
-        <v>1.85</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4705,19 +4705,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6504291</v>
+        <v>6504578</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4737,16 +4737,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>52</v>
@@ -4758,34 +4758,34 @@
         <v>3.2</v>
       </c>
       <c r="M48">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N48">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q48">
         <v>-0.75</v>
       </c>
       <c r="R48">
+        <v>1.95</v>
+      </c>
+      <c r="S48">
         <v>1.85</v>
-      </c>
-      <c r="S48">
-        <v>1.95</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4794,19 +4794,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -9709,7 +9709,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7331148</v>
+        <v>7331149</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9721,13 +9721,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9736,25 +9736,25 @@
         <v>50</v>
       </c>
       <c r="K104">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L104">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N104">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="O104">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>16</v>
+        <v>2.8</v>
       </c>
       <c r="Q104">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R104">
         <v>1.8</v>
@@ -9763,16 +9763,16 @@
         <v>2</v>
       </c>
       <c r="T104">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>0.1659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9781,16 +9781,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7331149</v>
+        <v>7331148</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,13 +9810,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9825,25 +9825,25 @@
         <v>50</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M105">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="N105">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P105">
-        <v>2.8</v>
+        <v>16</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R105">
         <v>1.8</v>
@@ -9852,16 +9852,16 @@
         <v>2</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>1.3</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9870,16 +9870,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532413</v>
+        <v>7532414</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,76 +13103,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
         <v>0</v>
       </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
       <c r="J142" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K142">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L142">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M142">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N142">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P142">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R142">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532412</v>
+        <v>7532413</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,34 +13192,34 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
         <v>52</v>
       </c>
       <c r="K143">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M143">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N143">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
         <v>2.875</v>
@@ -13228,19 +13228,19 @@
         <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13255,13 +13255,13 @@
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB143">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532414</v>
+        <v>7532412</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,76 +13281,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K144">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L144">
         <v>3.75</v>
       </c>
       <c r="M144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N144">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="O144">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P144">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q144">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W144">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC144">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532419</v>
+        <v>7532420</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,10 +13637,10 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13652,34 +13652,34 @@
         <v>50</v>
       </c>
       <c r="K148">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L148">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="M148">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="N148">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O148">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="P148">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T148">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U148">
         <v>1.95</v>
@@ -13688,7 +13688,7 @@
         <v>1.85</v>
       </c>
       <c r="W148">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532420</v>
+        <v>7532419</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,10 +13726,10 @@
         <v>45265.875</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13741,34 +13741,34 @@
         <v>50</v>
       </c>
       <c r="K149">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L149">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M149">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N149">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O149">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="P149">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q149">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
+        <v>1.9</v>
+      </c>
+      <c r="T149">
         <v>2</v>
-      </c>
-      <c r="T149">
-        <v>3.25</v>
       </c>
       <c r="U149">
         <v>1.95</v>
@@ -13777,7 +13777,7 @@
         <v>1.85</v>
       </c>
       <c r="W149">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC149">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -19046,6 +19046,95 @@
         <v>0.825</v>
       </c>
       <c r="AC208">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>8010641</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>29</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45383.875</v>
+      </c>
+      <c r="F209" t="s">
+        <v>45</v>
+      </c>
+      <c r="G209" t="s">
+        <v>48</v>
+      </c>
+      <c r="H209">
+        <v>3</v>
+      </c>
+      <c r="I209">
+        <v>4</v>
+      </c>
+      <c r="J209" t="s">
+        <v>52</v>
+      </c>
+      <c r="K209">
+        <v>1.7</v>
+      </c>
+      <c r="L209">
+        <v>3.4</v>
+      </c>
+      <c r="M209">
+        <v>4.333</v>
+      </c>
+      <c r="N209">
+        <v>1.5</v>
+      </c>
+      <c r="O209">
+        <v>4.2</v>
+      </c>
+      <c r="P209">
+        <v>7</v>
+      </c>
+      <c r="Q209">
+        <v>-1.25</v>
+      </c>
+      <c r="R209">
+        <v>1.975</v>
+      </c>
+      <c r="S209">
+        <v>1.825</v>
+      </c>
+      <c r="T209">
+        <v>2.75</v>
+      </c>
+      <c r="U209">
+        <v>1.95</v>
+      </c>
+      <c r="V209">
+        <v>1.85</v>
+      </c>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
+        <v>-1</v>
+      </c>
+      <c r="Y209">
+        <v>6</v>
+      </c>
+      <c r="Z209">
+        <v>-1</v>
+      </c>
+      <c r="AA209">
+        <v>0.825</v>
+      </c>
+      <c r="AB209">
+        <v>0.95</v>
+      </c>
+      <c r="AC209">
         <v>-1</v>
       </c>
     </row>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532420</v>
+        <v>7532421</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13652,43 +13652,43 @@
         <v>50</v>
       </c>
       <c r="K148">
+        <v>1.4</v>
+      </c>
+      <c r="L148">
+        <v>4.5</v>
+      </c>
+      <c r="M148">
+        <v>7.5</v>
+      </c>
+      <c r="N148">
         <v>1.333</v>
       </c>
-      <c r="L148">
-        <v>5</v>
-      </c>
-      <c r="M148">
-        <v>8</v>
-      </c>
-      <c r="N148">
-        <v>1.3</v>
-      </c>
       <c r="O148">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P148">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q148">
         <v>-1.5</v>
       </c>
       <c r="R148">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S148">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532421</v>
+        <v>7532420</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,13 +13815,13 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13830,43 +13830,43 @@
         <v>50</v>
       </c>
       <c r="K150">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="L150">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M150">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N150">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O150">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P150">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q150">
         <v>-1.5</v>
       </c>
       <c r="R150">
+        <v>1.8</v>
+      </c>
+      <c r="S150">
+        <v>2</v>
+      </c>
+      <c r="T150">
+        <v>3.25</v>
+      </c>
+      <c r="U150">
+        <v>1.95</v>
+      </c>
+      <c r="V150">
         <v>1.85</v>
       </c>
-      <c r="S150">
-        <v>1.95</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
       <c r="W150">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,58 +14082,58 @@
         <v>45266.875</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
         <v>50</v>
       </c>
       <c r="K153">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L153">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="N153">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O153">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q153">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T153">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W153">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14142,16 +14142,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,76 +14171,76 @@
         <v>45266.875</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>50</v>
       </c>
       <c r="K154">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L154">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M154">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="N154">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O154">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P154">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="Q154">
+        <v>-2.25</v>
+      </c>
+      <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>1.85</v>
+      </c>
+      <c r="T154">
+        <v>3.75</v>
+      </c>
+      <c r="U154">
+        <v>1.975</v>
+      </c>
+      <c r="V154">
+        <v>1.825</v>
+      </c>
+      <c r="W154">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
+        <v>0.95</v>
+      </c>
+      <c r="AA154">
+        <v>-1</v>
+      </c>
+      <c r="AB154">
+        <v>0.4875</v>
+      </c>
+      <c r="AC154">
         <v>-0.5</v>
-      </c>
-      <c r="R154">
-        <v>1.825</v>
-      </c>
-      <c r="S154">
-        <v>1.975</v>
-      </c>
-      <c r="T154">
-        <v>3</v>
-      </c>
-      <c r="U154">
-        <v>2</v>
-      </c>
-      <c r="V154">
-        <v>1.8</v>
-      </c>
-      <c r="W154">
-        <v>0.833</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>-1</v>
-      </c>
-      <c r="Z154">
-        <v>0.825</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>0</v>
-      </c>
-      <c r="AC154">
-        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532421</v>
+        <v>7532420</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13652,43 +13652,43 @@
         <v>50</v>
       </c>
       <c r="K148">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="L148">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M148">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N148">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O148">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P148">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q148">
         <v>-1.5</v>
       </c>
       <c r="R148">
+        <v>1.8</v>
+      </c>
+      <c r="S148">
+        <v>2</v>
+      </c>
+      <c r="T148">
+        <v>3.25</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
         <v>1.85</v>
       </c>
-      <c r="S148">
-        <v>1.95</v>
-      </c>
-      <c r="T148">
-        <v>3</v>
-      </c>
-      <c r="U148">
-        <v>1.825</v>
-      </c>
-      <c r="V148">
-        <v>1.975</v>
-      </c>
       <c r="W148">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC148">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532420</v>
+        <v>7532421</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,13 +13815,13 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13830,43 +13830,43 @@
         <v>50</v>
       </c>
       <c r="K150">
+        <v>1.4</v>
+      </c>
+      <c r="L150">
+        <v>4.5</v>
+      </c>
+      <c r="M150">
+        <v>7.5</v>
+      </c>
+      <c r="N150">
         <v>1.333</v>
       </c>
-      <c r="L150">
-        <v>5</v>
-      </c>
-      <c r="M150">
-        <v>8</v>
-      </c>
-      <c r="N150">
-        <v>1.3</v>
-      </c>
       <c r="O150">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P150">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q150">
         <v>-1.5</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,76 +14082,76 @@
         <v>45266.875</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
         <v>50</v>
       </c>
       <c r="K153">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M153">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="N153">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O153">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P153">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="Q153">
+        <v>-2.25</v>
+      </c>
+      <c r="R153">
+        <v>1.95</v>
+      </c>
+      <c r="S153">
+        <v>1.85</v>
+      </c>
+      <c r="T153">
+        <v>3.75</v>
+      </c>
+      <c r="U153">
+        <v>1.975</v>
+      </c>
+      <c r="V153">
+        <v>1.825</v>
+      </c>
+      <c r="W153">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
+        <v>0.95</v>
+      </c>
+      <c r="AA153">
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>0.4875</v>
+      </c>
+      <c r="AC153">
         <v>-0.5</v>
-      </c>
-      <c r="R153">
-        <v>1.825</v>
-      </c>
-      <c r="S153">
-        <v>1.975</v>
-      </c>
-      <c r="T153">
-        <v>3</v>
-      </c>
-      <c r="U153">
-        <v>2</v>
-      </c>
-      <c r="V153">
-        <v>1.8</v>
-      </c>
-      <c r="W153">
-        <v>0.833</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
-      <c r="Z153">
-        <v>0.825</v>
-      </c>
-      <c r="AA153">
-        <v>-1</v>
-      </c>
-      <c r="AB153">
-        <v>0</v>
-      </c>
-      <c r="AC153">
-        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,58 +14171,58 @@
         <v>45266.875</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
         <v>50</v>
       </c>
       <c r="K154">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L154">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M154">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="N154">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O154">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P154">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q154">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T154">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U154">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V154">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14231,16 +14231,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC209"/>
+  <dimension ref="A1:AC212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,76 +2868,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L27">
         <v>3.6</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z27">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,76 +2957,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L28">
         <v>3.6</v>
       </c>
       <c r="M28">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -9709,7 +9709,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7331149</v>
+        <v>7331148</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9721,13 +9721,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9736,25 +9736,25 @@
         <v>50</v>
       </c>
       <c r="K104">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M104">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="N104">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P104">
-        <v>2.8</v>
+        <v>16</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R104">
         <v>1.8</v>
@@ -9763,16 +9763,16 @@
         <v>2</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>1.3</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9781,16 +9781,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7331148</v>
+        <v>7331149</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,13 +9810,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9825,25 +9825,25 @@
         <v>50</v>
       </c>
       <c r="K105">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="O105">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>16</v>
+        <v>2.8</v>
       </c>
       <c r="Q105">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R105">
         <v>1.8</v>
@@ -9852,16 +9852,16 @@
         <v>2</v>
       </c>
       <c r="T105">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>0.1659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9870,16 +9870,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC105">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7462738</v>
+        <v>7462542</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,76 +11857,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M128">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="N128">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="O128">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P128">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q128">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R128">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X128">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11934,7 +11934,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7462542</v>
+        <v>7462738</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11946,76 +11946,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129" t="s">
+        <v>51</v>
+      </c>
+      <c r="K129">
+        <v>4</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129">
+        <v>1.666</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129">
+        <v>3.8</v>
+      </c>
+      <c r="P129">
+        <v>1.75</v>
+      </c>
+      <c r="Q129">
+        <v>0.75</v>
+      </c>
+      <c r="R129">
+        <v>1.8</v>
+      </c>
+      <c r="S129">
+        <v>2</v>
+      </c>
+      <c r="T129">
         <v>3</v>
       </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129" t="s">
-        <v>50</v>
-      </c>
-      <c r="K129">
-        <v>1.363</v>
-      </c>
-      <c r="L129">
-        <v>4.75</v>
-      </c>
-      <c r="M129">
-        <v>6.5</v>
-      </c>
-      <c r="N129">
-        <v>1.285</v>
-      </c>
-      <c r="O129">
-        <v>6.5</v>
-      </c>
-      <c r="P129">
-        <v>8</v>
-      </c>
-      <c r="Q129">
-        <v>-1.75</v>
-      </c>
-      <c r="R129">
-        <v>1.9</v>
-      </c>
-      <c r="S129">
-        <v>1.9</v>
-      </c>
-      <c r="T129">
-        <v>3.25</v>
-      </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC129">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532414</v>
+        <v>7532430</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,40 +13103,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H142">
+        <v>4</v>
+      </c>
+      <c r="I142">
         <v>1</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
       </c>
       <c r="J142" t="s">
         <v>50</v>
       </c>
       <c r="K142">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="L142">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M142">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N142">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O142">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P142">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Q142">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R142">
         <v>2</v>
@@ -13148,13 +13148,13 @@
         <v>3</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13163,16 +13163,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532413</v>
+        <v>7532414</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,76 +13192,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
         <v>0</v>
       </c>
-      <c r="I143">
-        <v>1</v>
-      </c>
       <c r="J143" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K143">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M143">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N143">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O143">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P143">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R143">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532412</v>
+        <v>7532413</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,34 +13281,34 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
         <v>52</v>
       </c>
       <c r="K144">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N144">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O144">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
         <v>2.875</v>
@@ -13317,19 +13317,19 @@
         <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -13344,13 +13344,13 @@
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB144">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532430</v>
+        <v>7532412</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,76 +13370,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>3</v>
+      </c>
+      <c r="J145" t="s">
+        <v>52</v>
+      </c>
+      <c r="K145">
+        <v>1.727</v>
+      </c>
+      <c r="L145">
+        <v>3.75</v>
+      </c>
+      <c r="M145">
         <v>4</v>
       </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
-      <c r="J145" t="s">
-        <v>50</v>
-      </c>
-      <c r="K145">
-        <v>1.4</v>
-      </c>
-      <c r="L145">
-        <v>4.2</v>
-      </c>
-      <c r="M145">
-        <v>7</v>
-      </c>
       <c r="N145">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O145">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q145">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W145">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532420</v>
+        <v>7532419</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,10 +13637,10 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13652,34 +13652,34 @@
         <v>50</v>
       </c>
       <c r="K148">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L148">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M148">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N148">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O148">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="P148">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q148">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
+        <v>1.9</v>
+      </c>
+      <c r="T148">
         <v>2</v>
-      </c>
-      <c r="T148">
-        <v>3.25</v>
       </c>
       <c r="U148">
         <v>1.95</v>
@@ -13688,7 +13688,7 @@
         <v>1.85</v>
       </c>
       <c r="W148">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC148">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532419</v>
+        <v>7532421</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,13 +13726,13 @@
         <v>45265.875</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -13741,43 +13741,43 @@
         <v>50</v>
       </c>
       <c r="K149">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L149">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M149">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N149">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="O149">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="P149">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U149">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W149">
-        <v>1.375</v>
+        <v>0.333</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532421</v>
+        <v>7532420</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,13 +13815,13 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13830,43 +13830,43 @@
         <v>50</v>
       </c>
       <c r="K150">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="L150">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M150">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N150">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O150">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P150">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q150">
         <v>-1.5</v>
       </c>
       <c r="R150">
+        <v>1.8</v>
+      </c>
+      <c r="S150">
+        <v>2</v>
+      </c>
+      <c r="T150">
+        <v>3.25</v>
+      </c>
+      <c r="U150">
+        <v>1.95</v>
+      </c>
+      <c r="V150">
         <v>1.85</v>
       </c>
-      <c r="S150">
-        <v>1.95</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
       <c r="W150">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,58 +14082,58 @@
         <v>45266.875</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
         <v>50</v>
       </c>
       <c r="K153">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L153">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="N153">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O153">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q153">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T153">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W153">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14142,16 +14142,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,76 +14171,76 @@
         <v>45266.875</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>50</v>
       </c>
       <c r="K154">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L154">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M154">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="N154">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O154">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P154">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="Q154">
+        <v>-2.25</v>
+      </c>
+      <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>1.85</v>
+      </c>
+      <c r="T154">
+        <v>3.75</v>
+      </c>
+      <c r="U154">
+        <v>1.975</v>
+      </c>
+      <c r="V154">
+        <v>1.825</v>
+      </c>
+      <c r="W154">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
+        <v>0.95</v>
+      </c>
+      <c r="AA154">
+        <v>-1</v>
+      </c>
+      <c r="AB154">
+        <v>0.4875</v>
+      </c>
+      <c r="AC154">
         <v>-0.5</v>
-      </c>
-      <c r="R154">
-        <v>1.825</v>
-      </c>
-      <c r="S154">
-        <v>1.975</v>
-      </c>
-      <c r="T154">
-        <v>3</v>
-      </c>
-      <c r="U154">
-        <v>2</v>
-      </c>
-      <c r="V154">
-        <v>1.8</v>
-      </c>
-      <c r="W154">
-        <v>0.833</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>-1</v>
-      </c>
-      <c r="Z154">
-        <v>0.825</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>0</v>
-      </c>
-      <c r="AC154">
-        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -19136,6 +19136,228 @@
       </c>
       <c r="AC209">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>8039390</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>29</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45388.70833333334</v>
+      </c>
+      <c r="F210" t="s">
+        <v>34</v>
+      </c>
+      <c r="G210" t="s">
+        <v>41</v>
+      </c>
+      <c r="K210">
+        <v>2.05</v>
+      </c>
+      <c r="L210">
+        <v>3.6</v>
+      </c>
+      <c r="M210">
+        <v>3</v>
+      </c>
+      <c r="N210">
+        <v>1.7</v>
+      </c>
+      <c r="O210">
+        <v>4</v>
+      </c>
+      <c r="P210">
+        <v>4.333</v>
+      </c>
+      <c r="Q210">
+        <v>-0.75</v>
+      </c>
+      <c r="R210">
+        <v>1.85</v>
+      </c>
+      <c r="S210">
+        <v>1.95</v>
+      </c>
+      <c r="T210">
+        <v>3.25</v>
+      </c>
+      <c r="U210">
+        <v>1.8</v>
+      </c>
+      <c r="V210">
+        <v>2</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>8039389</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>29</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45388.70833333334</v>
+      </c>
+      <c r="F211" t="s">
+        <v>32</v>
+      </c>
+      <c r="G211" t="s">
+        <v>31</v>
+      </c>
+      <c r="K211">
+        <v>2.2</v>
+      </c>
+      <c r="L211">
+        <v>3.3</v>
+      </c>
+      <c r="M211">
+        <v>2.875</v>
+      </c>
+      <c r="N211">
+        <v>3.1</v>
+      </c>
+      <c r="O211">
+        <v>3.4</v>
+      </c>
+      <c r="P211">
+        <v>2.3</v>
+      </c>
+      <c r="Q211">
+        <v>0.25</v>
+      </c>
+      <c r="R211">
+        <v>1.825</v>
+      </c>
+      <c r="S211">
+        <v>1.975</v>
+      </c>
+      <c r="T211">
+        <v>2.5</v>
+      </c>
+      <c r="U211">
+        <v>2</v>
+      </c>
+      <c r="V211">
+        <v>1.8</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>8054794</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>29</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45388.79166666666</v>
+      </c>
+      <c r="F212" t="s">
+        <v>42</v>
+      </c>
+      <c r="G212" t="s">
+        <v>43</v>
+      </c>
+      <c r="K212">
+        <v>1.95</v>
+      </c>
+      <c r="L212">
+        <v>3.4</v>
+      </c>
+      <c r="M212">
+        <v>3.4</v>
+      </c>
+      <c r="N212">
+        <v>2.05</v>
+      </c>
+      <c r="O212">
+        <v>3.4</v>
+      </c>
+      <c r="P212">
+        <v>3.6</v>
+      </c>
+      <c r="Q212">
+        <v>-0.25</v>
+      </c>
+      <c r="R212">
+        <v>1.75</v>
+      </c>
+      <c r="S212">
+        <v>2.05</v>
+      </c>
+      <c r="T212">
+        <v>2.5</v>
+      </c>
+      <c r="U212">
+        <v>2.05</v>
+      </c>
+      <c r="V212">
+        <v>1.75</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AA212">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC212"/>
+  <dimension ref="A1:AC213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532419</v>
+        <v>7532420</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,10 +13637,10 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13652,34 +13652,34 @@
         <v>50</v>
       </c>
       <c r="K148">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L148">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="M148">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="N148">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O148">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="P148">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T148">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U148">
         <v>1.95</v>
@@ -13688,7 +13688,7 @@
         <v>1.85</v>
       </c>
       <c r="W148">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532421</v>
+        <v>7532419</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,13 +13726,13 @@
         <v>45265.875</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -13741,43 +13741,43 @@
         <v>50</v>
       </c>
       <c r="K149">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L149">
+        <v>2.5</v>
+      </c>
+      <c r="M149">
         <v>4.5</v>
       </c>
-      <c r="M149">
-        <v>7.5</v>
-      </c>
       <c r="N149">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="O149">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="P149">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q149">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
+        <v>1.9</v>
+      </c>
+      <c r="S149">
+        <v>1.9</v>
+      </c>
+      <c r="T149">
+        <v>2</v>
+      </c>
+      <c r="U149">
+        <v>1.95</v>
+      </c>
+      <c r="V149">
         <v>1.85</v>
       </c>
-      <c r="S149">
-        <v>1.95</v>
-      </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.825</v>
-      </c>
-      <c r="V149">
-        <v>1.975</v>
-      </c>
       <c r="W149">
-        <v>0.333</v>
+        <v>1.375</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC149">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532420</v>
+        <v>7532421</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,13 +13815,13 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13830,43 +13830,43 @@
         <v>50</v>
       </c>
       <c r="K150">
+        <v>1.4</v>
+      </c>
+      <c r="L150">
+        <v>4.5</v>
+      </c>
+      <c r="M150">
+        <v>7.5</v>
+      </c>
+      <c r="N150">
         <v>1.333</v>
       </c>
-      <c r="L150">
-        <v>5</v>
-      </c>
-      <c r="M150">
-        <v>8</v>
-      </c>
-      <c r="N150">
-        <v>1.3</v>
-      </c>
       <c r="O150">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P150">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q150">
         <v>-1.5</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -19170,31 +19170,31 @@
         <v>3</v>
       </c>
       <c r="N210">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O210">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P210">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q210">
         <v>-0.75</v>
       </c>
       <c r="R210">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S210">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T210">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U210">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V210">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W210">
         <v>0</v>
@@ -19244,7 +19244,7 @@
         <v>2.875</v>
       </c>
       <c r="N211">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O211">
         <v>3.4</v>
@@ -19253,22 +19253,22 @@
         <v>2.3</v>
       </c>
       <c r="Q211">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R211">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S211">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T211">
         <v>2.5</v>
       </c>
       <c r="U211">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V211">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W211">
         <v>0</v>
@@ -19318,31 +19318,31 @@
         <v>3.4</v>
       </c>
       <c r="N212">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O212">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P212">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q212">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S212">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T212">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U212">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W212">
         <v>0</v>
@@ -19357,6 +19357,80 @@
         <v>0</v>
       </c>
       <c r="AA212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>8039392</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>29</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45389.70833333334</v>
+      </c>
+      <c r="F213" t="s">
+        <v>37</v>
+      </c>
+      <c r="G213" t="s">
+        <v>45</v>
+      </c>
+      <c r="K213">
+        <v>2</v>
+      </c>
+      <c r="L213">
+        <v>3.25</v>
+      </c>
+      <c r="M213">
+        <v>3.4</v>
+      </c>
+      <c r="N213">
+        <v>1.75</v>
+      </c>
+      <c r="O213">
+        <v>3.4</v>
+      </c>
+      <c r="P213">
+        <v>4</v>
+      </c>
+      <c r="Q213">
+        <v>-0.5</v>
+      </c>
+      <c r="R213">
+        <v>1.8</v>
+      </c>
+      <c r="S213">
+        <v>2</v>
+      </c>
+      <c r="T213">
+        <v>2.25</v>
+      </c>
+      <c r="U213">
+        <v>1.775</v>
+      </c>
+      <c r="V213">
+        <v>2.025</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
         <v>0</v>
       </c>
     </row>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC213"/>
+  <dimension ref="A1:AC215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,76 +2868,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L27">
         <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N27">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,76 +2957,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L28">
         <v>3.6</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7329845</v>
+        <v>7331150</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,76 +9988,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K107">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="N107">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="S107">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z107">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7331150</v>
+        <v>7329845</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,76 +10077,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K108">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L108">
+        <v>3.4</v>
+      </c>
+      <c r="M108">
+        <v>2.05</v>
+      </c>
+      <c r="N108">
+        <v>3.4</v>
+      </c>
+      <c r="O108">
         <v>3.5</v>
       </c>
-      <c r="M108">
-        <v>2.875</v>
-      </c>
-      <c r="N108">
-        <v>2.4</v>
-      </c>
-      <c r="O108">
-        <v>3.6</v>
-      </c>
       <c r="P108">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S108">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y108">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA108">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532430</v>
+        <v>7532412</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,76 +13103,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>3</v>
+      </c>
+      <c r="J142" t="s">
+        <v>52</v>
+      </c>
+      <c r="K142">
+        <v>1.727</v>
+      </c>
+      <c r="L142">
+        <v>3.75</v>
+      </c>
+      <c r="M142">
         <v>4</v>
       </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
-      <c r="J142" t="s">
-        <v>50</v>
-      </c>
-      <c r="K142">
-        <v>1.4</v>
-      </c>
-      <c r="L142">
-        <v>4.2</v>
-      </c>
-      <c r="M142">
-        <v>7</v>
-      </c>
       <c r="N142">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O142">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q142">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W142">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532414</v>
+        <v>7532413</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,76 +13192,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
         <v>1</v>
       </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K143">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M143">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N143">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O143">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q143">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532413</v>
+        <v>7532414</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,76 +13281,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
         <v>0</v>
       </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
       <c r="J144" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K144">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N144">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P144">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R144">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532412</v>
+        <v>7532430</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,76 +13370,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>50</v>
+      </c>
+      <c r="K145">
+        <v>1.4</v>
+      </c>
+      <c r="L145">
+        <v>4.2</v>
+      </c>
+      <c r="M145">
+        <v>7</v>
+      </c>
+      <c r="N145">
+        <v>1.363</v>
+      </c>
+      <c r="O145">
+        <v>4.5</v>
+      </c>
+      <c r="P145">
+        <v>8.5</v>
+      </c>
+      <c r="Q145">
+        <v>-1.5</v>
+      </c>
+      <c r="R145">
+        <v>2</v>
+      </c>
+      <c r="S145">
+        <v>1.8</v>
+      </c>
+      <c r="T145">
         <v>3</v>
       </c>
-      <c r="J145" t="s">
-        <v>52</v>
-      </c>
-      <c r="K145">
-        <v>1.727</v>
-      </c>
-      <c r="L145">
-        <v>3.75</v>
-      </c>
-      <c r="M145">
-        <v>4</v>
-      </c>
-      <c r="N145">
-        <v>2.3</v>
-      </c>
-      <c r="O145">
-        <v>3.6</v>
-      </c>
-      <c r="P145">
-        <v>2.875</v>
-      </c>
-      <c r="Q145">
-        <v>-0.25</v>
-      </c>
-      <c r="R145">
-        <v>1.95</v>
-      </c>
-      <c r="S145">
-        <v>1.85</v>
-      </c>
-      <c r="T145">
-        <v>2.75</v>
-      </c>
       <c r="U145">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532420</v>
+        <v>7532421</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13652,43 +13652,43 @@
         <v>50</v>
       </c>
       <c r="K148">
+        <v>1.4</v>
+      </c>
+      <c r="L148">
+        <v>4.5</v>
+      </c>
+      <c r="M148">
+        <v>7.5</v>
+      </c>
+      <c r="N148">
         <v>1.333</v>
       </c>
-      <c r="L148">
-        <v>5</v>
-      </c>
-      <c r="M148">
-        <v>8</v>
-      </c>
-      <c r="N148">
-        <v>1.3</v>
-      </c>
       <c r="O148">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P148">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q148">
         <v>-1.5</v>
       </c>
       <c r="R148">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S148">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532421</v>
+        <v>7532420</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,13 +13815,13 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13830,43 +13830,43 @@
         <v>50</v>
       </c>
       <c r="K150">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="L150">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M150">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N150">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O150">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P150">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q150">
         <v>-1.5</v>
       </c>
       <c r="R150">
+        <v>1.8</v>
+      </c>
+      <c r="S150">
+        <v>2</v>
+      </c>
+      <c r="T150">
+        <v>3.25</v>
+      </c>
+      <c r="U150">
+        <v>1.95</v>
+      </c>
+      <c r="V150">
         <v>1.85</v>
       </c>
-      <c r="S150">
-        <v>1.95</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
       <c r="W150">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,76 +14082,76 @@
         <v>45266.875</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
         <v>50</v>
       </c>
       <c r="K153">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M153">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="N153">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O153">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P153">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="Q153">
+        <v>-2.25</v>
+      </c>
+      <c r="R153">
+        <v>1.95</v>
+      </c>
+      <c r="S153">
+        <v>1.85</v>
+      </c>
+      <c r="T153">
+        <v>3.75</v>
+      </c>
+      <c r="U153">
+        <v>1.975</v>
+      </c>
+      <c r="V153">
+        <v>1.825</v>
+      </c>
+      <c r="W153">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
+        <v>0.95</v>
+      </c>
+      <c r="AA153">
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>0.4875</v>
+      </c>
+      <c r="AC153">
         <v>-0.5</v>
-      </c>
-      <c r="R153">
-        <v>1.825</v>
-      </c>
-      <c r="S153">
-        <v>1.975</v>
-      </c>
-      <c r="T153">
-        <v>3</v>
-      </c>
-      <c r="U153">
-        <v>2</v>
-      </c>
-      <c r="V153">
-        <v>1.8</v>
-      </c>
-      <c r="W153">
-        <v>0.833</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
-      <c r="Z153">
-        <v>0.825</v>
-      </c>
-      <c r="AA153">
-        <v>-1</v>
-      </c>
-      <c r="AB153">
-        <v>0</v>
-      </c>
-      <c r="AC153">
-        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,58 +14171,58 @@
         <v>45266.875</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
         <v>50</v>
       </c>
       <c r="K154">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L154">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M154">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="N154">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O154">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P154">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q154">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T154">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U154">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V154">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14231,16 +14231,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -19143,7 +19143,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>8039390</v>
+        <v>8038942</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19152,64 +19152,79 @@
         <v>29</v>
       </c>
       <c r="E210" s="2">
-        <v>45388.70833333334</v>
+        <v>45387.79166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G210" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="H210">
+        <v>2</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210" t="s">
+        <v>50</v>
       </c>
       <c r="K210">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="L210">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M210">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="N210">
-        <v>1.666</v>
+        <v>1.181</v>
       </c>
       <c r="O210">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P210">
-        <v>4.75</v>
+        <v>15</v>
       </c>
       <c r="Q210">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R210">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S210">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T210">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U210">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V210">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W210">
-        <v>0</v>
+        <v>0.181</v>
       </c>
       <c r="X210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
         <v>0</v>
       </c>
       <c r="AA210">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB210">
+        <v>-1</v>
+      </c>
+      <c r="AC210">
+        <v>0.825</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19217,7 +19232,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>8039389</v>
+        <v>8039390</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19229,61 +19244,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G211" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="H211">
+        <v>2</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211" t="s">
+        <v>50</v>
       </c>
       <c r="K211">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L211">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M211">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N211">
+        <v>1.8</v>
+      </c>
+      <c r="O211">
+        <v>3.75</v>
+      </c>
+      <c r="P211">
+        <v>4.2</v>
+      </c>
+      <c r="Q211">
+        <v>-0.5</v>
+      </c>
+      <c r="R211">
+        <v>1.825</v>
+      </c>
+      <c r="S211">
+        <v>1.975</v>
+      </c>
+      <c r="T211">
         <v>3</v>
       </c>
-      <c r="O211">
-        <v>3.4</v>
-      </c>
-      <c r="P211">
-        <v>2.3</v>
-      </c>
-      <c r="Q211">
+      <c r="U211">
+        <v>1.975</v>
+      </c>
+      <c r="V211">
+        <v>1.825</v>
+      </c>
+      <c r="W211">
+        <v>0.8</v>
+      </c>
+      <c r="X211">
+        <v>-1</v>
+      </c>
+      <c r="Y211">
+        <v>-1</v>
+      </c>
+      <c r="Z211">
+        <v>0.825</v>
+      </c>
+      <c r="AA211">
+        <v>-1</v>
+      </c>
+      <c r="AB211">
         <v>0</v>
       </c>
-      <c r="R211">
-        <v>2.05</v>
-      </c>
-      <c r="S211">
-        <v>1.75</v>
-      </c>
-      <c r="T211">
-        <v>2.5</v>
-      </c>
-      <c r="U211">
-        <v>1.9</v>
-      </c>
-      <c r="V211">
-        <v>1.9</v>
-      </c>
-      <c r="W211">
-        <v>0</v>
-      </c>
-      <c r="X211">
-        <v>0</v>
-      </c>
-      <c r="Y211">
-        <v>0</v>
-      </c>
-      <c r="Z211">
-        <v>0</v>
-      </c>
-      <c r="AA211">
-        <v>0</v>
+      <c r="AC211">
+        <v>-0</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19291,7 +19321,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>8054794</v>
+        <v>8039389</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19300,64 +19330,79 @@
         <v>29</v>
       </c>
       <c r="E212" s="2">
-        <v>45388.79166666666</v>
+        <v>45388.70833333334</v>
       </c>
       <c r="F212" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212" t="s">
+        <v>51</v>
       </c>
       <c r="K212">
+        <v>2.2</v>
+      </c>
+      <c r="L212">
+        <v>3.3</v>
+      </c>
+      <c r="M212">
+        <v>2.875</v>
+      </c>
+      <c r="N212">
+        <v>2.625</v>
+      </c>
+      <c r="O212">
+        <v>3.4</v>
+      </c>
+      <c r="P212">
+        <v>2.625</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <v>1.875</v>
+      </c>
+      <c r="S212">
+        <v>1.925</v>
+      </c>
+      <c r="T212">
+        <v>2.5</v>
+      </c>
+      <c r="U212">
         <v>1.95</v>
       </c>
-      <c r="L212">
-        <v>3.4</v>
-      </c>
-      <c r="M212">
-        <v>3.4</v>
-      </c>
-      <c r="N212">
-        <v>1.95</v>
-      </c>
-      <c r="O212">
-        <v>3.5</v>
-      </c>
-      <c r="P212">
-        <v>3.8</v>
-      </c>
-      <c r="Q212">
-        <v>-0.5</v>
-      </c>
-      <c r="R212">
-        <v>1.975</v>
-      </c>
-      <c r="S212">
-        <v>1.825</v>
-      </c>
-      <c r="T212">
-        <v>2.25</v>
-      </c>
-      <c r="U212">
-        <v>1.825</v>
-      </c>
       <c r="V212">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
         <v>0</v>
       </c>
       <c r="AA212">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19365,7 +19410,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>8039392</v>
+        <v>8054794</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19374,64 +19419,257 @@
         <v>29</v>
       </c>
       <c r="E213" s="2">
-        <v>45389.70833333334</v>
+        <v>45388.79166666666</v>
       </c>
       <c r="F213" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G213" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="H213">
+        <v>2</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213" t="s">
+        <v>50</v>
       </c>
       <c r="K213">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L213">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M213">
         <v>3.4</v>
       </c>
       <c r="N213">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="O213">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P213">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q213">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R213">
+        <v>2</v>
+      </c>
+      <c r="S213">
         <v>1.8</v>
       </c>
-      <c r="S213">
+      <c r="T213">
+        <v>2.5</v>
+      </c>
+      <c r="U213">
         <v>2</v>
       </c>
-      <c r="T213">
-        <v>2.25</v>
-      </c>
-      <c r="U213">
-        <v>1.775</v>
-      </c>
       <c r="V213">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W213">
-        <v>0</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
         <v>0</v>
       </c>
       <c r="AA213">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB213">
+        <v>1</v>
+      </c>
+      <c r="AC213">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>8039392</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>29</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45389.70833333334</v>
+      </c>
+      <c r="F214" t="s">
+        <v>37</v>
+      </c>
+      <c r="G214" t="s">
+        <v>45</v>
+      </c>
+      <c r="H214">
+        <v>2</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214" t="s">
+        <v>50</v>
+      </c>
+      <c r="K214">
+        <v>2</v>
+      </c>
+      <c r="L214">
+        <v>3.25</v>
+      </c>
+      <c r="M214">
+        <v>3.4</v>
+      </c>
+      <c r="N214">
+        <v>1.727</v>
+      </c>
+      <c r="O214">
+        <v>4</v>
+      </c>
+      <c r="P214">
+        <v>4.5</v>
+      </c>
+      <c r="Q214">
+        <v>-0.75</v>
+      </c>
+      <c r="R214">
+        <v>1.9</v>
+      </c>
+      <c r="S214">
+        <v>1.9</v>
+      </c>
+      <c r="T214">
+        <v>2.75</v>
+      </c>
+      <c r="U214">
+        <v>1.9</v>
+      </c>
+      <c r="V214">
+        <v>1.9</v>
+      </c>
+      <c r="W214">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X214">
+        <v>-1</v>
+      </c>
+      <c r="Y214">
+        <v>-1</v>
+      </c>
+      <c r="Z214">
+        <v>0.45</v>
+      </c>
+      <c r="AA214">
+        <v>-0.5</v>
+      </c>
+      <c r="AB214">
+        <v>0.45</v>
+      </c>
+      <c r="AC214">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>8038943</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>29</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45389.70833333334</v>
+      </c>
+      <c r="F215" t="s">
+        <v>48</v>
+      </c>
+      <c r="G215" t="s">
+        <v>44</v>
+      </c>
+      <c r="H215">
+        <v>2</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215" t="s">
+        <v>50</v>
+      </c>
+      <c r="K215">
+        <v>2.3</v>
+      </c>
+      <c r="L215">
+        <v>3.5</v>
+      </c>
+      <c r="M215">
+        <v>2.625</v>
+      </c>
+      <c r="N215">
+        <v>2.8</v>
+      </c>
+      <c r="O215">
+        <v>3.6</v>
+      </c>
+      <c r="P215">
+        <v>2.375</v>
+      </c>
+      <c r="Q215">
+        <v>0.25</v>
+      </c>
+      <c r="R215">
+        <v>1.8</v>
+      </c>
+      <c r="S215">
+        <v>2</v>
+      </c>
+      <c r="T215">
+        <v>3.25</v>
+      </c>
+      <c r="U215">
+        <v>1.975</v>
+      </c>
+      <c r="V215">
+        <v>1.825</v>
+      </c>
+      <c r="W215">
+        <v>1.8</v>
+      </c>
+      <c r="X215">
+        <v>-1</v>
+      </c>
+      <c r="Y215">
+        <v>-1</v>
+      </c>
+      <c r="Z215">
+        <v>0.8</v>
+      </c>
+      <c r="AA215">
+        <v>-1</v>
+      </c>
+      <c r="AB215">
+        <v>-0.5</v>
+      </c>
+      <c r="AC215">
+        <v>0.4125</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC215"/>
+  <dimension ref="A1:AC216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532412</v>
+        <v>7532430</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,76 +13103,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>50</v>
+      </c>
+      <c r="K142">
+        <v>1.4</v>
+      </c>
+      <c r="L142">
+        <v>4.2</v>
+      </c>
+      <c r="M142">
+        <v>7</v>
+      </c>
+      <c r="N142">
+        <v>1.363</v>
+      </c>
+      <c r="O142">
+        <v>4.5</v>
+      </c>
+      <c r="P142">
+        <v>8.5</v>
+      </c>
+      <c r="Q142">
+        <v>-1.5</v>
+      </c>
+      <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
+        <v>1.8</v>
+      </c>
+      <c r="T142">
         <v>3</v>
       </c>
-      <c r="J142" t="s">
-        <v>52</v>
-      </c>
-      <c r="K142">
-        <v>1.727</v>
-      </c>
-      <c r="L142">
-        <v>3.75</v>
-      </c>
-      <c r="M142">
-        <v>4</v>
-      </c>
-      <c r="N142">
-        <v>2.3</v>
-      </c>
-      <c r="O142">
-        <v>3.6</v>
-      </c>
-      <c r="P142">
-        <v>2.875</v>
-      </c>
-      <c r="Q142">
-        <v>-0.25</v>
-      </c>
-      <c r="R142">
-        <v>1.95</v>
-      </c>
-      <c r="S142">
-        <v>1.85</v>
-      </c>
-      <c r="T142">
-        <v>2.75</v>
-      </c>
       <c r="U142">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532413</v>
+        <v>7532412</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,34 +13192,34 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
         <v>52</v>
       </c>
       <c r="K143">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M143">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N143">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O143">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
         <v>2.875</v>
@@ -13228,19 +13228,19 @@
         <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13255,13 +13255,13 @@
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532430</v>
+        <v>7532413</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,49 +13370,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G145" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K145">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L145">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M145">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="N145">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O145">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q145">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
         <v>1.9</v>
@@ -13421,25 +13421,25 @@
         <v>1.9</v>
       </c>
       <c r="W145">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB145">
+        <v>-1</v>
+      </c>
+      <c r="AC145">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC145">
-        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532421</v>
+        <v>7532419</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13652,43 +13652,43 @@
         <v>50</v>
       </c>
       <c r="K148">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L148">
+        <v>2.5</v>
+      </c>
+      <c r="M148">
         <v>4.5</v>
       </c>
-      <c r="M148">
-        <v>7.5</v>
-      </c>
       <c r="N148">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="O148">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="P148">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q148">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
+        <v>1.9</v>
+      </c>
+      <c r="S148">
+        <v>1.9</v>
+      </c>
+      <c r="T148">
+        <v>2</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
         <v>1.85</v>
       </c>
-      <c r="S148">
-        <v>1.95</v>
-      </c>
-      <c r="T148">
-        <v>3</v>
-      </c>
-      <c r="U148">
-        <v>1.825</v>
-      </c>
-      <c r="V148">
-        <v>1.975</v>
-      </c>
       <c r="W148">
-        <v>0.333</v>
+        <v>1.375</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC148">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532419</v>
+        <v>7532420</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,10 +13726,10 @@
         <v>45265.875</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13741,34 +13741,34 @@
         <v>50</v>
       </c>
       <c r="K149">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L149">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="M149">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="N149">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O149">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="P149">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S149">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T149">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U149">
         <v>1.95</v>
@@ -13777,7 +13777,7 @@
         <v>1.85</v>
       </c>
       <c r="W149">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532420</v>
+        <v>7532421</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,13 +13815,13 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13830,43 +13830,43 @@
         <v>50</v>
       </c>
       <c r="K150">
+        <v>1.4</v>
+      </c>
+      <c r="L150">
+        <v>4.5</v>
+      </c>
+      <c r="M150">
+        <v>7.5</v>
+      </c>
+      <c r="N150">
         <v>1.333</v>
       </c>
-      <c r="L150">
-        <v>5</v>
-      </c>
-      <c r="M150">
-        <v>8</v>
-      </c>
-      <c r="N150">
-        <v>1.3</v>
-      </c>
       <c r="O150">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P150">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q150">
         <v>-1.5</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -19232,7 +19232,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>8039390</v>
+        <v>8039389</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19244,76 +19244,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G211" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K211">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L211">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M211">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N211">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O211">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P211">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q211">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R211">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S211">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T211">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U211">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V211">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W211">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19321,7 +19321,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>8039389</v>
+        <v>8039390</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19333,76 +19333,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="F212" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G212" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H212">
+        <v>2</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212" t="s">
+        <v>50</v>
+      </c>
+      <c r="K212">
+        <v>2.05</v>
+      </c>
+      <c r="L212">
+        <v>3.6</v>
+      </c>
+      <c r="M212">
+        <v>3</v>
+      </c>
+      <c r="N212">
+        <v>1.8</v>
+      </c>
+      <c r="O212">
+        <v>3.75</v>
+      </c>
+      <c r="P212">
+        <v>4.2</v>
+      </c>
+      <c r="Q212">
+        <v>-0.5</v>
+      </c>
+      <c r="R212">
+        <v>1.825</v>
+      </c>
+      <c r="S212">
+        <v>1.975</v>
+      </c>
+      <c r="T212">
+        <v>3</v>
+      </c>
+      <c r="U212">
+        <v>1.975</v>
+      </c>
+      <c r="V212">
+        <v>1.825</v>
+      </c>
+      <c r="W212">
+        <v>0.8</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
+        <v>0.825</v>
+      </c>
+      <c r="AA212">
+        <v>-1</v>
+      </c>
+      <c r="AB212">
         <v>0</v>
       </c>
-      <c r="I212">
-        <v>0</v>
-      </c>
-      <c r="J212" t="s">
-        <v>51</v>
-      </c>
-      <c r="K212">
-        <v>2.2</v>
-      </c>
-      <c r="L212">
-        <v>3.3</v>
-      </c>
-      <c r="M212">
-        <v>2.875</v>
-      </c>
-      <c r="N212">
-        <v>2.625</v>
-      </c>
-      <c r="O212">
-        <v>3.4</v>
-      </c>
-      <c r="P212">
-        <v>2.625</v>
-      </c>
-      <c r="Q212">
-        <v>0</v>
-      </c>
-      <c r="R212">
-        <v>1.875</v>
-      </c>
-      <c r="S212">
-        <v>1.925</v>
-      </c>
-      <c r="T212">
-        <v>2.5</v>
-      </c>
-      <c r="U212">
-        <v>1.95</v>
-      </c>
-      <c r="V212">
-        <v>1.85</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>2.4</v>
-      </c>
-      <c r="Y212">
-        <v>-1</v>
-      </c>
-      <c r="Z212">
-        <v>0</v>
-      </c>
-      <c r="AA212">
+      <c r="AC212">
         <v>-0</v>
-      </c>
-      <c r="AB212">
-        <v>-1</v>
-      </c>
-      <c r="AC212">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19670,6 +19670,95 @@
       </c>
       <c r="AC215">
         <v>0.4125</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>8039398</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>29</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45389.85416666666</v>
+      </c>
+      <c r="F216" t="s">
+        <v>33</v>
+      </c>
+      <c r="G216" t="s">
+        <v>35</v>
+      </c>
+      <c r="H216">
+        <v>2</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216" t="s">
+        <v>50</v>
+      </c>
+      <c r="K216">
+        <v>1.533</v>
+      </c>
+      <c r="L216">
+        <v>3.75</v>
+      </c>
+      <c r="M216">
+        <v>5.5</v>
+      </c>
+      <c r="N216">
+        <v>1.444</v>
+      </c>
+      <c r="O216">
+        <v>4.333</v>
+      </c>
+      <c r="P216">
+        <v>7.5</v>
+      </c>
+      <c r="Q216">
+        <v>-1.25</v>
+      </c>
+      <c r="R216">
+        <v>2</v>
+      </c>
+      <c r="S216">
+        <v>1.8</v>
+      </c>
+      <c r="T216">
+        <v>2.75</v>
+      </c>
+      <c r="U216">
+        <v>1.975</v>
+      </c>
+      <c r="V216">
+        <v>1.825</v>
+      </c>
+      <c r="W216">
+        <v>0.444</v>
+      </c>
+      <c r="X216">
+        <v>-1</v>
+      </c>
+      <c r="Y216">
+        <v>-1</v>
+      </c>
+      <c r="Z216">
+        <v>-0.5</v>
+      </c>
+      <c r="AA216">
+        <v>0.4</v>
+      </c>
+      <c r="AB216">
+        <v>0.4875</v>
+      </c>
+      <c r="AC216">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC216"/>
+  <dimension ref="A1:AC217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,76 +2868,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L27">
         <v>3.6</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z27">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,76 +2957,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L28">
         <v>3.6</v>
       </c>
       <c r="M28">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -4636,7 +4636,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6504291</v>
+        <v>6504578</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4648,16 +4648,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>52</v>
@@ -4669,34 +4669,34 @@
         <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N47">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O47">
         <v>3.6</v>
       </c>
       <c r="P47">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q47">
         <v>-0.75</v>
       </c>
       <c r="R47">
+        <v>1.95</v>
+      </c>
+      <c r="S47">
         <v>1.85</v>
-      </c>
-      <c r="S47">
-        <v>1.95</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4705,19 +4705,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6504578</v>
+        <v>6504291</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4737,16 +4737,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>1</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>52</v>
@@ -4758,34 +4758,34 @@
         <v>3.2</v>
       </c>
       <c r="M48">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N48">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q48">
         <v>-0.75</v>
       </c>
       <c r="R48">
+        <v>1.85</v>
+      </c>
+      <c r="S48">
         <v>1.95</v>
-      </c>
-      <c r="S48">
-        <v>1.85</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4794,19 +4794,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -9709,7 +9709,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7331148</v>
+        <v>7331149</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9721,13 +9721,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9736,25 +9736,25 @@
         <v>50</v>
       </c>
       <c r="K104">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L104">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N104">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="O104">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>16</v>
+        <v>2.8</v>
       </c>
       <c r="Q104">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R104">
         <v>1.8</v>
@@ -9763,16 +9763,16 @@
         <v>2</v>
       </c>
       <c r="T104">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>0.1659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9781,16 +9781,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7331149</v>
+        <v>7331148</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,13 +9810,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9825,25 +9825,25 @@
         <v>50</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M105">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="N105">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P105">
-        <v>2.8</v>
+        <v>16</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R105">
         <v>1.8</v>
@@ -9852,16 +9852,16 @@
         <v>2</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>1.3</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9870,16 +9870,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7462542</v>
+        <v>7462738</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,76 +11857,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128" t="s">
+        <v>51</v>
+      </c>
+      <c r="K128">
+        <v>4</v>
+      </c>
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
+        <v>1.666</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128">
+        <v>3.8</v>
+      </c>
+      <c r="P128">
+        <v>1.75</v>
+      </c>
+      <c r="Q128">
+        <v>0.75</v>
+      </c>
+      <c r="R128">
+        <v>1.8</v>
+      </c>
+      <c r="S128">
+        <v>2</v>
+      </c>
+      <c r="T128">
         <v>3</v>
       </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128" t="s">
-        <v>50</v>
-      </c>
-      <c r="K128">
-        <v>1.363</v>
-      </c>
-      <c r="L128">
-        <v>4.75</v>
-      </c>
-      <c r="M128">
-        <v>6.5</v>
-      </c>
-      <c r="N128">
-        <v>1.285</v>
-      </c>
-      <c r="O128">
-        <v>6.5</v>
-      </c>
-      <c r="P128">
-        <v>8</v>
-      </c>
-      <c r="Q128">
-        <v>-1.75</v>
-      </c>
-      <c r="R128">
-        <v>1.9</v>
-      </c>
-      <c r="S128">
-        <v>1.9</v>
-      </c>
-      <c r="T128">
-        <v>3.25</v>
-      </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W128">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC128">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11934,7 +11934,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7462738</v>
+        <v>7462542</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11946,76 +11946,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K129">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M129">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="N129">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="O129">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P129">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q129">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X129">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532420</v>
+        <v>7532421</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,13 +13726,13 @@
         <v>45265.875</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -13741,43 +13741,43 @@
         <v>50</v>
       </c>
       <c r="K149">
+        <v>1.4</v>
+      </c>
+      <c r="L149">
+        <v>4.5</v>
+      </c>
+      <c r="M149">
+        <v>7.5</v>
+      </c>
+      <c r="N149">
         <v>1.333</v>
       </c>
-      <c r="L149">
-        <v>5</v>
-      </c>
-      <c r="M149">
-        <v>8</v>
-      </c>
-      <c r="N149">
-        <v>1.3</v>
-      </c>
       <c r="O149">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P149">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q149">
         <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U149">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W149">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532421</v>
+        <v>7532420</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,13 +13815,13 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13830,43 +13830,43 @@
         <v>50</v>
       </c>
       <c r="K150">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="L150">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M150">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N150">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O150">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P150">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q150">
         <v>-1.5</v>
       </c>
       <c r="R150">
+        <v>1.8</v>
+      </c>
+      <c r="S150">
+        <v>2</v>
+      </c>
+      <c r="T150">
+        <v>3.25</v>
+      </c>
+      <c r="U150">
+        <v>1.95</v>
+      </c>
+      <c r="V150">
         <v>1.85</v>
       </c>
-      <c r="S150">
-        <v>1.95</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
       <c r="W150">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -19232,7 +19232,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>8039389</v>
+        <v>8039390</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19244,76 +19244,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G211" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H211">
+        <v>2</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211" t="s">
+        <v>50</v>
+      </c>
+      <c r="K211">
+        <v>2.05</v>
+      </c>
+      <c r="L211">
+        <v>3.6</v>
+      </c>
+      <c r="M211">
+        <v>3</v>
+      </c>
+      <c r="N211">
+        <v>1.8</v>
+      </c>
+      <c r="O211">
+        <v>3.75</v>
+      </c>
+      <c r="P211">
+        <v>4.2</v>
+      </c>
+      <c r="Q211">
+        <v>-0.5</v>
+      </c>
+      <c r="R211">
+        <v>1.825</v>
+      </c>
+      <c r="S211">
+        <v>1.975</v>
+      </c>
+      <c r="T211">
+        <v>3</v>
+      </c>
+      <c r="U211">
+        <v>1.975</v>
+      </c>
+      <c r="V211">
+        <v>1.825</v>
+      </c>
+      <c r="W211">
+        <v>0.8</v>
+      </c>
+      <c r="X211">
+        <v>-1</v>
+      </c>
+      <c r="Y211">
+        <v>-1</v>
+      </c>
+      <c r="Z211">
+        <v>0.825</v>
+      </c>
+      <c r="AA211">
+        <v>-1</v>
+      </c>
+      <c r="AB211">
         <v>0</v>
       </c>
-      <c r="I211">
-        <v>0</v>
-      </c>
-      <c r="J211" t="s">
-        <v>51</v>
-      </c>
-      <c r="K211">
-        <v>2.2</v>
-      </c>
-      <c r="L211">
-        <v>3.3</v>
-      </c>
-      <c r="M211">
-        <v>2.875</v>
-      </c>
-      <c r="N211">
-        <v>2.625</v>
-      </c>
-      <c r="O211">
-        <v>3.4</v>
-      </c>
-      <c r="P211">
-        <v>2.625</v>
-      </c>
-      <c r="Q211">
-        <v>0</v>
-      </c>
-      <c r="R211">
-        <v>1.875</v>
-      </c>
-      <c r="S211">
-        <v>1.925</v>
-      </c>
-      <c r="T211">
-        <v>2.5</v>
-      </c>
-      <c r="U211">
-        <v>1.95</v>
-      </c>
-      <c r="V211">
-        <v>1.85</v>
-      </c>
-      <c r="W211">
-        <v>-1</v>
-      </c>
-      <c r="X211">
-        <v>2.4</v>
-      </c>
-      <c r="Y211">
-        <v>-1</v>
-      </c>
-      <c r="Z211">
-        <v>0</v>
-      </c>
-      <c r="AA211">
+      <c r="AC211">
         <v>-0</v>
-      </c>
-      <c r="AB211">
-        <v>-1</v>
-      </c>
-      <c r="AC211">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19321,7 +19321,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>8039390</v>
+        <v>8039389</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19333,76 +19333,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K212">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L212">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M212">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N212">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O212">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P212">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q212">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T212">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V212">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19499,7 +19499,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>8039392</v>
+        <v>8038943</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19511,10 +19511,10 @@
         <v>45389.70833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G214" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19526,43 +19526,43 @@
         <v>50</v>
       </c>
       <c r="K214">
+        <v>2.3</v>
+      </c>
+      <c r="L214">
+        <v>3.5</v>
+      </c>
+      <c r="M214">
+        <v>2.625</v>
+      </c>
+      <c r="N214">
+        <v>2.8</v>
+      </c>
+      <c r="O214">
+        <v>3.6</v>
+      </c>
+      <c r="P214">
+        <v>2.375</v>
+      </c>
+      <c r="Q214">
+        <v>0.25</v>
+      </c>
+      <c r="R214">
+        <v>1.8</v>
+      </c>
+      <c r="S214">
         <v>2</v>
       </c>
-      <c r="L214">
+      <c r="T214">
         <v>3.25</v>
       </c>
-      <c r="M214">
-        <v>3.4</v>
-      </c>
-      <c r="N214">
-        <v>1.727</v>
-      </c>
-      <c r="O214">
-        <v>4</v>
-      </c>
-      <c r="P214">
-        <v>4.5</v>
-      </c>
-      <c r="Q214">
-        <v>-0.75</v>
-      </c>
-      <c r="R214">
-        <v>1.9</v>
-      </c>
-      <c r="S214">
-        <v>1.9</v>
-      </c>
-      <c r="T214">
-        <v>2.75</v>
-      </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V214">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W214">
-        <v>0.7270000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19571,16 +19571,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA214">
+        <v>-1</v>
+      </c>
+      <c r="AB214">
         <v>-0.5</v>
       </c>
-      <c r="AB214">
-        <v>0.45</v>
-      </c>
       <c r="AC214">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19588,7 +19588,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>8038943</v>
+        <v>8039392</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19600,10 +19600,10 @@
         <v>45389.70833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G215" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19615,43 +19615,43 @@
         <v>50</v>
       </c>
       <c r="K215">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M215">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="N215">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="O215">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P215">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T215">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U215">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W215">
-        <v>1.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19660,16 +19660,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB215">
+        <v>0.45</v>
+      </c>
+      <c r="AC215">
         <v>-0.5</v>
-      </c>
-      <c r="AC215">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19759,6 +19759,95 @@
       </c>
       <c r="AC216">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>8039391</v>
+      </c>
+      <c r="C217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" t="s">
+        <v>29</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45390.83333333334</v>
+      </c>
+      <c r="F217" t="s">
+        <v>46</v>
+      </c>
+      <c r="G217" t="s">
+        <v>38</v>
+      </c>
+      <c r="H217">
+        <v>3</v>
+      </c>
+      <c r="I217">
+        <v>2</v>
+      </c>
+      <c r="J217" t="s">
+        <v>50</v>
+      </c>
+      <c r="K217">
+        <v>1.666</v>
+      </c>
+      <c r="L217">
+        <v>3.5</v>
+      </c>
+      <c r="M217">
+        <v>5</v>
+      </c>
+      <c r="N217">
+        <v>1.65</v>
+      </c>
+      <c r="O217">
+        <v>3.75</v>
+      </c>
+      <c r="P217">
+        <v>4.5</v>
+      </c>
+      <c r="Q217">
+        <v>-0.75</v>
+      </c>
+      <c r="R217">
+        <v>1.85</v>
+      </c>
+      <c r="S217">
+        <v>1.95</v>
+      </c>
+      <c r="T217">
+        <v>2.5</v>
+      </c>
+      <c r="U217">
+        <v>1.9</v>
+      </c>
+      <c r="V217">
+        <v>1.9</v>
+      </c>
+      <c r="W217">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X217">
+        <v>-1</v>
+      </c>
+      <c r="Y217">
+        <v>-1</v>
+      </c>
+      <c r="Z217">
+        <v>0.425</v>
+      </c>
+      <c r="AA217">
+        <v>-0.5</v>
+      </c>
+      <c r="AB217">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC217">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC217"/>
+  <dimension ref="A1:AC218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19232,7 +19232,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>8039390</v>
+        <v>8039389</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19244,76 +19244,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G211" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K211">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L211">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M211">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N211">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O211">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P211">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q211">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R211">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S211">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T211">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U211">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V211">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W211">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19321,7 +19321,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>8039389</v>
+        <v>8039390</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19333,76 +19333,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="F212" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G212" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H212">
+        <v>2</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212" t="s">
+        <v>50</v>
+      </c>
+      <c r="K212">
+        <v>2.05</v>
+      </c>
+      <c r="L212">
+        <v>3.6</v>
+      </c>
+      <c r="M212">
+        <v>3</v>
+      </c>
+      <c r="N212">
+        <v>1.8</v>
+      </c>
+      <c r="O212">
+        <v>3.75</v>
+      </c>
+      <c r="P212">
+        <v>4.2</v>
+      </c>
+      <c r="Q212">
+        <v>-0.5</v>
+      </c>
+      <c r="R212">
+        <v>1.825</v>
+      </c>
+      <c r="S212">
+        <v>1.975</v>
+      </c>
+      <c r="T212">
+        <v>3</v>
+      </c>
+      <c r="U212">
+        <v>1.975</v>
+      </c>
+      <c r="V212">
+        <v>1.825</v>
+      </c>
+      <c r="W212">
+        <v>0.8</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
+        <v>0.825</v>
+      </c>
+      <c r="AA212">
+        <v>-1</v>
+      </c>
+      <c r="AB212">
         <v>0</v>
       </c>
-      <c r="I212">
-        <v>0</v>
-      </c>
-      <c r="J212" t="s">
-        <v>51</v>
-      </c>
-      <c r="K212">
-        <v>2.2</v>
-      </c>
-      <c r="L212">
-        <v>3.3</v>
-      </c>
-      <c r="M212">
-        <v>2.875</v>
-      </c>
-      <c r="N212">
-        <v>2.625</v>
-      </c>
-      <c r="O212">
-        <v>3.4</v>
-      </c>
-      <c r="P212">
-        <v>2.625</v>
-      </c>
-      <c r="Q212">
-        <v>0</v>
-      </c>
-      <c r="R212">
-        <v>1.875</v>
-      </c>
-      <c r="S212">
-        <v>1.925</v>
-      </c>
-      <c r="T212">
-        <v>2.5</v>
-      </c>
-      <c r="U212">
-        <v>1.95</v>
-      </c>
-      <c r="V212">
-        <v>1.85</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>2.4</v>
-      </c>
-      <c r="Y212">
-        <v>-1</v>
-      </c>
-      <c r="Z212">
-        <v>0</v>
-      </c>
-      <c r="AA212">
+      <c r="AC212">
         <v>-0</v>
-      </c>
-      <c r="AB212">
-        <v>-1</v>
-      </c>
-      <c r="AC212">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19848,6 +19848,80 @@
       </c>
       <c r="AC217">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>8021846</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" t="s">
+        <v>29</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45393.83333333334</v>
+      </c>
+      <c r="F218" t="s">
+        <v>35</v>
+      </c>
+      <c r="G218" t="s">
+        <v>36</v>
+      </c>
+      <c r="K218">
+        <v>6</v>
+      </c>
+      <c r="L218">
+        <v>5</v>
+      </c>
+      <c r="M218">
+        <v>1.333</v>
+      </c>
+      <c r="N218">
+        <v>6.5</v>
+      </c>
+      <c r="O218">
+        <v>5</v>
+      </c>
+      <c r="P218">
+        <v>1.444</v>
+      </c>
+      <c r="Q218">
+        <v>1</v>
+      </c>
+      <c r="R218">
+        <v>2.05</v>
+      </c>
+      <c r="S218">
+        <v>1.75</v>
+      </c>
+      <c r="T218">
+        <v>3</v>
+      </c>
+      <c r="U218">
+        <v>2.025</v>
+      </c>
+      <c r="V218">
+        <v>1.775</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC218"/>
+  <dimension ref="A1:AC217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,76 +2868,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L27">
         <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N27">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,76 +2957,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L28">
         <v>3.6</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -4636,7 +4636,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6504578</v>
+        <v>6504291</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4648,16 +4648,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>1</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>52</v>
@@ -4669,34 +4669,34 @@
         <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N47">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O47">
         <v>3.6</v>
       </c>
       <c r="P47">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q47">
         <v>-0.75</v>
       </c>
       <c r="R47">
+        <v>1.85</v>
+      </c>
+      <c r="S47">
         <v>1.95</v>
-      </c>
-      <c r="S47">
-        <v>1.85</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4705,19 +4705,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6504291</v>
+        <v>6504578</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4737,16 +4737,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>52</v>
@@ -4758,34 +4758,34 @@
         <v>3.2</v>
       </c>
       <c r="M48">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N48">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q48">
         <v>-0.75</v>
       </c>
       <c r="R48">
+        <v>1.95</v>
+      </c>
+      <c r="S48">
         <v>1.85</v>
-      </c>
-      <c r="S48">
-        <v>1.95</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4794,19 +4794,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532414</v>
+        <v>7532413</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,76 +13281,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
         <v>1</v>
       </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K144">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N144">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O144">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q144">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S144">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532413</v>
+        <v>7532414</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,76 +13370,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
         <v>0</v>
       </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
       <c r="J145" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K145">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L145">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M145">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N145">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P145">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R145">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S145">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532421</v>
+        <v>7532420</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,13 +13726,13 @@
         <v>45265.875</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -13741,43 +13741,43 @@
         <v>50</v>
       </c>
       <c r="K149">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="L149">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M149">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N149">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O149">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P149">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q149">
         <v>-1.5</v>
       </c>
       <c r="R149">
+        <v>1.8</v>
+      </c>
+      <c r="S149">
+        <v>2</v>
+      </c>
+      <c r="T149">
+        <v>3.25</v>
+      </c>
+      <c r="U149">
+        <v>1.95</v>
+      </c>
+      <c r="V149">
         <v>1.85</v>
       </c>
-      <c r="S149">
-        <v>1.95</v>
-      </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.825</v>
-      </c>
-      <c r="V149">
-        <v>1.975</v>
-      </c>
       <c r="W149">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC149">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532420</v>
+        <v>7532421</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,13 +13815,13 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13830,43 +13830,43 @@
         <v>50</v>
       </c>
       <c r="K150">
+        <v>1.4</v>
+      </c>
+      <c r="L150">
+        <v>4.5</v>
+      </c>
+      <c r="M150">
+        <v>7.5</v>
+      </c>
+      <c r="N150">
         <v>1.333</v>
       </c>
-      <c r="L150">
-        <v>5</v>
-      </c>
-      <c r="M150">
-        <v>8</v>
-      </c>
-      <c r="N150">
-        <v>1.3</v>
-      </c>
       <c r="O150">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P150">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q150">
         <v>-1.5</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -19499,7 +19499,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>8038943</v>
+        <v>8039392</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19511,10 +19511,10 @@
         <v>45389.70833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G214" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19526,43 +19526,43 @@
         <v>50</v>
       </c>
       <c r="K214">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L214">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M214">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="N214">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="O214">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P214">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R214">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S214">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W214">
-        <v>1.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19571,16 +19571,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB214">
+        <v>0.45</v>
+      </c>
+      <c r="AC214">
         <v>-0.5</v>
-      </c>
-      <c r="AC214">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19588,7 +19588,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>8039392</v>
+        <v>8038943</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19600,10 +19600,10 @@
         <v>45389.70833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G215" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19615,43 +19615,43 @@
         <v>50</v>
       </c>
       <c r="K215">
+        <v>2.3</v>
+      </c>
+      <c r="L215">
+        <v>3.5</v>
+      </c>
+      <c r="M215">
+        <v>2.625</v>
+      </c>
+      <c r="N215">
+        <v>2.8</v>
+      </c>
+      <c r="O215">
+        <v>3.6</v>
+      </c>
+      <c r="P215">
+        <v>2.375</v>
+      </c>
+      <c r="Q215">
+        <v>0.25</v>
+      </c>
+      <c r="R215">
+        <v>1.8</v>
+      </c>
+      <c r="S215">
         <v>2</v>
       </c>
-      <c r="L215">
+      <c r="T215">
         <v>3.25</v>
       </c>
-      <c r="M215">
-        <v>3.4</v>
-      </c>
-      <c r="N215">
-        <v>1.727</v>
-      </c>
-      <c r="O215">
-        <v>4</v>
-      </c>
-      <c r="P215">
-        <v>4.5</v>
-      </c>
-      <c r="Q215">
-        <v>-0.75</v>
-      </c>
-      <c r="R215">
-        <v>1.9</v>
-      </c>
-      <c r="S215">
-        <v>1.9</v>
-      </c>
-      <c r="T215">
-        <v>2.75</v>
-      </c>
       <c r="U215">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W215">
-        <v>0.7270000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19660,16 +19660,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA215">
+        <v>-1</v>
+      </c>
+      <c r="AB215">
         <v>-0.5</v>
       </c>
-      <c r="AB215">
-        <v>0.45</v>
-      </c>
       <c r="AC215">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19848,80 +19848,6 @@
       </c>
       <c r="AC217">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:29">
-      <c r="A218" s="1">
-        <v>216</v>
-      </c>
-      <c r="B218">
-        <v>8021846</v>
-      </c>
-      <c r="C218" t="s">
-        <v>28</v>
-      </c>
-      <c r="D218" t="s">
-        <v>29</v>
-      </c>
-      <c r="E218" s="2">
-        <v>45393.83333333334</v>
-      </c>
-      <c r="F218" t="s">
-        <v>35</v>
-      </c>
-      <c r="G218" t="s">
-        <v>36</v>
-      </c>
-      <c r="K218">
-        <v>6</v>
-      </c>
-      <c r="L218">
-        <v>5</v>
-      </c>
-      <c r="M218">
-        <v>1.333</v>
-      </c>
-      <c r="N218">
-        <v>6.5</v>
-      </c>
-      <c r="O218">
-        <v>5</v>
-      </c>
-      <c r="P218">
-        <v>1.444</v>
-      </c>
-      <c r="Q218">
-        <v>1</v>
-      </c>
-      <c r="R218">
-        <v>2.05</v>
-      </c>
-      <c r="S218">
-        <v>1.75</v>
-      </c>
-      <c r="T218">
-        <v>3</v>
-      </c>
-      <c r="U218">
-        <v>2.025</v>
-      </c>
-      <c r="V218">
-        <v>1.775</v>
-      </c>
-      <c r="W218">
-        <v>0</v>
-      </c>
-      <c r="X218">
-        <v>0</v>
-      </c>
-      <c r="Y218">
-        <v>0</v>
-      </c>
-      <c r="Z218">
-        <v>0</v>
-      </c>
-      <c r="AA218">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,76 +2868,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L27">
         <v>3.6</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z27">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,76 +2957,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L28">
         <v>3.6</v>
       </c>
       <c r="M28">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -4636,7 +4636,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6504291</v>
+        <v>6504578</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4648,16 +4648,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>52</v>
@@ -4669,34 +4669,34 @@
         <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N47">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O47">
         <v>3.6</v>
       </c>
       <c r="P47">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q47">
         <v>-0.75</v>
       </c>
       <c r="R47">
+        <v>1.95</v>
+      </c>
+      <c r="S47">
         <v>1.85</v>
-      </c>
-      <c r="S47">
-        <v>1.95</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4705,19 +4705,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6504578</v>
+        <v>6504291</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4737,16 +4737,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>1</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>52</v>
@@ -4758,34 +4758,34 @@
         <v>3.2</v>
       </c>
       <c r="M48">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N48">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q48">
         <v>-0.75</v>
       </c>
       <c r="R48">
+        <v>1.85</v>
+      </c>
+      <c r="S48">
         <v>1.95</v>
-      </c>
-      <c r="S48">
-        <v>1.85</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4794,19 +4794,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -9709,7 +9709,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7331149</v>
+        <v>7331148</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9721,13 +9721,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9736,25 +9736,25 @@
         <v>50</v>
       </c>
       <c r="K104">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M104">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="N104">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P104">
-        <v>2.8</v>
+        <v>16</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R104">
         <v>1.8</v>
@@ -9763,16 +9763,16 @@
         <v>2</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>1.3</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9781,16 +9781,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7331148</v>
+        <v>7331149</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,13 +9810,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9825,25 +9825,25 @@
         <v>50</v>
       </c>
       <c r="K105">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="O105">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>16</v>
+        <v>2.8</v>
       </c>
       <c r="Q105">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R105">
         <v>1.8</v>
@@ -9852,16 +9852,16 @@
         <v>2</v>
       </c>
       <c r="T105">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>0.1659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9870,16 +9870,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC105">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532412</v>
+        <v>7532414</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,76 +13192,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
         <v>0</v>
       </c>
-      <c r="I143">
-        <v>3</v>
-      </c>
       <c r="J143" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K143">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L143">
         <v>3.75</v>
       </c>
       <c r="M143">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N143">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P143">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>1.8</v>
+      </c>
+      <c r="T143">
+        <v>3</v>
+      </c>
+      <c r="U143">
+        <v>1.85</v>
+      </c>
+      <c r="V143">
         <v>1.95</v>
       </c>
-      <c r="S143">
-        <v>1.85</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
-      <c r="U143">
-        <v>1.925</v>
-      </c>
-      <c r="V143">
-        <v>1.875</v>
-      </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB143">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532414</v>
+        <v>7532412</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,76 +13370,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J145" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K145">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L145">
         <v>3.75</v>
       </c>
       <c r="M145">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N145">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="O145">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q145">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W145">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC145">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532419</v>
+        <v>7532421</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13652,43 +13652,43 @@
         <v>50</v>
       </c>
       <c r="K148">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L148">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M148">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N148">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="O148">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="P148">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>1.375</v>
+        <v>0.333</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532420</v>
+        <v>7532419</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,10 +13726,10 @@
         <v>45265.875</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13741,34 +13741,34 @@
         <v>50</v>
       </c>
       <c r="K149">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L149">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M149">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N149">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O149">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="P149">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q149">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
+        <v>1.9</v>
+      </c>
+      <c r="T149">
         <v>2</v>
-      </c>
-      <c r="T149">
-        <v>3.25</v>
       </c>
       <c r="U149">
         <v>1.95</v>
@@ -13777,7 +13777,7 @@
         <v>1.85</v>
       </c>
       <c r="W149">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC149">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532421</v>
+        <v>7532420</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,13 +13815,13 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13830,43 +13830,43 @@
         <v>50</v>
       </c>
       <c r="K150">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="L150">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M150">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N150">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O150">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P150">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q150">
         <v>-1.5</v>
       </c>
       <c r="R150">
+        <v>1.8</v>
+      </c>
+      <c r="S150">
+        <v>2</v>
+      </c>
+      <c r="T150">
+        <v>3.25</v>
+      </c>
+      <c r="U150">
+        <v>1.95</v>
+      </c>
+      <c r="V150">
         <v>1.85</v>
       </c>
-      <c r="S150">
-        <v>1.95</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
       <c r="W150">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,58 +14082,58 @@
         <v>45266.875</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
         <v>50</v>
       </c>
       <c r="K153">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L153">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="N153">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O153">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q153">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T153">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W153">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14142,16 +14142,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,76 +14171,76 @@
         <v>45266.875</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>50</v>
       </c>
       <c r="K154">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L154">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M154">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="N154">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O154">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P154">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="Q154">
+        <v>-2.25</v>
+      </c>
+      <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>1.85</v>
+      </c>
+      <c r="T154">
+        <v>3.75</v>
+      </c>
+      <c r="U154">
+        <v>1.975</v>
+      </c>
+      <c r="V154">
+        <v>1.825</v>
+      </c>
+      <c r="W154">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
+        <v>0.95</v>
+      </c>
+      <c r="AA154">
+        <v>-1</v>
+      </c>
+      <c r="AB154">
+        <v>0.4875</v>
+      </c>
+      <c r="AC154">
         <v>-0.5</v>
-      </c>
-      <c r="R154">
-        <v>1.825</v>
-      </c>
-      <c r="S154">
-        <v>1.975</v>
-      </c>
-      <c r="T154">
-        <v>3</v>
-      </c>
-      <c r="U154">
-        <v>2</v>
-      </c>
-      <c r="V154">
-        <v>1.8</v>
-      </c>
-      <c r="W154">
-        <v>0.833</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>-1</v>
-      </c>
-      <c r="Z154">
-        <v>0.825</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>0</v>
-      </c>
-      <c r="AC154">
-        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -19499,7 +19499,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>8039392</v>
+        <v>8038943</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19511,10 +19511,10 @@
         <v>45389.70833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G214" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19526,43 +19526,43 @@
         <v>50</v>
       </c>
       <c r="K214">
+        <v>2.3</v>
+      </c>
+      <c r="L214">
+        <v>3.5</v>
+      </c>
+      <c r="M214">
+        <v>2.625</v>
+      </c>
+      <c r="N214">
+        <v>2.8</v>
+      </c>
+      <c r="O214">
+        <v>3.6</v>
+      </c>
+      <c r="P214">
+        <v>2.375</v>
+      </c>
+      <c r="Q214">
+        <v>0.25</v>
+      </c>
+      <c r="R214">
+        <v>1.8</v>
+      </c>
+      <c r="S214">
         <v>2</v>
       </c>
-      <c r="L214">
+      <c r="T214">
         <v>3.25</v>
       </c>
-      <c r="M214">
-        <v>3.4</v>
-      </c>
-      <c r="N214">
-        <v>1.727</v>
-      </c>
-      <c r="O214">
-        <v>4</v>
-      </c>
-      <c r="P214">
-        <v>4.5</v>
-      </c>
-      <c r="Q214">
-        <v>-0.75</v>
-      </c>
-      <c r="R214">
-        <v>1.9</v>
-      </c>
-      <c r="S214">
-        <v>1.9</v>
-      </c>
-      <c r="T214">
-        <v>2.75</v>
-      </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V214">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W214">
-        <v>0.7270000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19571,16 +19571,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA214">
+        <v>-1</v>
+      </c>
+      <c r="AB214">
         <v>-0.5</v>
       </c>
-      <c r="AB214">
-        <v>0.45</v>
-      </c>
       <c r="AC214">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19588,7 +19588,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>8038943</v>
+        <v>8039392</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19600,10 +19600,10 @@
         <v>45389.70833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G215" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19615,43 +19615,43 @@
         <v>50</v>
       </c>
       <c r="K215">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M215">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="N215">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="O215">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P215">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T215">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U215">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W215">
-        <v>1.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19660,16 +19660,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB215">
+        <v>0.45</v>
+      </c>
+      <c r="AC215">
         <v>-0.5</v>
-      </c>
-      <c r="AC215">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="216" spans="1:29">

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC217"/>
+  <dimension ref="A1:AC218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4636,7 +4636,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6504578</v>
+        <v>6504291</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4648,16 +4648,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>1</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>52</v>
@@ -4669,34 +4669,34 @@
         <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N47">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O47">
         <v>3.6</v>
       </c>
       <c r="P47">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q47">
         <v>-0.75</v>
       </c>
       <c r="R47">
+        <v>1.85</v>
+      </c>
+      <c r="S47">
         <v>1.95</v>
-      </c>
-      <c r="S47">
-        <v>1.85</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4705,19 +4705,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6504291</v>
+        <v>6504578</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4737,16 +4737,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>52</v>
@@ -4758,34 +4758,34 @@
         <v>3.2</v>
       </c>
       <c r="M48">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N48">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q48">
         <v>-0.75</v>
       </c>
       <c r="R48">
+        <v>1.95</v>
+      </c>
+      <c r="S48">
         <v>1.85</v>
-      </c>
-      <c r="S48">
-        <v>1.95</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4794,19 +4794,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7331150</v>
+        <v>7329845</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,76 +9988,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K107">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L107">
+        <v>3.4</v>
+      </c>
+      <c r="M107">
+        <v>2.05</v>
+      </c>
+      <c r="N107">
+        <v>3.4</v>
+      </c>
+      <c r="O107">
         <v>3.5</v>
       </c>
-      <c r="M107">
-        <v>2.875</v>
-      </c>
-      <c r="N107">
-        <v>2.4</v>
-      </c>
-      <c r="O107">
-        <v>3.6</v>
-      </c>
       <c r="P107">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S107">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y107">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA107">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7329845</v>
+        <v>7331150</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,76 +10077,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G108" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K108">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="N108">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="S108">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7462738</v>
+        <v>7462542</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,76 +11857,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M128">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="N128">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="O128">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P128">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q128">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R128">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X128">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11934,7 +11934,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7462542</v>
+        <v>7462738</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11946,76 +11946,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129" t="s">
+        <v>51</v>
+      </c>
+      <c r="K129">
+        <v>4</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129">
+        <v>1.666</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129">
+        <v>3.8</v>
+      </c>
+      <c r="P129">
+        <v>1.75</v>
+      </c>
+      <c r="Q129">
+        <v>0.75</v>
+      </c>
+      <c r="R129">
+        <v>1.8</v>
+      </c>
+      <c r="S129">
+        <v>2</v>
+      </c>
+      <c r="T129">
         <v>3</v>
       </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129" t="s">
-        <v>50</v>
-      </c>
-      <c r="K129">
-        <v>1.363</v>
-      </c>
-      <c r="L129">
-        <v>4.75</v>
-      </c>
-      <c r="M129">
-        <v>6.5</v>
-      </c>
-      <c r="N129">
-        <v>1.285</v>
-      </c>
-      <c r="O129">
-        <v>6.5</v>
-      </c>
-      <c r="P129">
-        <v>8</v>
-      </c>
-      <c r="Q129">
-        <v>-1.75</v>
-      </c>
-      <c r="R129">
-        <v>1.9</v>
-      </c>
-      <c r="S129">
-        <v>1.9</v>
-      </c>
-      <c r="T129">
-        <v>3.25</v>
-      </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC129">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532430</v>
+        <v>7532413</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,49 +13103,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K142">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L142">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M142">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="N142">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O142">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q142">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
         <v>1.9</v>
@@ -13154,25 +13154,25 @@
         <v>1.9</v>
       </c>
       <c r="W142">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC142">
-        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532414</v>
+        <v>7532412</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,76 +13192,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K143">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L143">
         <v>3.75</v>
       </c>
       <c r="M143">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N143">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="O143">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q143">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W143">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC143">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532413</v>
+        <v>7532414</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,76 +13281,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
         <v>0</v>
       </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
       <c r="J144" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K144">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N144">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P144">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R144">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532412</v>
+        <v>7532430</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,76 +13370,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>50</v>
+      </c>
+      <c r="K145">
+        <v>1.4</v>
+      </c>
+      <c r="L145">
+        <v>4.2</v>
+      </c>
+      <c r="M145">
+        <v>7</v>
+      </c>
+      <c r="N145">
+        <v>1.363</v>
+      </c>
+      <c r="O145">
+        <v>4.5</v>
+      </c>
+      <c r="P145">
+        <v>8.5</v>
+      </c>
+      <c r="Q145">
+        <v>-1.5</v>
+      </c>
+      <c r="R145">
+        <v>2</v>
+      </c>
+      <c r="S145">
+        <v>1.8</v>
+      </c>
+      <c r="T145">
         <v>3</v>
       </c>
-      <c r="J145" t="s">
-        <v>52</v>
-      </c>
-      <c r="K145">
-        <v>1.727</v>
-      </c>
-      <c r="L145">
-        <v>3.75</v>
-      </c>
-      <c r="M145">
-        <v>4</v>
-      </c>
-      <c r="N145">
-        <v>2.3</v>
-      </c>
-      <c r="O145">
-        <v>3.6</v>
-      </c>
-      <c r="P145">
-        <v>2.875</v>
-      </c>
-      <c r="Q145">
-        <v>-0.25</v>
-      </c>
-      <c r="R145">
-        <v>1.95</v>
-      </c>
-      <c r="S145">
-        <v>1.85</v>
-      </c>
-      <c r="T145">
-        <v>2.75</v>
-      </c>
       <c r="U145">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532419</v>
+        <v>7532420</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,10 +13726,10 @@
         <v>45265.875</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13741,34 +13741,34 @@
         <v>50</v>
       </c>
       <c r="K149">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L149">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="M149">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="N149">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O149">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="P149">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S149">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T149">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U149">
         <v>1.95</v>
@@ -13777,7 +13777,7 @@
         <v>1.85</v>
       </c>
       <c r="W149">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532420</v>
+        <v>7532419</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,10 +13815,10 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13830,34 +13830,34 @@
         <v>50</v>
       </c>
       <c r="K150">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L150">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M150">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N150">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O150">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="P150">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q150">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S150">
+        <v>1.9</v>
+      </c>
+      <c r="T150">
         <v>2</v>
-      </c>
-      <c r="T150">
-        <v>3.25</v>
       </c>
       <c r="U150">
         <v>1.95</v>
@@ -13866,7 +13866,7 @@
         <v>1.85</v>
       </c>
       <c r="W150">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC150">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -19847,6 +19847,95 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AC217">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>8021846</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" t="s">
+        <v>29</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45393.83333333334</v>
+      </c>
+      <c r="F218" t="s">
+        <v>35</v>
+      </c>
+      <c r="G218" t="s">
+        <v>36</v>
+      </c>
+      <c r="H218">
+        <v>2</v>
+      </c>
+      <c r="I218">
+        <v>3</v>
+      </c>
+      <c r="J218" t="s">
+        <v>52</v>
+      </c>
+      <c r="K218">
+        <v>6</v>
+      </c>
+      <c r="L218">
+        <v>5</v>
+      </c>
+      <c r="M218">
+        <v>1.333</v>
+      </c>
+      <c r="N218">
+        <v>5</v>
+      </c>
+      <c r="O218">
+        <v>4.75</v>
+      </c>
+      <c r="P218">
+        <v>1.571</v>
+      </c>
+      <c r="Q218">
+        <v>1</v>
+      </c>
+      <c r="R218">
+        <v>1.85</v>
+      </c>
+      <c r="S218">
+        <v>1.95</v>
+      </c>
+      <c r="T218">
+        <v>3</v>
+      </c>
+      <c r="U218">
+        <v>1.85</v>
+      </c>
+      <c r="V218">
+        <v>1.95</v>
+      </c>
+      <c r="W218">
+        <v>-1</v>
+      </c>
+      <c r="X218">
+        <v>-1</v>
+      </c>
+      <c r="Y218">
+        <v>0.571</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
+        <v>-0</v>
+      </c>
+      <c r="AB218">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC218">
         <v>-1</v>
       </c>
     </row>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC218"/>
+  <dimension ref="A1:AC220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4636,7 +4636,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6504291</v>
+        <v>6504578</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4648,16 +4648,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>52</v>
@@ -4669,34 +4669,34 @@
         <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N47">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O47">
         <v>3.6</v>
       </c>
       <c r="P47">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q47">
         <v>-0.75</v>
       </c>
       <c r="R47">
+        <v>1.95</v>
+      </c>
+      <c r="S47">
         <v>1.85</v>
-      </c>
-      <c r="S47">
-        <v>1.95</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4705,19 +4705,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6504578</v>
+        <v>6504291</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4737,16 +4737,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>1</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>52</v>
@@ -4758,34 +4758,34 @@
         <v>3.2</v>
       </c>
       <c r="M48">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N48">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q48">
         <v>-0.75</v>
       </c>
       <c r="R48">
+        <v>1.85</v>
+      </c>
+      <c r="S48">
         <v>1.95</v>
-      </c>
-      <c r="S48">
-        <v>1.85</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4794,19 +4794,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7329845</v>
+        <v>7331150</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,76 +9988,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K107">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="N107">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="S107">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z107">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7331150</v>
+        <v>7329845</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,76 +10077,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K108">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L108">
+        <v>3.4</v>
+      </c>
+      <c r="M108">
+        <v>2.05</v>
+      </c>
+      <c r="N108">
+        <v>3.4</v>
+      </c>
+      <c r="O108">
         <v>3.5</v>
       </c>
-      <c r="M108">
-        <v>2.875</v>
-      </c>
-      <c r="N108">
-        <v>2.4</v>
-      </c>
-      <c r="O108">
-        <v>3.6</v>
-      </c>
       <c r="P108">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S108">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y108">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA108">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532413</v>
+        <v>7532414</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,76 +13103,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
         <v>0</v>
       </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
       <c r="J142" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K142">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L142">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M142">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N142">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P142">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R142">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532412</v>
+        <v>7532413</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,34 +13192,34 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
         <v>52</v>
       </c>
       <c r="K143">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M143">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N143">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
         <v>2.875</v>
@@ -13228,19 +13228,19 @@
         <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13255,13 +13255,13 @@
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB143">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532414</v>
+        <v>7532430</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,40 +13281,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H144">
+        <v>4</v>
+      </c>
+      <c r="I144">
         <v>1</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>50</v>
       </c>
       <c r="K144">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M144">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N144">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O144">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P144">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Q144">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R144">
         <v>2</v>
@@ -13326,13 +13326,13 @@
         <v>3</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13341,16 +13341,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC144">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532430</v>
+        <v>7532412</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,76 +13370,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>3</v>
+      </c>
+      <c r="J145" t="s">
+        <v>52</v>
+      </c>
+      <c r="K145">
+        <v>1.727</v>
+      </c>
+      <c r="L145">
+        <v>3.75</v>
+      </c>
+      <c r="M145">
         <v>4</v>
       </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
-      <c r="J145" t="s">
-        <v>50</v>
-      </c>
-      <c r="K145">
-        <v>1.4</v>
-      </c>
-      <c r="L145">
-        <v>4.2</v>
-      </c>
-      <c r="M145">
-        <v>7</v>
-      </c>
       <c r="N145">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O145">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q145">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W145">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532421</v>
+        <v>7532419</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13652,43 +13652,43 @@
         <v>50</v>
       </c>
       <c r="K148">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L148">
+        <v>2.5</v>
+      </c>
+      <c r="M148">
         <v>4.5</v>
       </c>
-      <c r="M148">
-        <v>7.5</v>
-      </c>
       <c r="N148">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="O148">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="P148">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q148">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
+        <v>1.9</v>
+      </c>
+      <c r="S148">
+        <v>1.9</v>
+      </c>
+      <c r="T148">
+        <v>2</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
         <v>1.85</v>
       </c>
-      <c r="S148">
-        <v>1.95</v>
-      </c>
-      <c r="T148">
-        <v>3</v>
-      </c>
-      <c r="U148">
-        <v>1.825</v>
-      </c>
-      <c r="V148">
-        <v>1.975</v>
-      </c>
       <c r="W148">
-        <v>0.333</v>
+        <v>1.375</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC148">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532420</v>
+        <v>7532421</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,13 +13726,13 @@
         <v>45265.875</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -13741,43 +13741,43 @@
         <v>50</v>
       </c>
       <c r="K149">
+        <v>1.4</v>
+      </c>
+      <c r="L149">
+        <v>4.5</v>
+      </c>
+      <c r="M149">
+        <v>7.5</v>
+      </c>
+      <c r="N149">
         <v>1.333</v>
       </c>
-      <c r="L149">
-        <v>5</v>
-      </c>
-      <c r="M149">
-        <v>8</v>
-      </c>
-      <c r="N149">
-        <v>1.3</v>
-      </c>
       <c r="O149">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P149">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q149">
         <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U149">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W149">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532419</v>
+        <v>7532420</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,10 +13815,10 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13830,34 +13830,34 @@
         <v>50</v>
       </c>
       <c r="K150">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L150">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="M150">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="N150">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O150">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="P150">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q150">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S150">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T150">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U150">
         <v>1.95</v>
@@ -13866,7 +13866,7 @@
         <v>1.85</v>
       </c>
       <c r="W150">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,76 +14082,76 @@
         <v>45266.875</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
         <v>50</v>
       </c>
       <c r="K153">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M153">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="N153">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O153">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P153">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="Q153">
+        <v>-2.25</v>
+      </c>
+      <c r="R153">
+        <v>1.95</v>
+      </c>
+      <c r="S153">
+        <v>1.85</v>
+      </c>
+      <c r="T153">
+        <v>3.75</v>
+      </c>
+      <c r="U153">
+        <v>1.975</v>
+      </c>
+      <c r="V153">
+        <v>1.825</v>
+      </c>
+      <c r="W153">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
+        <v>0.95</v>
+      </c>
+      <c r="AA153">
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>0.4875</v>
+      </c>
+      <c r="AC153">
         <v>-0.5</v>
-      </c>
-      <c r="R153">
-        <v>1.825</v>
-      </c>
-      <c r="S153">
-        <v>1.975</v>
-      </c>
-      <c r="T153">
-        <v>3</v>
-      </c>
-      <c r="U153">
-        <v>2</v>
-      </c>
-      <c r="V153">
-        <v>1.8</v>
-      </c>
-      <c r="W153">
-        <v>0.833</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
-      <c r="Z153">
-        <v>0.825</v>
-      </c>
-      <c r="AA153">
-        <v>-1</v>
-      </c>
-      <c r="AB153">
-        <v>0</v>
-      </c>
-      <c r="AC153">
-        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,58 +14171,58 @@
         <v>45266.875</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
         <v>50</v>
       </c>
       <c r="K154">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L154">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M154">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="N154">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O154">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P154">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q154">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T154">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U154">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V154">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14231,16 +14231,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -19232,7 +19232,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>8039389</v>
+        <v>8039390</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19244,76 +19244,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G211" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H211">
+        <v>2</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211" t="s">
+        <v>50</v>
+      </c>
+      <c r="K211">
+        <v>2.05</v>
+      </c>
+      <c r="L211">
+        <v>3.6</v>
+      </c>
+      <c r="M211">
+        <v>3</v>
+      </c>
+      <c r="N211">
+        <v>1.8</v>
+      </c>
+      <c r="O211">
+        <v>3.75</v>
+      </c>
+      <c r="P211">
+        <v>4.2</v>
+      </c>
+      <c r="Q211">
+        <v>-0.5</v>
+      </c>
+      <c r="R211">
+        <v>1.825</v>
+      </c>
+      <c r="S211">
+        <v>1.975</v>
+      </c>
+      <c r="T211">
+        <v>3</v>
+      </c>
+      <c r="U211">
+        <v>1.975</v>
+      </c>
+      <c r="V211">
+        <v>1.825</v>
+      </c>
+      <c r="W211">
+        <v>0.8</v>
+      </c>
+      <c r="X211">
+        <v>-1</v>
+      </c>
+      <c r="Y211">
+        <v>-1</v>
+      </c>
+      <c r="Z211">
+        <v>0.825</v>
+      </c>
+      <c r="AA211">
+        <v>-1</v>
+      </c>
+      <c r="AB211">
         <v>0</v>
       </c>
-      <c r="I211">
-        <v>0</v>
-      </c>
-      <c r="J211" t="s">
-        <v>51</v>
-      </c>
-      <c r="K211">
-        <v>2.2</v>
-      </c>
-      <c r="L211">
-        <v>3.3</v>
-      </c>
-      <c r="M211">
-        <v>2.875</v>
-      </c>
-      <c r="N211">
-        <v>2.625</v>
-      </c>
-      <c r="O211">
-        <v>3.4</v>
-      </c>
-      <c r="P211">
-        <v>2.625</v>
-      </c>
-      <c r="Q211">
-        <v>0</v>
-      </c>
-      <c r="R211">
-        <v>1.875</v>
-      </c>
-      <c r="S211">
-        <v>1.925</v>
-      </c>
-      <c r="T211">
-        <v>2.5</v>
-      </c>
-      <c r="U211">
-        <v>1.95</v>
-      </c>
-      <c r="V211">
-        <v>1.85</v>
-      </c>
-      <c r="W211">
-        <v>-1</v>
-      </c>
-      <c r="X211">
-        <v>2.4</v>
-      </c>
-      <c r="Y211">
-        <v>-1</v>
-      </c>
-      <c r="Z211">
-        <v>0</v>
-      </c>
-      <c r="AA211">
+      <c r="AC211">
         <v>-0</v>
-      </c>
-      <c r="AB211">
-        <v>-1</v>
-      </c>
-      <c r="AC211">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19321,7 +19321,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>8039390</v>
+        <v>8039389</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19333,76 +19333,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K212">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L212">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M212">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N212">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O212">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P212">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q212">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T212">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V212">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19937,6 +19937,154 @@
       </c>
       <c r="AC218">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>8089547</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>29</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45396.77083333334</v>
+      </c>
+      <c r="F219" t="s">
+        <v>48</v>
+      </c>
+      <c r="G219" t="s">
+        <v>36</v>
+      </c>
+      <c r="K219">
+        <v>2.6</v>
+      </c>
+      <c r="L219">
+        <v>3.5</v>
+      </c>
+      <c r="M219">
+        <v>2.3</v>
+      </c>
+      <c r="N219">
+        <v>2.9</v>
+      </c>
+      <c r="O219">
+        <v>3.6</v>
+      </c>
+      <c r="P219">
+        <v>2.1</v>
+      </c>
+      <c r="Q219">
+        <v>0.25</v>
+      </c>
+      <c r="R219">
+        <v>1.875</v>
+      </c>
+      <c r="S219">
+        <v>1.925</v>
+      </c>
+      <c r="T219">
+        <v>2.75</v>
+      </c>
+      <c r="U219">
+        <v>1.85</v>
+      </c>
+      <c r="V219">
+        <v>1.95</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>8089492</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>29</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45396.85416666666</v>
+      </c>
+      <c r="F220" t="s">
+        <v>41</v>
+      </c>
+      <c r="G220" t="s">
+        <v>42</v>
+      </c>
+      <c r="K220">
+        <v>1.533</v>
+      </c>
+      <c r="L220">
+        <v>3.75</v>
+      </c>
+      <c r="M220">
+        <v>5.5</v>
+      </c>
+      <c r="N220">
+        <v>1.65</v>
+      </c>
+      <c r="O220">
+        <v>3.5</v>
+      </c>
+      <c r="P220">
+        <v>4.75</v>
+      </c>
+      <c r="Q220">
+        <v>-0.75</v>
+      </c>
+      <c r="R220">
+        <v>1.875</v>
+      </c>
+      <c r="S220">
+        <v>1.925</v>
+      </c>
+      <c r="T220">
+        <v>2.5</v>
+      </c>
+      <c r="U220">
+        <v>1.95</v>
+      </c>
+      <c r="V220">
+        <v>1.85</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC220"/>
+  <dimension ref="A1:AC218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,76 +2868,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L27">
         <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N27">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,76 +2957,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L28">
         <v>3.6</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -4636,7 +4636,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6504578</v>
+        <v>6504291</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4648,16 +4648,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>1</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>52</v>
@@ -4669,34 +4669,34 @@
         <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N47">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O47">
         <v>3.6</v>
       </c>
       <c r="P47">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q47">
         <v>-0.75</v>
       </c>
       <c r="R47">
+        <v>1.85</v>
+      </c>
+      <c r="S47">
         <v>1.95</v>
-      </c>
-      <c r="S47">
-        <v>1.85</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4705,19 +4705,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6504291</v>
+        <v>6504578</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4737,16 +4737,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>52</v>
@@ -4758,34 +4758,34 @@
         <v>3.2</v>
       </c>
       <c r="M48">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N48">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q48">
         <v>-0.75</v>
       </c>
       <c r="R48">
+        <v>1.95</v>
+      </c>
+      <c r="S48">
         <v>1.85</v>
-      </c>
-      <c r="S48">
-        <v>1.95</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4794,19 +4794,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7462542</v>
+        <v>7462738</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,76 +11857,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128" t="s">
+        <v>51</v>
+      </c>
+      <c r="K128">
+        <v>4</v>
+      </c>
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
+        <v>1.666</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128">
+        <v>3.8</v>
+      </c>
+      <c r="P128">
+        <v>1.75</v>
+      </c>
+      <c r="Q128">
+        <v>0.75</v>
+      </c>
+      <c r="R128">
+        <v>1.8</v>
+      </c>
+      <c r="S128">
+        <v>2</v>
+      </c>
+      <c r="T128">
         <v>3</v>
       </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128" t="s">
-        <v>50</v>
-      </c>
-      <c r="K128">
-        <v>1.363</v>
-      </c>
-      <c r="L128">
-        <v>4.75</v>
-      </c>
-      <c r="M128">
-        <v>6.5</v>
-      </c>
-      <c r="N128">
-        <v>1.285</v>
-      </c>
-      <c r="O128">
-        <v>6.5</v>
-      </c>
-      <c r="P128">
-        <v>8</v>
-      </c>
-      <c r="Q128">
-        <v>-1.75</v>
-      </c>
-      <c r="R128">
-        <v>1.9</v>
-      </c>
-      <c r="S128">
-        <v>1.9</v>
-      </c>
-      <c r="T128">
-        <v>3.25</v>
-      </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W128">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC128">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11934,7 +11934,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7462738</v>
+        <v>7462542</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11946,76 +11946,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K129">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M129">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="N129">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="O129">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P129">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q129">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X129">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532414</v>
+        <v>7532430</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,40 +13103,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H142">
+        <v>4</v>
+      </c>
+      <c r="I142">
         <v>1</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
       </c>
       <c r="J142" t="s">
         <v>50</v>
       </c>
       <c r="K142">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="L142">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M142">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N142">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O142">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P142">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Q142">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R142">
         <v>2</v>
@@ -13148,13 +13148,13 @@
         <v>3</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13163,16 +13163,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532413</v>
+        <v>7532414</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,76 +13192,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
         <v>0</v>
       </c>
-      <c r="I143">
-        <v>1</v>
-      </c>
       <c r="J143" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K143">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M143">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N143">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O143">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P143">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R143">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532430</v>
+        <v>7532413</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,49 +13281,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K144">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L144">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="N144">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O144">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q144">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S144">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
         <v>1.9</v>
@@ -13332,25 +13332,25 @@
         <v>1.9</v>
       </c>
       <c r="W144">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB144">
+        <v>-1</v>
+      </c>
+      <c r="AC144">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC144">
-        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532421</v>
+        <v>7532420</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,13 +13726,13 @@
         <v>45265.875</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -13741,43 +13741,43 @@
         <v>50</v>
       </c>
       <c r="K149">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="L149">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M149">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N149">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O149">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P149">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q149">
         <v>-1.5</v>
       </c>
       <c r="R149">
+        <v>1.8</v>
+      </c>
+      <c r="S149">
+        <v>2</v>
+      </c>
+      <c r="T149">
+        <v>3.25</v>
+      </c>
+      <c r="U149">
+        <v>1.95</v>
+      </c>
+      <c r="V149">
         <v>1.85</v>
       </c>
-      <c r="S149">
-        <v>1.95</v>
-      </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.825</v>
-      </c>
-      <c r="V149">
-        <v>1.975</v>
-      </c>
       <c r="W149">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC149">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532420</v>
+        <v>7532421</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,13 +13815,13 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13830,43 +13830,43 @@
         <v>50</v>
       </c>
       <c r="K150">
+        <v>1.4</v>
+      </c>
+      <c r="L150">
+        <v>4.5</v>
+      </c>
+      <c r="M150">
+        <v>7.5</v>
+      </c>
+      <c r="N150">
         <v>1.333</v>
       </c>
-      <c r="L150">
-        <v>5</v>
-      </c>
-      <c r="M150">
-        <v>8</v>
-      </c>
-      <c r="N150">
-        <v>1.3</v>
-      </c>
       <c r="O150">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P150">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q150">
         <v>-1.5</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,58 +14082,58 @@
         <v>45266.875</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
         <v>50</v>
       </c>
       <c r="K153">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L153">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="N153">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O153">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q153">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T153">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W153">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14142,16 +14142,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,76 +14171,76 @@
         <v>45266.875</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>50</v>
       </c>
       <c r="K154">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L154">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M154">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="N154">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O154">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P154">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="Q154">
+        <v>-2.25</v>
+      </c>
+      <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>1.85</v>
+      </c>
+      <c r="T154">
+        <v>3.75</v>
+      </c>
+      <c r="U154">
+        <v>1.975</v>
+      </c>
+      <c r="V154">
+        <v>1.825</v>
+      </c>
+      <c r="W154">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
+        <v>0.95</v>
+      </c>
+      <c r="AA154">
+        <v>-1</v>
+      </c>
+      <c r="AB154">
+        <v>0.4875</v>
+      </c>
+      <c r="AC154">
         <v>-0.5</v>
-      </c>
-      <c r="R154">
-        <v>1.825</v>
-      </c>
-      <c r="S154">
-        <v>1.975</v>
-      </c>
-      <c r="T154">
-        <v>3</v>
-      </c>
-      <c r="U154">
-        <v>2</v>
-      </c>
-      <c r="V154">
-        <v>1.8</v>
-      </c>
-      <c r="W154">
-        <v>0.833</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>-1</v>
-      </c>
-      <c r="Z154">
-        <v>0.825</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>0</v>
-      </c>
-      <c r="AC154">
-        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -19937,154 +19937,6 @@
       </c>
       <c r="AC218">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:29">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="B219">
-        <v>8089547</v>
-      </c>
-      <c r="C219" t="s">
-        <v>28</v>
-      </c>
-      <c r="D219" t="s">
-        <v>29</v>
-      </c>
-      <c r="E219" s="2">
-        <v>45396.77083333334</v>
-      </c>
-      <c r="F219" t="s">
-        <v>48</v>
-      </c>
-      <c r="G219" t="s">
-        <v>36</v>
-      </c>
-      <c r="K219">
-        <v>2.6</v>
-      </c>
-      <c r="L219">
-        <v>3.5</v>
-      </c>
-      <c r="M219">
-        <v>2.3</v>
-      </c>
-      <c r="N219">
-        <v>2.9</v>
-      </c>
-      <c r="O219">
-        <v>3.6</v>
-      </c>
-      <c r="P219">
-        <v>2.1</v>
-      </c>
-      <c r="Q219">
-        <v>0.25</v>
-      </c>
-      <c r="R219">
-        <v>1.875</v>
-      </c>
-      <c r="S219">
-        <v>1.925</v>
-      </c>
-      <c r="T219">
-        <v>2.75</v>
-      </c>
-      <c r="U219">
-        <v>1.85</v>
-      </c>
-      <c r="V219">
-        <v>1.95</v>
-      </c>
-      <c r="W219">
-        <v>0</v>
-      </c>
-      <c r="X219">
-        <v>0</v>
-      </c>
-      <c r="Y219">
-        <v>0</v>
-      </c>
-      <c r="Z219">
-        <v>0</v>
-      </c>
-      <c r="AA219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:29">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220">
-        <v>8089492</v>
-      </c>
-      <c r="C220" t="s">
-        <v>28</v>
-      </c>
-      <c r="D220" t="s">
-        <v>29</v>
-      </c>
-      <c r="E220" s="2">
-        <v>45396.85416666666</v>
-      </c>
-      <c r="F220" t="s">
-        <v>41</v>
-      </c>
-      <c r="G220" t="s">
-        <v>42</v>
-      </c>
-      <c r="K220">
-        <v>1.533</v>
-      </c>
-      <c r="L220">
-        <v>3.75</v>
-      </c>
-      <c r="M220">
-        <v>5.5</v>
-      </c>
-      <c r="N220">
-        <v>1.65</v>
-      </c>
-      <c r="O220">
-        <v>3.5</v>
-      </c>
-      <c r="P220">
-        <v>4.75</v>
-      </c>
-      <c r="Q220">
-        <v>-0.75</v>
-      </c>
-      <c r="R220">
-        <v>1.875</v>
-      </c>
-      <c r="S220">
-        <v>1.925</v>
-      </c>
-      <c r="T220">
-        <v>2.5</v>
-      </c>
-      <c r="U220">
-        <v>1.95</v>
-      </c>
-      <c r="V220">
-        <v>1.85</v>
-      </c>
-      <c r="W220">
-        <v>0</v>
-      </c>
-      <c r="X220">
-        <v>0</v>
-      </c>
-      <c r="Y220">
-        <v>0</v>
-      </c>
-      <c r="Z220">
-        <v>0</v>
-      </c>
-      <c r="AA220">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC218"/>
+  <dimension ref="A1:AC222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,76 +2868,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L27">
         <v>3.6</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z27">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,76 +2957,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L28">
         <v>3.6</v>
       </c>
       <c r="M28">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -4636,7 +4636,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6504291</v>
+        <v>6504578</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4648,16 +4648,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>52</v>
@@ -4669,34 +4669,34 @@
         <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N47">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O47">
         <v>3.6</v>
       </c>
       <c r="P47">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q47">
         <v>-0.75</v>
       </c>
       <c r="R47">
+        <v>1.95</v>
+      </c>
+      <c r="S47">
         <v>1.85</v>
-      </c>
-      <c r="S47">
-        <v>1.95</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4705,19 +4705,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6504578</v>
+        <v>6504291</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4737,16 +4737,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>1</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>52</v>
@@ -4758,34 +4758,34 @@
         <v>3.2</v>
       </c>
       <c r="M48">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N48">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q48">
         <v>-0.75</v>
       </c>
       <c r="R48">
+        <v>1.85</v>
+      </c>
+      <c r="S48">
         <v>1.95</v>
-      </c>
-      <c r="S48">
-        <v>1.85</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4794,19 +4794,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7331150</v>
+        <v>7329845</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,76 +9988,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K107">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L107">
+        <v>3.4</v>
+      </c>
+      <c r="M107">
+        <v>2.05</v>
+      </c>
+      <c r="N107">
+        <v>3.4</v>
+      </c>
+      <c r="O107">
         <v>3.5</v>
       </c>
-      <c r="M107">
-        <v>2.875</v>
-      </c>
-      <c r="N107">
-        <v>2.4</v>
-      </c>
-      <c r="O107">
-        <v>3.6</v>
-      </c>
       <c r="P107">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S107">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y107">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA107">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7329845</v>
+        <v>7331150</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,76 +10077,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G108" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K108">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="N108">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="S108">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7462738</v>
+        <v>7462542</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,76 +11857,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M128">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="N128">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="O128">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P128">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q128">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R128">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X128">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11934,7 +11934,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7462542</v>
+        <v>7462738</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11946,76 +11946,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129" t="s">
+        <v>51</v>
+      </c>
+      <c r="K129">
+        <v>4</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129">
+        <v>1.666</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129">
+        <v>3.8</v>
+      </c>
+      <c r="P129">
+        <v>1.75</v>
+      </c>
+      <c r="Q129">
+        <v>0.75</v>
+      </c>
+      <c r="R129">
+        <v>1.8</v>
+      </c>
+      <c r="S129">
+        <v>2</v>
+      </c>
+      <c r="T129">
         <v>3</v>
       </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129" t="s">
-        <v>50</v>
-      </c>
-      <c r="K129">
-        <v>1.363</v>
-      </c>
-      <c r="L129">
-        <v>4.75</v>
-      </c>
-      <c r="M129">
-        <v>6.5</v>
-      </c>
-      <c r="N129">
-        <v>1.285</v>
-      </c>
-      <c r="O129">
-        <v>6.5</v>
-      </c>
-      <c r="P129">
-        <v>8</v>
-      </c>
-      <c r="Q129">
-        <v>-1.75</v>
-      </c>
-      <c r="R129">
-        <v>1.9</v>
-      </c>
-      <c r="S129">
-        <v>1.9</v>
-      </c>
-      <c r="T129">
-        <v>3.25</v>
-      </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC129">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532414</v>
+        <v>7532412</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,76 +13192,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K143">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L143">
         <v>3.75</v>
       </c>
       <c r="M143">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N143">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="O143">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q143">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W143">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC143">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532412</v>
+        <v>7532414</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,76 +13370,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
         <v>0</v>
       </c>
-      <c r="I145">
-        <v>3</v>
-      </c>
       <c r="J145" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K145">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L145">
         <v>3.75</v>
       </c>
       <c r="M145">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N145">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P145">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R145">
+        <v>2</v>
+      </c>
+      <c r="S145">
+        <v>1.8</v>
+      </c>
+      <c r="T145">
+        <v>3</v>
+      </c>
+      <c r="U145">
+        <v>1.85</v>
+      </c>
+      <c r="V145">
         <v>1.95</v>
       </c>
-      <c r="S145">
-        <v>1.85</v>
-      </c>
-      <c r="T145">
-        <v>2.75</v>
-      </c>
-      <c r="U145">
-        <v>1.925</v>
-      </c>
-      <c r="V145">
-        <v>1.875</v>
-      </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB145">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532419</v>
+        <v>7532421</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13652,43 +13652,43 @@
         <v>50</v>
       </c>
       <c r="K148">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L148">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M148">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N148">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="O148">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="P148">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>1.375</v>
+        <v>0.333</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532421</v>
+        <v>7532419</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,13 +13815,13 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13830,43 +13830,43 @@
         <v>50</v>
       </c>
       <c r="K150">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L150">
+        <v>2.5</v>
+      </c>
+      <c r="M150">
         <v>4.5</v>
       </c>
-      <c r="M150">
-        <v>7.5</v>
-      </c>
       <c r="N150">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="O150">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="P150">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q150">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
+        <v>1.9</v>
+      </c>
+      <c r="S150">
+        <v>1.9</v>
+      </c>
+      <c r="T150">
+        <v>2</v>
+      </c>
+      <c r="U150">
+        <v>1.95</v>
+      </c>
+      <c r="V150">
         <v>1.85</v>
       </c>
-      <c r="S150">
-        <v>1.95</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
       <c r="W150">
-        <v>0.333</v>
+        <v>1.375</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -19232,7 +19232,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>8039390</v>
+        <v>8039389</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19244,76 +19244,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G211" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K211">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L211">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M211">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N211">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O211">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P211">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q211">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R211">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S211">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T211">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U211">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V211">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W211">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19321,7 +19321,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>8039389</v>
+        <v>8039390</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19333,76 +19333,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="F212" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G212" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H212">
+        <v>2</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212" t="s">
+        <v>50</v>
+      </c>
+      <c r="K212">
+        <v>2.05</v>
+      </c>
+      <c r="L212">
+        <v>3.6</v>
+      </c>
+      <c r="M212">
+        <v>3</v>
+      </c>
+      <c r="N212">
+        <v>1.8</v>
+      </c>
+      <c r="O212">
+        <v>3.75</v>
+      </c>
+      <c r="P212">
+        <v>4.2</v>
+      </c>
+      <c r="Q212">
+        <v>-0.5</v>
+      </c>
+      <c r="R212">
+        <v>1.825</v>
+      </c>
+      <c r="S212">
+        <v>1.975</v>
+      </c>
+      <c r="T212">
+        <v>3</v>
+      </c>
+      <c r="U212">
+        <v>1.975</v>
+      </c>
+      <c r="V212">
+        <v>1.825</v>
+      </c>
+      <c r="W212">
+        <v>0.8</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
+        <v>0.825</v>
+      </c>
+      <c r="AA212">
+        <v>-1</v>
+      </c>
+      <c r="AB212">
         <v>0</v>
       </c>
-      <c r="I212">
-        <v>0</v>
-      </c>
-      <c r="J212" t="s">
-        <v>51</v>
-      </c>
-      <c r="K212">
-        <v>2.2</v>
-      </c>
-      <c r="L212">
-        <v>3.3</v>
-      </c>
-      <c r="M212">
-        <v>2.875</v>
-      </c>
-      <c r="N212">
-        <v>2.625</v>
-      </c>
-      <c r="O212">
-        <v>3.4</v>
-      </c>
-      <c r="P212">
-        <v>2.625</v>
-      </c>
-      <c r="Q212">
-        <v>0</v>
-      </c>
-      <c r="R212">
-        <v>1.875</v>
-      </c>
-      <c r="S212">
-        <v>1.925</v>
-      </c>
-      <c r="T212">
-        <v>2.5</v>
-      </c>
-      <c r="U212">
-        <v>1.95</v>
-      </c>
-      <c r="V212">
-        <v>1.85</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>2.4</v>
-      </c>
-      <c r="Y212">
-        <v>-1</v>
-      </c>
-      <c r="Z212">
-        <v>0</v>
-      </c>
-      <c r="AA212">
+      <c r="AC212">
         <v>-0</v>
-      </c>
-      <c r="AB212">
-        <v>-1</v>
-      </c>
-      <c r="AC212">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19499,7 +19499,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>8038943</v>
+        <v>8039392</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19511,10 +19511,10 @@
         <v>45389.70833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G214" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19526,43 +19526,43 @@
         <v>50</v>
       </c>
       <c r="K214">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L214">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M214">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="N214">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="O214">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P214">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R214">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S214">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W214">
-        <v>1.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19571,16 +19571,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB214">
+        <v>0.45</v>
+      </c>
+      <c r="AC214">
         <v>-0.5</v>
-      </c>
-      <c r="AC214">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19588,7 +19588,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>8039392</v>
+        <v>8038943</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19600,10 +19600,10 @@
         <v>45389.70833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G215" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19615,43 +19615,43 @@
         <v>50</v>
       </c>
       <c r="K215">
+        <v>2.3</v>
+      </c>
+      <c r="L215">
+        <v>3.5</v>
+      </c>
+      <c r="M215">
+        <v>2.625</v>
+      </c>
+      <c r="N215">
+        <v>2.8</v>
+      </c>
+      <c r="O215">
+        <v>3.6</v>
+      </c>
+      <c r="P215">
+        <v>2.375</v>
+      </c>
+      <c r="Q215">
+        <v>0.25</v>
+      </c>
+      <c r="R215">
+        <v>1.8</v>
+      </c>
+      <c r="S215">
         <v>2</v>
       </c>
-      <c r="L215">
+      <c r="T215">
         <v>3.25</v>
       </c>
-      <c r="M215">
-        <v>3.4</v>
-      </c>
-      <c r="N215">
-        <v>1.727</v>
-      </c>
-      <c r="O215">
-        <v>4</v>
-      </c>
-      <c r="P215">
-        <v>4.5</v>
-      </c>
-      <c r="Q215">
-        <v>-0.75</v>
-      </c>
-      <c r="R215">
-        <v>1.9</v>
-      </c>
-      <c r="S215">
-        <v>1.9</v>
-      </c>
-      <c r="T215">
-        <v>2.75</v>
-      </c>
       <c r="U215">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W215">
-        <v>0.7270000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19660,16 +19660,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA215">
+        <v>-1</v>
+      </c>
+      <c r="AB215">
         <v>-0.5</v>
       </c>
-      <c r="AB215">
-        <v>0.45</v>
-      </c>
       <c r="AC215">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19937,6 +19937,362 @@
       </c>
       <c r="AC218">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>8088970</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>29</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45396.66666666666</v>
+      </c>
+      <c r="F219" t="s">
+        <v>49</v>
+      </c>
+      <c r="G219" t="s">
+        <v>44</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219" t="s">
+        <v>50</v>
+      </c>
+      <c r="K219">
+        <v>2.4</v>
+      </c>
+      <c r="L219">
+        <v>3.5</v>
+      </c>
+      <c r="M219">
+        <v>2.5</v>
+      </c>
+      <c r="N219">
+        <v>2.75</v>
+      </c>
+      <c r="O219">
+        <v>3.5</v>
+      </c>
+      <c r="P219">
+        <v>2.2</v>
+      </c>
+      <c r="Q219">
+        <v>0.25</v>
+      </c>
+      <c r="R219">
+        <v>1.8</v>
+      </c>
+      <c r="S219">
+        <v>2</v>
+      </c>
+      <c r="T219">
+        <v>3</v>
+      </c>
+      <c r="U219">
+        <v>1.975</v>
+      </c>
+      <c r="V219">
+        <v>1.825</v>
+      </c>
+      <c r="W219">
+        <v>1.75</v>
+      </c>
+      <c r="X219">
+        <v>-1</v>
+      </c>
+      <c r="Y219">
+        <v>-1</v>
+      </c>
+      <c r="Z219">
+        <v>0.8</v>
+      </c>
+      <c r="AA219">
+        <v>-1</v>
+      </c>
+      <c r="AB219">
+        <v>-1</v>
+      </c>
+      <c r="AC219">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>8089547</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>29</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45396.77083333334</v>
+      </c>
+      <c r="F220" t="s">
+        <v>48</v>
+      </c>
+      <c r="G220" t="s">
+        <v>36</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>2</v>
+      </c>
+      <c r="J220" t="s">
+        <v>52</v>
+      </c>
+      <c r="K220">
+        <v>2.6</v>
+      </c>
+      <c r="L220">
+        <v>3.5</v>
+      </c>
+      <c r="M220">
+        <v>2.3</v>
+      </c>
+      <c r="N220">
+        <v>3.1</v>
+      </c>
+      <c r="O220">
+        <v>3.6</v>
+      </c>
+      <c r="P220">
+        <v>2</v>
+      </c>
+      <c r="Q220">
+        <v>0.5</v>
+      </c>
+      <c r="R220">
+        <v>1.825</v>
+      </c>
+      <c r="S220">
+        <v>1.975</v>
+      </c>
+      <c r="T220">
+        <v>2.75</v>
+      </c>
+      <c r="U220">
+        <v>1.825</v>
+      </c>
+      <c r="V220">
+        <v>1.975</v>
+      </c>
+      <c r="W220">
+        <v>-1</v>
+      </c>
+      <c r="X220">
+        <v>-1</v>
+      </c>
+      <c r="Y220">
+        <v>1</v>
+      </c>
+      <c r="Z220">
+        <v>-1</v>
+      </c>
+      <c r="AA220">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB220">
+        <v>-1</v>
+      </c>
+      <c r="AC220">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>8089492</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>29</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45396.85416666666</v>
+      </c>
+      <c r="F221" t="s">
+        <v>41</v>
+      </c>
+      <c r="G221" t="s">
+        <v>42</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221" t="s">
+        <v>52</v>
+      </c>
+      <c r="K221">
+        <v>1.533</v>
+      </c>
+      <c r="L221">
+        <v>3.75</v>
+      </c>
+      <c r="M221">
+        <v>5.5</v>
+      </c>
+      <c r="N221">
+        <v>1.571</v>
+      </c>
+      <c r="O221">
+        <v>3.75</v>
+      </c>
+      <c r="P221">
+        <v>5</v>
+      </c>
+      <c r="Q221">
+        <v>-1</v>
+      </c>
+      <c r="R221">
+        <v>2.025</v>
+      </c>
+      <c r="S221">
+        <v>1.775</v>
+      </c>
+      <c r="T221">
+        <v>2.75</v>
+      </c>
+      <c r="U221">
+        <v>1.9</v>
+      </c>
+      <c r="V221">
+        <v>1.9</v>
+      </c>
+      <c r="W221">
+        <v>-1</v>
+      </c>
+      <c r="X221">
+        <v>-1</v>
+      </c>
+      <c r="Y221">
+        <v>4</v>
+      </c>
+      <c r="Z221">
+        <v>-1</v>
+      </c>
+      <c r="AA221">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB221">
+        <v>-1</v>
+      </c>
+      <c r="AC221">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>8090056</v>
+      </c>
+      <c r="C222" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" t="s">
+        <v>29</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45397.83333333334</v>
+      </c>
+      <c r="F222" t="s">
+        <v>46</v>
+      </c>
+      <c r="G222" t="s">
+        <v>31</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222" t="s">
+        <v>52</v>
+      </c>
+      <c r="K222">
+        <v>2.2</v>
+      </c>
+      <c r="L222">
+        <v>3.3</v>
+      </c>
+      <c r="M222">
+        <v>2.875</v>
+      </c>
+      <c r="N222">
+        <v>2.4</v>
+      </c>
+      <c r="O222">
+        <v>3.4</v>
+      </c>
+      <c r="P222">
+        <v>2.875</v>
+      </c>
+      <c r="Q222">
+        <v>-0.25</v>
+      </c>
+      <c r="R222">
+        <v>2.05</v>
+      </c>
+      <c r="S222">
+        <v>1.75</v>
+      </c>
+      <c r="T222">
+        <v>2.5</v>
+      </c>
+      <c r="U222">
+        <v>1.975</v>
+      </c>
+      <c r="V222">
+        <v>1.825</v>
+      </c>
+      <c r="W222">
+        <v>-1</v>
+      </c>
+      <c r="X222">
+        <v>-1</v>
+      </c>
+      <c r="Y222">
+        <v>1.875</v>
+      </c>
+      <c r="Z222">
+        <v>-1</v>
+      </c>
+      <c r="AA222">
+        <v>0.75</v>
+      </c>
+      <c r="AB222">
+        <v>-1</v>
+      </c>
+      <c r="AC222">
+        <v>0.825</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC222"/>
+  <dimension ref="A1:AC223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7462542</v>
+        <v>7462738</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,76 +11857,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128" t="s">
+        <v>51</v>
+      </c>
+      <c r="K128">
+        <v>4</v>
+      </c>
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
+        <v>1.666</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128">
+        <v>3.8</v>
+      </c>
+      <c r="P128">
+        <v>1.75</v>
+      </c>
+      <c r="Q128">
+        <v>0.75</v>
+      </c>
+      <c r="R128">
+        <v>1.8</v>
+      </c>
+      <c r="S128">
+        <v>2</v>
+      </c>
+      <c r="T128">
         <v>3</v>
       </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128" t="s">
-        <v>50</v>
-      </c>
-      <c r="K128">
-        <v>1.363</v>
-      </c>
-      <c r="L128">
-        <v>4.75</v>
-      </c>
-      <c r="M128">
-        <v>6.5</v>
-      </c>
-      <c r="N128">
-        <v>1.285</v>
-      </c>
-      <c r="O128">
-        <v>6.5</v>
-      </c>
-      <c r="P128">
-        <v>8</v>
-      </c>
-      <c r="Q128">
-        <v>-1.75</v>
-      </c>
-      <c r="R128">
-        <v>1.9</v>
-      </c>
-      <c r="S128">
-        <v>1.9</v>
-      </c>
-      <c r="T128">
-        <v>3.25</v>
-      </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W128">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC128">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11934,7 +11934,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7462738</v>
+        <v>7462542</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11946,76 +11946,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K129">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M129">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="N129">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="O129">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P129">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q129">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X129">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532430</v>
+        <v>7532412</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,76 +13103,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>3</v>
+      </c>
+      <c r="J142" t="s">
+        <v>52</v>
+      </c>
+      <c r="K142">
+        <v>1.727</v>
+      </c>
+      <c r="L142">
+        <v>3.75</v>
+      </c>
+      <c r="M142">
         <v>4</v>
       </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
-      <c r="J142" t="s">
-        <v>50</v>
-      </c>
-      <c r="K142">
-        <v>1.4</v>
-      </c>
-      <c r="L142">
-        <v>4.2</v>
-      </c>
-      <c r="M142">
-        <v>7</v>
-      </c>
       <c r="N142">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O142">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q142">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W142">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532412</v>
+        <v>7532430</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,76 +13192,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>50</v>
+      </c>
+      <c r="K143">
+        <v>1.4</v>
+      </c>
+      <c r="L143">
+        <v>4.2</v>
+      </c>
+      <c r="M143">
+        <v>7</v>
+      </c>
+      <c r="N143">
+        <v>1.363</v>
+      </c>
+      <c r="O143">
+        <v>4.5</v>
+      </c>
+      <c r="P143">
+        <v>8.5</v>
+      </c>
+      <c r="Q143">
+        <v>-1.5</v>
+      </c>
+      <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>1.8</v>
+      </c>
+      <c r="T143">
         <v>3</v>
       </c>
-      <c r="J143" t="s">
-        <v>52</v>
-      </c>
-      <c r="K143">
-        <v>1.727</v>
-      </c>
-      <c r="L143">
-        <v>3.75</v>
-      </c>
-      <c r="M143">
-        <v>4</v>
-      </c>
-      <c r="N143">
-        <v>2.3</v>
-      </c>
-      <c r="O143">
-        <v>3.6</v>
-      </c>
-      <c r="P143">
-        <v>2.875</v>
-      </c>
-      <c r="Q143">
-        <v>-0.25</v>
-      </c>
-      <c r="R143">
-        <v>1.95</v>
-      </c>
-      <c r="S143">
-        <v>1.85</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
       <c r="U143">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -20293,6 +20293,95 @@
       </c>
       <c r="AC222">
         <v>0.825</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>8091186</v>
+      </c>
+      <c r="C223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" t="s">
+        <v>29</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45399.66666666666</v>
+      </c>
+      <c r="F223" t="s">
+        <v>42</v>
+      </c>
+      <c r="G223" t="s">
+        <v>41</v>
+      </c>
+      <c r="H223">
+        <v>3</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223" t="s">
+        <v>50</v>
+      </c>
+      <c r="K223">
+        <v>2.1</v>
+      </c>
+      <c r="L223">
+        <v>3.4</v>
+      </c>
+      <c r="M223">
+        <v>3</v>
+      </c>
+      <c r="N223">
+        <v>1.85</v>
+      </c>
+      <c r="O223">
+        <v>3.75</v>
+      </c>
+      <c r="P223">
+        <v>4</v>
+      </c>
+      <c r="Q223">
+        <v>-0.5</v>
+      </c>
+      <c r="R223">
+        <v>1.875</v>
+      </c>
+      <c r="S223">
+        <v>1.925</v>
+      </c>
+      <c r="T223">
+        <v>2.75</v>
+      </c>
+      <c r="U223">
+        <v>2</v>
+      </c>
+      <c r="V223">
+        <v>1.8</v>
+      </c>
+      <c r="W223">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X223">
+        <v>-1</v>
+      </c>
+      <c r="Y223">
+        <v>-1</v>
+      </c>
+      <c r="Z223">
+        <v>0.875</v>
+      </c>
+      <c r="AA223">
+        <v>-1</v>
+      </c>
+      <c r="AB223">
+        <v>1</v>
+      </c>
+      <c r="AC223">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC223"/>
+  <dimension ref="A1:AC225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2856,7 +2856,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2868,76 +2868,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L27">
         <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N27">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2957,76 +2957,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L28">
         <v>3.6</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7329845</v>
+        <v>7331150</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,76 +9988,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K107">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="N107">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="S107">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z107">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7331150</v>
+        <v>7329845</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,76 +10077,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K108">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L108">
+        <v>3.4</v>
+      </c>
+      <c r="M108">
+        <v>2.05</v>
+      </c>
+      <c r="N108">
+        <v>3.4</v>
+      </c>
+      <c r="O108">
         <v>3.5</v>
       </c>
-      <c r="M108">
-        <v>2.875</v>
-      </c>
-      <c r="N108">
-        <v>2.4</v>
-      </c>
-      <c r="O108">
-        <v>3.6</v>
-      </c>
       <c r="P108">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S108">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y108">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA108">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532430</v>
+        <v>7532413</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,49 +13192,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K143">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L143">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M143">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="N143">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O143">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q143">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
         <v>1.9</v>
@@ -13243,25 +13243,25 @@
         <v>1.9</v>
       </c>
       <c r="W143">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB143">
+        <v>-1</v>
+      </c>
+      <c r="AC143">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC143">
-        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532413</v>
+        <v>7532414</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,76 +13281,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
         <v>0</v>
       </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
       <c r="J144" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K144">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N144">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P144">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R144">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532414</v>
+        <v>7532430</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,40 +13370,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H145">
+        <v>4</v>
+      </c>
+      <c r="I145">
         <v>1</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>50</v>
       </c>
       <c r="K145">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="L145">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M145">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N145">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O145">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P145">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Q145">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R145">
         <v>2</v>
@@ -13415,13 +13415,13 @@
         <v>3</v>
       </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13430,16 +13430,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC145">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532421</v>
+        <v>7532420</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13652,43 +13652,43 @@
         <v>50</v>
       </c>
       <c r="K148">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="L148">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M148">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N148">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O148">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P148">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q148">
         <v>-1.5</v>
       </c>
       <c r="R148">
+        <v>1.8</v>
+      </c>
+      <c r="S148">
+        <v>2</v>
+      </c>
+      <c r="T148">
+        <v>3.25</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
         <v>1.85</v>
       </c>
-      <c r="S148">
-        <v>1.95</v>
-      </c>
-      <c r="T148">
-        <v>3</v>
-      </c>
-      <c r="U148">
-        <v>1.825</v>
-      </c>
-      <c r="V148">
-        <v>1.975</v>
-      </c>
       <c r="W148">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC148">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532420</v>
+        <v>7532419</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,10 +13726,10 @@
         <v>45265.875</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13741,34 +13741,34 @@
         <v>50</v>
       </c>
       <c r="K149">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L149">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M149">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N149">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O149">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="P149">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q149">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
+        <v>1.9</v>
+      </c>
+      <c r="T149">
         <v>2</v>
-      </c>
-      <c r="T149">
-        <v>3.25</v>
       </c>
       <c r="U149">
         <v>1.95</v>
@@ -13777,7 +13777,7 @@
         <v>1.85</v>
       </c>
       <c r="W149">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC149">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532419</v>
+        <v>7532421</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,13 +13815,13 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13830,43 +13830,43 @@
         <v>50</v>
       </c>
       <c r="K150">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L150">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M150">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N150">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="O150">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="P150">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q150">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>1.375</v>
+        <v>0.333</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,76 +14082,76 @@
         <v>45266.875</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
         <v>50</v>
       </c>
       <c r="K153">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M153">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="N153">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O153">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P153">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="Q153">
+        <v>-2.25</v>
+      </c>
+      <c r="R153">
+        <v>1.95</v>
+      </c>
+      <c r="S153">
+        <v>1.85</v>
+      </c>
+      <c r="T153">
+        <v>3.75</v>
+      </c>
+      <c r="U153">
+        <v>1.975</v>
+      </c>
+      <c r="V153">
+        <v>1.825</v>
+      </c>
+      <c r="W153">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
+        <v>0.95</v>
+      </c>
+      <c r="AA153">
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>0.4875</v>
+      </c>
+      <c r="AC153">
         <v>-0.5</v>
-      </c>
-      <c r="R153">
-        <v>1.825</v>
-      </c>
-      <c r="S153">
-        <v>1.975</v>
-      </c>
-      <c r="T153">
-        <v>3</v>
-      </c>
-      <c r="U153">
-        <v>2</v>
-      </c>
-      <c r="V153">
-        <v>1.8</v>
-      </c>
-      <c r="W153">
-        <v>0.833</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
-      <c r="Z153">
-        <v>0.825</v>
-      </c>
-      <c r="AA153">
-        <v>-1</v>
-      </c>
-      <c r="AB153">
-        <v>0</v>
-      </c>
-      <c r="AC153">
-        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,58 +14171,58 @@
         <v>45266.875</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
         <v>50</v>
       </c>
       <c r="K154">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L154">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M154">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="N154">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O154">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P154">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q154">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T154">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U154">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V154">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14231,16 +14231,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -20382,6 +20382,184 @@
       </c>
       <c r="AC223">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>8090748</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>29</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45399.875</v>
+      </c>
+      <c r="F224" t="s">
+        <v>36</v>
+      </c>
+      <c r="G224" t="s">
+        <v>48</v>
+      </c>
+      <c r="H224">
+        <v>2</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224" t="s">
+        <v>50</v>
+      </c>
+      <c r="K224">
+        <v>1.533</v>
+      </c>
+      <c r="L224">
+        <v>4</v>
+      </c>
+      <c r="M224">
+        <v>5</v>
+      </c>
+      <c r="N224">
+        <v>1.285</v>
+      </c>
+      <c r="O224">
+        <v>5.5</v>
+      </c>
+      <c r="P224">
+        <v>11</v>
+      </c>
+      <c r="Q224">
+        <v>-1.75</v>
+      </c>
+      <c r="R224">
+        <v>1.975</v>
+      </c>
+      <c r="S224">
+        <v>1.825</v>
+      </c>
+      <c r="T224">
+        <v>3.25</v>
+      </c>
+      <c r="U224">
+        <v>2</v>
+      </c>
+      <c r="V224">
+        <v>1.8</v>
+      </c>
+      <c r="W224">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X224">
+        <v>-1</v>
+      </c>
+      <c r="Y224">
+        <v>-1</v>
+      </c>
+      <c r="Z224">
+        <v>-1</v>
+      </c>
+      <c r="AA224">
+        <v>0.825</v>
+      </c>
+      <c r="AB224">
+        <v>-0.5</v>
+      </c>
+      <c r="AC224">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>8090539</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>29</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45400.83333333334</v>
+      </c>
+      <c r="F225" t="s">
+        <v>44</v>
+      </c>
+      <c r="G225" t="s">
+        <v>49</v>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225" t="s">
+        <v>51</v>
+      </c>
+      <c r="K225">
+        <v>1.363</v>
+      </c>
+      <c r="L225">
+        <v>4.5</v>
+      </c>
+      <c r="M225">
+        <v>7</v>
+      </c>
+      <c r="N225">
+        <v>1.125</v>
+      </c>
+      <c r="O225">
+        <v>8</v>
+      </c>
+      <c r="P225">
+        <v>19</v>
+      </c>
+      <c r="Q225">
+        <v>-2.25</v>
+      </c>
+      <c r="R225">
+        <v>1.8</v>
+      </c>
+      <c r="S225">
+        <v>2</v>
+      </c>
+      <c r="T225">
+        <v>3.5</v>
+      </c>
+      <c r="U225">
+        <v>1.75</v>
+      </c>
+      <c r="V225">
+        <v>2.05</v>
+      </c>
+      <c r="W225">
+        <v>-1</v>
+      </c>
+      <c r="X225">
+        <v>7</v>
+      </c>
+      <c r="Y225">
+        <v>-1</v>
+      </c>
+      <c r="Z225">
+        <v>-1</v>
+      </c>
+      <c r="AA225">
+        <v>1</v>
+      </c>
+      <c r="AB225">
+        <v>-1</v>
+      </c>
+      <c r="AC225">
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC225"/>
+  <dimension ref="A1:AC226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4636,7 +4636,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6504578</v>
+        <v>6504291</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4648,16 +4648,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>1</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>52</v>
@@ -4669,34 +4669,34 @@
         <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N47">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O47">
         <v>3.6</v>
       </c>
       <c r="P47">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q47">
         <v>-0.75</v>
       </c>
       <c r="R47">
+        <v>1.85</v>
+      </c>
+      <c r="S47">
         <v>1.95</v>
-      </c>
-      <c r="S47">
-        <v>1.85</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4705,19 +4705,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6504291</v>
+        <v>6504578</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4737,16 +4737,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>52</v>
@@ -4758,34 +4758,34 @@
         <v>3.2</v>
       </c>
       <c r="M48">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N48">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O48">
         <v>3.6</v>
       </c>
       <c r="P48">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q48">
         <v>-0.75</v>
       </c>
       <c r="R48">
+        <v>1.95</v>
+      </c>
+      <c r="S48">
         <v>1.85</v>
-      </c>
-      <c r="S48">
-        <v>1.95</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4794,19 +4794,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7462738</v>
+        <v>7462542</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,76 +11857,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M128">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="N128">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="O128">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P128">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q128">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R128">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X128">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11934,7 +11934,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7462542</v>
+        <v>7462738</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11946,76 +11946,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129" t="s">
+        <v>51</v>
+      </c>
+      <c r="K129">
+        <v>4</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129">
+        <v>1.666</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129">
+        <v>3.8</v>
+      </c>
+      <c r="P129">
+        <v>1.75</v>
+      </c>
+      <c r="Q129">
+        <v>0.75</v>
+      </c>
+      <c r="R129">
+        <v>1.8</v>
+      </c>
+      <c r="S129">
+        <v>2</v>
+      </c>
+      <c r="T129">
         <v>3</v>
       </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129" t="s">
-        <v>50</v>
-      </c>
-      <c r="K129">
-        <v>1.363</v>
-      </c>
-      <c r="L129">
-        <v>4.75</v>
-      </c>
-      <c r="M129">
-        <v>6.5</v>
-      </c>
-      <c r="N129">
-        <v>1.285</v>
-      </c>
-      <c r="O129">
-        <v>6.5</v>
-      </c>
-      <c r="P129">
-        <v>8</v>
-      </c>
-      <c r="Q129">
-        <v>-1.75</v>
-      </c>
-      <c r="R129">
-        <v>1.9</v>
-      </c>
-      <c r="S129">
-        <v>1.9</v>
-      </c>
-      <c r="T129">
-        <v>3.25</v>
-      </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC129">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532412</v>
+        <v>7532430</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,76 +13103,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>50</v>
+      </c>
+      <c r="K142">
+        <v>1.4</v>
+      </c>
+      <c r="L142">
+        <v>4.2</v>
+      </c>
+      <c r="M142">
+        <v>7</v>
+      </c>
+      <c r="N142">
+        <v>1.363</v>
+      </c>
+      <c r="O142">
+        <v>4.5</v>
+      </c>
+      <c r="P142">
+        <v>8.5</v>
+      </c>
+      <c r="Q142">
+        <v>-1.5</v>
+      </c>
+      <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
+        <v>1.8</v>
+      </c>
+      <c r="T142">
         <v>3</v>
       </c>
-      <c r="J142" t="s">
-        <v>52</v>
-      </c>
-      <c r="K142">
-        <v>1.727</v>
-      </c>
-      <c r="L142">
-        <v>3.75</v>
-      </c>
-      <c r="M142">
-        <v>4</v>
-      </c>
-      <c r="N142">
-        <v>2.3</v>
-      </c>
-      <c r="O142">
-        <v>3.6</v>
-      </c>
-      <c r="P142">
-        <v>2.875</v>
-      </c>
-      <c r="Q142">
-        <v>-0.25</v>
-      </c>
-      <c r="R142">
-        <v>1.95</v>
-      </c>
-      <c r="S142">
-        <v>1.85</v>
-      </c>
-      <c r="T142">
-        <v>2.75</v>
-      </c>
       <c r="U142">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532413</v>
+        <v>7532412</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,34 +13192,34 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
         <v>52</v>
       </c>
       <c r="K143">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M143">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N143">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O143">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
         <v>2.875</v>
@@ -13228,19 +13228,19 @@
         <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13255,13 +13255,13 @@
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532414</v>
+        <v>7532413</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,76 +13281,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
         <v>1</v>
       </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K144">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N144">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O144">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q144">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S144">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532430</v>
+        <v>7532414</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,40 +13370,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G145" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>50</v>
       </c>
       <c r="K145">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="L145">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M145">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N145">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O145">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P145">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Q145">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R145">
         <v>2</v>
@@ -13415,13 +13415,13 @@
         <v>3</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W145">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13430,16 +13430,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532420</v>
+        <v>7532419</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,10 +13637,10 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13652,34 +13652,34 @@
         <v>50</v>
       </c>
       <c r="K148">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L148">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M148">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N148">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O148">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="P148">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q148">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
+        <v>1.9</v>
+      </c>
+      <c r="T148">
         <v>2</v>
-      </c>
-      <c r="T148">
-        <v>3.25</v>
       </c>
       <c r="U148">
         <v>1.95</v>
@@ -13688,7 +13688,7 @@
         <v>1.85</v>
       </c>
       <c r="W148">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC148">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532419</v>
+        <v>7532420</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,10 +13726,10 @@
         <v>45265.875</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13741,34 +13741,34 @@
         <v>50</v>
       </c>
       <c r="K149">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L149">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="M149">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="N149">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O149">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="P149">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S149">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T149">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U149">
         <v>1.95</v>
@@ -13777,7 +13777,7 @@
         <v>1.85</v>
       </c>
       <c r="W149">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14082,58 +14082,58 @@
         <v>45266.875</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
         <v>50</v>
       </c>
       <c r="K153">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L153">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="N153">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O153">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q153">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T153">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W153">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14142,16 +14142,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14171,76 +14171,76 @@
         <v>45266.875</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>50</v>
       </c>
       <c r="K154">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L154">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M154">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="N154">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O154">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P154">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="Q154">
+        <v>-2.25</v>
+      </c>
+      <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>1.85</v>
+      </c>
+      <c r="T154">
+        <v>3.75</v>
+      </c>
+      <c r="U154">
+        <v>1.975</v>
+      </c>
+      <c r="V154">
+        <v>1.825</v>
+      </c>
+      <c r="W154">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
+        <v>0.95</v>
+      </c>
+      <c r="AA154">
+        <v>-1</v>
+      </c>
+      <c r="AB154">
+        <v>0.4875</v>
+      </c>
+      <c r="AC154">
         <v>-0.5</v>
-      </c>
-      <c r="R154">
-        <v>1.825</v>
-      </c>
-      <c r="S154">
-        <v>1.975</v>
-      </c>
-      <c r="T154">
-        <v>3</v>
-      </c>
-      <c r="U154">
-        <v>2</v>
-      </c>
-      <c r="V154">
-        <v>1.8</v>
-      </c>
-      <c r="W154">
-        <v>0.833</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>-1</v>
-      </c>
-      <c r="Z154">
-        <v>0.825</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>0</v>
-      </c>
-      <c r="AC154">
-        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -19232,7 +19232,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>8039389</v>
+        <v>8039390</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19244,76 +19244,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G211" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H211">
+        <v>2</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211" t="s">
+        <v>50</v>
+      </c>
+      <c r="K211">
+        <v>2.05</v>
+      </c>
+      <c r="L211">
+        <v>3.6</v>
+      </c>
+      <c r="M211">
+        <v>3</v>
+      </c>
+      <c r="N211">
+        <v>1.8</v>
+      </c>
+      <c r="O211">
+        <v>3.75</v>
+      </c>
+      <c r="P211">
+        <v>4.2</v>
+      </c>
+      <c r="Q211">
+        <v>-0.5</v>
+      </c>
+      <c r="R211">
+        <v>1.825</v>
+      </c>
+      <c r="S211">
+        <v>1.975</v>
+      </c>
+      <c r="T211">
+        <v>3</v>
+      </c>
+      <c r="U211">
+        <v>1.975</v>
+      </c>
+      <c r="V211">
+        <v>1.825</v>
+      </c>
+      <c r="W211">
+        <v>0.8</v>
+      </c>
+      <c r="X211">
+        <v>-1</v>
+      </c>
+      <c r="Y211">
+        <v>-1</v>
+      </c>
+      <c r="Z211">
+        <v>0.825</v>
+      </c>
+      <c r="AA211">
+        <v>-1</v>
+      </c>
+      <c r="AB211">
         <v>0</v>
       </c>
-      <c r="I211">
-        <v>0</v>
-      </c>
-      <c r="J211" t="s">
-        <v>51</v>
-      </c>
-      <c r="K211">
-        <v>2.2</v>
-      </c>
-      <c r="L211">
-        <v>3.3</v>
-      </c>
-      <c r="M211">
-        <v>2.875</v>
-      </c>
-      <c r="N211">
-        <v>2.625</v>
-      </c>
-      <c r="O211">
-        <v>3.4</v>
-      </c>
-      <c r="P211">
-        <v>2.625</v>
-      </c>
-      <c r="Q211">
-        <v>0</v>
-      </c>
-      <c r="R211">
-        <v>1.875</v>
-      </c>
-      <c r="S211">
-        <v>1.925</v>
-      </c>
-      <c r="T211">
-        <v>2.5</v>
-      </c>
-      <c r="U211">
-        <v>1.95</v>
-      </c>
-      <c r="V211">
-        <v>1.85</v>
-      </c>
-      <c r="W211">
-        <v>-1</v>
-      </c>
-      <c r="X211">
-        <v>2.4</v>
-      </c>
-      <c r="Y211">
-        <v>-1</v>
-      </c>
-      <c r="Z211">
-        <v>0</v>
-      </c>
-      <c r="AA211">
+      <c r="AC211">
         <v>-0</v>
-      </c>
-      <c r="AB211">
-        <v>-1</v>
-      </c>
-      <c r="AC211">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19321,7 +19321,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>8039390</v>
+        <v>8039389</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19333,76 +19333,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K212">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L212">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M212">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N212">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O212">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P212">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q212">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T212">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U212">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V212">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -20560,6 +20560,95 @@
       </c>
       <c r="AC225">
         <v>1.05</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>8091314</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>29</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45400.875</v>
+      </c>
+      <c r="F226" t="s">
+        <v>31</v>
+      </c>
+      <c r="G226" t="s">
+        <v>46</v>
+      </c>
+      <c r="H226">
+        <v>6</v>
+      </c>
+      <c r="I226">
+        <v>8</v>
+      </c>
+      <c r="J226" t="s">
+        <v>52</v>
+      </c>
+      <c r="K226">
+        <v>1.363</v>
+      </c>
+      <c r="L226">
+        <v>4.2</v>
+      </c>
+      <c r="M226">
+        <v>7.5</v>
+      </c>
+      <c r="N226">
+        <v>1.666</v>
+      </c>
+      <c r="O226">
+        <v>4</v>
+      </c>
+      <c r="P226">
+        <v>4.5</v>
+      </c>
+      <c r="Q226">
+        <v>-0.75</v>
+      </c>
+      <c r="R226">
+        <v>1.875</v>
+      </c>
+      <c r="S226">
+        <v>1.925</v>
+      </c>
+      <c r="T226">
+        <v>2.5</v>
+      </c>
+      <c r="U226">
+        <v>1.8</v>
+      </c>
+      <c r="V226">
+        <v>2</v>
+      </c>
+      <c r="W226">
+        <v>-1</v>
+      </c>
+      <c r="X226">
+        <v>-1</v>
+      </c>
+      <c r="Y226">
+        <v>3.5</v>
+      </c>
+      <c r="Z226">
+        <v>-1</v>
+      </c>
+      <c r="AA226">
+        <v>0.925</v>
+      </c>
+      <c r="AB226">
+        <v>0.8</v>
+      </c>
+      <c r="AC226">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7462542</v>
+        <v>7462738</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,76 +11857,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128" t="s">
+        <v>51</v>
+      </c>
+      <c r="K128">
+        <v>4</v>
+      </c>
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
+        <v>1.666</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128">
+        <v>3.8</v>
+      </c>
+      <c r="P128">
+        <v>1.75</v>
+      </c>
+      <c r="Q128">
+        <v>0.75</v>
+      </c>
+      <c r="R128">
+        <v>1.8</v>
+      </c>
+      <c r="S128">
+        <v>2</v>
+      </c>
+      <c r="T128">
         <v>3</v>
       </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128" t="s">
-        <v>50</v>
-      </c>
-      <c r="K128">
-        <v>1.363</v>
-      </c>
-      <c r="L128">
-        <v>4.75</v>
-      </c>
-      <c r="M128">
-        <v>6.5</v>
-      </c>
-      <c r="N128">
-        <v>1.285</v>
-      </c>
-      <c r="O128">
-        <v>6.5</v>
-      </c>
-      <c r="P128">
-        <v>8</v>
-      </c>
-      <c r="Q128">
-        <v>-1.75</v>
-      </c>
-      <c r="R128">
-        <v>1.9</v>
-      </c>
-      <c r="S128">
-        <v>1.9</v>
-      </c>
-      <c r="T128">
-        <v>3.25</v>
-      </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W128">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC128">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11934,7 +11934,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7462738</v>
+        <v>7462542</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11946,76 +11946,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K129">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M129">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="N129">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="O129">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P129">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q129">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X129">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532419</v>
+        <v>7532421</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13652,43 +13652,43 @@
         <v>50</v>
       </c>
       <c r="K148">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L148">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M148">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N148">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="O148">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="P148">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U148">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W148">
-        <v>1.375</v>
+        <v>0.333</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532420</v>
+        <v>7532419</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,10 +13726,10 @@
         <v>45265.875</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13741,34 +13741,34 @@
         <v>50</v>
       </c>
       <c r="K149">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L149">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M149">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N149">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O149">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="P149">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q149">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
+        <v>1.9</v>
+      </c>
+      <c r="T149">
         <v>2</v>
-      </c>
-      <c r="T149">
-        <v>3.25</v>
       </c>
       <c r="U149">
         <v>1.95</v>
@@ -13777,7 +13777,7 @@
         <v>1.85</v>
       </c>
       <c r="W149">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC149">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532421</v>
+        <v>7532420</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,13 +13815,13 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13830,43 +13830,43 @@
         <v>50</v>
       </c>
       <c r="K150">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="L150">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M150">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N150">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O150">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P150">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q150">
         <v>-1.5</v>
       </c>
       <c r="R150">
+        <v>1.8</v>
+      </c>
+      <c r="S150">
+        <v>2</v>
+      </c>
+      <c r="T150">
+        <v>3.25</v>
+      </c>
+      <c r="U150">
+        <v>1.95</v>
+      </c>
+      <c r="V150">
         <v>1.85</v>
       </c>
-      <c r="S150">
-        <v>1.95</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
       <c r="W150">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="151" spans="1:29">

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -9709,7 +9709,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7331148</v>
+        <v>7331149</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9721,13 +9721,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9736,25 +9736,25 @@
         <v>50</v>
       </c>
       <c r="K104">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L104">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N104">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="O104">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>16</v>
+        <v>2.8</v>
       </c>
       <c r="Q104">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R104">
         <v>1.8</v>
@@ -9763,16 +9763,16 @@
         <v>2</v>
       </c>
       <c r="T104">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>0.1659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9781,16 +9781,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7331149</v>
+        <v>7331148</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,13 +9810,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9825,25 +9825,25 @@
         <v>50</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M105">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="N105">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P105">
-        <v>2.8</v>
+        <v>16</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R105">
         <v>1.8</v>
@@ -9852,16 +9852,16 @@
         <v>2</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>1.3</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9870,16 +9870,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7331150</v>
+        <v>7329845</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,76 +9988,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K107">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L107">
+        <v>3.4</v>
+      </c>
+      <c r="M107">
+        <v>2.05</v>
+      </c>
+      <c r="N107">
+        <v>3.4</v>
+      </c>
+      <c r="O107">
         <v>3.5</v>
       </c>
-      <c r="M107">
-        <v>2.875</v>
-      </c>
-      <c r="N107">
-        <v>2.4</v>
-      </c>
-      <c r="O107">
-        <v>3.6</v>
-      </c>
       <c r="P107">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S107">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y107">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA107">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7329845</v>
+        <v>7331150</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,76 +10077,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G108" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K108">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="N108">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="S108">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532430</v>
+        <v>7532414</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,40 +13103,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
         <v>50</v>
       </c>
       <c r="K142">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="L142">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M142">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N142">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O142">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P142">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Q142">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R142">
         <v>2</v>
@@ -13148,13 +13148,13 @@
         <v>3</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13163,16 +13163,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532412</v>
+        <v>7532413</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13192,34 +13192,34 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
         <v>52</v>
       </c>
       <c r="K143">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M143">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N143">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
         <v>2.875</v>
@@ -13228,19 +13228,19 @@
         <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13255,13 +13255,13 @@
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB143">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532413</v>
+        <v>7532412</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13281,34 +13281,34 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
         <v>52</v>
       </c>
       <c r="K144">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N144">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P144">
         <v>2.875</v>
@@ -13317,19 +13317,19 @@
         <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -13344,13 +13344,13 @@
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532414</v>
+        <v>7532430</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13370,40 +13370,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F145" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H145">
+        <v>4</v>
+      </c>
+      <c r="I145">
         <v>1</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>50</v>
       </c>
       <c r="K145">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="L145">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M145">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N145">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O145">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P145">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Q145">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R145">
         <v>2</v>
@@ -13415,13 +13415,13 @@
         <v>3</v>
       </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13430,16 +13430,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC145">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532421</v>
+        <v>7532419</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13637,13 +13637,13 @@
         <v>45265.875</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13652,43 +13652,43 @@
         <v>50</v>
       </c>
       <c r="K148">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L148">
+        <v>2.5</v>
+      </c>
+      <c r="M148">
         <v>4.5</v>
       </c>
-      <c r="M148">
-        <v>7.5</v>
-      </c>
       <c r="N148">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="O148">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="P148">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q148">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
+        <v>1.9</v>
+      </c>
+      <c r="S148">
+        <v>1.9</v>
+      </c>
+      <c r="T148">
+        <v>2</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
         <v>1.85</v>
       </c>
-      <c r="S148">
-        <v>1.95</v>
-      </c>
-      <c r="T148">
-        <v>3</v>
-      </c>
-      <c r="U148">
-        <v>1.825</v>
-      </c>
-      <c r="V148">
-        <v>1.975</v>
-      </c>
       <c r="W148">
-        <v>0.333</v>
+        <v>1.375</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13697,16 +13697,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC148">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532419</v>
+        <v>7532420</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13726,10 +13726,10 @@
         <v>45265.875</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13741,34 +13741,34 @@
         <v>50</v>
       </c>
       <c r="K149">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L149">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="M149">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="N149">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O149">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="P149">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S149">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T149">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U149">
         <v>1.95</v>
@@ -13777,7 +13777,7 @@
         <v>1.85</v>
       </c>
       <c r="W149">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13786,16 +13786,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13803,7 +13803,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532420</v>
+        <v>7532421</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13815,13 +13815,13 @@
         <v>45265.875</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13830,43 +13830,43 @@
         <v>50</v>
       </c>
       <c r="K150">
+        <v>1.4</v>
+      </c>
+      <c r="L150">
+        <v>4.5</v>
+      </c>
+      <c r="M150">
+        <v>7.5</v>
+      </c>
+      <c r="N150">
         <v>1.333</v>
       </c>
-      <c r="L150">
-        <v>5</v>
-      </c>
-      <c r="M150">
-        <v>8</v>
-      </c>
-      <c r="N150">
-        <v>1.3</v>
-      </c>
       <c r="O150">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P150">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Q150">
         <v>-1.5</v>
       </c>
       <c r="R150">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13875,16 +13875,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -19232,7 +19232,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>8039390</v>
+        <v>8039389</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19244,76 +19244,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G211" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K211">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L211">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M211">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N211">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O211">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P211">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q211">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R211">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S211">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T211">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U211">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V211">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W211">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19321,7 +19321,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>8039389</v>
+        <v>8039390</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19333,76 +19333,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="F212" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G212" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H212">
+        <v>2</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212" t="s">
+        <v>50</v>
+      </c>
+      <c r="K212">
+        <v>2.05</v>
+      </c>
+      <c r="L212">
+        <v>3.6</v>
+      </c>
+      <c r="M212">
+        <v>3</v>
+      </c>
+      <c r="N212">
+        <v>1.8</v>
+      </c>
+      <c r="O212">
+        <v>3.75</v>
+      </c>
+      <c r="P212">
+        <v>4.2</v>
+      </c>
+      <c r="Q212">
+        <v>-0.5</v>
+      </c>
+      <c r="R212">
+        <v>1.825</v>
+      </c>
+      <c r="S212">
+        <v>1.975</v>
+      </c>
+      <c r="T212">
+        <v>3</v>
+      </c>
+      <c r="U212">
+        <v>1.975</v>
+      </c>
+      <c r="V212">
+        <v>1.825</v>
+      </c>
+      <c r="W212">
+        <v>0.8</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
+        <v>0.825</v>
+      </c>
+      <c r="AA212">
+        <v>-1</v>
+      </c>
+      <c r="AB212">
         <v>0</v>
       </c>
-      <c r="I212">
-        <v>0</v>
-      </c>
-      <c r="J212" t="s">
-        <v>51</v>
-      </c>
-      <c r="K212">
-        <v>2.2</v>
-      </c>
-      <c r="L212">
-        <v>3.3</v>
-      </c>
-      <c r="M212">
-        <v>2.875</v>
-      </c>
-      <c r="N212">
-        <v>2.625</v>
-      </c>
-      <c r="O212">
-        <v>3.4</v>
-      </c>
-      <c r="P212">
-        <v>2.625</v>
-      </c>
-      <c r="Q212">
-        <v>0</v>
-      </c>
-      <c r="R212">
-        <v>1.875</v>
-      </c>
-      <c r="S212">
-        <v>1.925</v>
-      </c>
-      <c r="T212">
-        <v>2.5</v>
-      </c>
-      <c r="U212">
-        <v>1.95</v>
-      </c>
-      <c r="V212">
-        <v>1.85</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>2.4</v>
-      </c>
-      <c r="Y212">
-        <v>-1</v>
-      </c>
-      <c r="Z212">
-        <v>0</v>
-      </c>
-      <c r="AA212">
+      <c r="AC212">
         <v>-0</v>
-      </c>
-      <c r="AB212">
-        <v>-1</v>
-      </c>
-      <c r="AC212">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19499,7 +19499,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>8039392</v>
+        <v>8038943</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19511,10 +19511,10 @@
         <v>45389.70833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G214" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19526,43 +19526,43 @@
         <v>50</v>
       </c>
       <c r="K214">
+        <v>2.3</v>
+      </c>
+      <c r="L214">
+        <v>3.5</v>
+      </c>
+      <c r="M214">
+        <v>2.625</v>
+      </c>
+      <c r="N214">
+        <v>2.8</v>
+      </c>
+      <c r="O214">
+        <v>3.6</v>
+      </c>
+      <c r="P214">
+        <v>2.375</v>
+      </c>
+      <c r="Q214">
+        <v>0.25</v>
+      </c>
+      <c r="R214">
+        <v>1.8</v>
+      </c>
+      <c r="S214">
         <v>2</v>
       </c>
-      <c r="L214">
+      <c r="T214">
         <v>3.25</v>
       </c>
-      <c r="M214">
-        <v>3.4</v>
-      </c>
-      <c r="N214">
-        <v>1.727</v>
-      </c>
-      <c r="O214">
-        <v>4</v>
-      </c>
-      <c r="P214">
-        <v>4.5</v>
-      </c>
-      <c r="Q214">
-        <v>-0.75</v>
-      </c>
-      <c r="R214">
-        <v>1.9</v>
-      </c>
-      <c r="S214">
-        <v>1.9</v>
-      </c>
-      <c r="T214">
-        <v>2.75</v>
-      </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V214">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W214">
-        <v>0.7270000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19571,16 +19571,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA214">
+        <v>-1</v>
+      </c>
+      <c r="AB214">
         <v>-0.5</v>
       </c>
-      <c r="AB214">
-        <v>0.45</v>
-      </c>
       <c r="AC214">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19588,7 +19588,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>8038943</v>
+        <v>8039392</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19600,10 +19600,10 @@
         <v>45389.70833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G215" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19615,43 +19615,43 @@
         <v>50</v>
       </c>
       <c r="K215">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M215">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="N215">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="O215">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P215">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T215">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U215">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W215">
-        <v>1.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19660,16 +19660,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB215">
+        <v>0.45</v>
+      </c>
+      <c r="AC215">
         <v>-0.5</v>
-      </c>
-      <c r="AC215">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="216" spans="1:29">

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -688,10 +688,10 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z2">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
         <v>0.7749999999999999</v>
@@ -946,10 +946,10 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
         <v>0.9750000000000001</v>
@@ -1032,10 +1032,10 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z6">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
         <v>-1</v>
@@ -1118,10 +1118,10 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AA7">
         <v>-1</v>
@@ -1204,10 +1204,10 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z8">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
         <v>-1</v>
@@ -1290,10 +1290,10 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1462,10 +1462,10 @@
         <v>1.3</v>
       </c>
       <c r="Y11">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA11">
         <v>0.8500000000000001</v>
@@ -1634,10 +1634,10 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
         <v>0.8</v>
@@ -1720,10 +1720,10 @@
         <v>3.333</v>
       </c>
       <c r="Y14">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA14">
         <v>0.875</v>
@@ -1806,10 +1806,10 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -1892,10 +1892,10 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
         <v>-1</v>
@@ -1978,10 +1978,10 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z17">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
         <v>1</v>
@@ -2064,10 +2064,10 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>-1</v>
@@ -2150,10 +2150,10 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>-1</v>
@@ -2236,10 +2236,10 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="Z20">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
         <v>0.425</v>
@@ -2322,10 +2322,10 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z21">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA21">
         <v>1</v>
@@ -2408,10 +2408,10 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA22">
         <v>-1</v>
@@ -2494,10 +2494,10 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z23">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
         <v>0.8500000000000001</v>
@@ -2580,10 +2580,10 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
         <v>0.8500000000000001</v>
@@ -2666,10 +2666,10 @@
         <v>1.6</v>
       </c>
       <c r="Y25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA25">
         <v>0.8999999999999999</v>
@@ -2752,10 +2752,10 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z26">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
         <v>0.825</v>
@@ -2769,7 +2769,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2778,76 +2778,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J27">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="K27">
         <v>3.6</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="P27">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q27">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R27">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T27">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB27">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2855,7 +2855,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2864,76 +2864,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J28">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="K28">
         <v>3.6</v>
       </c>
       <c r="L28">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O28">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q28">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T28">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U28">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -3096,10 +3096,10 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z30">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
         <v>-1</v>
@@ -3182,10 +3182,10 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
         <v>-1</v>
@@ -3268,10 +3268,10 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z32">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
         <v>-1</v>
@@ -3354,10 +3354,10 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA33">
         <v>-1</v>
@@ -3698,10 +3698,10 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
         <v>-1</v>
@@ -3784,10 +3784,10 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
         <v>0.4</v>
@@ -4042,10 +4042,10 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
         <v>-1</v>
@@ -4128,10 +4128,10 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
         <v>-1</v>
@@ -4214,10 +4214,10 @@
         <v>4.5</v>
       </c>
       <c r="Y43">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA43">
         <v>0.5125</v>
@@ -4386,10 +4386,10 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
         <v>0.8500000000000001</v>
@@ -4558,10 +4558,10 @@
         <v>4.25</v>
       </c>
       <c r="Y47">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
         <v>1</v>
@@ -4644,10 +4644,10 @@
         <v>4.5</v>
       </c>
       <c r="Y48">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA48">
         <v>-1</v>
@@ -4730,10 +4730,10 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z49">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA49">
         <v>-1</v>
@@ -4816,10 +4816,10 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
         <v>0.8</v>
@@ -4988,10 +4988,10 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
         <v>0.8999999999999999</v>
@@ -5074,10 +5074,10 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
         <v>0.8999999999999999</v>
@@ -5246,10 +5246,10 @@
         <v>1.7</v>
       </c>
       <c r="Y55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA55">
         <v>0.875</v>
@@ -5332,10 +5332,10 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z56">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
         <v>-1</v>
@@ -5504,10 +5504,10 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z58">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
         <v>0.8500000000000001</v>
@@ -5762,10 +5762,10 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
         <v>0.8</v>
@@ -5848,10 +5848,10 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
         <v>-1</v>
@@ -5934,10 +5934,10 @@
         <v>3.2</v>
       </c>
       <c r="Y63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -6020,10 +6020,10 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z64">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
         <v>0.8</v>
@@ -6106,10 +6106,10 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
         <v>0.875</v>
@@ -6278,10 +6278,10 @@
         <v>0.909</v>
       </c>
       <c r="Y67">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA67">
         <v>-1</v>
@@ -6364,10 +6364,10 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="Z68">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA68">
         <v>-1</v>
@@ -6450,10 +6450,10 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z69">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
         <v>0.9750000000000001</v>
@@ -6536,10 +6536,10 @@
         <v>5.5</v>
       </c>
       <c r="Y70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AA70">
         <v>-1</v>
@@ -6708,10 +6708,10 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z72">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AA72">
         <v>0</v>
@@ -7052,10 +7052,10 @@
         <v>6</v>
       </c>
       <c r="Y76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AA76">
         <v>1</v>
@@ -7138,10 +7138,10 @@
         <v>5.5</v>
       </c>
       <c r="Y77">
+        <v>-1</v>
+      </c>
+      <c r="Z77">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z77">
-        <v>-1</v>
       </c>
       <c r="AA77">
         <v>0.95</v>
@@ -7224,10 +7224,10 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z78">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA78">
         <v>-1</v>
@@ -7310,10 +7310,10 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z79">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA79">
         <v>0.475</v>
@@ -7482,10 +7482,10 @@
         <v>2.5</v>
       </c>
       <c r="Y81">
+        <v>-1</v>
+      </c>
+      <c r="Z81">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z81">
-        <v>-1</v>
       </c>
       <c r="AA81">
         <v>0.95</v>
@@ -7568,10 +7568,10 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
         <v>0.8999999999999999</v>
@@ -7740,10 +7740,10 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z84">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA84">
         <v>0.8999999999999999</v>
@@ -7998,10 +7998,10 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
         <v>0.95</v>
@@ -8084,10 +8084,10 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
         <v>-1</v>
@@ -8170,10 +8170,10 @@
         <v>8.5</v>
       </c>
       <c r="Y89">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA89">
         <v>0.8</v>
@@ -8256,10 +8256,10 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z90">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
         <v>-1</v>
@@ -8342,10 +8342,10 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z91">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
         <v>0.8999999999999999</v>
@@ -8514,10 +8514,10 @@
         <v>2.25</v>
       </c>
       <c r="Y93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA93">
         <v>-1</v>
@@ -8772,10 +8772,10 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z96">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
         <v>-1</v>
@@ -8944,10 +8944,10 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z98">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
         <v>0.4125</v>
@@ -9116,10 +9116,10 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
         <v>-0.5</v>
@@ -9374,10 +9374,10 @@
         <v>3.2</v>
       </c>
       <c r="Y103">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA103">
         <v>-0.5</v>
@@ -9460,10 +9460,10 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
         <v>0.475</v>
@@ -9546,10 +9546,10 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA105">
         <v>-1</v>
@@ -9632,10 +9632,10 @@
         <v>1.875</v>
       </c>
       <c r="Y106">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA106">
         <v>0.9750000000000001</v>
@@ -9804,10 +9804,10 @@
         <v>1.7</v>
       </c>
       <c r="Y108">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA108">
         <v>-1</v>
@@ -9890,10 +9890,10 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z109">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
         <v>0.5</v>
@@ -9976,10 +9976,10 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z110">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
         <v>0.875</v>
@@ -10062,10 +10062,10 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z111">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
         <v>0.95</v>
@@ -10234,10 +10234,10 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
         <v>0.8500000000000001</v>
@@ -10320,10 +10320,10 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Z114">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
         <v>0.875</v>
@@ -10492,10 +10492,10 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
         <v>0.8500000000000001</v>
@@ -10664,10 +10664,10 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z118">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
         <v>0.8999999999999999</v>
@@ -10922,10 +10922,10 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z121">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
         <v>-1</v>
@@ -11008,10 +11008,10 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z122">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA122">
         <v>0</v>
@@ -11094,10 +11094,10 @@
         <v>3.5</v>
       </c>
       <c r="Y123">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11180,10 +11180,10 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
         <v>0.8</v>
@@ -11266,10 +11266,10 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
         <v>1</v>
@@ -11352,10 +11352,10 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z126">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA126">
         <v>-1</v>
@@ -11438,10 +11438,10 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z127">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA127">
         <v>-1</v>
@@ -11455,7 +11455,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7462738</v>
+        <v>7462542</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
@@ -11464,76 +11464,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J128">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="L128">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="M128">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="N128">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="O128">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="P128">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="Q128">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T128">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V128">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W128">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11541,7 +11541,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7462542</v>
+        <v>7462738</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
@@ -11550,76 +11550,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129" t="s">
+        <v>48</v>
+      </c>
+      <c r="J129">
+        <v>4</v>
+      </c>
+      <c r="K129">
+        <v>4</v>
+      </c>
+      <c r="L129">
+        <v>1.666</v>
+      </c>
+      <c r="M129">
+        <v>4</v>
+      </c>
+      <c r="N129">
+        <v>3.8</v>
+      </c>
+      <c r="O129">
+        <v>1.75</v>
+      </c>
+      <c r="P129">
+        <v>0.75</v>
+      </c>
+      <c r="Q129">
+        <v>1.8</v>
+      </c>
+      <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
         <v>3</v>
       </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129" t="s">
-        <v>47</v>
-      </c>
-      <c r="J129">
-        <v>1.363</v>
-      </c>
-      <c r="K129">
-        <v>4.75</v>
-      </c>
-      <c r="L129">
-        <v>6.5</v>
-      </c>
-      <c r="M129">
-        <v>1.285</v>
-      </c>
-      <c r="N129">
-        <v>6.5</v>
-      </c>
-      <c r="O129">
-        <v>8</v>
-      </c>
-      <c r="P129">
-        <v>-1.75</v>
-      </c>
-      <c r="Q129">
-        <v>1.9</v>
-      </c>
-      <c r="R129">
-        <v>1.9</v>
-      </c>
-      <c r="S129">
-        <v>3.25</v>
-      </c>
       <c r="T129">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V129">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z129">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB129">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -11696,10 +11696,10 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z130">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
         <v>0.825</v>
@@ -11782,10 +11782,10 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z131">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
         <v>0.8</v>
@@ -11954,10 +11954,10 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z133">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
         <v>1</v>
@@ -12040,10 +12040,10 @@
         <v>0.95</v>
       </c>
       <c r="Y134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA134">
         <v>0.875</v>
@@ -12298,10 +12298,10 @@
         <v>4.5</v>
       </c>
       <c r="Y137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA137">
         <v>-1</v>
@@ -12384,10 +12384,10 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z138">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA138">
         <v>-1</v>
@@ -12470,10 +12470,10 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
         <v>-1</v>
@@ -12556,10 +12556,10 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
         <v>0.8500000000000001</v>
@@ -12659,7 +12659,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532414</v>
+        <v>7532413</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
@@ -12668,76 +12668,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
         <v>1</v>
       </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
       <c r="I142" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J142">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="K142">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L142">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M142">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="N142">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O142">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="P142">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q142">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S142">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T142">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12745,7 +12745,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532413</v>
+        <v>7532412</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
@@ -12754,34 +12754,34 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I143" t="s">
         <v>49</v>
       </c>
       <c r="J143">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="K143">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L143">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N143">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O143">
         <v>2.875</v>
@@ -12790,19 +12790,19 @@
         <v>-0.25</v>
       </c>
       <c r="Q143">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R143">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S143">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T143">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
         <v>-1</v>
@@ -12814,16 +12814,16 @@
         <v>1.875</v>
       </c>
       <c r="Y143">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12831,7 +12831,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532412</v>
+        <v>7532414</v>
       </c>
       <c r="C144" t="s">
         <v>27</v>
@@ -12840,76 +12840,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J144">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="K144">
         <v>3.75</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M144">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="N144">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="O144">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="P144">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q144">
+        <v>2</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
+        <v>3</v>
+      </c>
+      <c r="T144">
+        <v>1.85</v>
+      </c>
+      <c r="U144">
         <v>1.95</v>
       </c>
-      <c r="R144">
-        <v>1.85</v>
-      </c>
-      <c r="S144">
-        <v>2.75</v>
-      </c>
-      <c r="T144">
-        <v>1.925</v>
-      </c>
-      <c r="U144">
-        <v>1.875</v>
-      </c>
       <c r="V144">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
+        <v>-1</v>
+      </c>
+      <c r="Z144">
+        <v>0.8</v>
+      </c>
+      <c r="AA144">
+        <v>-1</v>
+      </c>
+      <c r="AB144">
         <v>0.95</v>
-      </c>
-      <c r="Z144">
-        <v>-1</v>
-      </c>
-      <c r="AA144">
-        <v>0.4625</v>
-      </c>
-      <c r="AB144">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12986,10 +12986,10 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
         <v>0.8999999999999999</v>
@@ -13072,10 +13072,10 @@
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z146">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
         <v>0.7</v>
@@ -13158,10 +13158,10 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z147">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
         <v>0.8500000000000001</v>
@@ -13244,10 +13244,10 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
         <v>-1</v>
@@ -13261,7 +13261,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532420</v>
+        <v>7532419</v>
       </c>
       <c r="C149" t="s">
         <v>27</v>
@@ -13270,10 +13270,10 @@
         <v>45265.875</v>
       </c>
       <c r="E149" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13285,34 +13285,34 @@
         <v>47</v>
       </c>
       <c r="J149">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="K149">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L149">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="M149">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="N149">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O149">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P149">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q149">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R149">
+        <v>1.9</v>
+      </c>
+      <c r="S149">
         <v>2</v>
-      </c>
-      <c r="S149">
-        <v>3.25</v>
       </c>
       <c r="T149">
         <v>1.95</v>
@@ -13321,7 +13321,7 @@
         <v>1.85</v>
       </c>
       <c r="V149">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13330,16 +13330,16 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB149">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -13347,7 +13347,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532419</v>
+        <v>7532420</v>
       </c>
       <c r="C150" t="s">
         <v>27</v>
@@ -13356,10 +13356,10 @@
         <v>45265.875</v>
       </c>
       <c r="E150" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13371,34 +13371,34 @@
         <v>47</v>
       </c>
       <c r="J150">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="K150">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="L150">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="M150">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="N150">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="O150">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P150">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q150">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="T150">
         <v>1.95</v>
@@ -13407,7 +13407,7 @@
         <v>1.85</v>
       </c>
       <c r="V150">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="W150">
         <v>-1</v>
@@ -13416,16 +13416,16 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z150">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="151" spans="1:28">
@@ -13588,10 +13588,10 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z152">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA152">
         <v>-1</v>
@@ -13674,10 +13674,10 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
         <v>0</v>
@@ -13760,10 +13760,10 @@
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z154">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
         <v>0.4875</v>
@@ -13932,10 +13932,10 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z156">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA156">
         <v>0.4125</v>
@@ -14018,10 +14018,10 @@
         <v>2.2</v>
       </c>
       <c r="Y157">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA157">
         <v>0.8500000000000001</v>
@@ -14190,10 +14190,10 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z159">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA159">
         <v>0.8500000000000001</v>
@@ -14276,10 +14276,10 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z160">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
         <v>0.95</v>
@@ -14448,10 +14448,10 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z162">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA162">
         <v>-1</v>
@@ -14534,10 +14534,10 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z163">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA163">
         <v>-1</v>
@@ -14620,10 +14620,10 @@
         <v>1.25</v>
       </c>
       <c r="Y164">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA164">
         <v>-1</v>
@@ -14792,10 +14792,10 @@
         <v>2.4</v>
       </c>
       <c r="Y166">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA166">
         <v>-1</v>
@@ -15050,10 +15050,10 @@
         <v>4.75</v>
       </c>
       <c r="Y169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA169">
         <v>0.475</v>
@@ -15308,10 +15308,10 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z172">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
         <v>0.875</v>
@@ -15394,10 +15394,10 @@
         <v>3.2</v>
       </c>
       <c r="Y173">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA173">
         <v>-1</v>
@@ -15566,10 +15566,10 @@
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z175">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
         <v>0.95</v>
@@ -15652,10 +15652,10 @@
         <v>1.7</v>
       </c>
       <c r="Y176">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA176">
         <v>0.4875</v>
@@ -15824,10 +15824,10 @@
         <v>1.05</v>
       </c>
       <c r="Y178">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA178">
         <v>0.4875</v>
@@ -15910,10 +15910,10 @@
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
         <v>0.8500000000000001</v>
@@ -15996,10 +15996,10 @@
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z180">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
         <v>-1</v>
@@ -16082,10 +16082,10 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z181">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA181">
         <v>0.875</v>
@@ -16168,10 +16168,10 @@
         <v>3.333</v>
       </c>
       <c r="Y182">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA182">
         <v>1</v>
@@ -16254,10 +16254,10 @@
         <v>1.625</v>
       </c>
       <c r="Y183">
+        <v>-1</v>
+      </c>
+      <c r="Z183">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z183">
-        <v>-1</v>
       </c>
       <c r="AA183">
         <v>0.95</v>
@@ -16512,10 +16512,10 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z186">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA186">
         <v>-1</v>
@@ -16684,10 +16684,10 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z188">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
         <v>0.9750000000000001</v>
@@ -16856,10 +16856,10 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z190">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
         <v>-0.5</v>
@@ -17028,10 +17028,10 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA192">
         <v>-1</v>
@@ -17114,10 +17114,10 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z193">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
         <v>-1</v>
@@ -17200,10 +17200,10 @@
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z194">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AA194">
         <v>-0.5</v>
@@ -17286,10 +17286,10 @@
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z195">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
         <v>0.925</v>
@@ -17372,10 +17372,10 @@
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
         <v>-1</v>
@@ -17458,10 +17458,10 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z197">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA197">
         <v>-1</v>
@@ -17630,10 +17630,10 @@
         <v>2.2</v>
       </c>
       <c r="Y199">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA199">
         <v>-1</v>
@@ -17716,10 +17716,10 @@
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z200">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
         <v>0.9750000000000001</v>
@@ -17802,10 +17802,10 @@
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z201">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
         <v>-1</v>
@@ -17888,10 +17888,10 @@
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z202">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
         <v>-1</v>
@@ -17974,10 +17974,10 @@
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z203">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
         <v>0.9750000000000001</v>
@@ -18060,10 +18060,10 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z204">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
         <v>0.825</v>
@@ -18146,10 +18146,10 @@
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z205">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
         <v>-1</v>
@@ -18318,10 +18318,10 @@
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z207">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA207">
         <v>0.9750000000000001</v>
@@ -18404,10 +18404,10 @@
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z208">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
         <v>0.825</v>
@@ -18490,10 +18490,10 @@
         <v>6</v>
       </c>
       <c r="Y209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AA209">
         <v>0.95</v>
@@ -18576,10 +18576,10 @@
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z210">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA210">
         <v>-1</v>
@@ -18748,10 +18748,10 @@
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z212">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
         <v>0</v>
@@ -18834,10 +18834,10 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z213">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA213">
         <v>1</v>
@@ -18920,10 +18920,10 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z214">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
         <v>-0.5</v>
@@ -19006,10 +19006,10 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z215">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA215">
         <v>0.45</v>
@@ -19092,10 +19092,10 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z216">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA216">
         <v>0.4875</v>
@@ -19178,10 +19178,10 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z217">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA217">
         <v>0.8999999999999999</v>
@@ -19264,10 +19264,10 @@
         <v>0.571</v>
       </c>
       <c r="Y218">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA218">
         <v>0.8500000000000001</v>
@@ -19350,10 +19350,10 @@
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z219">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
         <v>-1</v>
@@ -19436,10 +19436,10 @@
         <v>1</v>
       </c>
       <c r="Y220">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA220">
         <v>-1</v>
@@ -19522,10 +19522,10 @@
         <v>4</v>
       </c>
       <c r="Y221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA221">
         <v>-1</v>
@@ -19608,10 +19608,10 @@
         <v>1.875</v>
       </c>
       <c r="Y222">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA222">
         <v>-1</v>
@@ -19694,10 +19694,10 @@
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z223">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
         <v>1</v>
@@ -19952,10 +19952,10 @@
         <v>3.5</v>
       </c>
       <c r="Y226">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA226">
         <v>0.8</v>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -2769,7 +2769,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2778,76 +2778,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J27">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="K27">
         <v>3.6</v>
       </c>
       <c r="L27">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O27">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q27">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T27">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U27">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2855,7 +2855,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2864,76 +2864,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J28">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="K28">
         <v>3.6</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N28">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="P28">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q28">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R28">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T28">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB28">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -4489,7 +4489,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6504578</v>
+        <v>6504291</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -4498,16 +4498,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>1</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
       </c>
       <c r="I47" t="s">
         <v>49</v>
@@ -4519,34 +4519,34 @@
         <v>3.2</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M47">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N47">
         <v>3.6</v>
       </c>
       <c r="O47">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P47">
         <v>-0.75</v>
       </c>
       <c r="Q47">
+        <v>1.85</v>
+      </c>
+      <c r="R47">
         <v>1.95</v>
-      </c>
-      <c r="R47">
-        <v>1.85</v>
       </c>
       <c r="S47">
         <v>2.5</v>
       </c>
       <c r="T47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
         <v>-1</v>
@@ -4555,19 +4555,19 @@
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4575,7 +4575,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6504291</v>
+        <v>6504578</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
@@ -4584,16 +4584,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="s">
         <v>49</v>
@@ -4605,34 +4605,34 @@
         <v>3.2</v>
       </c>
       <c r="L48">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="N48">
         <v>3.6</v>
       </c>
       <c r="O48">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P48">
         <v>-0.75</v>
       </c>
       <c r="Q48">
+        <v>1.95</v>
+      </c>
+      <c r="R48">
         <v>1.85</v>
-      </c>
-      <c r="R48">
-        <v>1.95</v>
       </c>
       <c r="S48">
         <v>2.5</v>
       </c>
       <c r="T48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U48">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V48">
         <v>-1</v>
@@ -4641,19 +4641,19 @@
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB48">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -9391,7 +9391,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7331149</v>
+        <v>7331148</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9400,13 +9400,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9415,25 +9415,25 @@
         <v>47</v>
       </c>
       <c r="J104">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="M104">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="N104">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="O104">
-        <v>2.8</v>
+        <v>16</v>
       </c>
       <c r="P104">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q104">
         <v>1.8</v>
@@ -9442,16 +9442,16 @@
         <v>2</v>
       </c>
       <c r="S104">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T104">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
-        <v>1.3</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W104">
         <v>-1</v>
@@ -9460,16 +9460,16 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9477,7 +9477,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7331148</v>
+        <v>7331149</v>
       </c>
       <c r="C105" t="s">
         <v>27</v>
@@ -9486,13 +9486,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="E105" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9501,25 +9501,25 @@
         <v>47</v>
       </c>
       <c r="J105">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="K105">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="L105">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="N105">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="O105">
-        <v>16</v>
+        <v>2.8</v>
       </c>
       <c r="P105">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q105">
         <v>1.8</v>
@@ -9528,16 +9528,16 @@
         <v>2</v>
       </c>
       <c r="S105">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T105">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>0.1659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="W105">
         <v>-1</v>
@@ -9546,16 +9546,16 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB105">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9649,7 +9649,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7329845</v>
+        <v>7331150</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
@@ -9658,76 +9658,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J107">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="K107">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L107">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="M107">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N107">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O107">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="P107">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q107">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="R107">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S107">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
         <v>-1</v>
       </c>
       <c r="W107">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y107">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9735,7 +9735,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7331150</v>
+        <v>7329845</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -9744,76 +9744,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H108">
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J108">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="K108">
+        <v>3.4</v>
+      </c>
+      <c r="L108">
+        <v>2.05</v>
+      </c>
+      <c r="M108">
+        <v>3.4</v>
+      </c>
+      <c r="N108">
         <v>3.5</v>
       </c>
-      <c r="L108">
-        <v>2.875</v>
-      </c>
-      <c r="M108">
-        <v>2.4</v>
-      </c>
-      <c r="N108">
-        <v>3.6</v>
-      </c>
       <c r="O108">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="P108">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q108">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="R108">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S108">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V108">
         <v>-1</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X108">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="Z108">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -11455,7 +11455,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7462542</v>
+        <v>7462738</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
@@ -11464,76 +11464,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="E128" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G128">
+        <v>2</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128" t="s">
+        <v>48</v>
+      </c>
+      <c r="J128">
+        <v>4</v>
+      </c>
+      <c r="K128">
+        <v>4</v>
+      </c>
+      <c r="L128">
+        <v>1.666</v>
+      </c>
+      <c r="M128">
+        <v>4</v>
+      </c>
+      <c r="N128">
+        <v>3.8</v>
+      </c>
+      <c r="O128">
+        <v>1.75</v>
+      </c>
+      <c r="P128">
+        <v>0.75</v>
+      </c>
+      <c r="Q128">
+        <v>1.8</v>
+      </c>
+      <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
         <v>3</v>
       </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128" t="s">
-        <v>47</v>
-      </c>
-      <c r="J128">
-        <v>1.363</v>
-      </c>
-      <c r="K128">
-        <v>4.75</v>
-      </c>
-      <c r="L128">
-        <v>6.5</v>
-      </c>
-      <c r="M128">
-        <v>1.285</v>
-      </c>
-      <c r="N128">
-        <v>6.5</v>
-      </c>
-      <c r="O128">
-        <v>8</v>
-      </c>
-      <c r="P128">
-        <v>-1.75</v>
-      </c>
-      <c r="Q128">
-        <v>1.9</v>
-      </c>
-      <c r="R128">
-        <v>1.9</v>
-      </c>
-      <c r="S128">
-        <v>3.25</v>
-      </c>
       <c r="T128">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V128">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB128">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11541,7 +11541,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7462738</v>
+        <v>7462542</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
@@ -11550,76 +11550,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J129">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="K129">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="L129">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="M129">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="N129">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="O129">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="P129">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="Q129">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S129">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T129">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U129">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W129">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -12659,7 +12659,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532413</v>
+        <v>7532430</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
@@ -12668,49 +12668,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J142">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="K142">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L142">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="M142">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="N142">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O142">
-        <v>2.875</v>
+        <v>8.5</v>
       </c>
       <c r="P142">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q142">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T142">
         <v>1.9</v>
@@ -12719,25 +12719,25 @@
         <v>1.9</v>
       </c>
       <c r="V142">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z142">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12831,7 +12831,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532414</v>
+        <v>7532413</v>
       </c>
       <c r="C144" t="s">
         <v>27</v>
@@ -12840,76 +12840,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
         <v>1</v>
       </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
       <c r="I144" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J144">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="K144">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L144">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M144">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="N144">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O144">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="P144">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q144">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S144">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T144">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12917,7 +12917,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532430</v>
+        <v>7532414</v>
       </c>
       <c r="C145" t="s">
         <v>27</v>
@@ -12926,40 +12926,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="s">
         <v>47</v>
       </c>
       <c r="J145">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="K145">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L145">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M145">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="N145">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O145">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="P145">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -12971,13 +12971,13 @@
         <v>3</v>
       </c>
       <c r="T145">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -12986,16 +12986,16 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="146" spans="1:28">

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -2769,7 +2769,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2778,76 +2778,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J27">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="K27">
         <v>3.6</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="P27">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q27">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R27">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T27">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y27">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB27">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2855,7 +2855,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2864,76 +2864,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J28">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="K28">
         <v>3.6</v>
       </c>
       <c r="L28">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O28">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q28">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T28">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U28">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -4489,7 +4489,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6504291</v>
+        <v>6504578</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -4498,16 +4498,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="s">
         <v>49</v>
@@ -4519,34 +4519,34 @@
         <v>3.2</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="N47">
         <v>3.6</v>
       </c>
       <c r="O47">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P47">
         <v>-0.75</v>
       </c>
       <c r="Q47">
+        <v>1.95</v>
+      </c>
+      <c r="R47">
         <v>1.85</v>
-      </c>
-      <c r="R47">
-        <v>1.95</v>
       </c>
       <c r="S47">
         <v>2.5</v>
       </c>
       <c r="T47">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V47">
         <v>-1</v>
@@ -4555,19 +4555,19 @@
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4575,7 +4575,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6504578</v>
+        <v>6504291</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
@@ -4584,16 +4584,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>1</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
       </c>
       <c r="I48" t="s">
         <v>49</v>
@@ -4605,34 +4605,34 @@
         <v>3.2</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M48">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N48">
         <v>3.6</v>
       </c>
       <c r="O48">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P48">
         <v>-0.75</v>
       </c>
       <c r="Q48">
+        <v>1.85</v>
+      </c>
+      <c r="R48">
         <v>1.95</v>
-      </c>
-      <c r="R48">
-        <v>1.85</v>
       </c>
       <c r="S48">
         <v>2.5</v>
       </c>
       <c r="T48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V48">
         <v>-1</v>
@@ -4641,19 +4641,19 @@
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -9391,7 +9391,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7331148</v>
+        <v>7331149</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9400,13 +9400,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="E104" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9415,25 +9415,25 @@
         <v>47</v>
       </c>
       <c r="J104">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="K104">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="N104">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="O104">
-        <v>16</v>
+        <v>2.8</v>
       </c>
       <c r="P104">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q104">
         <v>1.8</v>
@@ -9442,16 +9442,16 @@
         <v>2</v>
       </c>
       <c r="S104">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T104">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U104">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>0.1659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="W104">
         <v>-1</v>
@@ -9460,16 +9460,16 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB104">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9477,7 +9477,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7331149</v>
+        <v>7331148</v>
       </c>
       <c r="C105" t="s">
         <v>27</v>
@@ -9486,13 +9486,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="E105" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9501,25 +9501,25 @@
         <v>47</v>
       </c>
       <c r="J105">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="K105">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="M105">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="N105">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="O105">
-        <v>2.8</v>
+        <v>16</v>
       </c>
       <c r="P105">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q105">
         <v>1.8</v>
@@ -9528,16 +9528,16 @@
         <v>2</v>
       </c>
       <c r="S105">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T105">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V105">
-        <v>1.3</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W105">
         <v>-1</v>
@@ -9546,16 +9546,16 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9649,7 +9649,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7331150</v>
+        <v>7329845</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
@@ -9658,76 +9658,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J107">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="K107">
+        <v>3.4</v>
+      </c>
+      <c r="L107">
+        <v>2.05</v>
+      </c>
+      <c r="M107">
+        <v>3.4</v>
+      </c>
+      <c r="N107">
         <v>3.5</v>
       </c>
-      <c r="L107">
-        <v>2.875</v>
-      </c>
-      <c r="M107">
-        <v>2.4</v>
-      </c>
-      <c r="N107">
-        <v>3.6</v>
-      </c>
       <c r="O107">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="P107">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q107">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="R107">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S107">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V107">
         <v>-1</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X107">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="Z107">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9735,7 +9735,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7329845</v>
+        <v>7331150</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -9744,76 +9744,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H108">
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J108">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="K108">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L108">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="M108">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N108">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O108">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="P108">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q108">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="R108">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
         <v>-1</v>
       </c>
       <c r="W108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -11455,7 +11455,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7462738</v>
+        <v>7462542</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
@@ -11464,76 +11464,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J128">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="L128">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="M128">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="N128">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="O128">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="P128">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="Q128">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T128">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V128">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W128">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11541,7 +11541,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7462542</v>
+        <v>7462738</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
@@ -11550,76 +11550,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129" t="s">
+        <v>48</v>
+      </c>
+      <c r="J129">
+        <v>4</v>
+      </c>
+      <c r="K129">
+        <v>4</v>
+      </c>
+      <c r="L129">
+        <v>1.666</v>
+      </c>
+      <c r="M129">
+        <v>4</v>
+      </c>
+      <c r="N129">
+        <v>3.8</v>
+      </c>
+      <c r="O129">
+        <v>1.75</v>
+      </c>
+      <c r="P129">
+        <v>0.75</v>
+      </c>
+      <c r="Q129">
+        <v>1.8</v>
+      </c>
+      <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
         <v>3</v>
       </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129" t="s">
-        <v>47</v>
-      </c>
-      <c r="J129">
-        <v>1.363</v>
-      </c>
-      <c r="K129">
-        <v>4.75</v>
-      </c>
-      <c r="L129">
-        <v>6.5</v>
-      </c>
-      <c r="M129">
-        <v>1.285</v>
-      </c>
-      <c r="N129">
-        <v>6.5</v>
-      </c>
-      <c r="O129">
-        <v>8</v>
-      </c>
-      <c r="P129">
-        <v>-1.75</v>
-      </c>
-      <c r="Q129">
-        <v>1.9</v>
-      </c>
-      <c r="R129">
-        <v>1.9</v>
-      </c>
-      <c r="S129">
-        <v>3.25</v>
-      </c>
       <c r="T129">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V129">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB129">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -12659,7 +12659,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532430</v>
+        <v>7532414</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
@@ -12668,40 +12668,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G142">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="s">
         <v>47</v>
       </c>
       <c r="J142">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="K142">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L142">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M142">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="N142">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O142">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="P142">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -12713,13 +12713,13 @@
         <v>3</v>
       </c>
       <c r="T142">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V142">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -12728,16 +12728,16 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12917,7 +12917,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532414</v>
+        <v>7532430</v>
       </c>
       <c r="C145" t="s">
         <v>27</v>
@@ -12926,40 +12926,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G145">
+        <v>4</v>
+      </c>
+      <c r="H145">
         <v>1</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
       </c>
       <c r="I145" t="s">
         <v>47</v>
       </c>
       <c r="J145">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="K145">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L145">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M145">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="N145">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O145">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="P145">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -12971,13 +12971,13 @@
         <v>3</v>
       </c>
       <c r="T145">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -12986,16 +12986,16 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB145">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:28">

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>8119939</t>
   </si>
   <si>
     <t>Bolivia Primera División</t>
@@ -525,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB226"/>
+  <dimension ref="A1:AB227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,16 +625,16 @@
         <v>6504822</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45079.83333333334</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -640,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2">
         <v>1.444</v>
@@ -708,16 +711,16 @@
         <v>6503942</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45080.66666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -726,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J3">
         <v>2.5</v>
@@ -794,16 +797,16 @@
         <v>6505492</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45080.77083333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -812,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4">
         <v>3.2</v>
@@ -880,16 +883,16 @@
         <v>6504570</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45080.875</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -898,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5">
         <v>1.909</v>
@@ -966,16 +969,16 @@
         <v>6504571</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -984,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J6">
         <v>1.8</v>
@@ -1052,16 +1055,16 @@
         <v>6503943</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45081.77083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1070,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J7">
         <v>1.166</v>
@@ -1138,16 +1141,16 @@
         <v>6504309</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45081.85416666666</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1156,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <v>2.5</v>
@@ -1224,16 +1227,16 @@
         <v>6504283</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45082.66666666666</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1242,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J9">
         <v>2.2</v>
@@ -1310,16 +1313,16 @@
         <v>6669973</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45088.85416666666</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1328,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10">
         <v>1.6</v>
@@ -1396,16 +1399,16 @@
         <v>6504823</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45100.66666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1414,7 +1417,7 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J11">
         <v>2.875</v>
@@ -1482,16 +1485,16 @@
         <v>6504824</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45100.83333333334</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1500,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J12">
         <v>1.727</v>
@@ -1568,16 +1571,16 @@
         <v>6503944</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45101.66666666666</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>6</v>
@@ -1586,7 +1589,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1654,16 +1657,16 @@
         <v>6503945</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45101.875</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1672,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J14">
         <v>1.8</v>
@@ -1740,16 +1743,16 @@
         <v>6504572</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1758,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J15">
         <v>1.2</v>
@@ -1826,16 +1829,16 @@
         <v>6504573</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45102.77083333334</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1844,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J16">
         <v>1.727</v>
@@ -1912,16 +1915,16 @@
         <v>6504284</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45102.85416666666</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -1930,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J17">
         <v>1.909</v>
@@ -1998,16 +2001,16 @@
         <v>6504310</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45103.83333333334</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2016,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2084,16 +2087,16 @@
         <v>6504574</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45114.875</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2102,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J19">
         <v>1.727</v>
@@ -2170,16 +2173,16 @@
         <v>6505493</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45115.66666666666</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2188,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J20">
         <v>1.666</v>
@@ -2256,16 +2259,16 @@
         <v>6504311</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45115.77083333334</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2274,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J21">
         <v>1.285</v>
@@ -2342,16 +2345,16 @@
         <v>6504285</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45115.875</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2360,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J22">
         <v>1.615</v>
@@ -2428,16 +2431,16 @@
         <v>6504825</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -2446,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J23">
         <v>1.5</v>
@@ -2514,16 +2517,16 @@
         <v>6503946</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45116.77083333334</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -2532,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J24">
         <v>1.727</v>
@@ -2600,16 +2603,16 @@
         <v>6503947</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2618,7 +2621,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J25">
         <v>3.3</v>
@@ -2686,16 +2689,16 @@
         <v>6504312</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45117.875</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2704,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J26">
         <v>1.5</v>
@@ -2769,85 +2772,85 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45122.66666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J27">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="K27">
         <v>3.6</v>
       </c>
       <c r="L27">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O27">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q27">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T27">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U27">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2855,85 +2858,85 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45122.66666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J28">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="K28">
         <v>3.6</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N28">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="P28">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q28">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R28">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T28">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB28">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2944,16 +2947,16 @@
         <v>6503948</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45123.66666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2962,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J29">
         <v>2.625</v>
@@ -3030,16 +3033,16 @@
         <v>6504286</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45123.77083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3048,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J30">
         <v>2.45</v>
@@ -3116,16 +3119,16 @@
         <v>6504575</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45123.85416666666</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3134,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J31">
         <v>2.2</v>
@@ -3202,16 +3205,16 @@
         <v>6504576</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45124.66666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3220,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J32">
         <v>1.833</v>
@@ -3288,16 +3291,16 @@
         <v>6503949</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45124.77083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3306,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J33">
         <v>1.3</v>
@@ -3374,16 +3377,16 @@
         <v>6504287</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45124.875</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3392,7 +3395,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J34">
         <v>1.666</v>
@@ -3460,16 +3463,16 @@
         <v>6504826</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45129.66666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3478,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J35">
         <v>1.571</v>
@@ -3546,16 +3549,16 @@
         <v>6504288</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45129.77083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3564,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J36">
         <v>1.5</v>
@@ -3632,16 +3635,16 @@
         <v>6504314</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45130.66666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3650,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J37">
         <v>2.3</v>
@@ -3718,16 +3721,16 @@
         <v>6503950</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45130.77083333334</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3736,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J38">
         <v>1.909</v>
@@ -3804,16 +3807,16 @@
         <v>6503951</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45130.85416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3822,7 +3825,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J39">
         <v>1.727</v>
@@ -3890,16 +3893,16 @@
         <v>6504832</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45131.66666666666</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3908,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J40">
         <v>1.2</v>
@@ -3976,16 +3979,16 @@
         <v>6504289</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45131.79166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3994,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J41">
         <v>1.727</v>
@@ -4062,16 +4065,16 @@
         <v>6504315</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45131.875</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4080,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J42">
         <v>1.8</v>
@@ -4148,16 +4151,16 @@
         <v>6503952</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45135.85416666666</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4166,7 +4169,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J43">
         <v>1.909</v>
@@ -4234,16 +4237,16 @@
         <v>6504290</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45136.66666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4252,7 +4255,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J44">
         <v>2.5</v>
@@ -4320,16 +4323,16 @@
         <v>6503953</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45136.77083333334</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -4338,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J45">
         <v>1.2</v>
@@ -4406,16 +4409,16 @@
         <v>6504316</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45136.875</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4424,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J46">
         <v>2.625</v>
@@ -4492,16 +4495,16 @@
         <v>6504578</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45137.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4510,7 +4513,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -4578,16 +4581,16 @@
         <v>6504291</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45137.66666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4596,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -4664,16 +4667,16 @@
         <v>6504577</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45137.85416666666</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4682,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4750,16 +4753,16 @@
         <v>6504833</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45138.66666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4768,7 +4771,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J50">
         <v>2.9</v>
@@ -4836,16 +4839,16 @@
         <v>6970009</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45142.66666666666</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4854,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J51">
         <v>1.2</v>
@@ -4922,16 +4925,16 @@
         <v>6970390</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45142.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G52">
         <v>6</v>
@@ -4940,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J52">
         <v>1.333</v>
@@ -5008,16 +5011,16 @@
         <v>6970010</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45143.66666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G53">
         <v>6</v>
@@ -5026,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J53">
         <v>1.333</v>
@@ -5094,16 +5097,16 @@
         <v>6970011</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45143.77083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5112,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J54">
         <v>2.1</v>
@@ -5180,16 +5183,16 @@
         <v>6970012</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45143.875</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5198,7 +5201,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J55">
         <v>1.909</v>
@@ -5266,16 +5269,16 @@
         <v>6970013</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45144.66666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5284,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J56">
         <v>1.615</v>
@@ -5352,16 +5355,16 @@
         <v>6970014</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45144.77083333334</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5370,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J57">
         <v>3.3</v>
@@ -5438,16 +5441,16 @@
         <v>6970015</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45144.85416666666</v>
       </c>
       <c r="E58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5456,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J58">
         <v>3.75</v>
@@ -5524,16 +5527,16 @@
         <v>6970267</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45149.66666666666</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5542,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J59">
         <v>2.2</v>
@@ -5610,16 +5613,16 @@
         <v>6970016</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -5628,7 +5631,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J60">
         <v>2.1</v>
@@ -5696,16 +5699,16 @@
         <v>6970017</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45150.77083333334</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5714,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J61">
         <v>1.909</v>
@@ -5782,16 +5785,16 @@
         <v>6970018</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45150.875</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5800,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J62">
         <v>1.727</v>
@@ -5868,16 +5871,16 @@
         <v>6970019</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45151.66666666666</v>
       </c>
       <c r="E63" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" t="s">
         <v>44</v>
-      </c>
-      <c r="F63" t="s">
-        <v>43</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5886,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J63">
         <v>2.2</v>
@@ -5954,16 +5957,16 @@
         <v>6970020</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45151.77083333334</v>
       </c>
       <c r="E64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" t="s">
         <v>33</v>
-      </c>
-      <c r="F64" t="s">
-        <v>32</v>
       </c>
       <c r="G64">
         <v>4</v>
@@ -5972,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J64">
         <v>1.25</v>
@@ -6040,16 +6043,16 @@
         <v>6970021</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45151.85416666666</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G65">
         <v>4</v>
@@ -6058,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J65">
         <v>1.615</v>
@@ -6126,16 +6129,16 @@
         <v>6970022</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45152.85416666666</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6144,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J66">
         <v>1.5</v>
@@ -6212,16 +6215,16 @@
         <v>6970023</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45156.83333333334</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6230,7 +6233,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J67">
         <v>2.3</v>
@@ -6298,16 +6301,16 @@
         <v>6970025</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45156.875</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6316,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J68">
         <v>1.071</v>
@@ -6384,16 +6387,16 @@
         <v>6970024</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45157.66666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G69">
         <v>5</v>
@@ -6402,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J69">
         <v>2.2</v>
@@ -6470,16 +6473,16 @@
         <v>6970268</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45157.875</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6488,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J70">
         <v>1.5</v>
@@ -6556,16 +6559,16 @@
         <v>6970269</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45158.66666666666</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6574,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J71">
         <v>2.375</v>
@@ -6642,16 +6645,16 @@
         <v>6970026</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45158.77083333334</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6660,7 +6663,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J72">
         <v>1.25</v>
@@ -6728,16 +6731,16 @@
         <v>6970028</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45159.875</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6746,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J73">
         <v>1.615</v>
@@ -6814,16 +6817,16 @@
         <v>7105139</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45161.66666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6832,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J74">
         <v>1.666</v>
@@ -6900,16 +6903,16 @@
         <v>6970030</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45161.875</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6918,7 +6921,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J75">
         <v>1.062</v>
@@ -6986,16 +6989,16 @@
         <v>6970031</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45162.66666666666</v>
       </c>
       <c r="E76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7004,7 +7007,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J76">
         <v>1.363</v>
@@ -7072,16 +7075,16 @@
         <v>6970032</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45162.89583333334</v>
       </c>
       <c r="E77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7090,7 +7093,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J77">
         <v>1.909</v>
@@ -7158,16 +7161,16 @@
         <v>6970033</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45163.875</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7176,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J78">
         <v>1.4</v>
@@ -7244,16 +7247,16 @@
         <v>6970034</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -7262,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7330,17 +7333,17 @@
         <v>7285413</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45202.66666666666</v>
       </c>
       <c r="E80" t="s">
+        <v>40</v>
+      </c>
+      <c r="F80" t="s">
         <v>39</v>
       </c>
-      <c r="F80" t="s">
-        <v>38</v>
-      </c>
       <c r="G80">
         <v>0</v>
       </c>
@@ -7348,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J80">
         <v>2.375</v>
@@ -7416,16 +7419,16 @@
         <v>7285412</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45202.79166666666</v>
       </c>
       <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
         <v>43</v>
-      </c>
-      <c r="F81" t="s">
-        <v>42</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7434,7 +7437,7 @@
         <v>3</v>
       </c>
       <c r="I81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J81">
         <v>2.375</v>
@@ -7502,16 +7505,16 @@
         <v>7285416</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45202.89583333334</v>
       </c>
       <c r="E82" t="s">
+        <v>42</v>
+      </c>
+      <c r="F82" t="s">
         <v>41</v>
-      </c>
-      <c r="F82" t="s">
-        <v>40</v>
       </c>
       <c r="G82">
         <v>5</v>
@@ -7520,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J82">
         <v>1.444</v>
@@ -7588,16 +7591,16 @@
         <v>7285411</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45203.66666666666</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7606,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J83">
         <v>2.55</v>
@@ -7674,16 +7677,16 @@
         <v>7285417</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45203.79166666666</v>
       </c>
       <c r="E84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7692,7 +7695,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J84">
         <v>1.444</v>
@@ -7760,16 +7763,16 @@
         <v>7285414</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45203.89583333334</v>
       </c>
       <c r="E85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7778,7 +7781,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J85">
         <v>2.7</v>
@@ -7846,16 +7849,16 @@
         <v>7285418</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45204.66666666666</v>
       </c>
       <c r="E86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" t="s">
         <v>37</v>
-      </c>
-      <c r="F86" t="s">
-        <v>36</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7864,7 +7867,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J86">
         <v>1.615</v>
@@ -7932,16 +7935,16 @@
         <v>7285415</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45204.875</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7950,7 +7953,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J87">
         <v>1.833</v>
@@ -8018,16 +8021,16 @@
         <v>7296594</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45206.66666666666</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8036,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J88">
         <v>2.15</v>
@@ -8104,16 +8107,16 @@
         <v>7296273</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45206.77083333334</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8122,7 +8125,7 @@
         <v>4</v>
       </c>
       <c r="I89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J89">
         <v>1.4</v>
@@ -8190,16 +8193,16 @@
         <v>7296274</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45207.66666666666</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8208,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J90">
         <v>1.363</v>
@@ -8276,16 +8279,16 @@
         <v>7296275</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45207.77083333334</v>
       </c>
       <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
         <v>42</v>
-      </c>
-      <c r="F91" t="s">
-        <v>41</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8294,7 +8297,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J91">
         <v>3.3</v>
@@ -8362,16 +8365,16 @@
         <v>7296595</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45207.85416666666</v>
       </c>
       <c r="E92" t="s">
+        <v>35</v>
+      </c>
+      <c r="F92" t="s">
         <v>34</v>
-      </c>
-      <c r="F92" t="s">
-        <v>33</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8380,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J92">
         <v>2.3</v>
@@ -8448,16 +8451,16 @@
         <v>7296276</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45208.66319444445</v>
       </c>
       <c r="E93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8466,7 +8469,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J93">
         <v>2.375</v>
@@ -8534,16 +8537,16 @@
         <v>7288493</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45208.79166666666</v>
       </c>
       <c r="E94" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8552,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J94">
         <v>1.4</v>
@@ -8620,16 +8623,16 @@
         <v>7296596</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45208.89583333334</v>
       </c>
       <c r="E95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8638,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J95">
         <v>2.45</v>
@@ -8706,16 +8709,16 @@
         <v>7331144</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45214.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8724,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J96">
         <v>2.875</v>
@@ -8792,16 +8795,16 @@
         <v>7330592</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45218.83333333334</v>
       </c>
       <c r="E97" t="s">
+        <v>30</v>
+      </c>
+      <c r="F97" t="s">
         <v>29</v>
-      </c>
-      <c r="F97" t="s">
-        <v>28</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -8810,7 +8813,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J97">
         <v>2.25</v>
@@ -8878,16 +8881,16 @@
         <v>7331145</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45219.66666666666</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8896,7 +8899,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J98">
         <v>1.444</v>
@@ -8964,16 +8967,16 @@
         <v>7329842</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45219.83333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8982,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J99">
         <v>1.166</v>
@@ -9050,16 +9053,16 @@
         <v>7331146</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45219.89583333334</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9068,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J100">
         <v>2.45</v>
@@ -9136,16 +9139,16 @@
         <v>7329843</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45220.75</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9154,7 +9157,7 @@
         <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J101">
         <v>1.363</v>
@@ -9222,16 +9225,16 @@
         <v>7331147</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45220.875</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9240,7 +9243,7 @@
         <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J102">
         <v>1.615</v>
@@ -9308,16 +9311,16 @@
         <v>7361187</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45221.70833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9326,7 +9329,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J103">
         <v>1.909</v>
@@ -9394,16 +9397,16 @@
         <v>7331149</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45234.66666666666</v>
       </c>
       <c r="E104" t="s">
+        <v>37</v>
+      </c>
+      <c r="F104" t="s">
         <v>36</v>
-      </c>
-      <c r="F104" t="s">
-        <v>35</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -9412,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J104">
         <v>1.8</v>
@@ -9480,16 +9483,16 @@
         <v>7331148</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45234.66666666666</v>
       </c>
       <c r="E105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -9498,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J105">
         <v>1.2</v>
@@ -9566,16 +9569,16 @@
         <v>7329844</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45234.8125</v>
       </c>
       <c r="E106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9584,7 +9587,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J106">
         <v>2.55</v>
@@ -9649,85 +9652,85 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7329845</v>
+        <v>7331150</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45235.66666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J107">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="K107">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L107">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="M107">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N107">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O107">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="P107">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q107">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="R107">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S107">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
         <v>-1</v>
       </c>
       <c r="W107">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y107">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9735,22 +9738,22 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7331150</v>
+        <v>7329845</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45235.66666666666</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -9759,61 +9762,61 @@
         <v>49</v>
       </c>
       <c r="J108">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="K108">
+        <v>3.4</v>
+      </c>
+      <c r="L108">
+        <v>2.05</v>
+      </c>
+      <c r="M108">
+        <v>3.4</v>
+      </c>
+      <c r="N108">
         <v>3.5</v>
       </c>
-      <c r="L108">
-        <v>2.875</v>
-      </c>
-      <c r="M108">
-        <v>2.4</v>
-      </c>
-      <c r="N108">
-        <v>3.6</v>
-      </c>
       <c r="O108">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="P108">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q108">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="R108">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S108">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V108">
         <v>-1</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X108">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="Z108">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -9824,16 +9827,16 @@
         <v>7330274</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45235.85416666666</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9842,7 +9845,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J109">
         <v>2.25</v>
@@ -9910,16 +9913,16 @@
         <v>7331151</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45236.79166666666</v>
       </c>
       <c r="E110" t="s">
+        <v>39</v>
+      </c>
+      <c r="F110" t="s">
         <v>38</v>
-      </c>
-      <c r="F110" t="s">
-        <v>37</v>
       </c>
       <c r="G110">
         <v>4</v>
@@ -9928,7 +9931,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J110">
         <v>1.25</v>
@@ -9996,16 +9999,16 @@
         <v>7331152</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45236.875</v>
       </c>
       <c r="E111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G111">
         <v>3</v>
@@ -10014,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J111">
         <v>1.7</v>
@@ -10082,16 +10085,16 @@
         <v>7438471</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45237.66666666666</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G112">
         <v>3</v>
@@ -10100,7 +10103,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J112">
         <v>1.3</v>
@@ -10168,16 +10171,16 @@
         <v>7438472</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45237.85416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G113">
         <v>4</v>
@@ -10186,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J113">
         <v>4</v>
@@ -10254,16 +10257,16 @@
         <v>7438452</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45238.66666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G114">
         <v>4</v>
@@ -10272,7 +10275,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J114">
         <v>5</v>
@@ -10340,16 +10343,16 @@
         <v>7332665</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45240.79166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10358,7 +10361,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J115">
         <v>2.1</v>
@@ -10426,16 +10429,16 @@
         <v>7332666</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45240.875</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G116">
         <v>8</v>
@@ -10444,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J116">
         <v>1.083</v>
@@ -10512,16 +10515,16 @@
         <v>7332667</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45241.66666666666</v>
       </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10530,7 +10533,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J117">
         <v>2.1</v>
@@ -10598,16 +10601,16 @@
         <v>7332668</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45241.77083333334</v>
       </c>
       <c r="E118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -10616,7 +10619,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J118">
         <v>1.2</v>
@@ -10684,16 +10687,16 @@
         <v>7332669</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45241.875</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10702,7 +10705,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J119">
         <v>2.375</v>
@@ -10770,16 +10773,16 @@
         <v>7332670</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45242.77083333334</v>
       </c>
       <c r="E120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10788,7 +10791,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J120">
         <v>2.1</v>
@@ -10856,16 +10859,16 @@
         <v>7332671</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45242.85416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F121" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10874,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J121">
         <v>1.8</v>
@@ -10942,16 +10945,16 @@
         <v>7332672</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45243.85416666666</v>
       </c>
       <c r="E122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -10960,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J122">
         <v>1.615</v>
@@ -11028,16 +11031,16 @@
         <v>7462540</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45248.66666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11046,7 +11049,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J123">
         <v>1.75</v>
@@ -11114,16 +11117,16 @@
         <v>7462535</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45248.77083333334</v>
       </c>
       <c r="E124" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G124">
         <v>6</v>
@@ -11132,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J124">
         <v>1.363</v>
@@ -11200,16 +11203,16 @@
         <v>7462536</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45249.66666666666</v>
       </c>
       <c r="E125" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -11218,7 +11221,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J125">
         <v>2.375</v>
@@ -11286,16 +11289,16 @@
         <v>7462537</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45249.77083333334</v>
       </c>
       <c r="E126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11304,7 +11307,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J126">
         <v>1.444</v>
@@ -11372,16 +11375,16 @@
         <v>7462541</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45249.85416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11390,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J127">
         <v>1.666</v>
@@ -11458,16 +11461,16 @@
         <v>7462542</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45253.66666666666</v>
       </c>
       <c r="E128" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G128">
         <v>3</v>
@@ -11476,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J128">
         <v>1.363</v>
@@ -11544,16 +11547,16 @@
         <v>7462738</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45253.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11562,7 +11565,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J129">
         <v>4</v>
@@ -11630,16 +11633,16 @@
         <v>7462538</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45253.85416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11648,7 +11651,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J130">
         <v>1.444</v>
@@ -11716,16 +11719,16 @@
         <v>7506107</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45254.85416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11734,7 +11737,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J131">
         <v>1.727</v>
@@ -11802,16 +11805,16 @@
         <v>7506108</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45255.66666666666</v>
       </c>
       <c r="E132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11820,7 +11823,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J132">
         <v>1.909</v>
@@ -11888,16 +11891,16 @@
         <v>7506109</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45255.77083333334</v>
       </c>
       <c r="E133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G133">
         <v>6</v>
@@ -11906,7 +11909,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J133">
         <v>1.95</v>
@@ -11974,16 +11977,16 @@
         <v>7506110</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45255.85416666666</v>
       </c>
       <c r="E134" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11992,7 +11995,7 @@
         <v>7</v>
       </c>
       <c r="I134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J134">
         <v>3</v>
@@ -12060,16 +12063,16 @@
         <v>7506111</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45256.66666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12078,7 +12081,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J135">
         <v>2.25</v>
@@ -12146,16 +12149,16 @@
         <v>7506112</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45256.77083333334</v>
       </c>
       <c r="E136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12164,7 +12167,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J136">
         <v>1.8</v>
@@ -12232,16 +12235,16 @@
         <v>7506113</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45256.85416666666</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12250,7 +12253,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J137">
         <v>1.444</v>
@@ -12318,16 +12321,16 @@
         <v>7506114</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45257.875</v>
       </c>
       <c r="E138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12336,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J138">
         <v>1.444</v>
@@ -12404,16 +12407,16 @@
         <v>7532411</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45261.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12422,7 +12425,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J139">
         <v>1.666</v>
@@ -12490,16 +12493,16 @@
         <v>7532429</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45261.83333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G140">
         <v>4</v>
@@ -12508,7 +12511,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J140">
         <v>1.3</v>
@@ -12576,16 +12579,16 @@
         <v>7532416</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45261.89583333334</v>
       </c>
       <c r="E141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12594,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J141">
         <v>2.45</v>
@@ -12659,85 +12662,85 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532414</v>
+        <v>7532413</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
         <v>1</v>
       </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
       <c r="I142" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J142">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="K142">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L142">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M142">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="N142">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O142">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="P142">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q142">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S142">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T142">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12745,85 +12748,85 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532412</v>
+        <v>7532430</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143" t="s">
+        <v>48</v>
+      </c>
+      <c r="J143">
+        <v>1.4</v>
+      </c>
+      <c r="K143">
+        <v>4.2</v>
+      </c>
+      <c r="L143">
+        <v>7</v>
+      </c>
+      <c r="M143">
+        <v>1.363</v>
+      </c>
+      <c r="N143">
+        <v>4.5</v>
+      </c>
+      <c r="O143">
+        <v>8.5</v>
+      </c>
+      <c r="P143">
+        <v>-1.5</v>
+      </c>
+      <c r="Q143">
+        <v>2</v>
+      </c>
+      <c r="R143">
+        <v>1.8</v>
+      </c>
+      <c r="S143">
         <v>3</v>
       </c>
-      <c r="I143" t="s">
-        <v>49</v>
-      </c>
-      <c r="J143">
-        <v>1.727</v>
-      </c>
-      <c r="K143">
-        <v>3.75</v>
-      </c>
-      <c r="L143">
-        <v>4</v>
-      </c>
-      <c r="M143">
-        <v>2.3</v>
-      </c>
-      <c r="N143">
-        <v>3.6</v>
-      </c>
-      <c r="O143">
-        <v>2.875</v>
-      </c>
-      <c r="P143">
-        <v>-0.25</v>
-      </c>
-      <c r="Q143">
-        <v>1.95</v>
-      </c>
-      <c r="R143">
-        <v>1.85</v>
-      </c>
-      <c r="S143">
-        <v>2.75</v>
-      </c>
       <c r="T143">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U143">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12831,43 +12834,43 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532413</v>
+        <v>7532412</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F144" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J144">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="K144">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L144">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N144">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O144">
         <v>2.875</v>
@@ -12876,19 +12879,19 @@
         <v>-0.25</v>
       </c>
       <c r="Q144">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R144">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S144">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T144">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
         <v>-1</v>
@@ -12903,13 +12906,13 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB144">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12917,49 +12920,49 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532430</v>
+        <v>7532414</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J145">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="K145">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L145">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M145">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="N145">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O145">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="P145">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -12971,13 +12974,13 @@
         <v>3</v>
       </c>
       <c r="T145">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -12986,16 +12989,16 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13006,16 +13009,16 @@
         <v>7532415</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45263.79166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G146">
         <v>6</v>
@@ -13024,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J146">
         <v>1.285</v>
@@ -13092,16 +13095,16 @@
         <v>7532418</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45265.66666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G147">
         <v>3</v>
@@ -13110,7 +13113,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J147">
         <v>5</v>
@@ -13175,67 +13178,67 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532421</v>
+        <v>7532420</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45265.875</v>
       </c>
       <c r="E148" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J148">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="K148">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L148">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M148">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="N148">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O148">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="P148">
         <v>-1.5</v>
       </c>
       <c r="Q148">
+        <v>1.8</v>
+      </c>
+      <c r="R148">
+        <v>2</v>
+      </c>
+      <c r="S148">
+        <v>3.25</v>
+      </c>
+      <c r="T148">
+        <v>1.95</v>
+      </c>
+      <c r="U148">
         <v>1.85</v>
       </c>
-      <c r="R148">
-        <v>1.95</v>
-      </c>
-      <c r="S148">
-        <v>3</v>
-      </c>
-      <c r="T148">
-        <v>1.825</v>
-      </c>
-      <c r="U148">
-        <v>1.975</v>
-      </c>
       <c r="V148">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13244,16 +13247,16 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13264,16 +13267,16 @@
         <v>7532419</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
         <v>45265.875</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13282,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J149">
         <v>2.2</v>
@@ -13347,67 +13350,67 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532420</v>
+        <v>7532421</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
         <v>45265.875</v>
       </c>
       <c r="E150" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H150">
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J150">
+        <v>1.4</v>
+      </c>
+      <c r="K150">
+        <v>4.5</v>
+      </c>
+      <c r="L150">
+        <v>7.5</v>
+      </c>
+      <c r="M150">
         <v>1.333</v>
       </c>
-      <c r="K150">
-        <v>5</v>
-      </c>
-      <c r="L150">
-        <v>8</v>
-      </c>
-      <c r="M150">
-        <v>1.3</v>
-      </c>
       <c r="N150">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O150">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="P150">
         <v>-1.5</v>
       </c>
       <c r="Q150">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R150">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S150">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T150">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V150">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="W150">
         <v>-1</v>
@@ -13416,16 +13419,16 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:28">
@@ -13436,16 +13439,16 @@
         <v>7532422</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2">
         <v>45266.66666666666</v>
       </c>
       <c r="E151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13454,7 +13457,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J151">
         <v>1.8</v>
@@ -13522,16 +13525,16 @@
         <v>7532423</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2">
         <v>45266.83333333334</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13540,7 +13543,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J152">
         <v>1.363</v>
@@ -13608,16 +13611,16 @@
         <v>7532431</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D153" s="2">
         <v>45266.875</v>
       </c>
       <c r="E153" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -13626,7 +13629,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J153">
         <v>2.3</v>
@@ -13694,16 +13697,16 @@
         <v>7532417</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
         <v>45266.875</v>
       </c>
       <c r="E154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G154">
         <v>4</v>
@@ -13712,7 +13715,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J154">
         <v>1.3</v>
@@ -13780,16 +13783,16 @@
         <v>7798427</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2">
         <v>45338.875</v>
       </c>
       <c r="E155" t="s">
+        <v>41</v>
+      </c>
+      <c r="F155" t="s">
         <v>40</v>
-      </c>
-      <c r="F155" t="s">
-        <v>39</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13798,7 +13801,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J155">
         <v>1.5</v>
@@ -13866,16 +13869,16 @@
         <v>7780026</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D156" s="2">
         <v>45339.77083333334</v>
       </c>
       <c r="E156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -13884,7 +13887,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J156">
         <v>1.125</v>
@@ -13952,16 +13955,16 @@
         <v>7797857</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2">
         <v>45339.875</v>
       </c>
       <c r="E157" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13970,7 +13973,7 @@
         <v>2</v>
       </c>
       <c r="I157" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J157">
         <v>1.909</v>
@@ -14038,16 +14041,16 @@
         <v>7779103</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2">
         <v>45340.66666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14056,7 +14059,7 @@
         <v>3</v>
       </c>
       <c r="I158" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J158">
         <v>1.285</v>
@@ -14124,16 +14127,16 @@
         <v>7798428</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2">
         <v>45340.77083333334</v>
       </c>
       <c r="E159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F159" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14142,7 +14145,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J159">
         <v>1.571</v>
@@ -14210,16 +14213,16 @@
         <v>7779104</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2">
         <v>45340.85416666666</v>
       </c>
       <c r="E160" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14228,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J160">
         <v>1.615</v>
@@ -14296,16 +14299,16 @@
         <v>7801314</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2">
         <v>45342.79166666666</v>
       </c>
       <c r="E161" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14314,7 +14317,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J161">
         <v>1.55</v>
@@ -14382,16 +14385,16 @@
         <v>7801315</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D162" s="2">
         <v>45342.875</v>
       </c>
       <c r="E162" t="s">
+        <v>34</v>
+      </c>
+      <c r="F162" t="s">
         <v>33</v>
-      </c>
-      <c r="F162" t="s">
-        <v>32</v>
       </c>
       <c r="G162">
         <v>3</v>
@@ -14400,7 +14403,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J162">
         <v>1.125</v>
@@ -14468,16 +14471,16 @@
         <v>7801316</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D163" s="2">
         <v>45343.66666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14486,7 +14489,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J163">
         <v>2.1</v>
@@ -14554,16 +14557,16 @@
         <v>7801318</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D164" s="2">
         <v>45343.875</v>
       </c>
       <c r="E164" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14572,7 +14575,7 @@
         <v>2</v>
       </c>
       <c r="I164" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J164">
         <v>2.625</v>
@@ -14640,16 +14643,16 @@
         <v>7801317</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D165" s="2">
         <v>45344.5</v>
       </c>
       <c r="E165" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F165" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14658,7 +14661,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J165">
         <v>3.75</v>
@@ -14726,16 +14729,16 @@
         <v>7801319</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D166" s="2">
         <v>45344.66666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14744,7 +14747,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J166">
         <v>1.8</v>
@@ -14812,16 +14815,16 @@
         <v>7801321</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D167" s="2">
         <v>45345.66666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F167" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14830,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J167">
         <v>2.2</v>
@@ -14898,16 +14901,16 @@
         <v>7801322</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D168" s="2">
         <v>45346.66666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14916,7 +14919,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J168">
         <v>2.25</v>
@@ -14984,16 +14987,16 @@
         <v>7801323</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D169" s="2">
         <v>45346.77083333334</v>
       </c>
       <c r="E169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15002,7 +15005,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J169">
         <v>1.615</v>
@@ -15070,16 +15073,16 @@
         <v>7801324</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D170" s="2">
         <v>45347.66666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15088,7 +15091,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J170">
         <v>2.5</v>
@@ -15156,16 +15159,16 @@
         <v>7801325</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D171" s="2">
         <v>45347.77083333334</v>
       </c>
       <c r="E171" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G171">
         <v>4</v>
@@ -15174,7 +15177,7 @@
         <v>4</v>
       </c>
       <c r="I171" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J171">
         <v>2.15</v>
@@ -15242,16 +15245,16 @@
         <v>7801326</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D172" s="2">
         <v>45347.85416666666</v>
       </c>
       <c r="E172" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15260,7 +15263,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J172">
         <v>2.3</v>
@@ -15328,16 +15331,16 @@
         <v>7801327</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D173" s="2">
         <v>45348.875</v>
       </c>
       <c r="E173" t="s">
+        <v>31</v>
+      </c>
+      <c r="F173" t="s">
         <v>30</v>
-      </c>
-      <c r="F173" t="s">
-        <v>29</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15346,7 +15349,7 @@
         <v>2</v>
       </c>
       <c r="I173" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J173">
         <v>1.666</v>
@@ -15414,16 +15417,16 @@
         <v>7801328</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D174" s="2">
         <v>45349.875</v>
       </c>
       <c r="E174" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F174" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15432,7 +15435,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J174">
         <v>2.5</v>
@@ -15500,16 +15503,16 @@
         <v>7892752</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D175" s="2">
         <v>45350.66666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G175">
         <v>5</v>
@@ -15518,7 +15521,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J175">
         <v>3.3</v>
@@ -15586,16 +15589,16 @@
         <v>7897430</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D176" s="2">
         <v>45352.875</v>
       </c>
       <c r="E176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15604,7 +15607,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J176">
         <v>2.5</v>
@@ -15672,16 +15675,16 @@
         <v>7897428</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D177" s="2">
         <v>45353.66666666666</v>
       </c>
       <c r="E177" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15690,7 +15693,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J177">
         <v>1.363</v>
@@ -15758,16 +15761,16 @@
         <v>7897433</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D178" s="2">
         <v>45353.77083333334</v>
       </c>
       <c r="E178" t="s">
+        <v>43</v>
+      </c>
+      <c r="F178" t="s">
         <v>42</v>
-      </c>
-      <c r="F178" t="s">
-        <v>41</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -15776,7 +15779,7 @@
         <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J178">
         <v>2.4</v>
@@ -15844,16 +15847,16 @@
         <v>7897432</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D179" s="2">
         <v>45353.875</v>
       </c>
       <c r="E179" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G179">
         <v>3</v>
@@ -15862,7 +15865,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J179">
         <v>2.2</v>
@@ -15930,16 +15933,16 @@
         <v>7897431</v>
       </c>
       <c r="C180" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D180" s="2">
         <v>45354.66666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F180" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15948,7 +15951,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J180">
         <v>1.571</v>
@@ -16016,16 +16019,16 @@
         <v>7897434</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D181" s="2">
         <v>45354.77083333334</v>
       </c>
       <c r="E181" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F181" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -16034,7 +16037,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J181">
         <v>1.666</v>
@@ -16102,16 +16105,16 @@
         <v>7897435</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D182" s="2">
         <v>45354.85416666666</v>
       </c>
       <c r="E182" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16120,7 +16123,7 @@
         <v>3</v>
       </c>
       <c r="I182" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J182">
         <v>1.75</v>
@@ -16188,16 +16191,16 @@
         <v>7897429</v>
       </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D183" s="2">
         <v>45355.66666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F183" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -16206,7 +16209,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J183">
         <v>1.909</v>
@@ -16274,16 +16277,16 @@
         <v>7928563</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D184" s="2">
         <v>45359.66666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16292,7 +16295,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J184">
         <v>2.75</v>
@@ -16360,16 +16363,16 @@
         <v>7929910</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D185" s="2">
         <v>45359.89583333334</v>
       </c>
       <c r="E185" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16378,7 +16381,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J185">
         <v>2.1</v>
@@ -16446,16 +16449,16 @@
         <v>7929911</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D186" s="2">
         <v>45360.66666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F186" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16464,7 +16467,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J186">
         <v>1.833</v>
@@ -16532,16 +16535,16 @@
         <v>7929912</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D187" s="2">
         <v>45360.77083333334</v>
       </c>
       <c r="E187" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F187" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16550,7 +16553,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J187">
         <v>1.4</v>
@@ -16618,16 +16621,16 @@
         <v>7929913</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D188" s="2">
         <v>45360.87152777778</v>
       </c>
       <c r="E188" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G188">
         <v>3</v>
@@ -16636,7 +16639,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J188">
         <v>1.3</v>
@@ -16704,16 +16707,16 @@
         <v>7929914</v>
       </c>
       <c r="C189" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D189" s="2">
         <v>45361.66666666666</v>
       </c>
       <c r="E189" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F189" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16722,7 +16725,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J189">
         <v>2.55</v>
@@ -16790,16 +16793,16 @@
         <v>7929915</v>
       </c>
       <c r="C190" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D190" s="2">
         <v>45361.77083333334</v>
       </c>
       <c r="E190" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -16808,7 +16811,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J190">
         <v>2.55</v>
@@ -16876,16 +16879,16 @@
         <v>7929916</v>
       </c>
       <c r="C191" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D191" s="2">
         <v>45361.85416666666</v>
       </c>
       <c r="E191" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -16894,7 +16897,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J191">
         <v>2.55</v>
@@ -16962,16 +16965,16 @@
         <v>7931498</v>
       </c>
       <c r="C192" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D192" s="2">
         <v>45363.79166666666</v>
       </c>
       <c r="E192" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -16980,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J192">
         <v>1.4</v>
@@ -17048,16 +17051,16 @@
         <v>7931499</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D193" s="2">
         <v>45363.875</v>
       </c>
       <c r="E193" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17066,7 +17069,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J193">
         <v>2.1</v>
@@ -17134,16 +17137,16 @@
         <v>7930864</v>
       </c>
       <c r="C194" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D194" s="2">
         <v>45364.66666666666</v>
       </c>
       <c r="E194" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17152,7 +17155,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J194">
         <v>1.333</v>
@@ -17220,16 +17223,16 @@
         <v>7931500</v>
       </c>
       <c r="C195" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D195" s="2">
         <v>45364.79166666666</v>
       </c>
       <c r="E195" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F195" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -17238,7 +17241,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J195">
         <v>1.909</v>
@@ -17306,16 +17309,16 @@
         <v>7930865</v>
       </c>
       <c r="C196" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D196" s="2">
         <v>45364.87152777778</v>
       </c>
       <c r="E196" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17324,7 +17327,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J196">
         <v>3</v>
@@ -17392,16 +17395,16 @@
         <v>7930866</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D197" s="2">
         <v>45365.79166666666</v>
       </c>
       <c r="E197" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F197" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -17410,7 +17413,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J197">
         <v>1.65</v>
@@ -17478,16 +17481,16 @@
         <v>7930867</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D198" s="2">
         <v>45365.875</v>
       </c>
       <c r="E198" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17496,7 +17499,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J198">
         <v>1.4</v>
@@ -17564,16 +17567,16 @@
         <v>7930868</v>
       </c>
       <c r="C199" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D199" s="2">
         <v>45366.875</v>
       </c>
       <c r="E199" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17582,7 +17585,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J199">
         <v>1.833</v>
@@ -17650,16 +17653,16 @@
         <v>7980297</v>
       </c>
       <c r="C200" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D200" s="2">
         <v>45371.83333333334</v>
       </c>
       <c r="E200" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F200" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G200">
         <v>4</v>
@@ -17668,7 +17671,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J200">
         <v>1.4</v>
@@ -17736,16 +17739,16 @@
         <v>7980042</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D201" s="2">
         <v>45379.66666666666</v>
       </c>
       <c r="E201" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17754,7 +17757,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J201">
         <v>4.2</v>
@@ -17822,16 +17825,16 @@
         <v>7980298</v>
       </c>
       <c r="C202" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D202" s="2">
         <v>45379.875</v>
       </c>
       <c r="E202" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F202" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17840,7 +17843,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J202">
         <v>2.4</v>
@@ -17908,16 +17911,16 @@
         <v>8010637</v>
       </c>
       <c r="C203" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D203" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G203">
         <v>3</v>
@@ -17926,7 +17929,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J203">
         <v>1.727</v>
@@ -17994,16 +17997,16 @@
         <v>8010638</v>
       </c>
       <c r="C204" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D204" s="2">
         <v>45381.77083333334</v>
       </c>
       <c r="E204" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G204">
         <v>3</v>
@@ -18012,7 +18015,7 @@
         <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J204">
         <v>2.2</v>
@@ -18080,16 +18083,16 @@
         <v>8010639</v>
       </c>
       <c r="C205" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D205" s="2">
         <v>45381.875</v>
       </c>
       <c r="E205" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F205" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -18098,7 +18101,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J205">
         <v>1.363</v>
@@ -18166,16 +18169,16 @@
         <v>8010642</v>
       </c>
       <c r="C206" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D206" s="2">
         <v>45382.66666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F206" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -18184,7 +18187,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J206">
         <v>1.4</v>
@@ -18252,16 +18255,16 @@
         <v>8010640</v>
       </c>
       <c r="C207" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D207" s="2">
         <v>45382.77083333334</v>
       </c>
       <c r="E207" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G207">
         <v>4</v>
@@ -18270,7 +18273,7 @@
         <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J207">
         <v>1.222</v>
@@ -18338,16 +18341,16 @@
         <v>8011587</v>
       </c>
       <c r="C208" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D208" s="2">
         <v>45382.85416666666</v>
       </c>
       <c r="E208" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G208">
         <v>4</v>
@@ -18356,7 +18359,7 @@
         <v>2</v>
       </c>
       <c r="I208" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J208">
         <v>1.533</v>
@@ -18424,16 +18427,16 @@
         <v>8010641</v>
       </c>
       <c r="C209" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D209" s="2">
         <v>45383.875</v>
       </c>
       <c r="E209" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F209" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G209">
         <v>3</v>
@@ -18442,7 +18445,7 @@
         <v>4</v>
       </c>
       <c r="I209" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J209">
         <v>1.7</v>
@@ -18510,16 +18513,16 @@
         <v>8038942</v>
       </c>
       <c r="C210" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D210" s="2">
         <v>45387.79166666666</v>
       </c>
       <c r="E210" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F210" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -18528,7 +18531,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J210">
         <v>1.571</v>
@@ -18596,17 +18599,17 @@
         <v>8039389</v>
       </c>
       <c r="C211" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D211" s="2">
         <v>45388.70833333334</v>
       </c>
       <c r="E211" t="s">
+        <v>30</v>
+      </c>
+      <c r="F211" t="s">
         <v>29</v>
       </c>
-      <c r="F211" t="s">
-        <v>28</v>
-      </c>
       <c r="G211">
         <v>0</v>
       </c>
@@ -18614,7 +18617,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J211">
         <v>2.2</v>
@@ -18682,16 +18685,16 @@
         <v>8039390</v>
       </c>
       <c r="C212" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D212" s="2">
         <v>45388.70833333334</v>
       </c>
       <c r="E212" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F212" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -18700,7 +18703,7 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J212">
         <v>2.05</v>
@@ -18768,16 +18771,16 @@
         <v>8054794</v>
       </c>
       <c r="C213" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D213" s="2">
         <v>45388.79166666666</v>
       </c>
       <c r="E213" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -18786,7 +18789,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J213">
         <v>1.95</v>
@@ -18854,16 +18857,16 @@
         <v>8038943</v>
       </c>
       <c r="C214" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D214" s="2">
         <v>45389.70833333334</v>
       </c>
       <c r="E214" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G214">
         <v>2</v>
@@ -18872,7 +18875,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J214">
         <v>2.3</v>
@@ -18940,16 +18943,16 @@
         <v>8039392</v>
       </c>
       <c r="C215" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D215" s="2">
         <v>45389.70833333334</v>
       </c>
       <c r="E215" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F215" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18958,7 +18961,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J215">
         <v>2</v>
@@ -19026,16 +19029,16 @@
         <v>8039398</v>
       </c>
       <c r="C216" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D216" s="2">
         <v>45389.85416666666</v>
       </c>
       <c r="E216" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F216" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G216">
         <v>2</v>
@@ -19044,7 +19047,7 @@
         <v>1</v>
       </c>
       <c r="I216" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J216">
         <v>1.533</v>
@@ -19112,16 +19115,16 @@
         <v>8039391</v>
       </c>
       <c r="C217" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D217" s="2">
         <v>45390.83333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F217" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G217">
         <v>3</v>
@@ -19130,7 +19133,7 @@
         <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J217">
         <v>1.666</v>
@@ -19198,16 +19201,16 @@
         <v>8021846</v>
       </c>
       <c r="C218" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D218" s="2">
         <v>45393.83333333334</v>
       </c>
       <c r="E218" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19216,7 +19219,7 @@
         <v>3</v>
       </c>
       <c r="I218" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J218">
         <v>6</v>
@@ -19284,16 +19287,16 @@
         <v>8088970</v>
       </c>
       <c r="C219" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D219" s="2">
         <v>45396.66666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F219" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19302,7 +19305,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J219">
         <v>2.4</v>
@@ -19370,16 +19373,16 @@
         <v>8089547</v>
       </c>
       <c r="C220" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D220" s="2">
         <v>45396.77083333334</v>
       </c>
       <c r="E220" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F220" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -19388,7 +19391,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J220">
         <v>2.6</v>
@@ -19456,16 +19459,16 @@
         <v>8089492</v>
       </c>
       <c r="C221" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D221" s="2">
         <v>45396.85416666666</v>
       </c>
       <c r="E221" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F221" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -19474,7 +19477,7 @@
         <v>1</v>
       </c>
       <c r="I221" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J221">
         <v>1.533</v>
@@ -19542,16 +19545,16 @@
         <v>8090056</v>
       </c>
       <c r="C222" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D222" s="2">
         <v>45397.83333333334</v>
       </c>
       <c r="E222" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F222" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19560,7 +19563,7 @@
         <v>1</v>
       </c>
       <c r="I222" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J222">
         <v>2.2</v>
@@ -19628,16 +19631,16 @@
         <v>8091186</v>
       </c>
       <c r="C223" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D223" s="2">
         <v>45399.66666666666</v>
       </c>
       <c r="E223" t="s">
+        <v>40</v>
+      </c>
+      <c r="F223" t="s">
         <v>39</v>
-      </c>
-      <c r="F223" t="s">
-        <v>38</v>
       </c>
       <c r="G223">
         <v>3</v>
@@ -19646,7 +19649,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J223">
         <v>2.1</v>
@@ -19714,16 +19717,16 @@
         <v>8090748</v>
       </c>
       <c r="C224" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D224" s="2">
         <v>45399.875</v>
       </c>
       <c r="E224" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F224" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G224">
         <v>2</v>
@@ -19732,7 +19735,7 @@
         <v>1</v>
       </c>
       <c r="I224" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J224">
         <v>1.533</v>
@@ -19800,16 +19803,16 @@
         <v>8090539</v>
       </c>
       <c r="C225" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D225" s="2">
         <v>45400.83333333334</v>
       </c>
       <c r="E225" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F225" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -19818,7 +19821,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J225">
         <v>1.363</v>
@@ -19886,16 +19889,16 @@
         <v>8091314</v>
       </c>
       <c r="C226" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D226" s="2">
         <v>45400.875</v>
       </c>
       <c r="E226" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F226" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G226">
         <v>6</v>
@@ -19904,7 +19907,7 @@
         <v>8</v>
       </c>
       <c r="I226" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J226">
         <v>1.363</v>
@@ -19962,6 +19965,71 @@
       </c>
       <c r="AB226">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:28">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>27</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" s="2">
+        <v>45410.70833333334</v>
+      </c>
+      <c r="E227" t="s">
+        <v>34</v>
+      </c>
+      <c r="F227" t="s">
+        <v>40</v>
+      </c>
+      <c r="J227">
+        <v>1.444</v>
+      </c>
+      <c r="K227">
+        <v>4</v>
+      </c>
+      <c r="L227">
+        <v>6.5</v>
+      </c>
+      <c r="M227">
+        <v>1.363</v>
+      </c>
+      <c r="N227">
+        <v>4.333</v>
+      </c>
+      <c r="O227">
+        <v>10</v>
+      </c>
+      <c r="P227">
+        <v>-1.25</v>
+      </c>
+      <c r="Q227">
+        <v>1.825</v>
+      </c>
+      <c r="R227">
+        <v>1.975</v>
+      </c>
+      <c r="S227">
+        <v>2.75</v>
+      </c>
+      <c r="T227">
+        <v>1.85</v>
+      </c>
+      <c r="U227">
+        <v>1.95</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -9394,7 +9394,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7331149</v>
+        <v>7331148</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9403,13 +9403,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9418,25 +9418,25 @@
         <v>48</v>
       </c>
       <c r="J104">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="M104">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="N104">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="O104">
-        <v>2.8</v>
+        <v>16</v>
       </c>
       <c r="P104">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q104">
         <v>1.8</v>
@@ -9445,16 +9445,16 @@
         <v>2</v>
       </c>
       <c r="S104">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T104">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
-        <v>1.3</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W104">
         <v>-1</v>
@@ -9463,16 +9463,16 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9480,7 +9480,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7331148</v>
+        <v>7331149</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9489,13 +9489,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="E105" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9504,25 +9504,25 @@
         <v>48</v>
       </c>
       <c r="J105">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="K105">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="L105">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="N105">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="O105">
-        <v>16</v>
+        <v>2.8</v>
       </c>
       <c r="P105">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q105">
         <v>1.8</v>
@@ -9531,16 +9531,16 @@
         <v>2</v>
       </c>
       <c r="S105">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T105">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>0.1659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="W105">
         <v>-1</v>
@@ -9549,16 +9549,16 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB105">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9652,7 +9652,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7331150</v>
+        <v>7329845</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9661,76 +9661,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J107">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="K107">
+        <v>3.4</v>
+      </c>
+      <c r="L107">
+        <v>2.05</v>
+      </c>
+      <c r="M107">
+        <v>3.4</v>
+      </c>
+      <c r="N107">
         <v>3.5</v>
       </c>
-      <c r="L107">
-        <v>2.875</v>
-      </c>
-      <c r="M107">
-        <v>2.4</v>
-      </c>
-      <c r="N107">
-        <v>3.6</v>
-      </c>
       <c r="O107">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="P107">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q107">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="R107">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S107">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V107">
         <v>-1</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X107">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="Z107">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9738,7 +9738,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7329845</v>
+        <v>7331150</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -9747,76 +9747,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="E108" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H108">
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J108">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="K108">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L108">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="M108">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N108">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O108">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="P108">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q108">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="R108">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
         <v>-1</v>
       </c>
       <c r="W108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -12834,7 +12834,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532412</v>
+        <v>7532414</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -12843,76 +12843,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J144">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="K144">
         <v>3.75</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M144">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="N144">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="O144">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="P144">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q144">
+        <v>2</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
+        <v>3</v>
+      </c>
+      <c r="T144">
+        <v>1.85</v>
+      </c>
+      <c r="U144">
         <v>1.95</v>
       </c>
-      <c r="R144">
-        <v>1.85</v>
-      </c>
-      <c r="S144">
-        <v>2.75</v>
-      </c>
-      <c r="T144">
-        <v>1.925</v>
-      </c>
-      <c r="U144">
-        <v>1.875</v>
-      </c>
       <c r="V144">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA144">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12920,7 +12920,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532414</v>
+        <v>7532412</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -12929,76 +12929,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I145" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J145">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="K145">
         <v>3.75</v>
       </c>
       <c r="L145">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="N145">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O145">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="P145">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S145">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T145">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB145">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13178,7 +13178,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532420</v>
+        <v>7532421</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13187,13 +13187,13 @@
         <v>45265.875</v>
       </c>
       <c r="E148" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13202,43 +13202,43 @@
         <v>48</v>
       </c>
       <c r="J148">
+        <v>1.4</v>
+      </c>
+      <c r="K148">
+        <v>4.5</v>
+      </c>
+      <c r="L148">
+        <v>7.5</v>
+      </c>
+      <c r="M148">
         <v>1.333</v>
       </c>
-      <c r="K148">
-        <v>5</v>
-      </c>
-      <c r="L148">
-        <v>8</v>
-      </c>
-      <c r="M148">
-        <v>1.3</v>
-      </c>
       <c r="N148">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O148">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="P148">
         <v>-1.5</v>
       </c>
       <c r="Q148">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S148">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T148">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13247,16 +13247,16 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13350,7 +13350,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532421</v>
+        <v>7532420</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13359,13 +13359,13 @@
         <v>45265.875</v>
       </c>
       <c r="E150" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F150" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13374,43 +13374,43 @@
         <v>48</v>
       </c>
       <c r="J150">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="K150">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L150">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M150">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="N150">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O150">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="P150">
         <v>-1.5</v>
       </c>
       <c r="Q150">
+        <v>1.8</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>3.25</v>
+      </c>
+      <c r="T150">
+        <v>1.95</v>
+      </c>
+      <c r="U150">
         <v>1.85</v>
       </c>
-      <c r="R150">
-        <v>1.95</v>
-      </c>
-      <c r="S150">
-        <v>3</v>
-      </c>
-      <c r="T150">
-        <v>1.825</v>
-      </c>
-      <c r="U150">
-        <v>1.975</v>
-      </c>
       <c r="V150">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="W150">
         <v>-1</v>
@@ -13419,16 +13419,16 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB150">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="151" spans="1:28">
@@ -18596,7 +18596,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>8039389</v>
+        <v>8039390</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -18605,76 +18605,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="E211" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F211" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J211">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K211">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L211">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M211">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="N211">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O211">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="P211">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q211">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R211">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S211">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T211">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U211">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V211">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W211">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB211">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18682,7 +18682,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>8039390</v>
+        <v>8039389</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -18691,76 +18691,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="E212" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F212" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J212">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="K212">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L212">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M212">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="N212">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O212">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P212">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q212">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R212">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T212">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U212">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18854,7 +18854,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>8038943</v>
+        <v>8039392</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -18863,10 +18863,10 @@
         <v>45389.70833333334</v>
       </c>
       <c r="E214" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G214">
         <v>2</v>
@@ -18878,43 +18878,43 @@
         <v>48</v>
       </c>
       <c r="J214">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K214">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L214">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="M214">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="N214">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O214">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="P214">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q214">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S214">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T214">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U214">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -18923,16 +18923,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA214">
+        <v>0.45</v>
+      </c>
+      <c r="AB214">
         <v>-0.5</v>
-      </c>
-      <c r="AB214">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -18940,7 +18940,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>8039392</v>
+        <v>8038943</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -18949,10 +18949,10 @@
         <v>45389.70833333334</v>
       </c>
       <c r="E215" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F215" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18964,43 +18964,43 @@
         <v>48</v>
       </c>
       <c r="J215">
+        <v>2.3</v>
+      </c>
+      <c r="K215">
+        <v>3.5</v>
+      </c>
+      <c r="L215">
+        <v>2.625</v>
+      </c>
+      <c r="M215">
+        <v>2.8</v>
+      </c>
+      <c r="N215">
+        <v>3.6</v>
+      </c>
+      <c r="O215">
+        <v>2.375</v>
+      </c>
+      <c r="P215">
+        <v>0.25</v>
+      </c>
+      <c r="Q215">
+        <v>1.8</v>
+      </c>
+      <c r="R215">
         <v>2</v>
       </c>
-      <c r="K215">
+      <c r="S215">
         <v>3.25</v>
       </c>
-      <c r="L215">
-        <v>3.4</v>
-      </c>
-      <c r="M215">
-        <v>1.727</v>
-      </c>
-      <c r="N215">
-        <v>4</v>
-      </c>
-      <c r="O215">
-        <v>4.5</v>
-      </c>
-      <c r="P215">
-        <v>-0.75</v>
-      </c>
-      <c r="Q215">
-        <v>1.9</v>
-      </c>
-      <c r="R215">
-        <v>1.9</v>
-      </c>
-      <c r="S215">
-        <v>2.75</v>
-      </c>
       <c r="T215">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V215">
-        <v>0.7270000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19009,16 +19009,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="Z215">
+        <v>-1</v>
+      </c>
+      <c r="AA215">
         <v>-0.5</v>
       </c>
-      <c r="AA215">
-        <v>0.45</v>
-      </c>
       <c r="AB215">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="216" spans="1:28">

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>8119939</t>
+  </si>
+  <si>
+    <t>8119940</t>
   </si>
   <si>
     <t>Bolivia Primera División</t>
@@ -528,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB227"/>
+  <dimension ref="A1:AB228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,16 +628,16 @@
         <v>6504822</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45079.83333333334</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -643,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2">
         <v>1.444</v>
@@ -711,16 +714,16 @@
         <v>6503942</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45080.66666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -729,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J3">
         <v>2.5</v>
@@ -797,16 +800,16 @@
         <v>6505492</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45080.77083333334</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -815,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4">
         <v>3.2</v>
@@ -883,16 +886,16 @@
         <v>6504570</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45080.875</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -901,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5">
         <v>1.909</v>
@@ -969,16 +972,16 @@
         <v>6504571</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -987,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6">
         <v>1.8</v>
@@ -1055,16 +1058,16 @@
         <v>6503943</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45081.77083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1073,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7">
         <v>1.166</v>
@@ -1141,16 +1144,16 @@
         <v>6504309</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45081.85416666666</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1159,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8">
         <v>2.5</v>
@@ -1227,16 +1230,16 @@
         <v>6504283</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45082.66666666666</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1245,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9">
         <v>2.2</v>
@@ -1313,16 +1316,16 @@
         <v>6669973</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45088.85416666666</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1331,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J10">
         <v>1.6</v>
@@ -1399,16 +1402,16 @@
         <v>6504823</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45100.66666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1417,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J11">
         <v>2.875</v>
@@ -1485,16 +1488,16 @@
         <v>6504824</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45100.83333333334</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1503,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J12">
         <v>1.727</v>
@@ -1571,16 +1574,16 @@
         <v>6503944</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45101.66666666666</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>6</v>
@@ -1589,7 +1592,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1657,16 +1660,16 @@
         <v>6503945</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45101.875</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1675,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J14">
         <v>1.8</v>
@@ -1743,16 +1746,16 @@
         <v>6504572</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1761,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J15">
         <v>1.2</v>
@@ -1829,16 +1832,16 @@
         <v>6504573</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45102.77083333334</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1847,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J16">
         <v>1.727</v>
@@ -1915,16 +1918,16 @@
         <v>6504284</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45102.85416666666</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -1933,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J17">
         <v>1.909</v>
@@ -2001,16 +2004,16 @@
         <v>6504310</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45103.83333333334</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2019,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2087,16 +2090,16 @@
         <v>6504574</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45114.875</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2105,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J19">
         <v>1.727</v>
@@ -2173,16 +2176,16 @@
         <v>6505493</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45115.66666666666</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2191,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J20">
         <v>1.666</v>
@@ -2259,16 +2262,16 @@
         <v>6504311</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45115.77083333334</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2277,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J21">
         <v>1.285</v>
@@ -2345,16 +2348,16 @@
         <v>6504285</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45115.875</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2363,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J22">
         <v>1.615</v>
@@ -2431,16 +2434,16 @@
         <v>6504825</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -2449,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J23">
         <v>1.5</v>
@@ -2517,16 +2520,16 @@
         <v>6503946</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45116.77083333334</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -2535,7 +2538,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J24">
         <v>1.727</v>
@@ -2603,16 +2606,16 @@
         <v>6503947</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2621,7 +2624,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J25">
         <v>3.3</v>
@@ -2689,16 +2692,16 @@
         <v>6504312</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45117.875</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2707,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J26">
         <v>1.5</v>
@@ -2775,16 +2778,16 @@
         <v>6504313</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45122.66666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2793,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J27">
         <v>1.75</v>
@@ -2861,16 +2864,16 @@
         <v>6504831</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45122.66666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2879,7 +2882,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J28">
         <v>3.3</v>
@@ -2947,16 +2950,16 @@
         <v>6503948</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45123.66666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2965,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J29">
         <v>2.625</v>
@@ -3033,16 +3036,16 @@
         <v>6504286</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45123.77083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3051,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J30">
         <v>2.45</v>
@@ -3119,16 +3122,16 @@
         <v>6504575</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45123.85416666666</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3137,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J31">
         <v>2.2</v>
@@ -3205,16 +3208,16 @@
         <v>6504576</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45124.66666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3223,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J32">
         <v>1.833</v>
@@ -3291,16 +3294,16 @@
         <v>6503949</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45124.77083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3309,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J33">
         <v>1.3</v>
@@ -3377,16 +3380,16 @@
         <v>6504287</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45124.875</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3395,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J34">
         <v>1.666</v>
@@ -3463,16 +3466,16 @@
         <v>6504826</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45129.66666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3481,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J35">
         <v>1.571</v>
@@ -3549,16 +3552,16 @@
         <v>6504288</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45129.77083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3567,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J36">
         <v>1.5</v>
@@ -3635,16 +3638,16 @@
         <v>6504314</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45130.66666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3653,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J37">
         <v>2.3</v>
@@ -3721,16 +3724,16 @@
         <v>6503950</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45130.77083333334</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3739,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J38">
         <v>1.909</v>
@@ -3807,16 +3810,16 @@
         <v>6503951</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45130.85416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3825,7 +3828,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J39">
         <v>1.727</v>
@@ -3893,16 +3896,16 @@
         <v>6504832</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45131.66666666666</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3911,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J40">
         <v>1.2</v>
@@ -3979,16 +3982,16 @@
         <v>6504289</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45131.79166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3997,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J41">
         <v>1.727</v>
@@ -4065,16 +4068,16 @@
         <v>6504315</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45131.875</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4083,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J42">
         <v>1.8</v>
@@ -4151,16 +4154,16 @@
         <v>6503952</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45135.85416666666</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4169,7 +4172,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J43">
         <v>1.909</v>
@@ -4237,16 +4240,16 @@
         <v>6504290</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45136.66666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4255,7 +4258,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J44">
         <v>2.5</v>
@@ -4323,16 +4326,16 @@
         <v>6503953</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45136.77083333334</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -4341,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J45">
         <v>1.2</v>
@@ -4409,16 +4412,16 @@
         <v>6504316</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45136.875</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4427,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J46">
         <v>2.625</v>
@@ -4495,16 +4498,16 @@
         <v>6504578</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45137.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4513,7 +4516,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -4581,16 +4584,16 @@
         <v>6504291</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45137.66666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4599,7 +4602,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -4667,16 +4670,16 @@
         <v>6504577</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45137.85416666666</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4685,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4753,16 +4756,16 @@
         <v>6504833</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45138.66666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4771,7 +4774,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J50">
         <v>2.9</v>
@@ -4839,16 +4842,16 @@
         <v>6970009</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45142.66666666666</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4857,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J51">
         <v>1.2</v>
@@ -4925,16 +4928,16 @@
         <v>6970390</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45142.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>6</v>
@@ -4943,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J52">
         <v>1.333</v>
@@ -5011,16 +5014,16 @@
         <v>6970010</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45143.66666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G53">
         <v>6</v>
@@ -5029,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J53">
         <v>1.333</v>
@@ -5097,16 +5100,16 @@
         <v>6970011</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45143.77083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5115,7 +5118,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J54">
         <v>2.1</v>
@@ -5183,16 +5186,16 @@
         <v>6970012</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45143.875</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5201,7 +5204,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J55">
         <v>1.909</v>
@@ -5269,16 +5272,16 @@
         <v>6970013</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45144.66666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5287,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J56">
         <v>1.615</v>
@@ -5355,16 +5358,16 @@
         <v>6970014</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45144.77083333334</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5373,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J57">
         <v>3.3</v>
@@ -5441,16 +5444,16 @@
         <v>6970015</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45144.85416666666</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5459,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J58">
         <v>3.75</v>
@@ -5527,16 +5530,16 @@
         <v>6970267</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45149.66666666666</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5545,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J59">
         <v>2.2</v>
@@ -5613,16 +5616,16 @@
         <v>6970016</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -5631,7 +5634,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J60">
         <v>2.1</v>
@@ -5699,16 +5702,16 @@
         <v>6970017</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45150.77083333334</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5717,7 +5720,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J61">
         <v>1.909</v>
@@ -5785,16 +5788,16 @@
         <v>6970018</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45150.875</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5803,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J62">
         <v>1.727</v>
@@ -5871,16 +5874,16 @@
         <v>6970019</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45151.66666666666</v>
       </c>
       <c r="E63" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" t="s">
         <v>45</v>
-      </c>
-      <c r="F63" t="s">
-        <v>44</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5889,7 +5892,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J63">
         <v>2.2</v>
@@ -5957,16 +5960,16 @@
         <v>6970020</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45151.77083333334</v>
       </c>
       <c r="E64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" t="s">
         <v>34</v>
-      </c>
-      <c r="F64" t="s">
-        <v>33</v>
       </c>
       <c r="G64">
         <v>4</v>
@@ -5975,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J64">
         <v>1.25</v>
@@ -6043,16 +6046,16 @@
         <v>6970021</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45151.85416666666</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G65">
         <v>4</v>
@@ -6061,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J65">
         <v>1.615</v>
@@ -6129,16 +6132,16 @@
         <v>6970022</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45152.85416666666</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6147,7 +6150,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J66">
         <v>1.5</v>
@@ -6215,16 +6218,16 @@
         <v>6970023</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45156.83333333334</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6233,7 +6236,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J67">
         <v>2.3</v>
@@ -6301,16 +6304,16 @@
         <v>6970025</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45156.875</v>
       </c>
       <c r="E68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6319,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J68">
         <v>1.071</v>
@@ -6387,16 +6390,16 @@
         <v>6970024</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45157.66666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G69">
         <v>5</v>
@@ -6405,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J69">
         <v>2.2</v>
@@ -6473,16 +6476,16 @@
         <v>6970268</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45157.875</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6491,7 +6494,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J70">
         <v>1.5</v>
@@ -6559,16 +6562,16 @@
         <v>6970269</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45158.66666666666</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6577,7 +6580,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J71">
         <v>2.375</v>
@@ -6645,16 +6648,16 @@
         <v>6970026</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45158.77083333334</v>
       </c>
       <c r="E72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6663,7 +6666,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J72">
         <v>1.25</v>
@@ -6731,16 +6734,16 @@
         <v>6970028</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45159.875</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6749,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J73">
         <v>1.615</v>
@@ -6817,16 +6820,16 @@
         <v>7105139</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45161.66666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6835,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J74">
         <v>1.666</v>
@@ -6903,16 +6906,16 @@
         <v>6970030</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45161.875</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6921,7 +6924,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J75">
         <v>1.062</v>
@@ -6989,16 +6992,16 @@
         <v>6970031</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45162.66666666666</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7007,7 +7010,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J76">
         <v>1.363</v>
@@ -7075,16 +7078,16 @@
         <v>6970032</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45162.89583333334</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7093,7 +7096,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J77">
         <v>1.909</v>
@@ -7161,16 +7164,16 @@
         <v>6970033</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45163.875</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7179,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J78">
         <v>1.4</v>
@@ -7247,16 +7250,16 @@
         <v>6970034</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -7265,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7333,17 +7336,17 @@
         <v>7285413</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45202.66666666666</v>
       </c>
       <c r="E80" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" t="s">
         <v>40</v>
       </c>
-      <c r="F80" t="s">
-        <v>39</v>
-      </c>
       <c r="G80">
         <v>0</v>
       </c>
@@ -7351,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J80">
         <v>2.375</v>
@@ -7419,16 +7422,16 @@
         <v>7285412</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45202.79166666666</v>
       </c>
       <c r="E81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F81" t="s">
         <v>44</v>
-      </c>
-      <c r="F81" t="s">
-        <v>43</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7437,7 +7440,7 @@
         <v>3</v>
       </c>
       <c r="I81" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J81">
         <v>2.375</v>
@@ -7505,16 +7508,16 @@
         <v>7285416</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45202.89583333334</v>
       </c>
       <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
         <v>42</v>
-      </c>
-      <c r="F82" t="s">
-        <v>41</v>
       </c>
       <c r="G82">
         <v>5</v>
@@ -7523,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J82">
         <v>1.444</v>
@@ -7591,16 +7594,16 @@
         <v>7285411</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45203.66666666666</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7609,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J83">
         <v>2.55</v>
@@ -7677,16 +7680,16 @@
         <v>7285417</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45203.79166666666</v>
       </c>
       <c r="E84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7695,7 +7698,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J84">
         <v>1.444</v>
@@ -7763,16 +7766,16 @@
         <v>7285414</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45203.89583333334</v>
       </c>
       <c r="E85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7781,7 +7784,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J85">
         <v>2.7</v>
@@ -7849,16 +7852,16 @@
         <v>7285418</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45204.66666666666</v>
       </c>
       <c r="E86" t="s">
+        <v>39</v>
+      </c>
+      <c r="F86" t="s">
         <v>38</v>
-      </c>
-      <c r="F86" t="s">
-        <v>37</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7867,7 +7870,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J86">
         <v>1.615</v>
@@ -7935,16 +7938,16 @@
         <v>7285415</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45204.875</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7953,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J87">
         <v>1.833</v>
@@ -8021,16 +8024,16 @@
         <v>7296594</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45206.66666666666</v>
       </c>
       <c r="E88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8039,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J88">
         <v>2.15</v>
@@ -8107,16 +8110,16 @@
         <v>7296273</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45206.77083333334</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8125,7 +8128,7 @@
         <v>4</v>
       </c>
       <c r="I89" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J89">
         <v>1.4</v>
@@ -8193,16 +8196,16 @@
         <v>7296274</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45207.66666666666</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8211,7 +8214,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J90">
         <v>1.363</v>
@@ -8279,16 +8282,16 @@
         <v>7296275</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45207.77083333334</v>
       </c>
       <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
         <v>43</v>
-      </c>
-      <c r="F91" t="s">
-        <v>42</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8297,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J91">
         <v>3.3</v>
@@ -8365,16 +8368,16 @@
         <v>7296595</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45207.85416666666</v>
       </c>
       <c r="E92" t="s">
+        <v>36</v>
+      </c>
+      <c r="F92" t="s">
         <v>35</v>
-      </c>
-      <c r="F92" t="s">
-        <v>34</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8383,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J92">
         <v>2.3</v>
@@ -8451,16 +8454,16 @@
         <v>7296276</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45208.66319444445</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8469,7 +8472,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J93">
         <v>2.375</v>
@@ -8537,16 +8540,16 @@
         <v>7288493</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45208.79166666666</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8555,7 +8558,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J94">
         <v>1.4</v>
@@ -8623,16 +8626,16 @@
         <v>7296596</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45208.89583333334</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8641,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J95">
         <v>2.45</v>
@@ -8709,16 +8712,16 @@
         <v>7331144</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45214.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8727,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J96">
         <v>2.875</v>
@@ -8795,16 +8798,16 @@
         <v>7330592</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>45218.83333333334</v>
       </c>
       <c r="E97" t="s">
+        <v>31</v>
+      </c>
+      <c r="F97" t="s">
         <v>30</v>
-      </c>
-      <c r="F97" t="s">
-        <v>29</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -8813,7 +8816,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J97">
         <v>2.25</v>
@@ -8881,16 +8884,16 @@
         <v>7331145</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
         <v>45219.66666666666</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8899,7 +8902,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J98">
         <v>1.444</v>
@@ -8967,16 +8970,16 @@
         <v>7329842</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2">
         <v>45219.83333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8985,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J99">
         <v>1.166</v>
@@ -9053,16 +9056,16 @@
         <v>7331146</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>45219.89583333334</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9071,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J100">
         <v>2.45</v>
@@ -9139,16 +9142,16 @@
         <v>7329843</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D101" s="2">
         <v>45220.75</v>
       </c>
       <c r="E101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9157,7 +9160,7 @@
         <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J101">
         <v>1.363</v>
@@ -9225,16 +9228,16 @@
         <v>7331147</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2">
         <v>45220.875</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9243,7 +9246,7 @@
         <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J102">
         <v>1.615</v>
@@ -9311,16 +9314,16 @@
         <v>7361187</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2">
         <v>45221.70833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9329,7 +9332,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J103">
         <v>1.909</v>
@@ -9397,16 +9400,16 @@
         <v>7331148</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2">
         <v>45234.66666666666</v>
       </c>
       <c r="E104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9415,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J104">
         <v>1.2</v>
@@ -9483,16 +9486,16 @@
         <v>7331149</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
         <v>45234.66666666666</v>
       </c>
       <c r="E105" t="s">
+        <v>38</v>
+      </c>
+      <c r="F105" t="s">
         <v>37</v>
-      </c>
-      <c r="F105" t="s">
-        <v>36</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9501,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J105">
         <v>1.8</v>
@@ -9569,16 +9572,16 @@
         <v>7329844</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2">
         <v>45234.8125</v>
       </c>
       <c r="E106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9587,7 +9590,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J106">
         <v>2.55</v>
@@ -9655,16 +9658,16 @@
         <v>7329845</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
         <v>45235.66666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9673,7 +9676,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J107">
         <v>3.1</v>
@@ -9741,16 +9744,16 @@
         <v>7331150</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2">
         <v>45235.66666666666</v>
       </c>
       <c r="E108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9759,7 +9762,7 @@
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J108">
         <v>2.15</v>
@@ -9827,16 +9830,16 @@
         <v>7330274</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2">
         <v>45235.85416666666</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9845,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J109">
         <v>2.25</v>
@@ -9913,16 +9916,16 @@
         <v>7331151</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2">
         <v>45236.79166666666</v>
       </c>
       <c r="E110" t="s">
+        <v>40</v>
+      </c>
+      <c r="F110" t="s">
         <v>39</v>
-      </c>
-      <c r="F110" t="s">
-        <v>38</v>
       </c>
       <c r="G110">
         <v>4</v>
@@ -9931,7 +9934,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J110">
         <v>1.25</v>
@@ -9999,16 +10002,16 @@
         <v>7331152</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D111" s="2">
         <v>45236.875</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G111">
         <v>3</v>
@@ -10017,7 +10020,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J111">
         <v>1.7</v>
@@ -10085,16 +10088,16 @@
         <v>7438471</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2">
         <v>45237.66666666666</v>
       </c>
       <c r="E112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G112">
         <v>3</v>
@@ -10103,7 +10106,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J112">
         <v>1.3</v>
@@ -10171,16 +10174,16 @@
         <v>7438472</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2">
         <v>45237.85416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G113">
         <v>4</v>
@@ -10189,7 +10192,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J113">
         <v>4</v>
@@ -10257,16 +10260,16 @@
         <v>7438452</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2">
         <v>45238.66666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G114">
         <v>4</v>
@@ -10275,7 +10278,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J114">
         <v>5</v>
@@ -10343,16 +10346,16 @@
         <v>7332665</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2">
         <v>45240.79166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10361,7 +10364,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J115">
         <v>2.1</v>
@@ -10429,16 +10432,16 @@
         <v>7332666</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D116" s="2">
         <v>45240.875</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G116">
         <v>8</v>
@@ -10447,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J116">
         <v>1.083</v>
@@ -10515,16 +10518,16 @@
         <v>7332667</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D117" s="2">
         <v>45241.66666666666</v>
       </c>
       <c r="E117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10533,7 +10536,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J117">
         <v>2.1</v>
@@ -10601,16 +10604,16 @@
         <v>7332668</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2">
         <v>45241.77083333334</v>
       </c>
       <c r="E118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -10619,7 +10622,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J118">
         <v>1.2</v>
@@ -10687,16 +10690,16 @@
         <v>7332669</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D119" s="2">
         <v>45241.875</v>
       </c>
       <c r="E119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10705,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J119">
         <v>2.375</v>
@@ -10773,16 +10776,16 @@
         <v>7332670</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D120" s="2">
         <v>45242.77083333334</v>
       </c>
       <c r="E120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10791,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J120">
         <v>2.1</v>
@@ -10859,16 +10862,16 @@
         <v>7332671</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D121" s="2">
         <v>45242.85416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10877,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J121">
         <v>1.8</v>
@@ -10945,16 +10948,16 @@
         <v>7332672</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2">
         <v>45243.85416666666</v>
       </c>
       <c r="E122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -10963,7 +10966,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J122">
         <v>1.615</v>
@@ -11031,16 +11034,16 @@
         <v>7462540</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2">
         <v>45248.66666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11049,7 +11052,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J123">
         <v>1.75</v>
@@ -11117,16 +11120,16 @@
         <v>7462535</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2">
         <v>45248.77083333334</v>
       </c>
       <c r="E124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G124">
         <v>6</v>
@@ -11135,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J124">
         <v>1.363</v>
@@ -11203,16 +11206,16 @@
         <v>7462536</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2">
         <v>45249.66666666666</v>
       </c>
       <c r="E125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -11221,7 +11224,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J125">
         <v>2.375</v>
@@ -11289,16 +11292,16 @@
         <v>7462537</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D126" s="2">
         <v>45249.77083333334</v>
       </c>
       <c r="E126" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11307,7 +11310,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J126">
         <v>1.444</v>
@@ -11375,16 +11378,16 @@
         <v>7462541</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D127" s="2">
         <v>45249.85416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11393,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J127">
         <v>1.666</v>
@@ -11461,16 +11464,16 @@
         <v>7462542</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D128" s="2">
         <v>45253.66666666666</v>
       </c>
       <c r="E128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G128">
         <v>3</v>
@@ -11479,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J128">
         <v>1.363</v>
@@ -11547,16 +11550,16 @@
         <v>7462738</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2">
         <v>45253.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11565,7 +11568,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J129">
         <v>4</v>
@@ -11633,16 +11636,16 @@
         <v>7462538</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2">
         <v>45253.85416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11651,7 +11654,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J130">
         <v>1.444</v>
@@ -11719,16 +11722,16 @@
         <v>7506107</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2">
         <v>45254.85416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11737,7 +11740,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J131">
         <v>1.727</v>
@@ -11805,16 +11808,16 @@
         <v>7506108</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D132" s="2">
         <v>45255.66666666666</v>
       </c>
       <c r="E132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11823,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J132">
         <v>1.909</v>
@@ -11891,16 +11894,16 @@
         <v>7506109</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D133" s="2">
         <v>45255.77083333334</v>
       </c>
       <c r="E133" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G133">
         <v>6</v>
@@ -11909,7 +11912,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J133">
         <v>1.95</v>
@@ -11977,16 +11980,16 @@
         <v>7506110</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D134" s="2">
         <v>45255.85416666666</v>
       </c>
       <c r="E134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11995,7 +11998,7 @@
         <v>7</v>
       </c>
       <c r="I134" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J134">
         <v>3</v>
@@ -12063,16 +12066,16 @@
         <v>7506111</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D135" s="2">
         <v>45256.66666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12081,7 +12084,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J135">
         <v>2.25</v>
@@ -12149,16 +12152,16 @@
         <v>7506112</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D136" s="2">
         <v>45256.77083333334</v>
       </c>
       <c r="E136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12167,7 +12170,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J136">
         <v>1.8</v>
@@ -12235,16 +12238,16 @@
         <v>7506113</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D137" s="2">
         <v>45256.85416666666</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12253,7 +12256,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J137">
         <v>1.444</v>
@@ -12321,16 +12324,16 @@
         <v>7506114</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2">
         <v>45257.875</v>
       </c>
       <c r="E138" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12339,7 +12342,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J138">
         <v>1.444</v>
@@ -12407,16 +12410,16 @@
         <v>7532411</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D139" s="2">
         <v>45261.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12425,7 +12428,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J139">
         <v>1.666</v>
@@ -12493,16 +12496,16 @@
         <v>7532429</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D140" s="2">
         <v>45261.83333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G140">
         <v>4</v>
@@ -12511,7 +12514,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J140">
         <v>1.3</v>
@@ -12579,16 +12582,16 @@
         <v>7532416</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D141" s="2">
         <v>45261.89583333334</v>
       </c>
       <c r="E141" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12597,7 +12600,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J141">
         <v>2.45</v>
@@ -12662,10 +12665,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532413</v>
+        <v>7532414</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2">
         <v>45262.66666666666</v>
@@ -12674,73 +12677,73 @@
         <v>45</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J142">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="K142">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L142">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="M142">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="N142">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="O142">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="P142">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q142">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T142">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V142">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12748,58 +12751,58 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532430</v>
+        <v>7532413</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D143" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G143">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J143">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="K143">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L143">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="M143">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="N143">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O143">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="P143">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q143">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S143">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T143">
         <v>1.9</v>
@@ -12808,25 +12811,25 @@
         <v>1.9</v>
       </c>
       <c r="V143">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA143">
+        <v>-1</v>
+      </c>
+      <c r="AB143">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB143">
-        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12834,49 +12837,49 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532414</v>
+        <v>7532430</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G144">
+        <v>4</v>
+      </c>
+      <c r="H144">
         <v>1</v>
       </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
       <c r="I144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J144">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="K144">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L144">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M144">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="N144">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O144">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="P144">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -12888,13 +12891,13 @@
         <v>3</v>
       </c>
       <c r="T144">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -12903,16 +12906,16 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB144">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12923,16 +12926,16 @@
         <v>7532412</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -12941,7 +12944,7 @@
         <v>3</v>
       </c>
       <c r="I145" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J145">
         <v>1.727</v>
@@ -13009,16 +13012,16 @@
         <v>7532415</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D146" s="2">
         <v>45263.79166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G146">
         <v>6</v>
@@ -13027,7 +13030,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J146">
         <v>1.285</v>
@@ -13095,16 +13098,16 @@
         <v>7532418</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2">
         <v>45265.66666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G147">
         <v>3</v>
@@ -13113,7 +13116,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J147">
         <v>5</v>
@@ -13178,10 +13181,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532421</v>
+        <v>7532419</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2">
         <v>45265.875</v>
@@ -13193,52 +13196,52 @@
         <v>44</v>
       </c>
       <c r="G148">
+        <v>3</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148" t="s">
+        <v>49</v>
+      </c>
+      <c r="J148">
+        <v>2.2</v>
+      </c>
+      <c r="K148">
+        <v>2.5</v>
+      </c>
+      <c r="L148">
+        <v>4.5</v>
+      </c>
+      <c r="M148">
+        <v>2.375</v>
+      </c>
+      <c r="N148">
+        <v>2.45</v>
+      </c>
+      <c r="O148">
+        <v>4.5</v>
+      </c>
+      <c r="P148">
+        <v>-0.25</v>
+      </c>
+      <c r="Q148">
+        <v>1.9</v>
+      </c>
+      <c r="R148">
+        <v>1.9</v>
+      </c>
+      <c r="S148">
         <v>2</v>
       </c>
-      <c r="H148">
-        <v>0</v>
-      </c>
-      <c r="I148" t="s">
-        <v>48</v>
-      </c>
-      <c r="J148">
-        <v>1.4</v>
-      </c>
-      <c r="K148">
-        <v>4.5</v>
-      </c>
-      <c r="L148">
-        <v>7.5</v>
-      </c>
-      <c r="M148">
-        <v>1.333</v>
-      </c>
-      <c r="N148">
-        <v>5.5</v>
-      </c>
-      <c r="O148">
-        <v>9.5</v>
-      </c>
-      <c r="P148">
-        <v>-1.5</v>
-      </c>
-      <c r="Q148">
+      <c r="T148">
+        <v>1.95</v>
+      </c>
+      <c r="U148">
         <v>1.85</v>
       </c>
-      <c r="R148">
-        <v>1.95</v>
-      </c>
-      <c r="S148">
-        <v>3</v>
-      </c>
-      <c r="T148">
-        <v>1.825</v>
-      </c>
-      <c r="U148">
-        <v>1.975</v>
-      </c>
       <c r="V148">
-        <v>0.333</v>
+        <v>1.375</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13247,16 +13250,16 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB148">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13264,67 +13267,67 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532419</v>
+        <v>7532421</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D149" s="2">
         <v>45265.875</v>
       </c>
       <c r="E149" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G149">
+        <v>2</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149" t="s">
+        <v>49</v>
+      </c>
+      <c r="J149">
+        <v>1.4</v>
+      </c>
+      <c r="K149">
+        <v>4.5</v>
+      </c>
+      <c r="L149">
+        <v>7.5</v>
+      </c>
+      <c r="M149">
+        <v>1.333</v>
+      </c>
+      <c r="N149">
+        <v>5.5</v>
+      </c>
+      <c r="O149">
+        <v>9.5</v>
+      </c>
+      <c r="P149">
+        <v>-1.5</v>
+      </c>
+      <c r="Q149">
+        <v>1.85</v>
+      </c>
+      <c r="R149">
+        <v>1.95</v>
+      </c>
+      <c r="S149">
         <v>3</v>
       </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
-      <c r="I149" t="s">
-        <v>48</v>
-      </c>
-      <c r="J149">
-        <v>2.2</v>
-      </c>
-      <c r="K149">
-        <v>2.5</v>
-      </c>
-      <c r="L149">
-        <v>4.5</v>
-      </c>
-      <c r="M149">
-        <v>2.375</v>
-      </c>
-      <c r="N149">
-        <v>2.45</v>
-      </c>
-      <c r="O149">
-        <v>4.5</v>
-      </c>
-      <c r="P149">
-        <v>-0.25</v>
-      </c>
-      <c r="Q149">
-        <v>1.9</v>
-      </c>
-      <c r="R149">
-        <v>1.9</v>
-      </c>
-      <c r="S149">
-        <v>2</v>
-      </c>
       <c r="T149">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V149">
-        <v>1.375</v>
+        <v>0.333</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13333,16 +13336,16 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -13353,16 +13356,16 @@
         <v>7532420</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D150" s="2">
         <v>45265.875</v>
       </c>
       <c r="E150" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13371,7 +13374,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J150">
         <v>1.333</v>
@@ -13439,16 +13442,16 @@
         <v>7532422</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D151" s="2">
         <v>45266.66666666666</v>
       </c>
       <c r="E151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13457,7 +13460,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J151">
         <v>1.8</v>
@@ -13525,16 +13528,16 @@
         <v>7532423</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D152" s="2">
         <v>45266.83333333334</v>
       </c>
       <c r="E152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13543,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J152">
         <v>1.363</v>
@@ -13611,16 +13614,16 @@
         <v>7532431</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2">
         <v>45266.875</v>
       </c>
       <c r="E153" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -13629,7 +13632,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J153">
         <v>2.3</v>
@@ -13697,16 +13700,16 @@
         <v>7532417</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D154" s="2">
         <v>45266.875</v>
       </c>
       <c r="E154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G154">
         <v>4</v>
@@ -13715,7 +13718,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J154">
         <v>1.3</v>
@@ -13783,16 +13786,16 @@
         <v>7798427</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D155" s="2">
         <v>45338.875</v>
       </c>
       <c r="E155" t="s">
+        <v>42</v>
+      </c>
+      <c r="F155" t="s">
         <v>41</v>
-      </c>
-      <c r="F155" t="s">
-        <v>40</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13801,7 +13804,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J155">
         <v>1.5</v>
@@ -13869,16 +13872,16 @@
         <v>7780026</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D156" s="2">
         <v>45339.77083333334</v>
       </c>
       <c r="E156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -13887,7 +13890,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J156">
         <v>1.125</v>
@@ -13955,16 +13958,16 @@
         <v>7797857</v>
       </c>
       <c r="C157" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D157" s="2">
         <v>45339.875</v>
       </c>
       <c r="E157" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13973,7 +13976,7 @@
         <v>2</v>
       </c>
       <c r="I157" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J157">
         <v>1.909</v>
@@ -14041,16 +14044,16 @@
         <v>7779103</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D158" s="2">
         <v>45340.66666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14059,7 +14062,7 @@
         <v>3</v>
       </c>
       <c r="I158" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J158">
         <v>1.285</v>
@@ -14127,16 +14130,16 @@
         <v>7798428</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D159" s="2">
         <v>45340.77083333334</v>
       </c>
       <c r="E159" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14145,7 +14148,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J159">
         <v>1.571</v>
@@ -14213,16 +14216,16 @@
         <v>7779104</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D160" s="2">
         <v>45340.85416666666</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14231,7 +14234,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J160">
         <v>1.615</v>
@@ -14299,16 +14302,16 @@
         <v>7801314</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D161" s="2">
         <v>45342.79166666666</v>
       </c>
       <c r="E161" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F161" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14317,7 +14320,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J161">
         <v>1.55</v>
@@ -14385,16 +14388,16 @@
         <v>7801315</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D162" s="2">
         <v>45342.875</v>
       </c>
       <c r="E162" t="s">
+        <v>35</v>
+      </c>
+      <c r="F162" t="s">
         <v>34</v>
-      </c>
-      <c r="F162" t="s">
-        <v>33</v>
       </c>
       <c r="G162">
         <v>3</v>
@@ -14403,7 +14406,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J162">
         <v>1.125</v>
@@ -14471,16 +14474,16 @@
         <v>7801316</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D163" s="2">
         <v>45343.66666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14489,7 +14492,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J163">
         <v>2.1</v>
@@ -14557,16 +14560,16 @@
         <v>7801318</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D164" s="2">
         <v>45343.875</v>
       </c>
       <c r="E164" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14575,7 +14578,7 @@
         <v>2</v>
       </c>
       <c r="I164" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J164">
         <v>2.625</v>
@@ -14643,16 +14646,16 @@
         <v>7801317</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D165" s="2">
         <v>45344.5</v>
       </c>
       <c r="E165" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14661,7 +14664,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J165">
         <v>3.75</v>
@@ -14729,16 +14732,16 @@
         <v>7801319</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D166" s="2">
         <v>45344.66666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F166" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14747,7 +14750,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J166">
         <v>1.8</v>
@@ -14815,16 +14818,16 @@
         <v>7801321</v>
       </c>
       <c r="C167" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D167" s="2">
         <v>45345.66666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14833,7 +14836,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J167">
         <v>2.2</v>
@@ -14901,16 +14904,16 @@
         <v>7801322</v>
       </c>
       <c r="C168" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D168" s="2">
         <v>45346.66666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14919,7 +14922,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J168">
         <v>2.25</v>
@@ -14987,16 +14990,16 @@
         <v>7801323</v>
       </c>
       <c r="C169" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D169" s="2">
         <v>45346.77083333334</v>
       </c>
       <c r="E169" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F169" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15005,7 +15008,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J169">
         <v>1.615</v>
@@ -15073,16 +15076,16 @@
         <v>7801324</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D170" s="2">
         <v>45347.66666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F170" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15091,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J170">
         <v>2.5</v>
@@ -15159,16 +15162,16 @@
         <v>7801325</v>
       </c>
       <c r="C171" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D171" s="2">
         <v>45347.77083333334</v>
       </c>
       <c r="E171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G171">
         <v>4</v>
@@ -15177,7 +15180,7 @@
         <v>4</v>
       </c>
       <c r="I171" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J171">
         <v>2.15</v>
@@ -15245,16 +15248,16 @@
         <v>7801326</v>
       </c>
       <c r="C172" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D172" s="2">
         <v>45347.85416666666</v>
       </c>
       <c r="E172" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15263,7 +15266,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J172">
         <v>2.3</v>
@@ -15331,16 +15334,16 @@
         <v>7801327</v>
       </c>
       <c r="C173" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D173" s="2">
         <v>45348.875</v>
       </c>
       <c r="E173" t="s">
+        <v>32</v>
+      </c>
+      <c r="F173" t="s">
         <v>31</v>
-      </c>
-      <c r="F173" t="s">
-        <v>30</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15349,7 +15352,7 @@
         <v>2</v>
       </c>
       <c r="I173" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J173">
         <v>1.666</v>
@@ -15417,16 +15420,16 @@
         <v>7801328</v>
       </c>
       <c r="C174" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D174" s="2">
         <v>45349.875</v>
       </c>
       <c r="E174" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15435,7 +15438,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J174">
         <v>2.5</v>
@@ -15503,16 +15506,16 @@
         <v>7892752</v>
       </c>
       <c r="C175" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D175" s="2">
         <v>45350.66666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G175">
         <v>5</v>
@@ -15521,7 +15524,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J175">
         <v>3.3</v>
@@ -15589,16 +15592,16 @@
         <v>7897430</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D176" s="2">
         <v>45352.875</v>
       </c>
       <c r="E176" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15607,7 +15610,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J176">
         <v>2.5</v>
@@ -15675,16 +15678,16 @@
         <v>7897428</v>
       </c>
       <c r="C177" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D177" s="2">
         <v>45353.66666666666</v>
       </c>
       <c r="E177" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15693,7 +15696,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J177">
         <v>1.363</v>
@@ -15761,16 +15764,16 @@
         <v>7897433</v>
       </c>
       <c r="C178" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D178" s="2">
         <v>45353.77083333334</v>
       </c>
       <c r="E178" t="s">
+        <v>44</v>
+      </c>
+      <c r="F178" t="s">
         <v>43</v>
-      </c>
-      <c r="F178" t="s">
-        <v>42</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -15779,7 +15782,7 @@
         <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J178">
         <v>2.4</v>
@@ -15847,16 +15850,16 @@
         <v>7897432</v>
       </c>
       <c r="C179" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D179" s="2">
         <v>45353.875</v>
       </c>
       <c r="E179" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G179">
         <v>3</v>
@@ -15865,7 +15868,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J179">
         <v>2.2</v>
@@ -15933,16 +15936,16 @@
         <v>7897431</v>
       </c>
       <c r="C180" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D180" s="2">
         <v>45354.66666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F180" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15951,7 +15954,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J180">
         <v>1.571</v>
@@ -16019,16 +16022,16 @@
         <v>7897434</v>
       </c>
       <c r="C181" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D181" s="2">
         <v>45354.77083333334</v>
       </c>
       <c r="E181" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F181" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -16037,7 +16040,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J181">
         <v>1.666</v>
@@ -16105,16 +16108,16 @@
         <v>7897435</v>
       </c>
       <c r="C182" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D182" s="2">
         <v>45354.85416666666</v>
       </c>
       <c r="E182" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16123,7 +16126,7 @@
         <v>3</v>
       </c>
       <c r="I182" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J182">
         <v>1.75</v>
@@ -16191,16 +16194,16 @@
         <v>7897429</v>
       </c>
       <c r="C183" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D183" s="2">
         <v>45355.66666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F183" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -16209,7 +16212,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J183">
         <v>1.909</v>
@@ -16277,16 +16280,16 @@
         <v>7928563</v>
       </c>
       <c r="C184" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D184" s="2">
         <v>45359.66666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16295,7 +16298,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J184">
         <v>2.75</v>
@@ -16363,16 +16366,16 @@
         <v>7929910</v>
       </c>
       <c r="C185" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D185" s="2">
         <v>45359.89583333334</v>
       </c>
       <c r="E185" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16381,7 +16384,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J185">
         <v>2.1</v>
@@ -16449,16 +16452,16 @@
         <v>7929911</v>
       </c>
       <c r="C186" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D186" s="2">
         <v>45360.66666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F186" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16467,7 +16470,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J186">
         <v>1.833</v>
@@ -16535,16 +16538,16 @@
         <v>7929912</v>
       </c>
       <c r="C187" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D187" s="2">
         <v>45360.77083333334</v>
       </c>
       <c r="E187" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16553,7 +16556,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J187">
         <v>1.4</v>
@@ -16621,16 +16624,16 @@
         <v>7929913</v>
       </c>
       <c r="C188" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D188" s="2">
         <v>45360.87152777778</v>
       </c>
       <c r="E188" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G188">
         <v>3</v>
@@ -16639,7 +16642,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J188">
         <v>1.3</v>
@@ -16707,16 +16710,16 @@
         <v>7929914</v>
       </c>
       <c r="C189" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D189" s="2">
         <v>45361.66666666666</v>
       </c>
       <c r="E189" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16725,7 +16728,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J189">
         <v>2.55</v>
@@ -16793,16 +16796,16 @@
         <v>7929915</v>
       </c>
       <c r="C190" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D190" s="2">
         <v>45361.77083333334</v>
       </c>
       <c r="E190" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F190" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -16811,7 +16814,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J190">
         <v>2.55</v>
@@ -16879,16 +16882,16 @@
         <v>7929916</v>
       </c>
       <c r="C191" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D191" s="2">
         <v>45361.85416666666</v>
       </c>
       <c r="E191" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -16897,7 +16900,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J191">
         <v>2.55</v>
@@ -16965,16 +16968,16 @@
         <v>7931498</v>
       </c>
       <c r="C192" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D192" s="2">
         <v>45363.79166666666</v>
       </c>
       <c r="E192" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -16983,7 +16986,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J192">
         <v>1.4</v>
@@ -17051,16 +17054,16 @@
         <v>7931499</v>
       </c>
       <c r="C193" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D193" s="2">
         <v>45363.875</v>
       </c>
       <c r="E193" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F193" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17069,7 +17072,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J193">
         <v>2.1</v>
@@ -17137,16 +17140,16 @@
         <v>7930864</v>
       </c>
       <c r="C194" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D194" s="2">
         <v>45364.66666666666</v>
       </c>
       <c r="E194" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17155,7 +17158,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J194">
         <v>1.333</v>
@@ -17223,16 +17226,16 @@
         <v>7931500</v>
       </c>
       <c r="C195" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D195" s="2">
         <v>45364.79166666666</v>
       </c>
       <c r="E195" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F195" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -17241,7 +17244,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J195">
         <v>1.909</v>
@@ -17309,16 +17312,16 @@
         <v>7930865</v>
       </c>
       <c r="C196" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D196" s="2">
         <v>45364.87152777778</v>
       </c>
       <c r="E196" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17327,7 +17330,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J196">
         <v>3</v>
@@ -17395,16 +17398,16 @@
         <v>7930866</v>
       </c>
       <c r="C197" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D197" s="2">
         <v>45365.79166666666</v>
       </c>
       <c r="E197" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F197" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -17413,7 +17416,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J197">
         <v>1.65</v>
@@ -17481,16 +17484,16 @@
         <v>7930867</v>
       </c>
       <c r="C198" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D198" s="2">
         <v>45365.875</v>
       </c>
       <c r="E198" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F198" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17499,7 +17502,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J198">
         <v>1.4</v>
@@ -17567,16 +17570,16 @@
         <v>7930868</v>
       </c>
       <c r="C199" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D199" s="2">
         <v>45366.875</v>
       </c>
       <c r="E199" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F199" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17585,7 +17588,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J199">
         <v>1.833</v>
@@ -17653,16 +17656,16 @@
         <v>7980297</v>
       </c>
       <c r="C200" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D200" s="2">
         <v>45371.83333333334</v>
       </c>
       <c r="E200" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F200" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G200">
         <v>4</v>
@@ -17671,7 +17674,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J200">
         <v>1.4</v>
@@ -17739,16 +17742,16 @@
         <v>7980042</v>
       </c>
       <c r="C201" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D201" s="2">
         <v>45379.66666666666</v>
       </c>
       <c r="E201" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17757,7 +17760,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J201">
         <v>4.2</v>
@@ -17825,16 +17828,16 @@
         <v>7980298</v>
       </c>
       <c r="C202" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D202" s="2">
         <v>45379.875</v>
       </c>
       <c r="E202" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F202" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17843,7 +17846,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J202">
         <v>2.4</v>
@@ -17911,16 +17914,16 @@
         <v>8010637</v>
       </c>
       <c r="C203" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D203" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F203" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G203">
         <v>3</v>
@@ -17929,7 +17932,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J203">
         <v>1.727</v>
@@ -17997,16 +18000,16 @@
         <v>8010638</v>
       </c>
       <c r="C204" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D204" s="2">
         <v>45381.77083333334</v>
       </c>
       <c r="E204" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F204" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G204">
         <v>3</v>
@@ -18015,7 +18018,7 @@
         <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J204">
         <v>2.2</v>
@@ -18083,16 +18086,16 @@
         <v>8010639</v>
       </c>
       <c r="C205" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D205" s="2">
         <v>45381.875</v>
       </c>
       <c r="E205" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F205" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -18101,7 +18104,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J205">
         <v>1.363</v>
@@ -18169,16 +18172,16 @@
         <v>8010642</v>
       </c>
       <c r="C206" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D206" s="2">
         <v>45382.66666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F206" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -18187,7 +18190,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J206">
         <v>1.4</v>
@@ -18255,16 +18258,16 @@
         <v>8010640</v>
       </c>
       <c r="C207" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D207" s="2">
         <v>45382.77083333334</v>
       </c>
       <c r="E207" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G207">
         <v>4</v>
@@ -18273,7 +18276,7 @@
         <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J207">
         <v>1.222</v>
@@ -18341,16 +18344,16 @@
         <v>8011587</v>
       </c>
       <c r="C208" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D208" s="2">
         <v>45382.85416666666</v>
       </c>
       <c r="E208" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F208" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G208">
         <v>4</v>
@@ -18359,7 +18362,7 @@
         <v>2</v>
       </c>
       <c r="I208" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J208">
         <v>1.533</v>
@@ -18427,16 +18430,16 @@
         <v>8010641</v>
       </c>
       <c r="C209" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D209" s="2">
         <v>45383.875</v>
       </c>
       <c r="E209" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F209" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G209">
         <v>3</v>
@@ -18445,7 +18448,7 @@
         <v>4</v>
       </c>
       <c r="I209" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J209">
         <v>1.7</v>
@@ -18513,16 +18516,16 @@
         <v>8038942</v>
       </c>
       <c r="C210" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D210" s="2">
         <v>45387.79166666666</v>
       </c>
       <c r="E210" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F210" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -18531,7 +18534,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J210">
         <v>1.571</v>
@@ -18599,16 +18602,16 @@
         <v>8039390</v>
       </c>
       <c r="C211" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D211" s="2">
         <v>45388.70833333334</v>
       </c>
       <c r="E211" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F211" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G211">
         <v>2</v>
@@ -18617,7 +18620,7 @@
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J211">
         <v>2.05</v>
@@ -18685,17 +18688,17 @@
         <v>8039389</v>
       </c>
       <c r="C212" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D212" s="2">
         <v>45388.70833333334</v>
       </c>
       <c r="E212" t="s">
+        <v>31</v>
+      </c>
+      <c r="F212" t="s">
         <v>30</v>
       </c>
-      <c r="F212" t="s">
-        <v>29</v>
-      </c>
       <c r="G212">
         <v>0</v>
       </c>
@@ -18703,7 +18706,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J212">
         <v>2.2</v>
@@ -18771,16 +18774,16 @@
         <v>8054794</v>
       </c>
       <c r="C213" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D213" s="2">
         <v>45388.79166666666</v>
       </c>
       <c r="E213" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F213" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -18789,7 +18792,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J213">
         <v>1.95</v>
@@ -18857,16 +18860,16 @@
         <v>8039392</v>
       </c>
       <c r="C214" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D214" s="2">
         <v>45389.70833333334</v>
       </c>
       <c r="E214" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F214" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G214">
         <v>2</v>
@@ -18875,7 +18878,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J214">
         <v>2</v>
@@ -18943,16 +18946,16 @@
         <v>8038943</v>
       </c>
       <c r="C215" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D215" s="2">
         <v>45389.70833333334</v>
       </c>
       <c r="E215" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F215" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18961,7 +18964,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J215">
         <v>2.3</v>
@@ -19029,16 +19032,16 @@
         <v>8039398</v>
       </c>
       <c r="C216" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D216" s="2">
         <v>45389.85416666666</v>
       </c>
       <c r="E216" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F216" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G216">
         <v>2</v>
@@ -19047,7 +19050,7 @@
         <v>1</v>
       </c>
       <c r="I216" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J216">
         <v>1.533</v>
@@ -19115,16 +19118,16 @@
         <v>8039391</v>
       </c>
       <c r="C217" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D217" s="2">
         <v>45390.83333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G217">
         <v>3</v>
@@ -19133,7 +19136,7 @@
         <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J217">
         <v>1.666</v>
@@ -19201,16 +19204,16 @@
         <v>8021846</v>
       </c>
       <c r="C218" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D218" s="2">
         <v>45393.83333333334</v>
       </c>
       <c r="E218" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19219,7 +19222,7 @@
         <v>3</v>
       </c>
       <c r="I218" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J218">
         <v>6</v>
@@ -19287,16 +19290,16 @@
         <v>8088970</v>
       </c>
       <c r="C219" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D219" s="2">
         <v>45396.66666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F219" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19305,7 +19308,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J219">
         <v>2.4</v>
@@ -19373,16 +19376,16 @@
         <v>8089547</v>
       </c>
       <c r="C220" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D220" s="2">
         <v>45396.77083333334</v>
       </c>
       <c r="E220" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -19391,7 +19394,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J220">
         <v>2.6</v>
@@ -19459,16 +19462,16 @@
         <v>8089492</v>
       </c>
       <c r="C221" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D221" s="2">
         <v>45396.85416666666</v>
       </c>
       <c r="E221" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F221" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -19477,7 +19480,7 @@
         <v>1</v>
       </c>
       <c r="I221" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J221">
         <v>1.533</v>
@@ -19545,16 +19548,16 @@
         <v>8090056</v>
       </c>
       <c r="C222" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D222" s="2">
         <v>45397.83333333334</v>
       </c>
       <c r="E222" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F222" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19563,7 +19566,7 @@
         <v>1</v>
       </c>
       <c r="I222" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J222">
         <v>2.2</v>
@@ -19631,16 +19634,16 @@
         <v>8091186</v>
       </c>
       <c r="C223" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D223" s="2">
         <v>45399.66666666666</v>
       </c>
       <c r="E223" t="s">
+        <v>41</v>
+      </c>
+      <c r="F223" t="s">
         <v>40</v>
-      </c>
-      <c r="F223" t="s">
-        <v>39</v>
       </c>
       <c r="G223">
         <v>3</v>
@@ -19649,7 +19652,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J223">
         <v>2.1</v>
@@ -19717,16 +19720,16 @@
         <v>8090748</v>
       </c>
       <c r="C224" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D224" s="2">
         <v>45399.875</v>
       </c>
       <c r="E224" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F224" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G224">
         <v>2</v>
@@ -19735,7 +19738,7 @@
         <v>1</v>
       </c>
       <c r="I224" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J224">
         <v>1.533</v>
@@ -19803,16 +19806,16 @@
         <v>8090539</v>
       </c>
       <c r="C225" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D225" s="2">
         <v>45400.83333333334</v>
       </c>
       <c r="E225" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F225" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -19821,7 +19824,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J225">
         <v>1.363</v>
@@ -19889,16 +19892,16 @@
         <v>8091314</v>
       </c>
       <c r="C226" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D226" s="2">
         <v>45400.875</v>
       </c>
       <c r="E226" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F226" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G226">
         <v>6</v>
@@ -19907,7 +19910,7 @@
         <v>8</v>
       </c>
       <c r="I226" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J226">
         <v>1.363</v>
@@ -19975,16 +19978,16 @@
         <v>27</v>
       </c>
       <c r="C227" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D227" s="2">
         <v>45410.70833333334</v>
       </c>
       <c r="E227" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F227" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J227">
         <v>1.444</v>
@@ -19996,31 +19999,31 @@
         <v>6.5</v>
       </c>
       <c r="M227">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="N227">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O227">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="P227">
         <v>-1.25</v>
       </c>
       <c r="Q227">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R227">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S227">
         <v>2.75</v>
       </c>
       <c r="T227">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U227">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V227">
         <v>0</v>
@@ -20029,6 +20032,71 @@
         <v>0</v>
       </c>
       <c r="X227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:28">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>28</v>
+      </c>
+      <c r="C228" t="s">
+        <v>29</v>
+      </c>
+      <c r="D228" s="2">
+        <v>45410.79166666666</v>
+      </c>
+      <c r="E228" t="s">
+        <v>45</v>
+      </c>
+      <c r="F228" t="s">
+        <v>48</v>
+      </c>
+      <c r="J228">
+        <v>2</v>
+      </c>
+      <c r="K228">
+        <v>3.6</v>
+      </c>
+      <c r="L228">
+        <v>3.1</v>
+      </c>
+      <c r="M228">
+        <v>1.65</v>
+      </c>
+      <c r="N228">
+        <v>4</v>
+      </c>
+      <c r="O228">
+        <v>5</v>
+      </c>
+      <c r="P228">
+        <v>-0.75</v>
+      </c>
+      <c r="Q228">
+        <v>1.8</v>
+      </c>
+      <c r="R228">
+        <v>2</v>
+      </c>
+      <c r="S228">
+        <v>3</v>
+      </c>
+      <c r="T228">
+        <v>1.875</v>
+      </c>
+      <c r="U228">
+        <v>1.925</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
         <v>0</v>
       </c>
     </row>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>8164270</t>
   </si>
   <si>
     <t>Bolivia Primera División</t>
@@ -528,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB229"/>
+  <dimension ref="A1:AB228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,16 +622,16 @@
         <v>6504822</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45079.83333333334</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -643,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2">
         <v>1.444</v>
@@ -711,16 +708,16 @@
         <v>6503942</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45080.66666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -729,7 +726,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J3">
         <v>2.5</v>
@@ -797,16 +794,16 @@
         <v>6505492</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45080.77083333334</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -815,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J4">
         <v>3.2</v>
@@ -883,16 +880,16 @@
         <v>6504570</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45080.875</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -901,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5">
         <v>1.909</v>
@@ -969,16 +966,16 @@
         <v>6504571</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -987,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6">
         <v>1.8</v>
@@ -1055,16 +1052,16 @@
         <v>6503943</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45081.77083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1073,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7">
         <v>1.166</v>
@@ -1141,16 +1138,16 @@
         <v>6504309</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45081.85416666666</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1159,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8">
         <v>2.5</v>
@@ -1227,16 +1224,16 @@
         <v>6504283</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45082.66666666666</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1245,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9">
         <v>2.2</v>
@@ -1313,16 +1310,16 @@
         <v>6669973</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45088.85416666666</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1331,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10">
         <v>1.6</v>
@@ -1399,16 +1396,16 @@
         <v>6504823</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45100.66666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1417,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J11">
         <v>2.875</v>
@@ -1485,16 +1482,16 @@
         <v>6504824</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45100.83333333334</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1503,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12">
         <v>1.727</v>
@@ -1571,16 +1568,16 @@
         <v>6503944</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45101.66666666666</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>6</v>
@@ -1589,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1657,16 +1654,16 @@
         <v>6503945</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45101.875</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1675,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14">
         <v>1.8</v>
@@ -1743,16 +1740,16 @@
         <v>6504572</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1761,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J15">
         <v>1.2</v>
@@ -1829,16 +1826,16 @@
         <v>6504573</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45102.77083333334</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1847,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J16">
         <v>1.727</v>
@@ -1915,16 +1912,16 @@
         <v>6504284</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45102.85416666666</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -1933,7 +1930,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17">
         <v>1.909</v>
@@ -2001,16 +1998,16 @@
         <v>6504310</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45103.83333333334</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2019,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2087,16 +2084,16 @@
         <v>6504574</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45114.875</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2105,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J19">
         <v>1.727</v>
@@ -2173,16 +2170,16 @@
         <v>6505493</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45115.66666666666</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2191,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J20">
         <v>1.666</v>
@@ -2259,16 +2256,16 @@
         <v>6504311</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45115.77083333334</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2277,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J21">
         <v>1.285</v>
@@ -2345,16 +2342,16 @@
         <v>6504285</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45115.875</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2363,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J22">
         <v>1.615</v>
@@ -2431,16 +2428,16 @@
         <v>6504825</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -2449,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J23">
         <v>1.5</v>
@@ -2517,16 +2514,16 @@
         <v>6503946</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45116.77083333334</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -2535,7 +2532,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J24">
         <v>1.727</v>
@@ -2603,16 +2600,16 @@
         <v>6503947</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2621,7 +2618,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J25">
         <v>3.3</v>
@@ -2689,16 +2686,16 @@
         <v>6504312</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45117.875</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2707,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J26">
         <v>1.5</v>
@@ -2775,16 +2772,16 @@
         <v>6504313</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45122.66666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2793,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J27">
         <v>1.75</v>
@@ -2861,16 +2858,16 @@
         <v>6504831</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45122.66666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2879,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J28">
         <v>3.3</v>
@@ -2947,16 +2944,16 @@
         <v>6503948</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45123.66666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2965,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J29">
         <v>2.625</v>
@@ -3033,16 +3030,16 @@
         <v>6504286</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45123.77083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3051,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J30">
         <v>2.45</v>
@@ -3119,16 +3116,16 @@
         <v>6504575</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45123.85416666666</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3137,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J31">
         <v>2.2</v>
@@ -3205,16 +3202,16 @@
         <v>6504576</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45124.66666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3223,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J32">
         <v>1.833</v>
@@ -3291,16 +3288,16 @@
         <v>6503949</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45124.77083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3309,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J33">
         <v>1.3</v>
@@ -3377,16 +3374,16 @@
         <v>6504287</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45124.875</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3395,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J34">
         <v>1.666</v>
@@ -3463,16 +3460,16 @@
         <v>6504826</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45129.66666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3481,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J35">
         <v>1.571</v>
@@ -3549,16 +3546,16 @@
         <v>6504288</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45129.77083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3567,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J36">
         <v>1.5</v>
@@ -3635,16 +3632,16 @@
         <v>6504314</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45130.66666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3653,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J37">
         <v>2.3</v>
@@ -3721,16 +3718,16 @@
         <v>6503950</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45130.77083333334</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3739,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J38">
         <v>1.909</v>
@@ -3807,16 +3804,16 @@
         <v>6503951</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45130.85416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3825,7 +3822,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J39">
         <v>1.727</v>
@@ -3893,16 +3890,16 @@
         <v>6504832</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45131.66666666666</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3911,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J40">
         <v>1.2</v>
@@ -3979,16 +3976,16 @@
         <v>6504289</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45131.79166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3997,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J41">
         <v>1.727</v>
@@ -4065,16 +4062,16 @@
         <v>6504315</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45131.875</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4083,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J42">
         <v>1.8</v>
@@ -4151,16 +4148,16 @@
         <v>6503952</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45135.85416666666</v>
       </c>
       <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
         <v>30</v>
-      </c>
-      <c r="F43" t="s">
-        <v>31</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4169,7 +4166,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J43">
         <v>1.909</v>
@@ -4237,16 +4234,16 @@
         <v>6504290</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45136.66666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4255,7 +4252,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J44">
         <v>2.5</v>
@@ -4323,16 +4320,16 @@
         <v>6503953</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45136.77083333334</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -4341,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J45">
         <v>1.2</v>
@@ -4409,16 +4406,16 @@
         <v>6504316</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45136.875</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4427,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J46">
         <v>2.625</v>
@@ -4495,16 +4492,16 @@
         <v>6504578</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45137.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4513,7 +4510,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -4581,16 +4578,16 @@
         <v>6504291</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45137.66666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4599,7 +4596,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -4667,16 +4664,16 @@
         <v>6504577</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45137.85416666666</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4685,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4753,16 +4750,16 @@
         <v>6504833</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45138.66666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4771,7 +4768,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J50">
         <v>2.9</v>
@@ -4839,16 +4836,16 @@
         <v>6970009</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45142.66666666666</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4857,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J51">
         <v>1.2</v>
@@ -4925,16 +4922,16 @@
         <v>6970390</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45142.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G52">
         <v>6</v>
@@ -4943,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J52">
         <v>1.333</v>
@@ -5011,16 +5008,16 @@
         <v>6970010</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45143.66666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G53">
         <v>6</v>
@@ -5029,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J53">
         <v>1.333</v>
@@ -5097,16 +5094,16 @@
         <v>6970011</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45143.77083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5115,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J54">
         <v>2.1</v>
@@ -5183,16 +5180,16 @@
         <v>6970012</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45143.875</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5201,7 +5198,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J55">
         <v>1.909</v>
@@ -5269,16 +5266,16 @@
         <v>6970013</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45144.66666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5287,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J56">
         <v>1.615</v>
@@ -5355,16 +5352,16 @@
         <v>6970014</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45144.77083333334</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5373,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J57">
         <v>3.3</v>
@@ -5441,16 +5438,16 @@
         <v>6970015</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45144.85416666666</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5459,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J58">
         <v>3.75</v>
@@ -5527,16 +5524,16 @@
         <v>6970267</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45149.66666666666</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5545,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J59">
         <v>2.2</v>
@@ -5613,16 +5610,16 @@
         <v>6970016</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -5631,7 +5628,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J60">
         <v>2.1</v>
@@ -5699,16 +5696,16 @@
         <v>6970017</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45150.77083333334</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5717,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J61">
         <v>1.909</v>
@@ -5785,16 +5782,16 @@
         <v>6970018</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45150.875</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5803,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J62">
         <v>1.727</v>
@@ -5871,16 +5868,16 @@
         <v>6970019</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45151.66666666666</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5889,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J63">
         <v>2.2</v>
@@ -5957,16 +5954,16 @@
         <v>6970020</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45151.77083333334</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G64">
         <v>4</v>
@@ -5975,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J64">
         <v>1.25</v>
@@ -6043,16 +6040,16 @@
         <v>6970021</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45151.85416666666</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G65">
         <v>4</v>
@@ -6061,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J65">
         <v>1.615</v>
@@ -6129,16 +6126,16 @@
         <v>6970022</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45152.85416666666</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6147,7 +6144,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J66">
         <v>1.5</v>
@@ -6215,16 +6212,16 @@
         <v>6970023</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45156.83333333334</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6233,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J67">
         <v>2.3</v>
@@ -6301,16 +6298,16 @@
         <v>6970025</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45156.875</v>
       </c>
       <c r="E68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6319,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J68">
         <v>1.071</v>
@@ -6387,16 +6384,16 @@
         <v>6970024</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45157.66666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G69">
         <v>5</v>
@@ -6405,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J69">
         <v>2.2</v>
@@ -6473,16 +6470,16 @@
         <v>6970268</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45157.875</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6491,7 +6488,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J70">
         <v>1.5</v>
@@ -6559,16 +6556,16 @@
         <v>6970269</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45158.66666666666</v>
       </c>
       <c r="E71" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71" t="s">
         <v>40</v>
-      </c>
-      <c r="F71" t="s">
-        <v>41</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6577,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J71">
         <v>2.375</v>
@@ -6645,16 +6642,16 @@
         <v>6970026</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45158.77083333334</v>
       </c>
       <c r="E72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6663,7 +6660,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J72">
         <v>1.25</v>
@@ -6731,17 +6728,17 @@
         <v>6970028</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45159.875</v>
       </c>
       <c r="E73" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" t="s">
         <v>31</v>
       </c>
-      <c r="F73" t="s">
-        <v>32</v>
-      </c>
       <c r="G73">
         <v>0</v>
       </c>
@@ -6749,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J73">
         <v>1.615</v>
@@ -6817,16 +6814,16 @@
         <v>7105139</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45161.66666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6835,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J74">
         <v>1.666</v>
@@ -6903,16 +6900,16 @@
         <v>6970030</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45161.875</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6921,7 +6918,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J75">
         <v>1.062</v>
@@ -6989,16 +6986,16 @@
         <v>6970031</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45162.66666666666</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7007,7 +7004,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J76">
         <v>1.363</v>
@@ -7075,16 +7072,16 @@
         <v>6970032</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45162.89583333334</v>
       </c>
       <c r="E77" t="s">
+        <v>31</v>
+      </c>
+      <c r="F77" t="s">
         <v>32</v>
-      </c>
-      <c r="F77" t="s">
-        <v>33</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7093,7 +7090,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J77">
         <v>1.909</v>
@@ -7161,16 +7158,16 @@
         <v>6970033</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45163.875</v>
       </c>
       <c r="E78" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" t="s">
         <v>35</v>
-      </c>
-      <c r="F78" t="s">
-        <v>36</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7179,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J78">
         <v>1.4</v>
@@ -7247,16 +7244,16 @@
         <v>6970034</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -7265,7 +7262,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7333,16 +7330,16 @@
         <v>7285413</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45202.66666666666</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7351,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J80">
         <v>2.375</v>
@@ -7419,16 +7416,16 @@
         <v>7285412</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45202.79166666666</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7437,7 +7434,7 @@
         <v>3</v>
       </c>
       <c r="I81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J81">
         <v>2.375</v>
@@ -7505,16 +7502,16 @@
         <v>7285416</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45202.89583333334</v>
       </c>
       <c r="E82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G82">
         <v>5</v>
@@ -7523,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J82">
         <v>1.444</v>
@@ -7591,16 +7588,16 @@
         <v>7285411</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45203.66666666666</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7609,7 +7606,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J83">
         <v>2.55</v>
@@ -7677,16 +7674,16 @@
         <v>7285417</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45203.79166666666</v>
       </c>
       <c r="E84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7695,7 +7692,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J84">
         <v>1.444</v>
@@ -7763,16 +7760,16 @@
         <v>7285414</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45203.89583333334</v>
       </c>
       <c r="E85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7781,7 +7778,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J85">
         <v>2.7</v>
@@ -7849,16 +7846,16 @@
         <v>7285418</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45204.66666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7867,7 +7864,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J86">
         <v>1.615</v>
@@ -7935,16 +7932,16 @@
         <v>7285415</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45204.875</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7953,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J87">
         <v>1.833</v>
@@ -8021,16 +8018,16 @@
         <v>7296594</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45206.66666666666</v>
       </c>
       <c r="E88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8039,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J88">
         <v>2.15</v>
@@ -8107,16 +8104,16 @@
         <v>7296273</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45206.77083333334</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8125,7 +8122,7 @@
         <v>4</v>
       </c>
       <c r="I89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J89">
         <v>1.4</v>
@@ -8193,16 +8190,16 @@
         <v>7296274</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45207.66666666666</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8211,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J90">
         <v>1.363</v>
@@ -8279,16 +8276,16 @@
         <v>7296275</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45207.77083333334</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8297,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J91">
         <v>3.3</v>
@@ -8365,16 +8362,16 @@
         <v>7296595</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45207.85416666666</v>
       </c>
       <c r="E92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8383,7 +8380,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J92">
         <v>2.3</v>
@@ -8451,16 +8448,16 @@
         <v>7296276</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45208.66319444445</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8469,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J93">
         <v>2.375</v>
@@ -8537,16 +8534,16 @@
         <v>7288493</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45208.79166666666</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8555,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J94">
         <v>1.4</v>
@@ -8623,16 +8620,16 @@
         <v>7296596</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45208.89583333334</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8641,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J95">
         <v>2.45</v>
@@ -8709,16 +8706,16 @@
         <v>7331144</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45214.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8727,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J96">
         <v>2.875</v>
@@ -8795,16 +8792,16 @@
         <v>7330592</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45218.83333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -8813,7 +8810,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J97">
         <v>2.25</v>
@@ -8881,16 +8878,16 @@
         <v>7331145</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45219.66666666666</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8899,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J98">
         <v>1.444</v>
@@ -8967,16 +8964,16 @@
         <v>7329842</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45219.83333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8985,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J99">
         <v>1.166</v>
@@ -9053,16 +9050,16 @@
         <v>7331146</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45219.89583333334</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9071,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J100">
         <v>2.45</v>
@@ -9139,16 +9136,16 @@
         <v>7329843</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45220.75</v>
       </c>
       <c r="E101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9157,7 +9154,7 @@
         <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J101">
         <v>1.363</v>
@@ -9225,16 +9222,16 @@
         <v>7331147</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45220.875</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9243,7 +9240,7 @@
         <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J102">
         <v>1.615</v>
@@ -9311,16 +9308,16 @@
         <v>7361187</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45221.70833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9329,7 +9326,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J103">
         <v>1.909</v>
@@ -9397,16 +9394,16 @@
         <v>7331149</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45234.66666666666</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -9415,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J104">
         <v>1.8</v>
@@ -9483,16 +9480,16 @@
         <v>7331148</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45234.66666666666</v>
       </c>
       <c r="E105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -9501,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J105">
         <v>1.2</v>
@@ -9569,16 +9566,16 @@
         <v>7329844</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45234.8125</v>
       </c>
       <c r="E106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9587,7 +9584,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J106">
         <v>2.55</v>
@@ -9655,16 +9652,16 @@
         <v>7331150</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45235.66666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9673,7 +9670,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J107">
         <v>2.15</v>
@@ -9741,16 +9738,16 @@
         <v>7329845</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45235.66666666666</v>
       </c>
       <c r="E108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9759,7 +9756,7 @@
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J108">
         <v>3.1</v>
@@ -9827,16 +9824,16 @@
         <v>7330274</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45235.85416666666</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9845,7 +9842,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J109">
         <v>2.25</v>
@@ -9913,16 +9910,16 @@
         <v>7331151</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45236.79166666666</v>
       </c>
       <c r="E110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G110">
         <v>4</v>
@@ -9931,7 +9928,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J110">
         <v>1.25</v>
@@ -9999,16 +9996,16 @@
         <v>7331152</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45236.875</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G111">
         <v>3</v>
@@ -10017,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J111">
         <v>1.7</v>
@@ -10085,16 +10082,16 @@
         <v>7438471</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45237.66666666666</v>
       </c>
       <c r="E112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G112">
         <v>3</v>
@@ -10103,7 +10100,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J112">
         <v>1.3</v>
@@ -10171,16 +10168,16 @@
         <v>7438472</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45237.85416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G113">
         <v>4</v>
@@ -10189,7 +10186,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J113">
         <v>4</v>
@@ -10257,16 +10254,16 @@
         <v>7438452</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45238.66666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G114">
         <v>4</v>
@@ -10275,7 +10272,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J114">
         <v>5</v>
@@ -10343,16 +10340,16 @@
         <v>7332665</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45240.79166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10361,7 +10358,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J115">
         <v>2.1</v>
@@ -10429,16 +10426,16 @@
         <v>7332666</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45240.875</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G116">
         <v>8</v>
@@ -10447,7 +10444,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J116">
         <v>1.083</v>
@@ -10515,16 +10512,16 @@
         <v>7332667</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45241.66666666666</v>
       </c>
       <c r="E117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10533,7 +10530,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J117">
         <v>2.1</v>
@@ -10601,16 +10598,16 @@
         <v>7332668</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45241.77083333334</v>
       </c>
       <c r="E118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -10619,7 +10616,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J118">
         <v>1.2</v>
@@ -10687,16 +10684,16 @@
         <v>7332669</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45241.875</v>
       </c>
       <c r="E119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10705,7 +10702,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J119">
         <v>2.375</v>
@@ -10773,16 +10770,16 @@
         <v>7332670</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45242.77083333334</v>
       </c>
       <c r="E120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10791,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J120">
         <v>2.1</v>
@@ -10859,16 +10856,16 @@
         <v>7332671</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45242.85416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10877,7 +10874,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J121">
         <v>1.8</v>
@@ -10945,16 +10942,16 @@
         <v>7332672</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45243.85416666666</v>
       </c>
       <c r="E122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -10963,7 +10960,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J122">
         <v>1.615</v>
@@ -11031,16 +11028,16 @@
         <v>7462540</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45248.66666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11049,7 +11046,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J123">
         <v>1.75</v>
@@ -11117,16 +11114,16 @@
         <v>7462535</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45248.77083333334</v>
       </c>
       <c r="E124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G124">
         <v>6</v>
@@ -11135,7 +11132,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J124">
         <v>1.363</v>
@@ -11203,16 +11200,16 @@
         <v>7462536</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45249.66666666666</v>
       </c>
       <c r="E125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -11221,7 +11218,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J125">
         <v>2.375</v>
@@ -11289,16 +11286,16 @@
         <v>7462537</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45249.77083333334</v>
       </c>
       <c r="E126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11307,7 +11304,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J126">
         <v>1.444</v>
@@ -11375,16 +11372,16 @@
         <v>7462541</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45249.85416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11393,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J127">
         <v>1.666</v>
@@ -11461,16 +11458,16 @@
         <v>7462542</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45253.66666666666</v>
       </c>
       <c r="E128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G128">
         <v>3</v>
@@ -11479,7 +11476,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J128">
         <v>1.363</v>
@@ -11547,16 +11544,16 @@
         <v>7462738</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45253.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11565,7 +11562,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J129">
         <v>4</v>
@@ -11633,16 +11630,16 @@
         <v>7462538</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45253.85416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11651,7 +11648,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J130">
         <v>1.444</v>
@@ -11719,16 +11716,16 @@
         <v>7506107</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45254.85416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11737,7 +11734,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J131">
         <v>1.727</v>
@@ -11805,16 +11802,16 @@
         <v>7506108</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45255.66666666666</v>
       </c>
       <c r="E132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11823,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J132">
         <v>1.909</v>
@@ -11891,16 +11888,16 @@
         <v>7506109</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45255.77083333334</v>
       </c>
       <c r="E133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G133">
         <v>6</v>
@@ -11909,7 +11906,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J133">
         <v>1.95</v>
@@ -11977,16 +11974,16 @@
         <v>7506110</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45255.85416666666</v>
       </c>
       <c r="E134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11995,7 +11992,7 @@
         <v>7</v>
       </c>
       <c r="I134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J134">
         <v>3</v>
@@ -12063,16 +12060,16 @@
         <v>7506111</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45256.66666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12081,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J135">
         <v>2.25</v>
@@ -12149,16 +12146,16 @@
         <v>7506112</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45256.77083333334</v>
       </c>
       <c r="E136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12167,7 +12164,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J136">
         <v>1.8</v>
@@ -12235,16 +12232,16 @@
         <v>7506113</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45256.85416666666</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12253,7 +12250,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J137">
         <v>1.444</v>
@@ -12321,16 +12318,16 @@
         <v>7506114</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45257.875</v>
       </c>
       <c r="E138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12339,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J138">
         <v>1.444</v>
@@ -12407,16 +12404,16 @@
         <v>7532411</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45261.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12425,7 +12422,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J139">
         <v>1.666</v>
@@ -12493,16 +12490,16 @@
         <v>7532429</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45261.83333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G140">
         <v>4</v>
@@ -12511,7 +12508,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J140">
         <v>1.3</v>
@@ -12579,16 +12576,16 @@
         <v>7532416</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45261.89583333334</v>
       </c>
       <c r="E141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12597,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J141">
         <v>2.45</v>
@@ -12665,16 +12662,16 @@
         <v>7532413</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12683,7 +12680,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J142">
         <v>2.25</v>
@@ -12751,16 +12748,16 @@
         <v>7532412</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12769,7 +12766,7 @@
         <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J143">
         <v>1.727</v>
@@ -12837,16 +12834,16 @@
         <v>7532414</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12855,7 +12852,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J144">
         <v>1.571</v>
@@ -12923,16 +12920,16 @@
         <v>7532430</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G145">
         <v>4</v>
@@ -12941,7 +12938,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J145">
         <v>1.4</v>
@@ -13009,16 +13006,16 @@
         <v>7532415</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45263.79166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G146">
         <v>6</v>
@@ -13027,7 +13024,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J146">
         <v>1.285</v>
@@ -13095,16 +13092,16 @@
         <v>7532418</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45265.66666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G147">
         <v>3</v>
@@ -13113,7 +13110,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J147">
         <v>5</v>
@@ -13178,67 +13175,67 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532421</v>
+        <v>7532419</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45265.875</v>
       </c>
       <c r="E148" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G148">
+        <v>3</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148" t="s">
+        <v>47</v>
+      </c>
+      <c r="J148">
+        <v>2.2</v>
+      </c>
+      <c r="K148">
+        <v>2.5</v>
+      </c>
+      <c r="L148">
+        <v>4.5</v>
+      </c>
+      <c r="M148">
+        <v>2.375</v>
+      </c>
+      <c r="N148">
+        <v>2.45</v>
+      </c>
+      <c r="O148">
+        <v>4.5</v>
+      </c>
+      <c r="P148">
+        <v>-0.25</v>
+      </c>
+      <c r="Q148">
+        <v>1.9</v>
+      </c>
+      <c r="R148">
+        <v>1.9</v>
+      </c>
+      <c r="S148">
         <v>2</v>
       </c>
-      <c r="H148">
-        <v>0</v>
-      </c>
-      <c r="I148" t="s">
-        <v>48</v>
-      </c>
-      <c r="J148">
-        <v>1.4</v>
-      </c>
-      <c r="K148">
-        <v>4.5</v>
-      </c>
-      <c r="L148">
-        <v>7.5</v>
-      </c>
-      <c r="M148">
-        <v>1.333</v>
-      </c>
-      <c r="N148">
-        <v>5.5</v>
-      </c>
-      <c r="O148">
-        <v>9.5</v>
-      </c>
-      <c r="P148">
-        <v>-1.5</v>
-      </c>
-      <c r="Q148">
+      <c r="T148">
+        <v>1.95</v>
+      </c>
+      <c r="U148">
         <v>1.85</v>
       </c>
-      <c r="R148">
-        <v>1.95</v>
-      </c>
-      <c r="S148">
-        <v>3</v>
-      </c>
-      <c r="T148">
-        <v>1.825</v>
-      </c>
-      <c r="U148">
-        <v>1.975</v>
-      </c>
       <c r="V148">
-        <v>0.333</v>
+        <v>1.375</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13247,16 +13244,16 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB148">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13267,16 +13264,16 @@
         <v>7532420</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45265.875</v>
       </c>
       <c r="E149" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G149">
         <v>3</v>
@@ -13285,7 +13282,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J149">
         <v>1.333</v>
@@ -13350,10 +13347,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532419</v>
+        <v>7532421</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45265.875</v>
@@ -13365,52 +13362,52 @@
         <v>43</v>
       </c>
       <c r="G150">
+        <v>2</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150" t="s">
+        <v>47</v>
+      </c>
+      <c r="J150">
+        <v>1.4</v>
+      </c>
+      <c r="K150">
+        <v>4.5</v>
+      </c>
+      <c r="L150">
+        <v>7.5</v>
+      </c>
+      <c r="M150">
+        <v>1.333</v>
+      </c>
+      <c r="N150">
+        <v>5.5</v>
+      </c>
+      <c r="O150">
+        <v>9.5</v>
+      </c>
+      <c r="P150">
+        <v>-1.5</v>
+      </c>
+      <c r="Q150">
+        <v>1.85</v>
+      </c>
+      <c r="R150">
+        <v>1.95</v>
+      </c>
+      <c r="S150">
         <v>3</v>
       </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150" t="s">
-        <v>48</v>
-      </c>
-      <c r="J150">
-        <v>2.2</v>
-      </c>
-      <c r="K150">
-        <v>2.5</v>
-      </c>
-      <c r="L150">
-        <v>4.5</v>
-      </c>
-      <c r="M150">
-        <v>2.375</v>
-      </c>
-      <c r="N150">
-        <v>2.45</v>
-      </c>
-      <c r="O150">
-        <v>4.5</v>
-      </c>
-      <c r="P150">
-        <v>-0.25</v>
-      </c>
-      <c r="Q150">
-        <v>1.9</v>
-      </c>
-      <c r="R150">
-        <v>1.9</v>
-      </c>
-      <c r="S150">
-        <v>2</v>
-      </c>
       <c r="T150">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V150">
-        <v>1.375</v>
+        <v>0.333</v>
       </c>
       <c r="W150">
         <v>-1</v>
@@ -13419,16 +13416,16 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:28">
@@ -13439,16 +13436,16 @@
         <v>7532422</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45266.66666666666</v>
       </c>
       <c r="E151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13457,7 +13454,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J151">
         <v>1.8</v>
@@ -13525,16 +13522,16 @@
         <v>7532423</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45266.83333333334</v>
       </c>
       <c r="E152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13543,7 +13540,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J152">
         <v>1.363</v>
@@ -13608,85 +13605,85 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45266.875</v>
       </c>
       <c r="E153" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J153">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="K153">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L153">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="M153">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="N153">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O153">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="P153">
+        <v>-2.25</v>
+      </c>
+      <c r="Q153">
+        <v>1.95</v>
+      </c>
+      <c r="R153">
+        <v>1.85</v>
+      </c>
+      <c r="S153">
+        <v>3.75</v>
+      </c>
+      <c r="T153">
+        <v>1.975</v>
+      </c>
+      <c r="U153">
+        <v>1.825</v>
+      </c>
+      <c r="V153">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>0.95</v>
+      </c>
+      <c r="Z153">
+        <v>-1</v>
+      </c>
+      <c r="AA153">
+        <v>0.4875</v>
+      </c>
+      <c r="AB153">
         <v>-0.5</v>
-      </c>
-      <c r="Q153">
-        <v>1.825</v>
-      </c>
-      <c r="R153">
-        <v>1.975</v>
-      </c>
-      <c r="S153">
-        <v>3</v>
-      </c>
-      <c r="T153">
-        <v>2</v>
-      </c>
-      <c r="U153">
-        <v>1.8</v>
-      </c>
-      <c r="V153">
-        <v>0.833</v>
-      </c>
-      <c r="W153">
-        <v>-1</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>0.825</v>
-      </c>
-      <c r="Z153">
-        <v>-1</v>
-      </c>
-      <c r="AA153">
-        <v>0</v>
-      </c>
-      <c r="AB153">
-        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13694,10 +13691,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45266.875</v>
@@ -13706,55 +13703,55 @@
         <v>31</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G154">
+        <v>2</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154" t="s">
+        <v>47</v>
+      </c>
+      <c r="J154">
+        <v>2.3</v>
+      </c>
+      <c r="K154">
+        <v>3.5</v>
+      </c>
+      <c r="L154">
+        <v>2.625</v>
+      </c>
+      <c r="M154">
+        <v>1.833</v>
+      </c>
+      <c r="N154">
         <v>4</v>
       </c>
-      <c r="H154">
-        <v>0</v>
-      </c>
-      <c r="I154" t="s">
-        <v>48</v>
-      </c>
-      <c r="J154">
-        <v>1.3</v>
-      </c>
-      <c r="K154">
-        <v>4.5</v>
-      </c>
-      <c r="L154">
-        <v>8.5</v>
-      </c>
-      <c r="M154">
-        <v>1.166</v>
-      </c>
-      <c r="N154">
-        <v>8</v>
-      </c>
       <c r="O154">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q154">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S154">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T154">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U154">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V154">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="W154">
         <v>-1</v>
@@ -13763,16 +13760,16 @@
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AB154">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -13783,16 +13780,16 @@
         <v>7798427</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45338.875</v>
       </c>
       <c r="E155" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13801,7 +13798,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J155">
         <v>1.5</v>
@@ -13869,16 +13866,16 @@
         <v>7780026</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45339.77083333334</v>
       </c>
       <c r="E156" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -13887,7 +13884,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J156">
         <v>1.125</v>
@@ -13955,16 +13952,16 @@
         <v>7797857</v>
       </c>
       <c r="C157" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45339.875</v>
       </c>
       <c r="E157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13973,7 +13970,7 @@
         <v>2</v>
       </c>
       <c r="I157" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J157">
         <v>1.909</v>
@@ -14041,16 +14038,16 @@
         <v>7779103</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45340.66666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14059,7 +14056,7 @@
         <v>3</v>
       </c>
       <c r="I158" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J158">
         <v>1.285</v>
@@ -14127,16 +14124,16 @@
         <v>7798428</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45340.77083333334</v>
       </c>
       <c r="E159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14145,7 +14142,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J159">
         <v>1.571</v>
@@ -14213,16 +14210,16 @@
         <v>7779104</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45340.85416666666</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14231,7 +14228,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J160">
         <v>1.615</v>
@@ -14299,16 +14296,16 @@
         <v>7801314</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45342.79166666666</v>
       </c>
       <c r="E161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F161" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14317,7 +14314,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J161">
         <v>1.55</v>
@@ -14385,16 +14382,16 @@
         <v>7801315</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45342.875</v>
       </c>
       <c r="E162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G162">
         <v>3</v>
@@ -14403,7 +14400,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J162">
         <v>1.125</v>
@@ -14471,16 +14468,16 @@
         <v>7801316</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45343.66666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14489,7 +14486,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J163">
         <v>2.1</v>
@@ -14557,16 +14554,16 @@
         <v>7801318</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45343.875</v>
       </c>
       <c r="E164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14575,7 +14572,7 @@
         <v>2</v>
       </c>
       <c r="I164" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J164">
         <v>2.625</v>
@@ -14643,16 +14640,16 @@
         <v>7801317</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45344.5</v>
       </c>
       <c r="E165" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F165" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14661,7 +14658,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J165">
         <v>3.75</v>
@@ -14729,16 +14726,16 @@
         <v>7801319</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45344.66666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F166" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14747,7 +14744,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J166">
         <v>1.8</v>
@@ -14815,16 +14812,16 @@
         <v>7801321</v>
       </c>
       <c r="C167" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45345.66666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14833,7 +14830,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J167">
         <v>2.2</v>
@@ -14901,16 +14898,16 @@
         <v>7801322</v>
       </c>
       <c r="C168" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45346.66666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14919,7 +14916,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J168">
         <v>2.25</v>
@@ -14987,16 +14984,16 @@
         <v>7801323</v>
       </c>
       <c r="C169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>45346.77083333334</v>
       </c>
       <c r="E169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F169" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15005,7 +15002,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J169">
         <v>1.615</v>
@@ -15073,16 +15070,16 @@
         <v>7801324</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2">
         <v>45347.66666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F170" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15091,7 +15088,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J170">
         <v>2.5</v>
@@ -15159,16 +15156,16 @@
         <v>7801325</v>
       </c>
       <c r="C171" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D171" s="2">
         <v>45347.77083333334</v>
       </c>
       <c r="E171" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G171">
         <v>4</v>
@@ -15177,7 +15174,7 @@
         <v>4</v>
       </c>
       <c r="I171" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J171">
         <v>2.15</v>
@@ -15245,16 +15242,16 @@
         <v>7801326</v>
       </c>
       <c r="C172" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D172" s="2">
         <v>45347.85416666666</v>
       </c>
       <c r="E172" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15263,7 +15260,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J172">
         <v>2.3</v>
@@ -15331,16 +15328,16 @@
         <v>7801327</v>
       </c>
       <c r="C173" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D173" s="2">
         <v>45348.875</v>
       </c>
       <c r="E173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15349,7 +15346,7 @@
         <v>2</v>
       </c>
       <c r="I173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J173">
         <v>1.666</v>
@@ -15417,16 +15414,16 @@
         <v>7801328</v>
       </c>
       <c r="C174" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D174" s="2">
         <v>45349.875</v>
       </c>
       <c r="E174" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15435,7 +15432,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J174">
         <v>2.5</v>
@@ -15503,16 +15500,16 @@
         <v>7892752</v>
       </c>
       <c r="C175" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D175" s="2">
         <v>45350.66666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G175">
         <v>5</v>
@@ -15521,7 +15518,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J175">
         <v>3.3</v>
@@ -15589,16 +15586,16 @@
         <v>7897430</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D176" s="2">
         <v>45352.875</v>
       </c>
       <c r="E176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15607,7 +15604,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J176">
         <v>2.5</v>
@@ -15675,16 +15672,16 @@
         <v>7897428</v>
       </c>
       <c r="C177" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D177" s="2">
         <v>45353.66666666666</v>
       </c>
       <c r="E177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15693,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J177">
         <v>1.363</v>
@@ -15761,16 +15758,16 @@
         <v>7897433</v>
       </c>
       <c r="C178" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D178" s="2">
         <v>45353.77083333334</v>
       </c>
       <c r="E178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -15779,7 +15776,7 @@
         <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J178">
         <v>2.4</v>
@@ -15847,16 +15844,16 @@
         <v>7897432</v>
       </c>
       <c r="C179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D179" s="2">
         <v>45353.875</v>
       </c>
       <c r="E179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G179">
         <v>3</v>
@@ -15865,7 +15862,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J179">
         <v>2.2</v>
@@ -15933,16 +15930,16 @@
         <v>7897431</v>
       </c>
       <c r="C180" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D180" s="2">
         <v>45354.66666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F180" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15951,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J180">
         <v>1.571</v>
@@ -16019,16 +16016,16 @@
         <v>7897434</v>
       </c>
       <c r="C181" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D181" s="2">
         <v>45354.77083333334</v>
       </c>
       <c r="E181" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -16037,7 +16034,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J181">
         <v>1.666</v>
@@ -16105,16 +16102,16 @@
         <v>7897435</v>
       </c>
       <c r="C182" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D182" s="2">
         <v>45354.85416666666</v>
       </c>
       <c r="E182" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16123,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="I182" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J182">
         <v>1.75</v>
@@ -16191,16 +16188,16 @@
         <v>7897429</v>
       </c>
       <c r="C183" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D183" s="2">
         <v>45355.66666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F183" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -16209,7 +16206,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J183">
         <v>1.909</v>
@@ -16277,16 +16274,16 @@
         <v>7928563</v>
       </c>
       <c r="C184" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D184" s="2">
         <v>45359.66666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16295,7 +16292,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J184">
         <v>2.75</v>
@@ -16363,16 +16360,16 @@
         <v>7929910</v>
       </c>
       <c r="C185" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D185" s="2">
         <v>45359.89583333334</v>
       </c>
       <c r="E185" t="s">
+        <v>29</v>
+      </c>
+      <c r="F185" t="s">
         <v>30</v>
-      </c>
-      <c r="F185" t="s">
-        <v>31</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16381,7 +16378,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J185">
         <v>2.1</v>
@@ -16449,16 +16446,16 @@
         <v>7929911</v>
       </c>
       <c r="C186" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D186" s="2">
         <v>45360.66666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F186" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16467,7 +16464,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J186">
         <v>1.833</v>
@@ -16535,16 +16532,16 @@
         <v>7929912</v>
       </c>
       <c r="C187" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D187" s="2">
         <v>45360.77083333334</v>
       </c>
       <c r="E187" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16553,7 +16550,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J187">
         <v>1.4</v>
@@ -16621,16 +16618,16 @@
         <v>7929913</v>
       </c>
       <c r="C188" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D188" s="2">
         <v>45360.87152777778</v>
       </c>
       <c r="E188" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G188">
         <v>3</v>
@@ -16639,7 +16636,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J188">
         <v>1.3</v>
@@ -16707,16 +16704,16 @@
         <v>7929914</v>
       </c>
       <c r="C189" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D189" s="2">
         <v>45361.66666666666</v>
       </c>
       <c r="E189" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16725,7 +16722,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J189">
         <v>2.55</v>
@@ -16793,16 +16790,16 @@
         <v>7929915</v>
       </c>
       <c r="C190" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D190" s="2">
         <v>45361.77083333334</v>
       </c>
       <c r="E190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F190" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -16811,7 +16808,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J190">
         <v>2.55</v>
@@ -16879,16 +16876,16 @@
         <v>7929916</v>
       </c>
       <c r="C191" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D191" s="2">
         <v>45361.85416666666</v>
       </c>
       <c r="E191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -16897,7 +16894,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J191">
         <v>2.55</v>
@@ -16965,16 +16962,16 @@
         <v>7931498</v>
       </c>
       <c r="C192" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D192" s="2">
         <v>45363.79166666666</v>
       </c>
       <c r="E192" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -16983,7 +16980,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J192">
         <v>1.4</v>
@@ -17051,16 +17048,16 @@
         <v>7931499</v>
       </c>
       <c r="C193" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D193" s="2">
         <v>45363.875</v>
       </c>
       <c r="E193" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F193" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17069,7 +17066,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J193">
         <v>2.1</v>
@@ -17137,16 +17134,16 @@
         <v>7930864</v>
       </c>
       <c r="C194" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D194" s="2">
         <v>45364.66666666666</v>
       </c>
       <c r="E194" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17155,7 +17152,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J194">
         <v>1.333</v>
@@ -17223,16 +17220,16 @@
         <v>7931500</v>
       </c>
       <c r="C195" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D195" s="2">
         <v>45364.79166666666</v>
       </c>
       <c r="E195" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F195" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -17241,7 +17238,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J195">
         <v>1.909</v>
@@ -17309,16 +17306,16 @@
         <v>7930865</v>
       </c>
       <c r="C196" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D196" s="2">
         <v>45364.87152777778</v>
       </c>
       <c r="E196" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17327,7 +17324,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J196">
         <v>3</v>
@@ -17395,16 +17392,16 @@
         <v>7930866</v>
       </c>
       <c r="C197" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D197" s="2">
         <v>45365.79166666666</v>
       </c>
       <c r="E197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F197" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -17413,7 +17410,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J197">
         <v>1.65</v>
@@ -17481,16 +17478,16 @@
         <v>7930867</v>
       </c>
       <c r="C198" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D198" s="2">
         <v>45365.875</v>
       </c>
       <c r="E198" t="s">
+        <v>41</v>
+      </c>
+      <c r="F198" t="s">
         <v>42</v>
-      </c>
-      <c r="F198" t="s">
-        <v>43</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17499,7 +17496,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J198">
         <v>1.4</v>
@@ -17567,16 +17564,16 @@
         <v>7930868</v>
       </c>
       <c r="C199" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D199" s="2">
         <v>45366.875</v>
       </c>
       <c r="E199" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F199" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17585,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J199">
         <v>1.833</v>
@@ -17653,16 +17650,16 @@
         <v>7980297</v>
       </c>
       <c r="C200" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D200" s="2">
         <v>45371.83333333334</v>
       </c>
       <c r="E200" t="s">
+        <v>28</v>
+      </c>
+      <c r="F200" t="s">
         <v>29</v>
-      </c>
-      <c r="F200" t="s">
-        <v>30</v>
       </c>
       <c r="G200">
         <v>4</v>
@@ -17671,7 +17668,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J200">
         <v>1.4</v>
@@ -17739,16 +17736,16 @@
         <v>7980042</v>
       </c>
       <c r="C201" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D201" s="2">
         <v>45379.66666666666</v>
       </c>
       <c r="E201" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17757,7 +17754,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J201">
         <v>4.2</v>
@@ -17825,16 +17822,16 @@
         <v>7980298</v>
       </c>
       <c r="C202" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D202" s="2">
         <v>45379.875</v>
       </c>
       <c r="E202" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F202" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17843,7 +17840,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J202">
         <v>2.4</v>
@@ -17911,16 +17908,16 @@
         <v>8010637</v>
       </c>
       <c r="C203" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D203" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F203" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G203">
         <v>3</v>
@@ -17929,7 +17926,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J203">
         <v>1.727</v>
@@ -17997,16 +17994,16 @@
         <v>8010638</v>
       </c>
       <c r="C204" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D204" s="2">
         <v>45381.77083333334</v>
       </c>
       <c r="E204" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F204" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G204">
         <v>3</v>
@@ -18015,7 +18012,7 @@
         <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J204">
         <v>2.2</v>
@@ -18083,16 +18080,16 @@
         <v>8010639</v>
       </c>
       <c r="C205" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D205" s="2">
         <v>45381.875</v>
       </c>
       <c r="E205" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F205" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -18101,7 +18098,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J205">
         <v>1.363</v>
@@ -18169,16 +18166,16 @@
         <v>8010642</v>
       </c>
       <c r="C206" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D206" s="2">
         <v>45382.66666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F206" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -18187,7 +18184,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J206">
         <v>1.4</v>
@@ -18255,16 +18252,16 @@
         <v>8010640</v>
       </c>
       <c r="C207" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D207" s="2">
         <v>45382.77083333334</v>
       </c>
       <c r="E207" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F207" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G207">
         <v>4</v>
@@ -18273,7 +18270,7 @@
         <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J207">
         <v>1.222</v>
@@ -18341,16 +18338,16 @@
         <v>8011587</v>
       </c>
       <c r="C208" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D208" s="2">
         <v>45382.85416666666</v>
       </c>
       <c r="E208" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F208" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G208">
         <v>4</v>
@@ -18359,7 +18356,7 @@
         <v>2</v>
       </c>
       <c r="I208" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J208">
         <v>1.533</v>
@@ -18427,16 +18424,16 @@
         <v>8010641</v>
       </c>
       <c r="C209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D209" s="2">
         <v>45383.875</v>
       </c>
       <c r="E209" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F209" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G209">
         <v>3</v>
@@ -18445,7 +18442,7 @@
         <v>4</v>
       </c>
       <c r="I209" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J209">
         <v>1.7</v>
@@ -18513,16 +18510,16 @@
         <v>8038942</v>
       </c>
       <c r="C210" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D210" s="2">
         <v>45387.79166666666</v>
       </c>
       <c r="E210" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F210" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -18531,7 +18528,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J210">
         <v>1.571</v>
@@ -18599,16 +18596,16 @@
         <v>8039389</v>
       </c>
       <c r="C211" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D211" s="2">
         <v>45388.70833333334</v>
       </c>
       <c r="E211" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F211" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -18617,7 +18614,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J211">
         <v>2.2</v>
@@ -18685,16 +18682,16 @@
         <v>8039390</v>
       </c>
       <c r="C212" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D212" s="2">
         <v>45388.70833333334</v>
       </c>
       <c r="E212" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F212" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -18703,7 +18700,7 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J212">
         <v>2.05</v>
@@ -18771,16 +18768,16 @@
         <v>8054794</v>
       </c>
       <c r="C213" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D213" s="2">
         <v>45388.79166666666</v>
       </c>
       <c r="E213" t="s">
+        <v>39</v>
+      </c>
+      <c r="F213" t="s">
         <v>40</v>
-      </c>
-      <c r="F213" t="s">
-        <v>41</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -18789,7 +18786,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J213">
         <v>1.95</v>
@@ -18854,19 +18851,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>8039392</v>
+        <v>8038943</v>
       </c>
       <c r="C214" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D214" s="2">
         <v>45389.70833333334</v>
       </c>
       <c r="E214" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F214" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G214">
         <v>2</v>
@@ -18875,46 +18872,46 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J214">
+        <v>2.3</v>
+      </c>
+      <c r="K214">
+        <v>3.5</v>
+      </c>
+      <c r="L214">
+        <v>2.625</v>
+      </c>
+      <c r="M214">
+        <v>2.8</v>
+      </c>
+      <c r="N214">
+        <v>3.6</v>
+      </c>
+      <c r="O214">
+        <v>2.375</v>
+      </c>
+      <c r="P214">
+        <v>0.25</v>
+      </c>
+      <c r="Q214">
+        <v>1.8</v>
+      </c>
+      <c r="R214">
         <v>2</v>
       </c>
-      <c r="K214">
+      <c r="S214">
         <v>3.25</v>
       </c>
-      <c r="L214">
-        <v>3.4</v>
-      </c>
-      <c r="M214">
-        <v>1.727</v>
-      </c>
-      <c r="N214">
-        <v>4</v>
-      </c>
-      <c r="O214">
-        <v>4.5</v>
-      </c>
-      <c r="P214">
-        <v>-0.75</v>
-      </c>
-      <c r="Q214">
-        <v>1.9</v>
-      </c>
-      <c r="R214">
-        <v>1.9</v>
-      </c>
-      <c r="S214">
-        <v>2.75</v>
-      </c>
       <c r="T214">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V214">
-        <v>0.7270000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -18923,16 +18920,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="Z214">
+        <v>-1</v>
+      </c>
+      <c r="AA214">
         <v>-0.5</v>
       </c>
-      <c r="AA214">
-        <v>0.45</v>
-      </c>
       <c r="AB214">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -18940,16 +18937,16 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>8038943</v>
+        <v>8039392</v>
       </c>
       <c r="C215" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D215" s="2">
         <v>45389.70833333334</v>
       </c>
       <c r="E215" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F215" t="s">
         <v>42</v>
@@ -18961,46 +18958,46 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J215">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K215">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L215">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="M215">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="N215">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O215">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="P215">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q215">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R215">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T215">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U215">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>1.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19009,16 +19006,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA215">
+        <v>0.45</v>
+      </c>
+      <c r="AB215">
         <v>-0.5</v>
-      </c>
-      <c r="AB215">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -19029,16 +19026,16 @@
         <v>8039398</v>
       </c>
       <c r="C216" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D216" s="2">
         <v>45389.85416666666</v>
       </c>
       <c r="E216" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F216" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G216">
         <v>2</v>
@@ -19047,7 +19044,7 @@
         <v>1</v>
       </c>
       <c r="I216" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J216">
         <v>1.533</v>
@@ -19115,16 +19112,16 @@
         <v>8039391</v>
       </c>
       <c r="C217" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D217" s="2">
         <v>45390.83333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G217">
         <v>3</v>
@@ -19133,7 +19130,7 @@
         <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J217">
         <v>1.666</v>
@@ -19201,16 +19198,16 @@
         <v>8021846</v>
       </c>
       <c r="C218" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D218" s="2">
         <v>45393.83333333334</v>
       </c>
       <c r="E218" t="s">
+        <v>32</v>
+      </c>
+      <c r="F218" t="s">
         <v>33</v>
-      </c>
-      <c r="F218" t="s">
-        <v>34</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19219,7 +19216,7 @@
         <v>3</v>
       </c>
       <c r="I218" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J218">
         <v>6</v>
@@ -19287,16 +19284,16 @@
         <v>8088970</v>
       </c>
       <c r="C219" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D219" s="2">
         <v>45396.66666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F219" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19305,7 +19302,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J219">
         <v>2.4</v>
@@ -19373,16 +19370,16 @@
         <v>8089547</v>
       </c>
       <c r="C220" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D220" s="2">
         <v>45396.77083333334</v>
       </c>
       <c r="E220" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -19391,7 +19388,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J220">
         <v>2.6</v>
@@ -19459,16 +19456,16 @@
         <v>8089492</v>
       </c>
       <c r="C221" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D221" s="2">
         <v>45396.85416666666</v>
       </c>
       <c r="E221" t="s">
+        <v>38</v>
+      </c>
+      <c r="F221" t="s">
         <v>39</v>
-      </c>
-      <c r="F221" t="s">
-        <v>40</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -19477,7 +19474,7 @@
         <v>1</v>
       </c>
       <c r="I221" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J221">
         <v>1.533</v>
@@ -19545,16 +19542,16 @@
         <v>8090056</v>
       </c>
       <c r="C222" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D222" s="2">
         <v>45397.83333333334</v>
       </c>
       <c r="E222" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19563,7 +19560,7 @@
         <v>1</v>
       </c>
       <c r="I222" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J222">
         <v>2.2</v>
@@ -19631,16 +19628,16 @@
         <v>8091186</v>
       </c>
       <c r="C223" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D223" s="2">
         <v>45399.66666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F223" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G223">
         <v>3</v>
@@ -19649,7 +19646,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J223">
         <v>2.1</v>
@@ -19717,16 +19714,16 @@
         <v>8090748</v>
       </c>
       <c r="C224" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D224" s="2">
         <v>45399.875</v>
       </c>
       <c r="E224" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F224" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G224">
         <v>2</v>
@@ -19735,7 +19732,7 @@
         <v>1</v>
       </c>
       <c r="I224" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J224">
         <v>1.533</v>
@@ -19803,16 +19800,16 @@
         <v>8090539</v>
       </c>
       <c r="C225" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D225" s="2">
         <v>45400.83333333334</v>
       </c>
       <c r="E225" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F225" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -19821,7 +19818,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J225">
         <v>1.363</v>
@@ -19889,16 +19886,16 @@
         <v>8091314</v>
       </c>
       <c r="C226" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D226" s="2">
         <v>45400.875</v>
       </c>
       <c r="E226" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F226" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G226">
         <v>6</v>
@@ -19907,7 +19904,7 @@
         <v>8</v>
       </c>
       <c r="I226" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J226">
         <v>1.363</v>
@@ -19975,16 +19972,16 @@
         <v>8119939</v>
       </c>
       <c r="C227" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D227" s="2">
         <v>45410.70833333334</v>
       </c>
       <c r="E227" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F227" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G227">
         <v>9</v>
@@ -19993,7 +19990,7 @@
         <v>11</v>
       </c>
       <c r="I227" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J227">
         <v>1.444</v>
@@ -20061,16 +20058,16 @@
         <v>8119940</v>
       </c>
       <c r="C228" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D228" s="2">
         <v>45410.79166666666</v>
       </c>
       <c r="E228" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F228" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20079,7 +20076,7 @@
         <v>1</v>
       </c>
       <c r="I228" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J228">
         <v>2</v>
@@ -20137,71 +20134,6 @@
       </c>
       <c r="AB228">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:28">
-      <c r="A229" s="1">
-        <v>227</v>
-      </c>
-      <c r="B229" t="s">
-        <v>27</v>
-      </c>
-      <c r="C229" t="s">
-        <v>28</v>
-      </c>
-      <c r="D229" s="2">
-        <v>45413.66666666666</v>
-      </c>
-      <c r="E229" t="s">
-        <v>40</v>
-      </c>
-      <c r="F229" t="s">
-        <v>47</v>
-      </c>
-      <c r="J229">
-        <v>1.615</v>
-      </c>
-      <c r="K229">
-        <v>3.75</v>
-      </c>
-      <c r="L229">
-        <v>4.75</v>
-      </c>
-      <c r="M229">
-        <v>1.75</v>
-      </c>
-      <c r="N229">
-        <v>4</v>
-      </c>
-      <c r="O229">
-        <v>4.2</v>
-      </c>
-      <c r="P229">
-        <v>-0.75</v>
-      </c>
-      <c r="Q229">
-        <v>1.95</v>
-      </c>
-      <c r="R229">
-        <v>1.85</v>
-      </c>
-      <c r="S229">
-        <v>3</v>
-      </c>
-      <c r="T229">
-        <v>1.775</v>
-      </c>
-      <c r="U229">
-        <v>2.025</v>
-      </c>
-      <c r="V229">
-        <v>0</v>
-      </c>
-      <c r="W229">
-        <v>0</v>
-      </c>
-      <c r="X229">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -13175,7 +13175,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532419</v>
+        <v>7532421</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
@@ -13184,13 +13184,13 @@
         <v>45265.875</v>
       </c>
       <c r="E148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13199,43 +13199,43 @@
         <v>47</v>
       </c>
       <c r="J148">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="K148">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L148">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="M148">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="N148">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="O148">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="P148">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T148">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>1.375</v>
+        <v>0.333</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13244,16 +13244,16 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13347,7 +13347,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532421</v>
+        <v>7532419</v>
       </c>
       <c r="C150" t="s">
         <v>27</v>
@@ -13356,13 +13356,13 @@
         <v>45265.875</v>
       </c>
       <c r="E150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13371,43 +13371,43 @@
         <v>47</v>
       </c>
       <c r="J150">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="K150">
+        <v>2.5</v>
+      </c>
+      <c r="L150">
         <v>4.5</v>
       </c>
-      <c r="L150">
-        <v>7.5</v>
-      </c>
       <c r="M150">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="N150">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="O150">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="P150">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q150">
+        <v>1.9</v>
+      </c>
+      <c r="R150">
+        <v>1.9</v>
+      </c>
+      <c r="S150">
+        <v>2</v>
+      </c>
+      <c r="T150">
+        <v>1.95</v>
+      </c>
+      <c r="U150">
         <v>1.85</v>
       </c>
-      <c r="R150">
-        <v>1.95</v>
-      </c>
-      <c r="S150">
-        <v>3</v>
-      </c>
-      <c r="T150">
-        <v>1.825</v>
-      </c>
-      <c r="U150">
-        <v>1.975</v>
-      </c>
       <c r="V150">
-        <v>0.333</v>
+        <v>1.375</v>
       </c>
       <c r="W150">
         <v>-1</v>
@@ -13416,16 +13416,16 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB150">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:28">
@@ -13605,7 +13605,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
@@ -13614,58 +13614,58 @@
         <v>45266.875</v>
       </c>
       <c r="E153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="s">
         <v>47</v>
       </c>
       <c r="J153">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="K153">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L153">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="M153">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="N153">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O153">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="P153">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q153">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R153">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S153">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T153">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V153">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -13674,16 +13674,16 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AB153">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13691,7 +13691,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C154" t="s">
         <v>27</v>
@@ -13700,76 +13700,76 @@
         <v>45266.875</v>
       </c>
       <c r="E154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="s">
         <v>47</v>
       </c>
       <c r="J154">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="K154">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L154">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="M154">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="N154">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="P154">
+        <v>-2.25</v>
+      </c>
+      <c r="Q154">
+        <v>1.95</v>
+      </c>
+      <c r="R154">
+        <v>1.85</v>
+      </c>
+      <c r="S154">
+        <v>3.75</v>
+      </c>
+      <c r="T154">
+        <v>1.975</v>
+      </c>
+      <c r="U154">
+        <v>1.825</v>
+      </c>
+      <c r="V154">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="W154">
+        <v>-1</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>0.95</v>
+      </c>
+      <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
+        <v>0.4875</v>
+      </c>
+      <c r="AB154">
         <v>-0.5</v>
-      </c>
-      <c r="Q154">
-        <v>1.825</v>
-      </c>
-      <c r="R154">
-        <v>1.975</v>
-      </c>
-      <c r="S154">
-        <v>3</v>
-      </c>
-      <c r="T154">
-        <v>2</v>
-      </c>
-      <c r="U154">
-        <v>1.8</v>
-      </c>
-      <c r="V154">
-        <v>0.833</v>
-      </c>
-      <c r="W154">
-        <v>-1</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>0.825</v>
-      </c>
-      <c r="Z154">
-        <v>-1</v>
-      </c>
-      <c r="AA154">
-        <v>0</v>
-      </c>
-      <c r="AB154">
-        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -18593,7 +18593,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>8039389</v>
+        <v>8039390</v>
       </c>
       <c r="C211" t="s">
         <v>27</v>
@@ -18602,76 +18602,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="E211" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F211" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J211">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K211">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L211">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M211">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="N211">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O211">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="P211">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q211">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R211">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S211">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T211">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U211">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V211">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W211">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB211">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18679,7 +18679,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>8039390</v>
+        <v>8039389</v>
       </c>
       <c r="C212" t="s">
         <v>27</v>
@@ -18688,76 +18688,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="E212" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F212" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J212">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="K212">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L212">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M212">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="N212">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O212">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P212">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q212">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R212">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T212">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U212">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18851,7 +18851,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>8038943</v>
+        <v>8039392</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -18860,10 +18860,10 @@
         <v>45389.70833333334</v>
       </c>
       <c r="E214" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G214">
         <v>2</v>
@@ -18875,43 +18875,43 @@
         <v>47</v>
       </c>
       <c r="J214">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K214">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L214">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="M214">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="N214">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O214">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="P214">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q214">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S214">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T214">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U214">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -18920,16 +18920,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA214">
+        <v>0.45</v>
+      </c>
+      <c r="AB214">
         <v>-0.5</v>
-      </c>
-      <c r="AB214">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -18937,7 +18937,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>8039392</v>
+        <v>8038943</v>
       </c>
       <c r="C215" t="s">
         <v>27</v>
@@ -18946,10 +18946,10 @@
         <v>45389.70833333334</v>
       </c>
       <c r="E215" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F215" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18961,43 +18961,43 @@
         <v>47</v>
       </c>
       <c r="J215">
+        <v>2.3</v>
+      </c>
+      <c r="K215">
+        <v>3.5</v>
+      </c>
+      <c r="L215">
+        <v>2.625</v>
+      </c>
+      <c r="M215">
+        <v>2.8</v>
+      </c>
+      <c r="N215">
+        <v>3.6</v>
+      </c>
+      <c r="O215">
+        <v>2.375</v>
+      </c>
+      <c r="P215">
+        <v>0.25</v>
+      </c>
+      <c r="Q215">
+        <v>1.8</v>
+      </c>
+      <c r="R215">
         <v>2</v>
       </c>
-      <c r="K215">
+      <c r="S215">
         <v>3.25</v>
       </c>
-      <c r="L215">
-        <v>3.4</v>
-      </c>
-      <c r="M215">
-        <v>1.727</v>
-      </c>
-      <c r="N215">
-        <v>4</v>
-      </c>
-      <c r="O215">
-        <v>4.5</v>
-      </c>
-      <c r="P215">
-        <v>-0.75</v>
-      </c>
-      <c r="Q215">
-        <v>1.9</v>
-      </c>
-      <c r="R215">
-        <v>1.9</v>
-      </c>
-      <c r="S215">
-        <v>2.75</v>
-      </c>
       <c r="T215">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V215">
-        <v>0.7270000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19006,16 +19006,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="Z215">
+        <v>-1</v>
+      </c>
+      <c r="AA215">
         <v>-0.5</v>
       </c>
-      <c r="AA215">
-        <v>0.45</v>
-      </c>
       <c r="AB215">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="216" spans="1:28">

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB228"/>
+  <dimension ref="A1:AB230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4489,7 +4489,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6504578</v>
+        <v>6504291</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -4498,16 +4498,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>1</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
       </c>
       <c r="I47" t="s">
         <v>49</v>
@@ -4519,34 +4519,34 @@
         <v>3.2</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M47">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N47">
         <v>3.6</v>
       </c>
       <c r="O47">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P47">
         <v>-0.75</v>
       </c>
       <c r="Q47">
+        <v>1.85</v>
+      </c>
+      <c r="R47">
         <v>1.95</v>
-      </c>
-      <c r="R47">
-        <v>1.85</v>
       </c>
       <c r="S47">
         <v>2.5</v>
       </c>
       <c r="T47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
         <v>-1</v>
@@ -4555,19 +4555,19 @@
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4575,7 +4575,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6504291</v>
+        <v>6504578</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
@@ -4584,16 +4584,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="s">
         <v>49</v>
@@ -4605,34 +4605,34 @@
         <v>3.2</v>
       </c>
       <c r="L48">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="N48">
         <v>3.6</v>
       </c>
       <c r="O48">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P48">
         <v>-0.75</v>
       </c>
       <c r="Q48">
+        <v>1.95</v>
+      </c>
+      <c r="R48">
         <v>1.85</v>
-      </c>
-      <c r="R48">
-        <v>1.95</v>
       </c>
       <c r="S48">
         <v>2.5</v>
       </c>
       <c r="T48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U48">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V48">
         <v>-1</v>
@@ -4641,19 +4641,19 @@
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB48">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -9649,7 +9649,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7331150</v>
+        <v>7329845</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
@@ -9658,76 +9658,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J107">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="K107">
+        <v>3.4</v>
+      </c>
+      <c r="L107">
+        <v>2.05</v>
+      </c>
+      <c r="M107">
+        <v>3.4</v>
+      </c>
+      <c r="N107">
         <v>3.5</v>
       </c>
-      <c r="L107">
-        <v>2.875</v>
-      </c>
-      <c r="M107">
-        <v>2.4</v>
-      </c>
-      <c r="N107">
-        <v>3.6</v>
-      </c>
       <c r="O107">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="P107">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q107">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="R107">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S107">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V107">
         <v>-1</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X107">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="Z107">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9735,7 +9735,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7329845</v>
+        <v>7331150</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -9744,76 +9744,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H108">
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J108">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="K108">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L108">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="M108">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N108">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O108">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="P108">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q108">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="R108">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
         <v>-1</v>
       </c>
       <c r="W108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -12659,7 +12659,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532413</v>
+        <v>7532430</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
@@ -12668,49 +12668,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J142">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="K142">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L142">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="M142">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="N142">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O142">
-        <v>2.875</v>
+        <v>8.5</v>
       </c>
       <c r="P142">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q142">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T142">
         <v>1.9</v>
@@ -12719,25 +12719,25 @@
         <v>1.9</v>
       </c>
       <c r="V142">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z142">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12745,7 +12745,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532412</v>
+        <v>7532414</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
@@ -12754,76 +12754,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J143">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="K143">
         <v>3.75</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M143">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="N143">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="O143">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="P143">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q143">
+        <v>2</v>
+      </c>
+      <c r="R143">
+        <v>1.8</v>
+      </c>
+      <c r="S143">
+        <v>3</v>
+      </c>
+      <c r="T143">
+        <v>1.85</v>
+      </c>
+      <c r="U143">
         <v>1.95</v>
       </c>
-      <c r="R143">
-        <v>1.85</v>
-      </c>
-      <c r="S143">
-        <v>2.75</v>
-      </c>
-      <c r="T143">
-        <v>1.925</v>
-      </c>
-      <c r="U143">
-        <v>1.875</v>
-      </c>
       <c r="V143">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA143">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12831,7 +12831,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532414</v>
+        <v>7532412</v>
       </c>
       <c r="C144" t="s">
         <v>27</v>
@@ -12840,76 +12840,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I144" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J144">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="K144">
         <v>3.75</v>
       </c>
       <c r="L144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="N144">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O144">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="P144">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q144">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S144">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T144">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB144">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12917,7 +12917,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532430</v>
+        <v>7532413</v>
       </c>
       <c r="C145" t="s">
         <v>27</v>
@@ -12926,49 +12926,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G145">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J145">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="K145">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L145">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="M145">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="N145">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O145">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="P145">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q145">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S145">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T145">
         <v>1.9</v>
@@ -12977,25 +12977,25 @@
         <v>1.9</v>
       </c>
       <c r="V145">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA145">
+        <v>-1</v>
+      </c>
+      <c r="AB145">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB145">
-        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13175,7 +13175,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532421</v>
+        <v>7532420</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
@@ -13184,13 +13184,13 @@
         <v>45265.875</v>
       </c>
       <c r="E148" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13199,43 +13199,43 @@
         <v>47</v>
       </c>
       <c r="J148">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="K148">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L148">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M148">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="N148">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O148">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="P148">
         <v>-1.5</v>
       </c>
       <c r="Q148">
+        <v>1.8</v>
+      </c>
+      <c r="R148">
+        <v>2</v>
+      </c>
+      <c r="S148">
+        <v>3.25</v>
+      </c>
+      <c r="T148">
+        <v>1.95</v>
+      </c>
+      <c r="U148">
         <v>1.85</v>
       </c>
-      <c r="R148">
-        <v>1.95</v>
-      </c>
-      <c r="S148">
-        <v>3</v>
-      </c>
-      <c r="T148">
-        <v>1.825</v>
-      </c>
-      <c r="U148">
-        <v>1.975</v>
-      </c>
       <c r="V148">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13244,16 +13244,16 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13261,7 +13261,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532420</v>
+        <v>7532421</v>
       </c>
       <c r="C149" t="s">
         <v>27</v>
@@ -13270,13 +13270,13 @@
         <v>45265.875</v>
       </c>
       <c r="E149" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13285,43 +13285,43 @@
         <v>47</v>
       </c>
       <c r="J149">
+        <v>1.4</v>
+      </c>
+      <c r="K149">
+        <v>4.5</v>
+      </c>
+      <c r="L149">
+        <v>7.5</v>
+      </c>
+      <c r="M149">
         <v>1.333</v>
       </c>
-      <c r="K149">
-        <v>5</v>
-      </c>
-      <c r="L149">
-        <v>8</v>
-      </c>
-      <c r="M149">
-        <v>1.3</v>
-      </c>
       <c r="N149">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O149">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="P149">
         <v>-1.5</v>
       </c>
       <c r="Q149">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S149">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T149">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V149">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13330,16 +13330,16 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -18851,7 +18851,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>8039392</v>
+        <v>8038943</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -18860,10 +18860,10 @@
         <v>45389.70833333334</v>
       </c>
       <c r="E214" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G214">
         <v>2</v>
@@ -18875,43 +18875,43 @@
         <v>47</v>
       </c>
       <c r="J214">
+        <v>2.3</v>
+      </c>
+      <c r="K214">
+        <v>3.5</v>
+      </c>
+      <c r="L214">
+        <v>2.625</v>
+      </c>
+      <c r="M214">
+        <v>2.8</v>
+      </c>
+      <c r="N214">
+        <v>3.6</v>
+      </c>
+      <c r="O214">
+        <v>2.375</v>
+      </c>
+      <c r="P214">
+        <v>0.25</v>
+      </c>
+      <c r="Q214">
+        <v>1.8</v>
+      </c>
+      <c r="R214">
         <v>2</v>
       </c>
-      <c r="K214">
+      <c r="S214">
         <v>3.25</v>
       </c>
-      <c r="L214">
-        <v>3.4</v>
-      </c>
-      <c r="M214">
-        <v>1.727</v>
-      </c>
-      <c r="N214">
-        <v>4</v>
-      </c>
-      <c r="O214">
-        <v>4.5</v>
-      </c>
-      <c r="P214">
-        <v>-0.75</v>
-      </c>
-      <c r="Q214">
-        <v>1.9</v>
-      </c>
-      <c r="R214">
-        <v>1.9</v>
-      </c>
-      <c r="S214">
-        <v>2.75</v>
-      </c>
       <c r="T214">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V214">
-        <v>0.7270000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -18920,16 +18920,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="Z214">
+        <v>-1</v>
+      </c>
+      <c r="AA214">
         <v>-0.5</v>
       </c>
-      <c r="AA214">
-        <v>0.45</v>
-      </c>
       <c r="AB214">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -18937,7 +18937,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>8038943</v>
+        <v>8039392</v>
       </c>
       <c r="C215" t="s">
         <v>27</v>
@@ -18946,10 +18946,10 @@
         <v>45389.70833333334</v>
       </c>
       <c r="E215" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F215" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18961,43 +18961,43 @@
         <v>47</v>
       </c>
       <c r="J215">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K215">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L215">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="M215">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="N215">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O215">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="P215">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q215">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R215">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T215">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U215">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>1.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19006,16 +19006,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA215">
+        <v>0.45</v>
+      </c>
+      <c r="AB215">
         <v>-0.5</v>
-      </c>
-      <c r="AB215">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -20134,6 +20134,178 @@
       </c>
       <c r="AB228">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:28">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>8164270</v>
+      </c>
+      <c r="C229" t="s">
+        <v>27</v>
+      </c>
+      <c r="D229" s="2">
+        <v>45413.66666666666</v>
+      </c>
+      <c r="E229" t="s">
+        <v>39</v>
+      </c>
+      <c r="F229" t="s">
+        <v>46</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <v>2</v>
+      </c>
+      <c r="I229" t="s">
+        <v>49</v>
+      </c>
+      <c r="J229">
+        <v>1.615</v>
+      </c>
+      <c r="K229">
+        <v>3.75</v>
+      </c>
+      <c r="L229">
+        <v>4.75</v>
+      </c>
+      <c r="M229">
+        <v>1.8</v>
+      </c>
+      <c r="N229">
+        <v>4</v>
+      </c>
+      <c r="O229">
+        <v>4</v>
+      </c>
+      <c r="P229">
+        <v>-0.75</v>
+      </c>
+      <c r="Q229">
+        <v>2</v>
+      </c>
+      <c r="R229">
+        <v>1.8</v>
+      </c>
+      <c r="S229">
+        <v>3</v>
+      </c>
+      <c r="T229">
+        <v>1.775</v>
+      </c>
+      <c r="U229">
+        <v>2.025</v>
+      </c>
+      <c r="V229">
+        <v>-1</v>
+      </c>
+      <c r="W229">
+        <v>-1</v>
+      </c>
+      <c r="X229">
+        <v>3</v>
+      </c>
+      <c r="Y229">
+        <v>-1</v>
+      </c>
+      <c r="Z229">
+        <v>0.8</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:28">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>8170178</v>
+      </c>
+      <c r="C230" t="s">
+        <v>27</v>
+      </c>
+      <c r="D230" s="2">
+        <v>45417.66666666666</v>
+      </c>
+      <c r="E230" t="s">
+        <v>46</v>
+      </c>
+      <c r="F230" t="s">
+        <v>39</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230" t="s">
+        <v>48</v>
+      </c>
+      <c r="J230">
+        <v>1.615</v>
+      </c>
+      <c r="K230">
+        <v>3.8</v>
+      </c>
+      <c r="L230">
+        <v>4.5</v>
+      </c>
+      <c r="M230">
+        <v>1.55</v>
+      </c>
+      <c r="N230">
+        <v>4.2</v>
+      </c>
+      <c r="O230">
+        <v>6</v>
+      </c>
+      <c r="P230">
+        <v>-1</v>
+      </c>
+      <c r="Q230">
+        <v>1.9</v>
+      </c>
+      <c r="R230">
+        <v>1.9</v>
+      </c>
+      <c r="S230">
+        <v>2.75</v>
+      </c>
+      <c r="T230">
+        <v>2</v>
+      </c>
+      <c r="U230">
+        <v>1.8</v>
+      </c>
+      <c r="V230">
+        <v>-1</v>
+      </c>
+      <c r="W230">
+        <v>3.2</v>
+      </c>
+      <c r="X230">
+        <v>-1</v>
+      </c>
+      <c r="Y230">
+        <v>-1</v>
+      </c>
+      <c r="Z230">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA230">
+        <v>-1</v>
+      </c>
+      <c r="AB230">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -2769,7 +2769,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2778,76 +2778,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J27">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="K27">
         <v>3.6</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="P27">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q27">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R27">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T27">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y27">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB27">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2855,7 +2855,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2864,76 +2864,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J28">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="K28">
         <v>3.6</v>
       </c>
       <c r="L28">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O28">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q28">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T28">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U28">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -9649,7 +9649,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7329845</v>
+        <v>7331150</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
@@ -9658,76 +9658,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J107">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="K107">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L107">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="M107">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N107">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O107">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="P107">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q107">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="R107">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S107">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
         <v>-1</v>
       </c>
       <c r="W107">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y107">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9735,7 +9735,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7331150</v>
+        <v>7329845</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -9744,76 +9744,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H108">
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J108">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="K108">
+        <v>3.4</v>
+      </c>
+      <c r="L108">
+        <v>2.05</v>
+      </c>
+      <c r="M108">
+        <v>3.4</v>
+      </c>
+      <c r="N108">
         <v>3.5</v>
       </c>
-      <c r="L108">
-        <v>2.875</v>
-      </c>
-      <c r="M108">
-        <v>2.4</v>
-      </c>
-      <c r="N108">
-        <v>3.6</v>
-      </c>
       <c r="O108">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="P108">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q108">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="R108">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S108">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V108">
         <v>-1</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X108">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="Z108">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -12659,7 +12659,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532430</v>
+        <v>7532412</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
@@ -12668,76 +12668,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>3</v>
+      </c>
+      <c r="I142" t="s">
+        <v>49</v>
+      </c>
+      <c r="J142">
+        <v>1.727</v>
+      </c>
+      <c r="K142">
+        <v>3.75</v>
+      </c>
+      <c r="L142">
         <v>4</v>
       </c>
-      <c r="H142">
-        <v>1</v>
-      </c>
-      <c r="I142" t="s">
-        <v>47</v>
-      </c>
-      <c r="J142">
-        <v>1.4</v>
-      </c>
-      <c r="K142">
-        <v>4.2</v>
-      </c>
-      <c r="L142">
-        <v>7</v>
-      </c>
       <c r="M142">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="N142">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O142">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="P142">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q142">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S142">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T142">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA142">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12745,7 +12745,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532414</v>
+        <v>7532413</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
@@ -12754,76 +12754,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
         <v>1</v>
       </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
       <c r="I143" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J143">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="K143">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L143">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M143">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="N143">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O143">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="P143">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q143">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S143">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T143">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U143">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12831,7 +12831,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532412</v>
+        <v>7532430</v>
       </c>
       <c r="C144" t="s">
         <v>27</v>
@@ -12840,76 +12840,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144" t="s">
+        <v>47</v>
+      </c>
+      <c r="J144">
+        <v>1.4</v>
+      </c>
+      <c r="K144">
+        <v>4.2</v>
+      </c>
+      <c r="L144">
+        <v>7</v>
+      </c>
+      <c r="M144">
+        <v>1.363</v>
+      </c>
+      <c r="N144">
+        <v>4.5</v>
+      </c>
+      <c r="O144">
+        <v>8.5</v>
+      </c>
+      <c r="P144">
+        <v>-1.5</v>
+      </c>
+      <c r="Q144">
+        <v>2</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
         <v>3</v>
       </c>
-      <c r="I144" t="s">
-        <v>49</v>
-      </c>
-      <c r="J144">
-        <v>1.727</v>
-      </c>
-      <c r="K144">
-        <v>3.75</v>
-      </c>
-      <c r="L144">
-        <v>4</v>
-      </c>
-      <c r="M144">
-        <v>2.3</v>
-      </c>
-      <c r="N144">
-        <v>3.6</v>
-      </c>
-      <c r="O144">
-        <v>2.875</v>
-      </c>
-      <c r="P144">
-        <v>-0.25</v>
-      </c>
-      <c r="Q144">
-        <v>1.95</v>
-      </c>
-      <c r="R144">
-        <v>1.85</v>
-      </c>
-      <c r="S144">
-        <v>2.75</v>
-      </c>
       <c r="T144">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12917,7 +12917,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532413</v>
+        <v>7532414</v>
       </c>
       <c r="C145" t="s">
         <v>27</v>
@@ -12926,76 +12926,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F145" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J145">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="K145">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L145">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="M145">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="N145">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="O145">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="P145">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q145">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R145">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T145">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13175,7 +13175,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532420</v>
+        <v>7532421</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
@@ -13184,13 +13184,13 @@
         <v>45265.875</v>
       </c>
       <c r="E148" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13199,43 +13199,43 @@
         <v>47</v>
       </c>
       <c r="J148">
+        <v>1.4</v>
+      </c>
+      <c r="K148">
+        <v>4.5</v>
+      </c>
+      <c r="L148">
+        <v>7.5</v>
+      </c>
+      <c r="M148">
         <v>1.333</v>
       </c>
-      <c r="K148">
-        <v>5</v>
-      </c>
-      <c r="L148">
-        <v>8</v>
-      </c>
-      <c r="M148">
-        <v>1.3</v>
-      </c>
       <c r="N148">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O148">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="P148">
         <v>-1.5</v>
       </c>
       <c r="Q148">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S148">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T148">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13244,16 +13244,16 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13261,7 +13261,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532421</v>
+        <v>7532420</v>
       </c>
       <c r="C149" t="s">
         <v>27</v>
@@ -13270,13 +13270,13 @@
         <v>45265.875</v>
       </c>
       <c r="E149" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13285,43 +13285,43 @@
         <v>47</v>
       </c>
       <c r="J149">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="K149">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L149">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M149">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="N149">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O149">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="P149">
         <v>-1.5</v>
       </c>
       <c r="Q149">
+        <v>1.8</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>3.25</v>
+      </c>
+      <c r="T149">
+        <v>1.95</v>
+      </c>
+      <c r="U149">
         <v>1.85</v>
       </c>
-      <c r="R149">
-        <v>1.95</v>
-      </c>
-      <c r="S149">
-        <v>3</v>
-      </c>
-      <c r="T149">
-        <v>1.825</v>
-      </c>
-      <c r="U149">
-        <v>1.975</v>
-      </c>
       <c r="V149">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13330,16 +13330,16 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB149">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -13605,7 +13605,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
@@ -13614,76 +13614,76 @@
         <v>45266.875</v>
       </c>
       <c r="E153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="s">
         <v>47</v>
       </c>
       <c r="J153">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="K153">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L153">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="M153">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="N153">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O153">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="P153">
+        <v>-2.25</v>
+      </c>
+      <c r="Q153">
+        <v>1.95</v>
+      </c>
+      <c r="R153">
+        <v>1.85</v>
+      </c>
+      <c r="S153">
+        <v>3.75</v>
+      </c>
+      <c r="T153">
+        <v>1.975</v>
+      </c>
+      <c r="U153">
+        <v>1.825</v>
+      </c>
+      <c r="V153">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>0.95</v>
+      </c>
+      <c r="Z153">
+        <v>-1</v>
+      </c>
+      <c r="AA153">
+        <v>0.4875</v>
+      </c>
+      <c r="AB153">
         <v>-0.5</v>
-      </c>
-      <c r="Q153">
-        <v>1.825</v>
-      </c>
-      <c r="R153">
-        <v>1.975</v>
-      </c>
-      <c r="S153">
-        <v>3</v>
-      </c>
-      <c r="T153">
-        <v>2</v>
-      </c>
-      <c r="U153">
-        <v>1.8</v>
-      </c>
-      <c r="V153">
-        <v>0.833</v>
-      </c>
-      <c r="W153">
-        <v>-1</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>0.825</v>
-      </c>
-      <c r="Z153">
-        <v>-1</v>
-      </c>
-      <c r="AA153">
-        <v>0</v>
-      </c>
-      <c r="AB153">
-        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13691,7 +13691,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C154" t="s">
         <v>27</v>
@@ -13700,58 +13700,58 @@
         <v>45266.875</v>
       </c>
       <c r="E154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="s">
         <v>47</v>
       </c>
       <c r="J154">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="K154">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L154">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="M154">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="N154">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O154">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q154">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S154">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T154">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U154">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V154">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="W154">
         <v>-1</v>
@@ -13760,16 +13760,16 @@
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AB154">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -18593,7 +18593,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>8039390</v>
+        <v>8039389</v>
       </c>
       <c r="C211" t="s">
         <v>27</v>
@@ -18602,76 +18602,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="E211" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F211" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J211">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="K211">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L211">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M211">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="N211">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O211">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P211">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q211">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R211">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S211">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T211">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U211">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V211">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18679,7 +18679,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>8039389</v>
+        <v>8039390</v>
       </c>
       <c r="C212" t="s">
         <v>27</v>
@@ -18688,76 +18688,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="E212" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F212" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J212">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K212">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L212">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M212">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="N212">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O212">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="P212">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q212">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R212">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S212">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T212">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U212">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W212">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB212">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18851,7 +18851,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>8038943</v>
+        <v>8039392</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -18860,10 +18860,10 @@
         <v>45389.70833333334</v>
       </c>
       <c r="E214" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G214">
         <v>2</v>
@@ -18875,43 +18875,43 @@
         <v>47</v>
       </c>
       <c r="J214">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K214">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L214">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="M214">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="N214">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O214">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="P214">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q214">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S214">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T214">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U214">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -18920,16 +18920,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA214">
+        <v>0.45</v>
+      </c>
+      <c r="AB214">
         <v>-0.5</v>
-      </c>
-      <c r="AB214">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -18937,7 +18937,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>8039392</v>
+        <v>8038943</v>
       </c>
       <c r="C215" t="s">
         <v>27</v>
@@ -18946,10 +18946,10 @@
         <v>45389.70833333334</v>
       </c>
       <c r="E215" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F215" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18961,43 +18961,43 @@
         <v>47</v>
       </c>
       <c r="J215">
+        <v>2.3</v>
+      </c>
+      <c r="K215">
+        <v>3.5</v>
+      </c>
+      <c r="L215">
+        <v>2.625</v>
+      </c>
+      <c r="M215">
+        <v>2.8</v>
+      </c>
+      <c r="N215">
+        <v>3.6</v>
+      </c>
+      <c r="O215">
+        <v>2.375</v>
+      </c>
+      <c r="P215">
+        <v>0.25</v>
+      </c>
+      <c r="Q215">
+        <v>1.8</v>
+      </c>
+      <c r="R215">
         <v>2</v>
       </c>
-      <c r="K215">
+      <c r="S215">
         <v>3.25</v>
       </c>
-      <c r="L215">
-        <v>3.4</v>
-      </c>
-      <c r="M215">
-        <v>1.727</v>
-      </c>
-      <c r="N215">
-        <v>4</v>
-      </c>
-      <c r="O215">
-        <v>4.5</v>
-      </c>
-      <c r="P215">
-        <v>-0.75</v>
-      </c>
-      <c r="Q215">
-        <v>1.9</v>
-      </c>
-      <c r="R215">
-        <v>1.9</v>
-      </c>
-      <c r="S215">
-        <v>2.75</v>
-      </c>
       <c r="T215">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V215">
-        <v>0.7270000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19006,16 +19006,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="Z215">
+        <v>-1</v>
+      </c>
+      <c r="AA215">
         <v>-0.5</v>
       </c>
-      <c r="AA215">
-        <v>0.45</v>
-      </c>
       <c r="AB215">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="216" spans="1:28">

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -4489,7 +4489,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6504291</v>
+        <v>6504578</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -4498,16 +4498,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="s">
         <v>49</v>
@@ -4519,34 +4519,34 @@
         <v>3.2</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="N47">
         <v>3.6</v>
       </c>
       <c r="O47">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P47">
         <v>-0.75</v>
       </c>
       <c r="Q47">
+        <v>1.95</v>
+      </c>
+      <c r="R47">
         <v>1.85</v>
-      </c>
-      <c r="R47">
-        <v>1.95</v>
       </c>
       <c r="S47">
         <v>2.5</v>
       </c>
       <c r="T47">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V47">
         <v>-1</v>
@@ -4555,19 +4555,19 @@
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4575,7 +4575,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6504578</v>
+        <v>6504291</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
@@ -4584,16 +4584,16 @@
         <v>45137.66666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>1</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
       </c>
       <c r="I48" t="s">
         <v>49</v>
@@ -4605,34 +4605,34 @@
         <v>3.2</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M48">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N48">
         <v>3.6</v>
       </c>
       <c r="O48">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P48">
         <v>-0.75</v>
       </c>
       <c r="Q48">
+        <v>1.85</v>
+      </c>
+      <c r="R48">
         <v>1.95</v>
-      </c>
-      <c r="R48">
-        <v>1.85</v>
       </c>
       <c r="S48">
         <v>2.5</v>
       </c>
       <c r="T48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V48">
         <v>-1</v>
@@ -4641,19 +4641,19 @@
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -9391,7 +9391,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7331149</v>
+        <v>7331148</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9400,13 +9400,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9415,25 +9415,25 @@
         <v>47</v>
       </c>
       <c r="J104">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="M104">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="N104">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="O104">
-        <v>2.8</v>
+        <v>16</v>
       </c>
       <c r="P104">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q104">
         <v>1.8</v>
@@ -9442,16 +9442,16 @@
         <v>2</v>
       </c>
       <c r="S104">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T104">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
-        <v>1.3</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W104">
         <v>-1</v>
@@ -9460,16 +9460,16 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9477,7 +9477,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7331148</v>
+        <v>7331149</v>
       </c>
       <c r="C105" t="s">
         <v>27</v>
@@ -9486,13 +9486,13 @@
         <v>45234.66666666666</v>
       </c>
       <c r="E105" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9501,25 +9501,25 @@
         <v>47</v>
       </c>
       <c r="J105">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="K105">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="L105">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="N105">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="O105">
-        <v>16</v>
+        <v>2.8</v>
       </c>
       <c r="P105">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q105">
         <v>1.8</v>
@@ -9528,16 +9528,16 @@
         <v>2</v>
       </c>
       <c r="S105">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T105">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>0.1659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="W105">
         <v>-1</v>
@@ -9546,16 +9546,16 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB105">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9649,7 +9649,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7331150</v>
+        <v>7329845</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
@@ -9658,76 +9658,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J107">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="K107">
+        <v>3.4</v>
+      </c>
+      <c r="L107">
+        <v>2.05</v>
+      </c>
+      <c r="M107">
+        <v>3.4</v>
+      </c>
+      <c r="N107">
         <v>3.5</v>
       </c>
-      <c r="L107">
-        <v>2.875</v>
-      </c>
-      <c r="M107">
-        <v>2.4</v>
-      </c>
-      <c r="N107">
-        <v>3.6</v>
-      </c>
       <c r="O107">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="P107">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q107">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="R107">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S107">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V107">
         <v>-1</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X107">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="Z107">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9735,7 +9735,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7329845</v>
+        <v>7331150</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -9744,76 +9744,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H108">
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J108">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="K108">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L108">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="M108">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N108">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O108">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="P108">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q108">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="R108">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
         <v>-1</v>
       </c>
       <c r="W108">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -11455,7 +11455,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7462542</v>
+        <v>7462738</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
@@ -11464,76 +11464,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="E128" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G128">
+        <v>2</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128" t="s">
+        <v>48</v>
+      </c>
+      <c r="J128">
+        <v>4</v>
+      </c>
+      <c r="K128">
+        <v>4</v>
+      </c>
+      <c r="L128">
+        <v>1.666</v>
+      </c>
+      <c r="M128">
+        <v>4</v>
+      </c>
+      <c r="N128">
+        <v>3.8</v>
+      </c>
+      <c r="O128">
+        <v>1.75</v>
+      </c>
+      <c r="P128">
+        <v>0.75</v>
+      </c>
+      <c r="Q128">
+        <v>1.8</v>
+      </c>
+      <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
         <v>3</v>
       </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128" t="s">
-        <v>47</v>
-      </c>
-      <c r="J128">
-        <v>1.363</v>
-      </c>
-      <c r="K128">
-        <v>4.75</v>
-      </c>
-      <c r="L128">
-        <v>6.5</v>
-      </c>
-      <c r="M128">
-        <v>1.285</v>
-      </c>
-      <c r="N128">
-        <v>6.5</v>
-      </c>
-      <c r="O128">
-        <v>8</v>
-      </c>
-      <c r="P128">
-        <v>-1.75</v>
-      </c>
-      <c r="Q128">
-        <v>1.9</v>
-      </c>
-      <c r="R128">
-        <v>1.9</v>
-      </c>
-      <c r="S128">
-        <v>3.25</v>
-      </c>
       <c r="T128">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V128">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB128">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11541,7 +11541,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7462738</v>
+        <v>7462542</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
@@ -11550,76 +11550,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J129">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="K129">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="L129">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="M129">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="N129">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="O129">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="P129">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="Q129">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S129">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T129">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U129">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W129">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -12659,7 +12659,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532412</v>
+        <v>7532414</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
@@ -12668,76 +12668,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J142">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="K142">
         <v>3.75</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M142">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="N142">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="O142">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="P142">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q142">
+        <v>2</v>
+      </c>
+      <c r="R142">
+        <v>1.8</v>
+      </c>
+      <c r="S142">
+        <v>3</v>
+      </c>
+      <c r="T142">
+        <v>1.85</v>
+      </c>
+      <c r="U142">
         <v>1.95</v>
       </c>
-      <c r="R142">
-        <v>1.85</v>
-      </c>
-      <c r="S142">
-        <v>2.75</v>
-      </c>
-      <c r="T142">
-        <v>1.925</v>
-      </c>
-      <c r="U142">
-        <v>1.875</v>
-      </c>
       <c r="V142">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA142">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12917,7 +12917,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532414</v>
+        <v>7532412</v>
       </c>
       <c r="C145" t="s">
         <v>27</v>
@@ -12926,76 +12926,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I145" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J145">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="K145">
         <v>3.75</v>
       </c>
       <c r="L145">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="N145">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O145">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="P145">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S145">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T145">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB145">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13605,7 +13605,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
@@ -13614,58 +13614,58 @@
         <v>45266.875</v>
       </c>
       <c r="E153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="s">
         <v>47</v>
       </c>
       <c r="J153">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="K153">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L153">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="M153">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="N153">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O153">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="P153">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q153">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R153">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S153">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T153">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V153">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -13674,16 +13674,16 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AB153">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13691,7 +13691,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C154" t="s">
         <v>27</v>
@@ -13700,76 +13700,76 @@
         <v>45266.875</v>
       </c>
       <c r="E154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="s">
         <v>47</v>
       </c>
       <c r="J154">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="K154">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L154">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="M154">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="N154">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="P154">
+        <v>-2.25</v>
+      </c>
+      <c r="Q154">
+        <v>1.95</v>
+      </c>
+      <c r="R154">
+        <v>1.85</v>
+      </c>
+      <c r="S154">
+        <v>3.75</v>
+      </c>
+      <c r="T154">
+        <v>1.975</v>
+      </c>
+      <c r="U154">
+        <v>1.825</v>
+      </c>
+      <c r="V154">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="W154">
+        <v>-1</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>0.95</v>
+      </c>
+      <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
+        <v>0.4875</v>
+      </c>
+      <c r="AB154">
         <v>-0.5</v>
-      </c>
-      <c r="Q154">
-        <v>1.825</v>
-      </c>
-      <c r="R154">
-        <v>1.975</v>
-      </c>
-      <c r="S154">
-        <v>3</v>
-      </c>
-      <c r="T154">
-        <v>2</v>
-      </c>
-      <c r="U154">
-        <v>1.8</v>
-      </c>
-      <c r="V154">
-        <v>0.833</v>
-      </c>
-      <c r="W154">
-        <v>-1</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>0.825</v>
-      </c>
-      <c r="Z154">
-        <v>-1</v>
-      </c>
-      <c r="AA154">
-        <v>0</v>
-      </c>
-      <c r="AB154">
-        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:28">

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB230"/>
+  <dimension ref="A1:AB238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2769,7 +2769,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2778,76 +2778,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J27">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="K27">
         <v>3.6</v>
       </c>
       <c r="L27">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O27">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q27">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T27">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U27">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2855,7 +2855,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2864,76 +2864,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J28">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="K28">
         <v>3.6</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N28">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="P28">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q28">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R28">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T28">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB28">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -12659,7 +12659,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532414</v>
+        <v>7532412</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
@@ -12668,76 +12668,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I142" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J142">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="K142">
         <v>3.75</v>
       </c>
       <c r="L142">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M142">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="N142">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O142">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="P142">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q142">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S142">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T142">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB142">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12745,7 +12745,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532413</v>
+        <v>7532430</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
@@ -12754,49 +12754,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F143" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J143">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="K143">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L143">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="M143">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="N143">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O143">
-        <v>2.875</v>
+        <v>8.5</v>
       </c>
       <c r="P143">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q143">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R143">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T143">
         <v>1.9</v>
@@ -12805,25 +12805,25 @@
         <v>1.9</v>
       </c>
       <c r="V143">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z143">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12831,7 +12831,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532430</v>
+        <v>7532413</v>
       </c>
       <c r="C144" t="s">
         <v>27</v>
@@ -12840,49 +12840,49 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J144">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="K144">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L144">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="M144">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="N144">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O144">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="P144">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q144">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S144">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T144">
         <v>1.9</v>
@@ -12891,25 +12891,25 @@
         <v>1.9</v>
       </c>
       <c r="V144">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA144">
+        <v>-1</v>
+      </c>
+      <c r="AB144">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB144">
-        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12917,7 +12917,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532412</v>
+        <v>7532414</v>
       </c>
       <c r="C145" t="s">
         <v>27</v>
@@ -12926,76 +12926,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J145">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="K145">
         <v>3.75</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M145">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="N145">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="O145">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="P145">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q145">
+        <v>2</v>
+      </c>
+      <c r="R145">
+        <v>1.8</v>
+      </c>
+      <c r="S145">
+        <v>3</v>
+      </c>
+      <c r="T145">
+        <v>1.85</v>
+      </c>
+      <c r="U145">
         <v>1.95</v>
       </c>
-      <c r="R145">
-        <v>1.85</v>
-      </c>
-      <c r="S145">
-        <v>2.75</v>
-      </c>
-      <c r="T145">
-        <v>1.925</v>
-      </c>
-      <c r="U145">
-        <v>1.875</v>
-      </c>
       <c r="V145">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA145">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13175,7 +13175,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532421</v>
+        <v>7532419</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
@@ -13184,13 +13184,13 @@
         <v>45265.875</v>
       </c>
       <c r="E148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13199,43 +13199,43 @@
         <v>47</v>
       </c>
       <c r="J148">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="K148">
+        <v>2.5</v>
+      </c>
+      <c r="L148">
         <v>4.5</v>
       </c>
-      <c r="L148">
-        <v>7.5</v>
-      </c>
       <c r="M148">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="N148">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="O148">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="P148">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q148">
+        <v>1.9</v>
+      </c>
+      <c r="R148">
+        <v>1.9</v>
+      </c>
+      <c r="S148">
+        <v>2</v>
+      </c>
+      <c r="T148">
+        <v>1.95</v>
+      </c>
+      <c r="U148">
         <v>1.85</v>
       </c>
-      <c r="R148">
-        <v>1.95</v>
-      </c>
-      <c r="S148">
-        <v>3</v>
-      </c>
-      <c r="T148">
-        <v>1.825</v>
-      </c>
-      <c r="U148">
-        <v>1.975</v>
-      </c>
       <c r="V148">
-        <v>0.333</v>
+        <v>1.375</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13244,16 +13244,16 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB148">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13261,7 +13261,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7532420</v>
+        <v>7532421</v>
       </c>
       <c r="C149" t="s">
         <v>27</v>
@@ -13270,13 +13270,13 @@
         <v>45265.875</v>
       </c>
       <c r="E149" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13285,43 +13285,43 @@
         <v>47</v>
       </c>
       <c r="J149">
+        <v>1.4</v>
+      </c>
+      <c r="K149">
+        <v>4.5</v>
+      </c>
+      <c r="L149">
+        <v>7.5</v>
+      </c>
+      <c r="M149">
         <v>1.333</v>
       </c>
-      <c r="K149">
-        <v>5</v>
-      </c>
-      <c r="L149">
-        <v>8</v>
-      </c>
-      <c r="M149">
-        <v>1.3</v>
-      </c>
       <c r="N149">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O149">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="P149">
         <v>-1.5</v>
       </c>
       <c r="Q149">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S149">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T149">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V149">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13330,16 +13330,16 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -13347,7 +13347,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532419</v>
+        <v>7532420</v>
       </c>
       <c r="C150" t="s">
         <v>27</v>
@@ -13356,10 +13356,10 @@
         <v>45265.875</v>
       </c>
       <c r="E150" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13371,34 +13371,34 @@
         <v>47</v>
       </c>
       <c r="J150">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="K150">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="L150">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="M150">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="N150">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="O150">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P150">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q150">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="T150">
         <v>1.95</v>
@@ -13407,7 +13407,7 @@
         <v>1.85</v>
       </c>
       <c r="V150">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="W150">
         <v>-1</v>
@@ -13416,16 +13416,16 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="151" spans="1:28">
@@ -13605,7 +13605,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
@@ -13614,76 +13614,76 @@
         <v>45266.875</v>
       </c>
       <c r="E153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="s">
         <v>47</v>
       </c>
       <c r="J153">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="K153">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L153">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="M153">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="N153">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O153">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="P153">
+        <v>-2.25</v>
+      </c>
+      <c r="Q153">
+        <v>1.95</v>
+      </c>
+      <c r="R153">
+        <v>1.85</v>
+      </c>
+      <c r="S153">
+        <v>3.75</v>
+      </c>
+      <c r="T153">
+        <v>1.975</v>
+      </c>
+      <c r="U153">
+        <v>1.825</v>
+      </c>
+      <c r="V153">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>0.95</v>
+      </c>
+      <c r="Z153">
+        <v>-1</v>
+      </c>
+      <c r="AA153">
+        <v>0.4875</v>
+      </c>
+      <c r="AB153">
         <v>-0.5</v>
-      </c>
-      <c r="Q153">
-        <v>1.825</v>
-      </c>
-      <c r="R153">
-        <v>1.975</v>
-      </c>
-      <c r="S153">
-        <v>3</v>
-      </c>
-      <c r="T153">
-        <v>2</v>
-      </c>
-      <c r="U153">
-        <v>1.8</v>
-      </c>
-      <c r="V153">
-        <v>0.833</v>
-      </c>
-      <c r="W153">
-        <v>-1</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>0.825</v>
-      </c>
-      <c r="Z153">
-        <v>-1</v>
-      </c>
-      <c r="AA153">
-        <v>0</v>
-      </c>
-      <c r="AB153">
-        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13691,7 +13691,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C154" t="s">
         <v>27</v>
@@ -13700,58 +13700,58 @@
         <v>45266.875</v>
       </c>
       <c r="E154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="s">
         <v>47</v>
       </c>
       <c r="J154">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="K154">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L154">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="M154">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="N154">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O154">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q154">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S154">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T154">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U154">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V154">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="W154">
         <v>-1</v>
@@ -13760,16 +13760,16 @@
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AB154">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -18593,7 +18593,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>8039389</v>
+        <v>8039390</v>
       </c>
       <c r="C211" t="s">
         <v>27</v>
@@ -18602,76 +18602,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="E211" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F211" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J211">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K211">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L211">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M211">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="N211">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O211">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="P211">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q211">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R211">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S211">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T211">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U211">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V211">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W211">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB211">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18679,7 +18679,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>8039390</v>
+        <v>8039389</v>
       </c>
       <c r="C212" t="s">
         <v>27</v>
@@ -18688,76 +18688,76 @@
         <v>45388.70833333334</v>
       </c>
       <c r="E212" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F212" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J212">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="K212">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L212">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M212">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="N212">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O212">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P212">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q212">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R212">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T212">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U212">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18851,7 +18851,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>8039392</v>
+        <v>8038943</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -18860,10 +18860,10 @@
         <v>45389.70833333334</v>
       </c>
       <c r="E214" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G214">
         <v>2</v>
@@ -18875,43 +18875,43 @@
         <v>47</v>
       </c>
       <c r="J214">
+        <v>2.3</v>
+      </c>
+      <c r="K214">
+        <v>3.5</v>
+      </c>
+      <c r="L214">
+        <v>2.625</v>
+      </c>
+      <c r="M214">
+        <v>2.8</v>
+      </c>
+      <c r="N214">
+        <v>3.6</v>
+      </c>
+      <c r="O214">
+        <v>2.375</v>
+      </c>
+      <c r="P214">
+        <v>0.25</v>
+      </c>
+      <c r="Q214">
+        <v>1.8</v>
+      </c>
+      <c r="R214">
         <v>2</v>
       </c>
-      <c r="K214">
+      <c r="S214">
         <v>3.25</v>
       </c>
-      <c r="L214">
-        <v>3.4</v>
-      </c>
-      <c r="M214">
-        <v>1.727</v>
-      </c>
-      <c r="N214">
-        <v>4</v>
-      </c>
-      <c r="O214">
-        <v>4.5</v>
-      </c>
-      <c r="P214">
-        <v>-0.75</v>
-      </c>
-      <c r="Q214">
-        <v>1.9</v>
-      </c>
-      <c r="R214">
-        <v>1.9</v>
-      </c>
-      <c r="S214">
-        <v>2.75</v>
-      </c>
       <c r="T214">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V214">
-        <v>0.7270000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -18920,16 +18920,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="Z214">
+        <v>-1</v>
+      </c>
+      <c r="AA214">
         <v>-0.5</v>
       </c>
-      <c r="AA214">
-        <v>0.45</v>
-      </c>
       <c r="AB214">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -18937,7 +18937,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>8038943</v>
+        <v>8039392</v>
       </c>
       <c r="C215" t="s">
         <v>27</v>
@@ -18946,10 +18946,10 @@
         <v>45389.70833333334</v>
       </c>
       <c r="E215" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F215" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18961,43 +18961,43 @@
         <v>47</v>
       </c>
       <c r="J215">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K215">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L215">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="M215">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="N215">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O215">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="P215">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q215">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R215">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T215">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U215">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>1.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19006,16 +19006,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA215">
+        <v>0.45</v>
+      </c>
+      <c r="AB215">
         <v>-0.5</v>
-      </c>
-      <c r="AB215">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -20306,6 +20306,694 @@
       </c>
       <c r="AB230">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:28">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>8192701</v>
+      </c>
+      <c r="C231" t="s">
+        <v>27</v>
+      </c>
+      <c r="D231" s="2">
+        <v>45422.875</v>
+      </c>
+      <c r="E231" t="s">
+        <v>30</v>
+      </c>
+      <c r="F231" t="s">
+        <v>45</v>
+      </c>
+      <c r="G231">
+        <v>2</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231" t="s">
+        <v>47</v>
+      </c>
+      <c r="J231">
+        <v>1.666</v>
+      </c>
+      <c r="K231">
+        <v>3.6</v>
+      </c>
+      <c r="L231">
+        <v>4.5</v>
+      </c>
+      <c r="M231">
+        <v>2</v>
+      </c>
+      <c r="N231">
+        <v>3.75</v>
+      </c>
+      <c r="O231">
+        <v>3.6</v>
+      </c>
+      <c r="P231">
+        <v>-0.5</v>
+      </c>
+      <c r="Q231">
+        <v>1.975</v>
+      </c>
+      <c r="R231">
+        <v>1.825</v>
+      </c>
+      <c r="S231">
+        <v>2.75</v>
+      </c>
+      <c r="T231">
+        <v>1.975</v>
+      </c>
+      <c r="U231">
+        <v>1.825</v>
+      </c>
+      <c r="V231">
+        <v>1</v>
+      </c>
+      <c r="W231">
+        <v>-1</v>
+      </c>
+      <c r="X231">
+        <v>-1</v>
+      </c>
+      <c r="Y231">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="Z231">
+        <v>-1</v>
+      </c>
+      <c r="AA231">
+        <v>-1</v>
+      </c>
+      <c r="AB231">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="232" spans="1:28">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>8192702</v>
+      </c>
+      <c r="C232" t="s">
+        <v>27</v>
+      </c>
+      <c r="D232" s="2">
+        <v>45423.66666666666</v>
+      </c>
+      <c r="E232" t="s">
+        <v>46</v>
+      </c>
+      <c r="F232" t="s">
+        <v>35</v>
+      </c>
+      <c r="G232">
+        <v>3</v>
+      </c>
+      <c r="H232">
+        <v>2</v>
+      </c>
+      <c r="I232" t="s">
+        <v>47</v>
+      </c>
+      <c r="J232">
+        <v>1.533</v>
+      </c>
+      <c r="K232">
+        <v>4</v>
+      </c>
+      <c r="L232">
+        <v>5</v>
+      </c>
+      <c r="M232">
+        <v>1.533</v>
+      </c>
+      <c r="N232">
+        <v>4.2</v>
+      </c>
+      <c r="O232">
+        <v>5.75</v>
+      </c>
+      <c r="P232">
+        <v>-1</v>
+      </c>
+      <c r="Q232">
+        <v>1.85</v>
+      </c>
+      <c r="R232">
+        <v>1.95</v>
+      </c>
+      <c r="S232">
+        <v>2.75</v>
+      </c>
+      <c r="T232">
+        <v>1.825</v>
+      </c>
+      <c r="U232">
+        <v>1.975</v>
+      </c>
+      <c r="V232">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="W232">
+        <v>-1</v>
+      </c>
+      <c r="X232">
+        <v>-1</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0.825</v>
+      </c>
+      <c r="AB232">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:28">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>8192703</v>
+      </c>
+      <c r="C233" t="s">
+        <v>27</v>
+      </c>
+      <c r="D233" s="2">
+        <v>45423.77083333334</v>
+      </c>
+      <c r="E233" t="s">
+        <v>40</v>
+      </c>
+      <c r="F233" t="s">
+        <v>31</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233" t="s">
+        <v>47</v>
+      </c>
+      <c r="J233">
+        <v>1.533</v>
+      </c>
+      <c r="K233">
+        <v>4</v>
+      </c>
+      <c r="L233">
+        <v>5</v>
+      </c>
+      <c r="M233">
+        <v>1.4</v>
+      </c>
+      <c r="N233">
+        <v>4.5</v>
+      </c>
+      <c r="O233">
+        <v>8</v>
+      </c>
+      <c r="P233">
+        <v>-1.25</v>
+      </c>
+      <c r="Q233">
+        <v>1.825</v>
+      </c>
+      <c r="R233">
+        <v>1.975</v>
+      </c>
+      <c r="S233">
+        <v>2.75</v>
+      </c>
+      <c r="T233">
+        <v>1.775</v>
+      </c>
+      <c r="U233">
+        <v>2.025</v>
+      </c>
+      <c r="V233">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="W233">
+        <v>-1</v>
+      </c>
+      <c r="X233">
+        <v>-1</v>
+      </c>
+      <c r="Y233">
+        <v>-0.5</v>
+      </c>
+      <c r="Z233">
+        <v>0.4875</v>
+      </c>
+      <c r="AA233">
+        <v>-1</v>
+      </c>
+      <c r="AB233">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="234" spans="1:28">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>8192704</v>
+      </c>
+      <c r="C234" t="s">
+        <v>27</v>
+      </c>
+      <c r="D234" s="2">
+        <v>45423.875</v>
+      </c>
+      <c r="E234" t="s">
+        <v>33</v>
+      </c>
+      <c r="F234" t="s">
+        <v>38</v>
+      </c>
+      <c r="G234">
+        <v>2</v>
+      </c>
+      <c r="H234">
+        <v>1</v>
+      </c>
+      <c r="I234" t="s">
+        <v>47</v>
+      </c>
+      <c r="J234">
+        <v>1.363</v>
+      </c>
+      <c r="K234">
+        <v>4.5</v>
+      </c>
+      <c r="L234">
+        <v>7</v>
+      </c>
+      <c r="M234">
+        <v>1.6</v>
+      </c>
+      <c r="N234">
+        <v>4</v>
+      </c>
+      <c r="O234">
+        <v>4.75</v>
+      </c>
+      <c r="P234">
+        <v>-1</v>
+      </c>
+      <c r="Q234">
+        <v>1.925</v>
+      </c>
+      <c r="R234">
+        <v>1.875</v>
+      </c>
+      <c r="S234">
+        <v>3.25</v>
+      </c>
+      <c r="T234">
+        <v>1.975</v>
+      </c>
+      <c r="U234">
+        <v>1.825</v>
+      </c>
+      <c r="V234">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="W234">
+        <v>-1</v>
+      </c>
+      <c r="X234">
+        <v>-1</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
+        <v>-0.5</v>
+      </c>
+      <c r="AB234">
+        <v>0.4125</v>
+      </c>
+    </row>
+    <row r="235" spans="1:28">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>8192705</v>
+      </c>
+      <c r="C235" t="s">
+        <v>27</v>
+      </c>
+      <c r="D235" s="2">
+        <v>45424.66666666666</v>
+      </c>
+      <c r="E235" t="s">
+        <v>43</v>
+      </c>
+      <c r="F235" t="s">
+        <v>41</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235" t="s">
+        <v>49</v>
+      </c>
+      <c r="J235">
+        <v>2.8</v>
+      </c>
+      <c r="K235">
+        <v>3.6</v>
+      </c>
+      <c r="L235">
+        <v>2.15</v>
+      </c>
+      <c r="M235">
+        <v>2.8</v>
+      </c>
+      <c r="N235">
+        <v>3.6</v>
+      </c>
+      <c r="O235">
+        <v>2.3</v>
+      </c>
+      <c r="P235">
+        <v>0.25</v>
+      </c>
+      <c r="Q235">
+        <v>1.775</v>
+      </c>
+      <c r="R235">
+        <v>2.025</v>
+      </c>
+      <c r="S235">
+        <v>2.75</v>
+      </c>
+      <c r="T235">
+        <v>1.825</v>
+      </c>
+      <c r="U235">
+        <v>1.975</v>
+      </c>
+      <c r="V235">
+        <v>-1</v>
+      </c>
+      <c r="W235">
+        <v>-1</v>
+      </c>
+      <c r="X235">
+        <v>1.3</v>
+      </c>
+      <c r="Y235">
+        <v>-1</v>
+      </c>
+      <c r="Z235">
+        <v>1.025</v>
+      </c>
+      <c r="AA235">
+        <v>-1</v>
+      </c>
+      <c r="AB235">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:28">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>8192706</v>
+      </c>
+      <c r="C236" t="s">
+        <v>27</v>
+      </c>
+      <c r="D236" s="2">
+        <v>45424.77083333334</v>
+      </c>
+      <c r="E236" t="s">
+        <v>28</v>
+      </c>
+      <c r="F236" t="s">
+        <v>34</v>
+      </c>
+      <c r="G236">
+        <v>3</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236" t="s">
+        <v>47</v>
+      </c>
+      <c r="J236">
+        <v>1.533</v>
+      </c>
+      <c r="K236">
+        <v>3.75</v>
+      </c>
+      <c r="L236">
+        <v>5.5</v>
+      </c>
+      <c r="M236">
+        <v>1.5</v>
+      </c>
+      <c r="N236">
+        <v>4</v>
+      </c>
+      <c r="O236">
+        <v>6.5</v>
+      </c>
+      <c r="P236">
+        <v>-1</v>
+      </c>
+      <c r="Q236">
+        <v>1.825</v>
+      </c>
+      <c r="R236">
+        <v>1.975</v>
+      </c>
+      <c r="S236">
+        <v>2.75</v>
+      </c>
+      <c r="T236">
+        <v>1.95</v>
+      </c>
+      <c r="U236">
+        <v>1.85</v>
+      </c>
+      <c r="V236">
+        <v>0.5</v>
+      </c>
+      <c r="W236">
+        <v>-1</v>
+      </c>
+      <c r="X236">
+        <v>-1</v>
+      </c>
+      <c r="Y236">
+        <v>0.825</v>
+      </c>
+      <c r="Z236">
+        <v>-1</v>
+      </c>
+      <c r="AA236">
+        <v>0.95</v>
+      </c>
+      <c r="AB236">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:28">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>8192707</v>
+      </c>
+      <c r="C237" t="s">
+        <v>27</v>
+      </c>
+      <c r="D237" s="2">
+        <v>45424.85416666666</v>
+      </c>
+      <c r="E237" t="s">
+        <v>32</v>
+      </c>
+      <c r="F237" t="s">
+        <v>42</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>2</v>
+      </c>
+      <c r="I237" t="s">
+        <v>49</v>
+      </c>
+      <c r="J237">
+        <v>2.4</v>
+      </c>
+      <c r="K237">
+        <v>3.4</v>
+      </c>
+      <c r="L237">
+        <v>2.55</v>
+      </c>
+      <c r="M237">
+        <v>2.6</v>
+      </c>
+      <c r="N237">
+        <v>3.25</v>
+      </c>
+      <c r="O237">
+        <v>2.7</v>
+      </c>
+      <c r="P237">
+        <v>0</v>
+      </c>
+      <c r="Q237">
+        <v>1.825</v>
+      </c>
+      <c r="R237">
+        <v>1.975</v>
+      </c>
+      <c r="S237">
+        <v>2.25</v>
+      </c>
+      <c r="T237">
+        <v>1.8</v>
+      </c>
+      <c r="U237">
+        <v>2</v>
+      </c>
+      <c r="V237">
+        <v>-1</v>
+      </c>
+      <c r="W237">
+        <v>-1</v>
+      </c>
+      <c r="X237">
+        <v>1.7</v>
+      </c>
+      <c r="Y237">
+        <v>-1</v>
+      </c>
+      <c r="Z237">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA237">
+        <v>-0.5</v>
+      </c>
+      <c r="AB237">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:28">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>8192708</v>
+      </c>
+      <c r="C238" t="s">
+        <v>27</v>
+      </c>
+      <c r="D238" s="2">
+        <v>45425.83333333334</v>
+      </c>
+      <c r="E238" t="s">
+        <v>39</v>
+      </c>
+      <c r="F238" t="s">
+        <v>29</v>
+      </c>
+      <c r="G238">
+        <v>2</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
+        <v>47</v>
+      </c>
+      <c r="J238">
+        <v>1.666</v>
+      </c>
+      <c r="K238">
+        <v>3.5</v>
+      </c>
+      <c r="L238">
+        <v>4.5</v>
+      </c>
+      <c r="M238">
+        <v>1.533</v>
+      </c>
+      <c r="N238">
+        <v>4.1</v>
+      </c>
+      <c r="O238">
+        <v>6</v>
+      </c>
+      <c r="P238">
+        <v>-1</v>
+      </c>
+      <c r="Q238">
+        <v>1.9</v>
+      </c>
+      <c r="R238">
+        <v>1.9</v>
+      </c>
+      <c r="S238">
+        <v>2.5</v>
+      </c>
+      <c r="T238">
+        <v>1.8</v>
+      </c>
+      <c r="U238">
+        <v>2</v>
+      </c>
+      <c r="V238">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="W238">
+        <v>-1</v>
+      </c>
+      <c r="X238">
+        <v>-1</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
+        <v>0.8</v>
+      </c>
+      <c r="AB238">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -2769,7 +2769,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2778,76 +2778,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J27">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="K27">
         <v>3.6</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="P27">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q27">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R27">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T27">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U27">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y27">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB27">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2855,7 +2855,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2864,76 +2864,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J28">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="K28">
         <v>3.6</v>
       </c>
       <c r="L28">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O28">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q28">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T28">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U28">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -9649,7 +9649,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7329845</v>
+        <v>7331150</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
@@ -9658,76 +9658,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J107">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="K107">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L107">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="M107">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N107">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O107">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="P107">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q107">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="R107">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S107">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
         <v>-1</v>
       </c>
       <c r="W107">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y107">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9735,7 +9735,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7331150</v>
+        <v>7329845</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -9744,76 +9744,76 @@
         <v>45235.66666666666</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H108">
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J108">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="K108">
+        <v>3.4</v>
+      </c>
+      <c r="L108">
+        <v>2.05</v>
+      </c>
+      <c r="M108">
+        <v>3.4</v>
+      </c>
+      <c r="N108">
         <v>3.5</v>
       </c>
-      <c r="L108">
-        <v>2.875</v>
-      </c>
-      <c r="M108">
-        <v>2.4</v>
-      </c>
-      <c r="N108">
-        <v>3.6</v>
-      </c>
       <c r="O108">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="P108">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q108">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="R108">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S108">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V108">
         <v>-1</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X108">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="Z108">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -11455,7 +11455,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7462738</v>
+        <v>7462542</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
@@ -11464,76 +11464,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J128">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="L128">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="M128">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="N128">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="O128">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="P128">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="Q128">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T128">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V128">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W128">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11541,7 +11541,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7462542</v>
+        <v>7462738</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
@@ -11550,76 +11550,76 @@
         <v>45253.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129" t="s">
+        <v>48</v>
+      </c>
+      <c r="J129">
+        <v>4</v>
+      </c>
+      <c r="K129">
+        <v>4</v>
+      </c>
+      <c r="L129">
+        <v>1.666</v>
+      </c>
+      <c r="M129">
+        <v>4</v>
+      </c>
+      <c r="N129">
+        <v>3.8</v>
+      </c>
+      <c r="O129">
+        <v>1.75</v>
+      </c>
+      <c r="P129">
+        <v>0.75</v>
+      </c>
+      <c r="Q129">
+        <v>1.8</v>
+      </c>
+      <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
         <v>3</v>
       </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129" t="s">
-        <v>47</v>
-      </c>
-      <c r="J129">
-        <v>1.363</v>
-      </c>
-      <c r="K129">
-        <v>4.75</v>
-      </c>
-      <c r="L129">
-        <v>6.5</v>
-      </c>
-      <c r="M129">
-        <v>1.285</v>
-      </c>
-      <c r="N129">
-        <v>6.5</v>
-      </c>
-      <c r="O129">
-        <v>8</v>
-      </c>
-      <c r="P129">
-        <v>-1.75</v>
-      </c>
-      <c r="Q129">
-        <v>1.9</v>
-      </c>
-      <c r="R129">
-        <v>1.9</v>
-      </c>
-      <c r="S129">
-        <v>3.25</v>
-      </c>
       <c r="T129">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V129">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB129">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -12659,7 +12659,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532412</v>
+        <v>7532430</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
@@ -12668,76 +12668,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142" t="s">
+        <v>47</v>
+      </c>
+      <c r="J142">
+        <v>1.4</v>
+      </c>
+      <c r="K142">
+        <v>4.2</v>
+      </c>
+      <c r="L142">
+        <v>7</v>
+      </c>
+      <c r="M142">
+        <v>1.363</v>
+      </c>
+      <c r="N142">
+        <v>4.5</v>
+      </c>
+      <c r="O142">
+        <v>8.5</v>
+      </c>
+      <c r="P142">
+        <v>-1.5</v>
+      </c>
+      <c r="Q142">
+        <v>2</v>
+      </c>
+      <c r="R142">
+        <v>1.8</v>
+      </c>
+      <c r="S142">
         <v>3</v>
       </c>
-      <c r="I142" t="s">
-        <v>49</v>
-      </c>
-      <c r="J142">
-        <v>1.727</v>
-      </c>
-      <c r="K142">
-        <v>3.75</v>
-      </c>
-      <c r="L142">
-        <v>4</v>
-      </c>
-      <c r="M142">
-        <v>2.3</v>
-      </c>
-      <c r="N142">
-        <v>3.6</v>
-      </c>
-      <c r="O142">
-        <v>2.875</v>
-      </c>
-      <c r="P142">
-        <v>-0.25</v>
-      </c>
-      <c r="Q142">
-        <v>1.95</v>
-      </c>
-      <c r="R142">
-        <v>1.85</v>
-      </c>
-      <c r="S142">
-        <v>2.75</v>
-      </c>
       <c r="T142">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z142">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12745,7 +12745,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532430</v>
+        <v>7532414</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
@@ -12754,40 +12754,40 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="s">
         <v>47</v>
       </c>
       <c r="J143">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="K143">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L143">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M143">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="N143">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O143">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="P143">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -12799,13 +12799,13 @@
         <v>3</v>
       </c>
       <c r="T143">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V143">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -12814,16 +12814,16 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12831,7 +12831,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532413</v>
+        <v>7532412</v>
       </c>
       <c r="C144" t="s">
         <v>27</v>
@@ -12840,34 +12840,34 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F144" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I144" t="s">
         <v>49</v>
       </c>
       <c r="J144">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="K144">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L144">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N144">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O144">
         <v>2.875</v>
@@ -12876,19 +12876,19 @@
         <v>-0.25</v>
       </c>
       <c r="Q144">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R144">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S144">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T144">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
         <v>-1</v>
@@ -12903,13 +12903,13 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB144">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12917,7 +12917,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532414</v>
+        <v>7532413</v>
       </c>
       <c r="C145" t="s">
         <v>27</v>
@@ -12926,76 +12926,76 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
         <v>1</v>
       </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
       <c r="I145" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J145">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="K145">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L145">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M145">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="N145">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O145">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="P145">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q145">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S145">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T145">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13605,7 +13605,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
@@ -13614,58 +13614,58 @@
         <v>45266.875</v>
       </c>
       <c r="E153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="s">
         <v>47</v>
       </c>
       <c r="J153">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="K153">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L153">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="M153">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="N153">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O153">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="P153">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q153">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R153">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S153">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T153">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U153">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V153">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -13674,16 +13674,16 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AB153">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13691,7 +13691,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C154" t="s">
         <v>27</v>
@@ -13700,76 +13700,76 @@
         <v>45266.875</v>
       </c>
       <c r="E154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="s">
         <v>47</v>
       </c>
       <c r="J154">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="K154">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L154">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="M154">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="N154">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="P154">
+        <v>-2.25</v>
+      </c>
+      <c r="Q154">
+        <v>1.95</v>
+      </c>
+      <c r="R154">
+        <v>1.85</v>
+      </c>
+      <c r="S154">
+        <v>3.75</v>
+      </c>
+      <c r="T154">
+        <v>1.975</v>
+      </c>
+      <c r="U154">
+        <v>1.825</v>
+      </c>
+      <c r="V154">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="W154">
+        <v>-1</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>0.95</v>
+      </c>
+      <c r="Z154">
+        <v>-1</v>
+      </c>
+      <c r="AA154">
+        <v>0.4875</v>
+      </c>
+      <c r="AB154">
         <v>-0.5</v>
-      </c>
-      <c r="Q154">
-        <v>1.825</v>
-      </c>
-      <c r="R154">
-        <v>1.975</v>
-      </c>
-      <c r="S154">
-        <v>3</v>
-      </c>
-      <c r="T154">
-        <v>2</v>
-      </c>
-      <c r="U154">
-        <v>1.8</v>
-      </c>
-      <c r="V154">
-        <v>0.833</v>
-      </c>
-      <c r="W154">
-        <v>-1</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>0.825</v>
-      </c>
-      <c r="Z154">
-        <v>-1</v>
-      </c>
-      <c r="AA154">
-        <v>0</v>
-      </c>
-      <c r="AB154">
-        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:28">

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>8192709</t>
+  </si>
+  <si>
+    <t>8192712</t>
   </si>
   <si>
     <t>Bolivia Primera División</t>
@@ -525,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB238"/>
+  <dimension ref="A1:AB240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,16 +628,16 @@
         <v>6504822</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45079.83333333334</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -640,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J2">
         <v>1.444</v>
@@ -708,16 +714,16 @@
         <v>6503942</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45080.66666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -726,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J3">
         <v>2.5</v>
@@ -794,16 +800,16 @@
         <v>6505492</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45080.77083333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -812,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J4">
         <v>3.2</v>
@@ -880,16 +886,16 @@
         <v>6504570</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45080.875</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -898,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J5">
         <v>1.909</v>
@@ -966,16 +972,16 @@
         <v>6504571</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -984,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J6">
         <v>1.8</v>
@@ -1052,16 +1058,16 @@
         <v>6503943</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45081.77083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1070,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J7">
         <v>1.166</v>
@@ -1138,16 +1144,16 @@
         <v>6504309</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45081.85416666666</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1156,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J8">
         <v>2.5</v>
@@ -1224,16 +1230,16 @@
         <v>6504283</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45082.66666666666</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1242,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J9">
         <v>2.2</v>
@@ -1310,16 +1316,16 @@
         <v>6669973</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45088.85416666666</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1328,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J10">
         <v>1.6</v>
@@ -1396,16 +1402,16 @@
         <v>6504823</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45100.66666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1414,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J11">
         <v>2.875</v>
@@ -1482,16 +1488,16 @@
         <v>6504824</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45100.83333333334</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1500,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J12">
         <v>1.727</v>
@@ -1568,16 +1574,16 @@
         <v>6503944</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45101.66666666666</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>6</v>
@@ -1586,7 +1592,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1654,16 +1660,16 @@
         <v>6503945</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45101.875</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1672,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J14">
         <v>1.8</v>
@@ -1740,16 +1746,16 @@
         <v>6504572</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1758,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J15">
         <v>1.2</v>
@@ -1826,16 +1832,16 @@
         <v>6504573</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45102.77083333334</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1844,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J16">
         <v>1.727</v>
@@ -1912,16 +1918,16 @@
         <v>6504284</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45102.85416666666</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -1930,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J17">
         <v>1.909</v>
@@ -1998,16 +2004,16 @@
         <v>6504310</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45103.83333333334</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2016,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2084,16 +2090,16 @@
         <v>6504574</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45114.875</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2102,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J19">
         <v>1.727</v>
@@ -2170,16 +2176,16 @@
         <v>6505493</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45115.66666666666</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2188,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J20">
         <v>1.666</v>
@@ -2256,16 +2262,16 @@
         <v>6504311</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45115.77083333334</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2274,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J21">
         <v>1.285</v>
@@ -2342,16 +2348,16 @@
         <v>6504285</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45115.875</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2360,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J22">
         <v>1.615</v>
@@ -2428,16 +2434,16 @@
         <v>6504825</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -2446,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J23">
         <v>1.5</v>
@@ -2514,16 +2520,16 @@
         <v>6503946</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45116.77083333334</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -2532,7 +2538,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J24">
         <v>1.727</v>
@@ -2600,16 +2606,16 @@
         <v>6503947</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2618,7 +2624,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J25">
         <v>3.3</v>
@@ -2686,16 +2692,16 @@
         <v>6504312</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45117.875</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2704,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J26">
         <v>1.5</v>
@@ -2772,16 +2778,16 @@
         <v>6504831</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45122.66666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2790,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J27">
         <v>3.3</v>
@@ -2858,16 +2864,16 @@
         <v>6504313</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45122.66666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2876,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J28">
         <v>1.75</v>
@@ -2944,16 +2950,16 @@
         <v>6503948</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45123.66666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2962,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J29">
         <v>2.625</v>
@@ -3030,16 +3036,16 @@
         <v>6504286</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45123.77083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3048,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J30">
         <v>2.45</v>
@@ -3116,16 +3122,16 @@
         <v>6504575</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45123.85416666666</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3134,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J31">
         <v>2.2</v>
@@ -3202,16 +3208,16 @@
         <v>6504576</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45124.66666666666</v>
       </c>
       <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" t="s">
         <v>32</v>
-      </c>
-      <c r="F32" t="s">
-        <v>30</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3220,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J32">
         <v>1.833</v>
@@ -3288,16 +3294,16 @@
         <v>6503949</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45124.77083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3306,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J33">
         <v>1.3</v>
@@ -3374,16 +3380,16 @@
         <v>6504287</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45124.875</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3392,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J34">
         <v>1.666</v>
@@ -3460,16 +3466,16 @@
         <v>6504826</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45129.66666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3478,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J35">
         <v>1.571</v>
@@ -3546,16 +3552,16 @@
         <v>6504288</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45129.77083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3564,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J36">
         <v>1.5</v>
@@ -3632,16 +3638,16 @@
         <v>6504314</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45130.66666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3650,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J37">
         <v>2.3</v>
@@ -3718,16 +3724,16 @@
         <v>6503950</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45130.77083333334</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3736,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J38">
         <v>1.909</v>
@@ -3804,16 +3810,16 @@
         <v>6503951</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45130.85416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3822,7 +3828,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J39">
         <v>1.727</v>
@@ -3890,16 +3896,16 @@
         <v>6504832</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45131.66666666666</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3908,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J40">
         <v>1.2</v>
@@ -3976,16 +3982,16 @@
         <v>6504289</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45131.79166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3994,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J41">
         <v>1.727</v>
@@ -4062,16 +4068,16 @@
         <v>6504315</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45131.875</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4080,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J42">
         <v>1.8</v>
@@ -4148,16 +4154,16 @@
         <v>6503952</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45135.85416666666</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4166,7 +4172,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J43">
         <v>1.909</v>
@@ -4234,16 +4240,16 @@
         <v>6504290</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45136.66666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4252,7 +4258,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J44">
         <v>2.5</v>
@@ -4320,16 +4326,16 @@
         <v>6503953</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45136.77083333334</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -4338,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J45">
         <v>1.2</v>
@@ -4406,16 +4412,16 @@
         <v>6504316</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45136.875</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4424,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J46">
         <v>2.625</v>
@@ -4492,16 +4498,16 @@
         <v>6504578</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45137.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4510,7 +4516,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -4578,16 +4584,16 @@
         <v>6504291</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45137.66666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4596,7 +4602,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -4664,16 +4670,16 @@
         <v>6504577</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45137.85416666666</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4682,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4750,16 +4756,16 @@
         <v>6504833</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45138.66666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4768,7 +4774,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J50">
         <v>2.9</v>
@@ -4836,16 +4842,16 @@
         <v>6970009</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45142.66666666666</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4854,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J51">
         <v>1.2</v>
@@ -4922,16 +4928,16 @@
         <v>6970390</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45142.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>6</v>
@@ -4940,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J52">
         <v>1.333</v>
@@ -5008,16 +5014,16 @@
         <v>6970010</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45143.66666666666</v>
       </c>
       <c r="E53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" t="s">
         <v>38</v>
-      </c>
-      <c r="F53" t="s">
-        <v>36</v>
       </c>
       <c r="G53">
         <v>6</v>
@@ -5026,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J53">
         <v>1.333</v>
@@ -5094,16 +5100,16 @@
         <v>6970011</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45143.77083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5112,7 +5118,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J54">
         <v>2.1</v>
@@ -5180,16 +5186,16 @@
         <v>6970012</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45143.875</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5198,7 +5204,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J55">
         <v>1.909</v>
@@ -5266,16 +5272,16 @@
         <v>6970013</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45144.66666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5284,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J56">
         <v>1.615</v>
@@ -5352,16 +5358,16 @@
         <v>6970014</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45144.77083333334</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5370,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J57">
         <v>3.3</v>
@@ -5438,16 +5444,16 @@
         <v>6970015</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45144.85416666666</v>
       </c>
       <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
         <v>42</v>
-      </c>
-      <c r="F58" t="s">
-        <v>40</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5456,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J58">
         <v>3.75</v>
@@ -5524,16 +5530,16 @@
         <v>6970267</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45149.66666666666</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5542,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J59">
         <v>2.2</v>
@@ -5610,16 +5616,16 @@
         <v>6970016</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E60" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" t="s">
         <v>40</v>
-      </c>
-      <c r="F60" t="s">
-        <v>38</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -5628,7 +5634,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J60">
         <v>2.1</v>
@@ -5696,16 +5702,16 @@
         <v>6970017</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45150.77083333334</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5714,7 +5720,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J61">
         <v>1.909</v>
@@ -5782,16 +5788,16 @@
         <v>6970018</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45150.875</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5800,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J62">
         <v>1.727</v>
@@ -5868,16 +5874,16 @@
         <v>6970019</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45151.66666666666</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5886,7 +5892,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J63">
         <v>2.2</v>
@@ -5954,16 +5960,16 @@
         <v>6970020</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45151.77083333334</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G64">
         <v>4</v>
@@ -5972,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J64">
         <v>1.25</v>
@@ -6040,16 +6046,16 @@
         <v>6970021</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45151.85416666666</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G65">
         <v>4</v>
@@ -6058,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J65">
         <v>1.615</v>
@@ -6126,16 +6132,16 @@
         <v>6970022</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45152.85416666666</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6144,7 +6150,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J66">
         <v>1.5</v>
@@ -6212,16 +6218,16 @@
         <v>6970023</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45156.83333333334</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6230,7 +6236,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J67">
         <v>2.3</v>
@@ -6298,16 +6304,16 @@
         <v>6970025</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45156.875</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6316,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J68">
         <v>1.071</v>
@@ -6384,16 +6390,16 @@
         <v>6970024</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45157.66666666666</v>
       </c>
       <c r="E69" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" t="s">
         <v>34</v>
-      </c>
-      <c r="F69" t="s">
-        <v>32</v>
       </c>
       <c r="G69">
         <v>5</v>
@@ -6402,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J69">
         <v>2.2</v>
@@ -6470,16 +6476,16 @@
         <v>6970268</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45157.875</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6488,7 +6494,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J70">
         <v>1.5</v>
@@ -6556,16 +6562,16 @@
         <v>6970269</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45158.66666666666</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6574,7 +6580,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J71">
         <v>2.375</v>
@@ -6642,16 +6648,16 @@
         <v>6970026</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45158.77083333334</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6660,7 +6666,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J72">
         <v>1.25</v>
@@ -6728,16 +6734,16 @@
         <v>6970028</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45159.875</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6746,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J73">
         <v>1.615</v>
@@ -6814,16 +6820,16 @@
         <v>7105139</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45161.66666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6832,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J74">
         <v>1.666</v>
@@ -6900,16 +6906,16 @@
         <v>6970030</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45161.875</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6918,7 +6924,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J75">
         <v>1.062</v>
@@ -6986,16 +6992,16 @@
         <v>6970031</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45162.66666666666</v>
       </c>
       <c r="E76" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7004,7 +7010,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J76">
         <v>1.363</v>
@@ -7072,16 +7078,16 @@
         <v>6970032</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45162.89583333334</v>
       </c>
       <c r="E77" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7090,7 +7096,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J77">
         <v>1.909</v>
@@ -7158,16 +7164,16 @@
         <v>6970033</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45163.875</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7176,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J78">
         <v>1.4</v>
@@ -7244,16 +7250,16 @@
         <v>6970034</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -7262,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7330,16 +7336,16 @@
         <v>7285413</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45202.66666666666</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7348,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J80">
         <v>2.375</v>
@@ -7416,16 +7422,16 @@
         <v>7285412</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45202.79166666666</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7434,7 +7440,7 @@
         <v>3</v>
       </c>
       <c r="I81" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J81">
         <v>2.375</v>
@@ -7502,16 +7508,16 @@
         <v>7285416</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45202.89583333334</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G82">
         <v>5</v>
@@ -7520,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J82">
         <v>1.444</v>
@@ -7588,16 +7594,16 @@
         <v>7285411</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45203.66666666666</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7606,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J83">
         <v>2.55</v>
@@ -7674,16 +7680,16 @@
         <v>7285417</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45203.79166666666</v>
       </c>
       <c r="E84" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7692,7 +7698,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J84">
         <v>1.444</v>
@@ -7760,16 +7766,16 @@
         <v>7285414</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45203.89583333334</v>
       </c>
       <c r="E85" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7778,7 +7784,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J85">
         <v>2.7</v>
@@ -7846,16 +7852,16 @@
         <v>7285418</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45204.66666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7864,7 +7870,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J86">
         <v>1.615</v>
@@ -7932,16 +7938,16 @@
         <v>7285415</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45204.875</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7950,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J87">
         <v>1.833</v>
@@ -8018,16 +8024,16 @@
         <v>7296594</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45206.66666666666</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8036,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J88">
         <v>2.15</v>
@@ -8104,16 +8110,16 @@
         <v>7296273</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45206.77083333334</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8122,7 +8128,7 @@
         <v>4</v>
       </c>
       <c r="I89" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J89">
         <v>1.4</v>
@@ -8190,16 +8196,16 @@
         <v>7296274</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45207.66666666666</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8208,7 +8214,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J90">
         <v>1.363</v>
@@ -8276,16 +8282,16 @@
         <v>7296275</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45207.77083333334</v>
       </c>
       <c r="E91" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8294,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J91">
         <v>3.3</v>
@@ -8362,16 +8368,16 @@
         <v>7296595</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45207.85416666666</v>
       </c>
       <c r="E92" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8380,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J92">
         <v>2.3</v>
@@ -8448,16 +8454,16 @@
         <v>7296276</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45208.66319444445</v>
       </c>
       <c r="E93" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8466,7 +8472,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J93">
         <v>2.375</v>
@@ -8534,16 +8540,16 @@
         <v>7288493</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45208.79166666666</v>
       </c>
       <c r="E94" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8552,7 +8558,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J94">
         <v>1.4</v>
@@ -8620,16 +8626,16 @@
         <v>7296596</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45208.89583333334</v>
       </c>
       <c r="E95" t="s">
+        <v>33</v>
+      </c>
+      <c r="F95" t="s">
         <v>31</v>
-      </c>
-      <c r="F95" t="s">
-        <v>29</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8638,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J95">
         <v>2.45</v>
@@ -8706,16 +8712,16 @@
         <v>7331144</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45214.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8724,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J96">
         <v>2.875</v>
@@ -8792,16 +8798,16 @@
         <v>7330592</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>45218.83333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F97" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -8810,7 +8816,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J97">
         <v>2.25</v>
@@ -8878,16 +8884,16 @@
         <v>7331145</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
         <v>45219.66666666666</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8896,7 +8902,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J98">
         <v>1.444</v>
@@ -8964,16 +8970,16 @@
         <v>7329842</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2">
         <v>45219.83333333334</v>
       </c>
       <c r="E99" t="s">
+        <v>35</v>
+      </c>
+      <c r="F99" t="s">
         <v>33</v>
-      </c>
-      <c r="F99" t="s">
-        <v>31</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8982,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J99">
         <v>1.166</v>
@@ -9050,16 +9056,16 @@
         <v>7331146</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>45219.89583333334</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9068,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J100">
         <v>2.45</v>
@@ -9136,16 +9142,16 @@
         <v>7329843</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D101" s="2">
         <v>45220.75</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9154,7 +9160,7 @@
         <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J101">
         <v>1.363</v>
@@ -9222,16 +9228,16 @@
         <v>7331147</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2">
         <v>45220.875</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9240,7 +9246,7 @@
         <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J102">
         <v>1.615</v>
@@ -9308,16 +9314,16 @@
         <v>7361187</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2">
         <v>45221.70833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9326,7 +9332,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J103">
         <v>1.909</v>
@@ -9394,16 +9400,16 @@
         <v>7331148</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2">
         <v>45234.66666666666</v>
       </c>
       <c r="E104" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9412,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J104">
         <v>1.2</v>
@@ -9480,16 +9486,16 @@
         <v>7331149</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
         <v>45234.66666666666</v>
       </c>
       <c r="E105" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9498,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J105">
         <v>1.8</v>
@@ -9566,16 +9572,16 @@
         <v>7329844</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2">
         <v>45234.8125</v>
       </c>
       <c r="E106" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9584,7 +9590,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J106">
         <v>2.55</v>
@@ -9652,16 +9658,16 @@
         <v>7331150</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
         <v>45235.66666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9670,7 +9676,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J107">
         <v>2.15</v>
@@ -9738,16 +9744,16 @@
         <v>7329845</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2">
         <v>45235.66666666666</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9756,7 +9762,7 @@
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J108">
         <v>3.1</v>
@@ -9824,16 +9830,16 @@
         <v>7330274</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2">
         <v>45235.85416666666</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9842,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J109">
         <v>2.25</v>
@@ -9910,16 +9916,16 @@
         <v>7331151</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2">
         <v>45236.79166666666</v>
       </c>
       <c r="E110" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G110">
         <v>4</v>
@@ -9928,7 +9934,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J110">
         <v>1.25</v>
@@ -9996,16 +10002,16 @@
         <v>7331152</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D111" s="2">
         <v>45236.875</v>
       </c>
       <c r="E111" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G111">
         <v>3</v>
@@ -10014,7 +10020,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J111">
         <v>1.7</v>
@@ -10082,16 +10088,16 @@
         <v>7438471</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2">
         <v>45237.66666666666</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G112">
         <v>3</v>
@@ -10100,7 +10106,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J112">
         <v>1.3</v>
@@ -10168,16 +10174,16 @@
         <v>7438472</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2">
         <v>45237.85416666666</v>
       </c>
       <c r="E113" t="s">
+        <v>37</v>
+      </c>
+      <c r="F113" t="s">
         <v>35</v>
-      </c>
-      <c r="F113" t="s">
-        <v>33</v>
       </c>
       <c r="G113">
         <v>4</v>
@@ -10186,7 +10192,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J113">
         <v>4</v>
@@ -10254,16 +10260,16 @@
         <v>7438452</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2">
         <v>45238.66666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G114">
         <v>4</v>
@@ -10272,7 +10278,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J114">
         <v>5</v>
@@ -10340,16 +10346,16 @@
         <v>7332665</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2">
         <v>45240.79166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10358,7 +10364,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J115">
         <v>2.1</v>
@@ -10426,16 +10432,16 @@
         <v>7332666</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D116" s="2">
         <v>45240.875</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F116" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G116">
         <v>8</v>
@@ -10444,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J116">
         <v>1.083</v>
@@ -10512,16 +10518,16 @@
         <v>7332667</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D117" s="2">
         <v>45241.66666666666</v>
       </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10530,7 +10536,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J117">
         <v>2.1</v>
@@ -10598,16 +10604,16 @@
         <v>7332668</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2">
         <v>45241.77083333334</v>
       </c>
       <c r="E118" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -10616,7 +10622,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J118">
         <v>1.2</v>
@@ -10684,16 +10690,16 @@
         <v>7332669</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D119" s="2">
         <v>45241.875</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10702,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J119">
         <v>2.375</v>
@@ -10770,16 +10776,16 @@
         <v>7332670</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D120" s="2">
         <v>45242.77083333334</v>
       </c>
       <c r="E120" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10788,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J120">
         <v>2.1</v>
@@ -10856,16 +10862,16 @@
         <v>7332671</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D121" s="2">
         <v>45242.85416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F121" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10874,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J121">
         <v>1.8</v>
@@ -10942,16 +10948,16 @@
         <v>7332672</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2">
         <v>45243.85416666666</v>
       </c>
       <c r="E122" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -10960,7 +10966,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J122">
         <v>1.615</v>
@@ -11028,16 +11034,16 @@
         <v>7462540</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2">
         <v>45248.66666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11046,7 +11052,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J123">
         <v>1.75</v>
@@ -11114,16 +11120,16 @@
         <v>7462535</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2">
         <v>45248.77083333334</v>
       </c>
       <c r="E124" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G124">
         <v>6</v>
@@ -11132,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J124">
         <v>1.363</v>
@@ -11200,16 +11206,16 @@
         <v>7462536</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2">
         <v>45249.66666666666</v>
       </c>
       <c r="E125" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -11218,7 +11224,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J125">
         <v>2.375</v>
@@ -11286,16 +11292,16 @@
         <v>7462537</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D126" s="2">
         <v>45249.77083333334</v>
       </c>
       <c r="E126" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11304,7 +11310,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J126">
         <v>1.444</v>
@@ -11372,16 +11378,16 @@
         <v>7462541</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D127" s="2">
         <v>45249.85416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11390,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J127">
         <v>1.666</v>
@@ -11458,16 +11464,16 @@
         <v>7462542</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D128" s="2">
         <v>45253.66666666666</v>
       </c>
       <c r="E128" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G128">
         <v>3</v>
@@ -11476,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J128">
         <v>1.363</v>
@@ -11544,16 +11550,16 @@
         <v>7462738</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2">
         <v>45253.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11562,7 +11568,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J129">
         <v>4</v>
@@ -11630,16 +11636,16 @@
         <v>7462538</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2">
         <v>45253.85416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11648,7 +11654,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J130">
         <v>1.444</v>
@@ -11716,16 +11722,16 @@
         <v>7506107</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2">
         <v>45254.85416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11734,7 +11740,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J131">
         <v>1.727</v>
@@ -11802,16 +11808,16 @@
         <v>7506108</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D132" s="2">
         <v>45255.66666666666</v>
       </c>
       <c r="E132" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11820,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J132">
         <v>1.909</v>
@@ -11888,16 +11894,16 @@
         <v>7506109</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D133" s="2">
         <v>45255.77083333334</v>
       </c>
       <c r="E133" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G133">
         <v>6</v>
@@ -11906,7 +11912,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J133">
         <v>1.95</v>
@@ -11974,16 +11980,16 @@
         <v>7506110</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D134" s="2">
         <v>45255.85416666666</v>
       </c>
       <c r="E134" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11992,7 +11998,7 @@
         <v>7</v>
       </c>
       <c r="I134" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J134">
         <v>3</v>
@@ -12060,16 +12066,16 @@
         <v>7506111</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D135" s="2">
         <v>45256.66666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12078,7 +12084,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J135">
         <v>2.25</v>
@@ -12146,16 +12152,16 @@
         <v>7506112</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D136" s="2">
         <v>45256.77083333334</v>
       </c>
       <c r="E136" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12164,7 +12170,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J136">
         <v>1.8</v>
@@ -12232,16 +12238,16 @@
         <v>7506113</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D137" s="2">
         <v>45256.85416666666</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12250,7 +12256,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J137">
         <v>1.444</v>
@@ -12318,16 +12324,16 @@
         <v>7506114</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2">
         <v>45257.875</v>
       </c>
       <c r="E138" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12336,7 +12342,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J138">
         <v>1.444</v>
@@ -12404,16 +12410,16 @@
         <v>7532411</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D139" s="2">
         <v>45261.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12422,7 +12428,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J139">
         <v>1.666</v>
@@ -12490,16 +12496,16 @@
         <v>7532429</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D140" s="2">
         <v>45261.83333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G140">
         <v>4</v>
@@ -12508,7 +12514,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J140">
         <v>1.3</v>
@@ -12576,16 +12582,16 @@
         <v>7532416</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D141" s="2">
         <v>45261.89583333334</v>
       </c>
       <c r="E141" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12594,7 +12600,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J141">
         <v>2.45</v>
@@ -12662,16 +12668,16 @@
         <v>7532430</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G142">
         <v>4</v>
@@ -12680,7 +12686,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J142">
         <v>1.4</v>
@@ -12748,16 +12754,16 @@
         <v>7532414</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D143" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12766,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J143">
         <v>1.571</v>
@@ -12834,16 +12840,16 @@
         <v>7532412</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -12852,7 +12858,7 @@
         <v>3</v>
       </c>
       <c r="I144" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J144">
         <v>1.727</v>
@@ -12920,16 +12926,16 @@
         <v>7532413</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F145" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -12938,7 +12944,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J145">
         <v>2.25</v>
@@ -13006,16 +13012,16 @@
         <v>7532415</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D146" s="2">
         <v>45263.79166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G146">
         <v>6</v>
@@ -13024,7 +13030,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J146">
         <v>1.285</v>
@@ -13092,16 +13098,16 @@
         <v>7532418</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2">
         <v>45265.66666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G147">
         <v>3</v>
@@ -13110,7 +13116,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J147">
         <v>5</v>
@@ -13175,19 +13181,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532419</v>
+        <v>7532420</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2">
         <v>45265.875</v>
       </c>
       <c r="E148" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13196,37 +13202,37 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J148">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="K148">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="L148">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="M148">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="N148">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="O148">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P148">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q148">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="T148">
         <v>1.95</v>
@@ -13235,7 +13241,7 @@
         <v>1.85</v>
       </c>
       <c r="V148">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13244,16 +13250,16 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13264,16 +13270,16 @@
         <v>7532421</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D149" s="2">
         <v>45265.875</v>
       </c>
       <c r="E149" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13282,7 +13288,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J149">
         <v>1.4</v>
@@ -13347,19 +13353,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532420</v>
+        <v>7532419</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D150" s="2">
         <v>45265.875</v>
       </c>
       <c r="E150" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13368,37 +13374,37 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J150">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="K150">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L150">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="M150">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="N150">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O150">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P150">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q150">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R150">
+        <v>1.9</v>
+      </c>
+      <c r="S150">
         <v>2</v>
-      </c>
-      <c r="S150">
-        <v>3.25</v>
       </c>
       <c r="T150">
         <v>1.95</v>
@@ -13407,7 +13413,7 @@
         <v>1.85</v>
       </c>
       <c r="V150">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="W150">
         <v>-1</v>
@@ -13416,16 +13422,16 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB150">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:28">
@@ -13436,16 +13442,16 @@
         <v>7532422</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D151" s="2">
         <v>45266.66666666666</v>
       </c>
       <c r="E151" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13454,7 +13460,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J151">
         <v>1.8</v>
@@ -13522,16 +13528,16 @@
         <v>7532423</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D152" s="2">
         <v>45266.83333333334</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13540,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J152">
         <v>1.363</v>
@@ -13608,16 +13614,16 @@
         <v>7532431</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2">
         <v>45266.875</v>
       </c>
       <c r="E153" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -13626,7 +13632,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J153">
         <v>2.3</v>
@@ -13694,16 +13700,16 @@
         <v>7532417</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D154" s="2">
         <v>45266.875</v>
       </c>
       <c r="E154" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G154">
         <v>4</v>
@@ -13712,7 +13718,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J154">
         <v>1.3</v>
@@ -13780,16 +13786,16 @@
         <v>7798427</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D155" s="2">
         <v>45338.875</v>
       </c>
       <c r="E155" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13798,7 +13804,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J155">
         <v>1.5</v>
@@ -13866,16 +13872,16 @@
         <v>7780026</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D156" s="2">
         <v>45339.77083333334</v>
       </c>
       <c r="E156" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F156" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -13884,7 +13890,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J156">
         <v>1.125</v>
@@ -13952,16 +13958,16 @@
         <v>7797857</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D157" s="2">
         <v>45339.875</v>
       </c>
       <c r="E157" t="s">
+        <v>34</v>
+      </c>
+      <c r="F157" t="s">
         <v>32</v>
-      </c>
-      <c r="F157" t="s">
-        <v>30</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13970,7 +13976,7 @@
         <v>2</v>
       </c>
       <c r="I157" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J157">
         <v>1.909</v>
@@ -14038,16 +14044,16 @@
         <v>7779103</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D158" s="2">
         <v>45340.66666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14056,7 +14062,7 @@
         <v>3</v>
       </c>
       <c r="I158" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J158">
         <v>1.285</v>
@@ -14124,16 +14130,16 @@
         <v>7798428</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D159" s="2">
         <v>45340.77083333334</v>
       </c>
       <c r="E159" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F159" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14142,7 +14148,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J159">
         <v>1.571</v>
@@ -14210,16 +14216,16 @@
         <v>7779104</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D160" s="2">
         <v>45340.85416666666</v>
       </c>
       <c r="E160" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14228,7 +14234,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J160">
         <v>1.615</v>
@@ -14296,16 +14302,16 @@
         <v>7801314</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D161" s="2">
         <v>45342.79166666666</v>
       </c>
       <c r="E161" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14314,7 +14320,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J161">
         <v>1.55</v>
@@ -14382,16 +14388,16 @@
         <v>7801315</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D162" s="2">
         <v>45342.875</v>
       </c>
       <c r="E162" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G162">
         <v>3</v>
@@ -14400,7 +14406,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J162">
         <v>1.125</v>
@@ -14468,16 +14474,16 @@
         <v>7801316</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D163" s="2">
         <v>45343.66666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14486,7 +14492,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J163">
         <v>2.1</v>
@@ -14554,16 +14560,16 @@
         <v>7801318</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D164" s="2">
         <v>45343.875</v>
       </c>
       <c r="E164" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14572,7 +14578,7 @@
         <v>2</v>
       </c>
       <c r="I164" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J164">
         <v>2.625</v>
@@ -14640,16 +14646,16 @@
         <v>7801317</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D165" s="2">
         <v>45344.5</v>
       </c>
       <c r="E165" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F165" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14658,7 +14664,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J165">
         <v>3.75</v>
@@ -14726,16 +14732,16 @@
         <v>7801319</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D166" s="2">
         <v>45344.66666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14744,7 +14750,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J166">
         <v>1.8</v>
@@ -14812,16 +14818,16 @@
         <v>7801321</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D167" s="2">
         <v>45345.66666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F167" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14830,7 +14836,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J167">
         <v>2.2</v>
@@ -14898,16 +14904,16 @@
         <v>7801322</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D168" s="2">
         <v>45346.66666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14916,7 +14922,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J168">
         <v>2.25</v>
@@ -14984,16 +14990,16 @@
         <v>7801323</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D169" s="2">
         <v>45346.77083333334</v>
       </c>
       <c r="E169" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15002,7 +15008,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J169">
         <v>1.615</v>
@@ -15070,16 +15076,16 @@
         <v>7801324</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D170" s="2">
         <v>45347.66666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15088,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J170">
         <v>2.5</v>
@@ -15156,16 +15162,16 @@
         <v>7801325</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D171" s="2">
         <v>45347.77083333334</v>
       </c>
       <c r="E171" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G171">
         <v>4</v>
@@ -15174,7 +15180,7 @@
         <v>4</v>
       </c>
       <c r="I171" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J171">
         <v>2.15</v>
@@ -15242,16 +15248,16 @@
         <v>7801326</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D172" s="2">
         <v>45347.85416666666</v>
       </c>
       <c r="E172" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15260,7 +15266,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J172">
         <v>2.3</v>
@@ -15328,16 +15334,16 @@
         <v>7801327</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D173" s="2">
         <v>45348.875</v>
       </c>
       <c r="E173" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15346,7 +15352,7 @@
         <v>2</v>
       </c>
       <c r="I173" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J173">
         <v>1.666</v>
@@ -15414,16 +15420,16 @@
         <v>7801328</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D174" s="2">
         <v>45349.875</v>
       </c>
       <c r="E174" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F174" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15432,7 +15438,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J174">
         <v>2.5</v>
@@ -15500,16 +15506,16 @@
         <v>7892752</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D175" s="2">
         <v>45350.66666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G175">
         <v>5</v>
@@ -15518,7 +15524,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J175">
         <v>3.3</v>
@@ -15586,16 +15592,16 @@
         <v>7897430</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D176" s="2">
         <v>45352.875</v>
       </c>
       <c r="E176" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15604,7 +15610,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J176">
         <v>2.5</v>
@@ -15672,16 +15678,16 @@
         <v>7897428</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D177" s="2">
         <v>45353.66666666666</v>
       </c>
       <c r="E177" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15690,7 +15696,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J177">
         <v>1.363</v>
@@ -15758,16 +15764,16 @@
         <v>7897433</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D178" s="2">
         <v>45353.77083333334</v>
       </c>
       <c r="E178" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F178" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -15776,7 +15782,7 @@
         <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J178">
         <v>2.4</v>
@@ -15844,16 +15850,16 @@
         <v>7897432</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D179" s="2">
         <v>45353.875</v>
       </c>
       <c r="E179" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G179">
         <v>3</v>
@@ -15862,7 +15868,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J179">
         <v>2.2</v>
@@ -15930,16 +15936,16 @@
         <v>7897431</v>
       </c>
       <c r="C180" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D180" s="2">
         <v>45354.66666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F180" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15948,7 +15954,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J180">
         <v>1.571</v>
@@ -16016,16 +16022,16 @@
         <v>7897434</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D181" s="2">
         <v>45354.77083333334</v>
       </c>
       <c r="E181" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F181" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -16034,7 +16040,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J181">
         <v>1.666</v>
@@ -16102,16 +16108,16 @@
         <v>7897435</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D182" s="2">
         <v>45354.85416666666</v>
       </c>
       <c r="E182" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16120,7 +16126,7 @@
         <v>3</v>
       </c>
       <c r="I182" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J182">
         <v>1.75</v>
@@ -16188,16 +16194,16 @@
         <v>7897429</v>
       </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D183" s="2">
         <v>45355.66666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F183" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -16206,7 +16212,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J183">
         <v>1.909</v>
@@ -16274,16 +16280,16 @@
         <v>7928563</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D184" s="2">
         <v>45359.66666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16292,7 +16298,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J184">
         <v>2.75</v>
@@ -16360,16 +16366,16 @@
         <v>7929910</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D185" s="2">
         <v>45359.89583333334</v>
       </c>
       <c r="E185" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16378,7 +16384,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J185">
         <v>2.1</v>
@@ -16446,16 +16452,16 @@
         <v>7929911</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D186" s="2">
         <v>45360.66666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F186" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16464,7 +16470,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J186">
         <v>1.833</v>
@@ -16532,16 +16538,16 @@
         <v>7929912</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D187" s="2">
         <v>45360.77083333334</v>
       </c>
       <c r="E187" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F187" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16550,7 +16556,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J187">
         <v>1.4</v>
@@ -16618,16 +16624,16 @@
         <v>7929913</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D188" s="2">
         <v>45360.87152777778</v>
       </c>
       <c r="E188" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G188">
         <v>3</v>
@@ -16636,7 +16642,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J188">
         <v>1.3</v>
@@ -16704,16 +16710,16 @@
         <v>7929914</v>
       </c>
       <c r="C189" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D189" s="2">
         <v>45361.66666666666</v>
       </c>
       <c r="E189" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F189" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16722,7 +16728,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J189">
         <v>2.55</v>
@@ -16790,16 +16796,16 @@
         <v>7929915</v>
       </c>
       <c r="C190" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D190" s="2">
         <v>45361.77083333334</v>
       </c>
       <c r="E190" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -16808,7 +16814,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J190">
         <v>2.55</v>
@@ -16876,16 +16882,16 @@
         <v>7929916</v>
       </c>
       <c r="C191" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D191" s="2">
         <v>45361.85416666666</v>
       </c>
       <c r="E191" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -16894,7 +16900,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J191">
         <v>2.55</v>
@@ -16962,16 +16968,16 @@
         <v>7931498</v>
       </c>
       <c r="C192" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D192" s="2">
         <v>45363.79166666666</v>
       </c>
       <c r="E192" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -16980,7 +16986,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J192">
         <v>1.4</v>
@@ -17048,16 +17054,16 @@
         <v>7931499</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D193" s="2">
         <v>45363.875</v>
       </c>
       <c r="E193" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17066,7 +17072,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J193">
         <v>2.1</v>
@@ -17134,16 +17140,16 @@
         <v>7930864</v>
       </c>
       <c r="C194" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D194" s="2">
         <v>45364.66666666666</v>
       </c>
       <c r="E194" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17152,7 +17158,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J194">
         <v>1.333</v>
@@ -17220,16 +17226,16 @@
         <v>7931500</v>
       </c>
       <c r="C195" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D195" s="2">
         <v>45364.79166666666</v>
       </c>
       <c r="E195" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F195" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -17238,7 +17244,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J195">
         <v>1.909</v>
@@ -17306,16 +17312,16 @@
         <v>7930865</v>
       </c>
       <c r="C196" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D196" s="2">
         <v>45364.87152777778</v>
       </c>
       <c r="E196" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17324,7 +17330,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J196">
         <v>3</v>
@@ -17392,16 +17398,16 @@
         <v>7930866</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D197" s="2">
         <v>45365.79166666666</v>
       </c>
       <c r="E197" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F197" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -17410,7 +17416,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J197">
         <v>1.65</v>
@@ -17478,16 +17484,16 @@
         <v>7930867</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D198" s="2">
         <v>45365.875</v>
       </c>
       <c r="E198" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17496,7 +17502,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J198">
         <v>1.4</v>
@@ -17564,16 +17570,16 @@
         <v>7930868</v>
       </c>
       <c r="C199" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D199" s="2">
         <v>45366.875</v>
       </c>
       <c r="E199" t="s">
+        <v>33</v>
+      </c>
+      <c r="F199" t="s">
         <v>31</v>
-      </c>
-      <c r="F199" t="s">
-        <v>29</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17582,7 +17588,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J199">
         <v>1.833</v>
@@ -17650,16 +17656,16 @@
         <v>7980297</v>
       </c>
       <c r="C200" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D200" s="2">
         <v>45371.83333333334</v>
       </c>
       <c r="E200" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F200" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G200">
         <v>4</v>
@@ -17668,7 +17674,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J200">
         <v>1.4</v>
@@ -17736,16 +17742,16 @@
         <v>7980042</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D201" s="2">
         <v>45379.66666666666</v>
       </c>
       <c r="E201" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17754,7 +17760,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J201">
         <v>4.2</v>
@@ -17822,16 +17828,16 @@
         <v>7980298</v>
       </c>
       <c r="C202" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D202" s="2">
         <v>45379.875</v>
       </c>
       <c r="E202" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F202" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17840,7 +17846,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J202">
         <v>2.4</v>
@@ -17908,16 +17914,16 @@
         <v>8010637</v>
       </c>
       <c r="C203" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D203" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G203">
         <v>3</v>
@@ -17926,7 +17932,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J203">
         <v>1.727</v>
@@ -17994,16 +18000,16 @@
         <v>8010638</v>
       </c>
       <c r="C204" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D204" s="2">
         <v>45381.77083333334</v>
       </c>
       <c r="E204" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G204">
         <v>3</v>
@@ -18012,7 +18018,7 @@
         <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J204">
         <v>2.2</v>
@@ -18080,16 +18086,16 @@
         <v>8010639</v>
       </c>
       <c r="C205" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D205" s="2">
         <v>45381.875</v>
       </c>
       <c r="E205" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F205" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -18098,7 +18104,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J205">
         <v>1.363</v>
@@ -18166,16 +18172,16 @@
         <v>8010642</v>
       </c>
       <c r="C206" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D206" s="2">
         <v>45382.66666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F206" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -18184,7 +18190,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J206">
         <v>1.4</v>
@@ -18252,16 +18258,16 @@
         <v>8010640</v>
       </c>
       <c r="C207" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D207" s="2">
         <v>45382.77083333334</v>
       </c>
       <c r="E207" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G207">
         <v>4</v>
@@ -18270,7 +18276,7 @@
         <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J207">
         <v>1.222</v>
@@ -18338,16 +18344,16 @@
         <v>8011587</v>
       </c>
       <c r="C208" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D208" s="2">
         <v>45382.85416666666</v>
       </c>
       <c r="E208" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G208">
         <v>4</v>
@@ -18356,7 +18362,7 @@
         <v>2</v>
       </c>
       <c r="I208" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J208">
         <v>1.533</v>
@@ -18424,16 +18430,16 @@
         <v>8010641</v>
       </c>
       <c r="C209" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D209" s="2">
         <v>45383.875</v>
       </c>
       <c r="E209" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F209" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G209">
         <v>3</v>
@@ -18442,7 +18448,7 @@
         <v>4</v>
       </c>
       <c r="I209" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J209">
         <v>1.7</v>
@@ -18510,16 +18516,16 @@
         <v>8038942</v>
       </c>
       <c r="C210" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D210" s="2">
         <v>45387.79166666666</v>
       </c>
       <c r="E210" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F210" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -18528,7 +18534,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J210">
         <v>1.571</v>
@@ -18596,16 +18602,16 @@
         <v>8039390</v>
       </c>
       <c r="C211" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D211" s="2">
         <v>45388.70833333334</v>
       </c>
       <c r="E211" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F211" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G211">
         <v>2</v>
@@ -18614,7 +18620,7 @@
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J211">
         <v>2.05</v>
@@ -18682,16 +18688,16 @@
         <v>8039389</v>
       </c>
       <c r="C212" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D212" s="2">
         <v>45388.70833333334</v>
       </c>
       <c r="E212" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F212" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -18700,7 +18706,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J212">
         <v>2.2</v>
@@ -18768,16 +18774,16 @@
         <v>8054794</v>
       </c>
       <c r="C213" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D213" s="2">
         <v>45388.79166666666</v>
       </c>
       <c r="E213" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -18786,7 +18792,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J213">
         <v>1.95</v>
@@ -18851,19 +18857,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>8038943</v>
+        <v>8039392</v>
       </c>
       <c r="C214" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D214" s="2">
         <v>45389.70833333334</v>
       </c>
       <c r="E214" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G214">
         <v>2</v>
@@ -18872,46 +18878,46 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J214">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K214">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L214">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="M214">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="N214">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O214">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="P214">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q214">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S214">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T214">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U214">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -18920,16 +18926,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA214">
+        <v>0.45</v>
+      </c>
+      <c r="AB214">
         <v>-0.5</v>
-      </c>
-      <c r="AB214">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -18937,19 +18943,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>8039392</v>
+        <v>8038943</v>
       </c>
       <c r="C215" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D215" s="2">
         <v>45389.70833333334</v>
       </c>
       <c r="E215" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F215" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18958,46 +18964,46 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J215">
+        <v>2.3</v>
+      </c>
+      <c r="K215">
+        <v>3.5</v>
+      </c>
+      <c r="L215">
+        <v>2.625</v>
+      </c>
+      <c r="M215">
+        <v>2.8</v>
+      </c>
+      <c r="N215">
+        <v>3.6</v>
+      </c>
+      <c r="O215">
+        <v>2.375</v>
+      </c>
+      <c r="P215">
+        <v>0.25</v>
+      </c>
+      <c r="Q215">
+        <v>1.8</v>
+      </c>
+      <c r="R215">
         <v>2</v>
       </c>
-      <c r="K215">
+      <c r="S215">
         <v>3.25</v>
       </c>
-      <c r="L215">
-        <v>3.4</v>
-      </c>
-      <c r="M215">
-        <v>1.727</v>
-      </c>
-      <c r="N215">
-        <v>4</v>
-      </c>
-      <c r="O215">
-        <v>4.5</v>
-      </c>
-      <c r="P215">
-        <v>-0.75</v>
-      </c>
-      <c r="Q215">
-        <v>1.9</v>
-      </c>
-      <c r="R215">
-        <v>1.9</v>
-      </c>
-      <c r="S215">
-        <v>2.75</v>
-      </c>
       <c r="T215">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V215">
-        <v>0.7270000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19006,16 +19012,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="Z215">
+        <v>-1</v>
+      </c>
+      <c r="AA215">
         <v>-0.5</v>
       </c>
-      <c r="AA215">
-        <v>0.45</v>
-      </c>
       <c r="AB215">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -19026,16 +19032,16 @@
         <v>8039398</v>
       </c>
       <c r="C216" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D216" s="2">
         <v>45389.85416666666</v>
       </c>
       <c r="E216" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F216" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G216">
         <v>2</v>
@@ -19044,7 +19050,7 @@
         <v>1</v>
       </c>
       <c r="I216" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J216">
         <v>1.533</v>
@@ -19112,16 +19118,16 @@
         <v>8039391</v>
       </c>
       <c r="C217" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D217" s="2">
         <v>45390.83333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F217" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G217">
         <v>3</v>
@@ -19130,7 +19136,7 @@
         <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J217">
         <v>1.666</v>
@@ -19198,16 +19204,16 @@
         <v>8021846</v>
       </c>
       <c r="C218" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D218" s="2">
         <v>45393.83333333334</v>
       </c>
       <c r="E218" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19216,7 +19222,7 @@
         <v>3</v>
       </c>
       <c r="I218" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J218">
         <v>6</v>
@@ -19284,16 +19290,16 @@
         <v>8088970</v>
       </c>
       <c r="C219" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D219" s="2">
         <v>45396.66666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F219" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19302,7 +19308,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J219">
         <v>2.4</v>
@@ -19370,16 +19376,16 @@
         <v>8089547</v>
       </c>
       <c r="C220" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D220" s="2">
         <v>45396.77083333334</v>
       </c>
       <c r="E220" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F220" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -19388,7 +19394,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J220">
         <v>2.6</v>
@@ -19456,16 +19462,16 @@
         <v>8089492</v>
       </c>
       <c r="C221" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D221" s="2">
         <v>45396.85416666666</v>
       </c>
       <c r="E221" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F221" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -19474,7 +19480,7 @@
         <v>1</v>
       </c>
       <c r="I221" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J221">
         <v>1.533</v>
@@ -19542,16 +19548,16 @@
         <v>8090056</v>
       </c>
       <c r="C222" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D222" s="2">
         <v>45397.83333333334</v>
       </c>
       <c r="E222" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F222" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19560,7 +19566,7 @@
         <v>1</v>
       </c>
       <c r="I222" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J222">
         <v>2.2</v>
@@ -19628,16 +19634,16 @@
         <v>8091186</v>
       </c>
       <c r="C223" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D223" s="2">
         <v>45399.66666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F223" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G223">
         <v>3</v>
@@ -19646,7 +19652,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J223">
         <v>2.1</v>
@@ -19714,16 +19720,16 @@
         <v>8090748</v>
       </c>
       <c r="C224" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D224" s="2">
         <v>45399.875</v>
       </c>
       <c r="E224" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F224" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G224">
         <v>2</v>
@@ -19732,7 +19738,7 @@
         <v>1</v>
       </c>
       <c r="I224" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J224">
         <v>1.533</v>
@@ -19800,16 +19806,16 @@
         <v>8090539</v>
       </c>
       <c r="C225" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D225" s="2">
         <v>45400.83333333334</v>
       </c>
       <c r="E225" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F225" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -19818,7 +19824,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J225">
         <v>1.363</v>
@@ -19886,16 +19892,16 @@
         <v>8091314</v>
       </c>
       <c r="C226" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D226" s="2">
         <v>45400.875</v>
       </c>
       <c r="E226" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F226" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G226">
         <v>6</v>
@@ -19904,7 +19910,7 @@
         <v>8</v>
       </c>
       <c r="I226" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J226">
         <v>1.363</v>
@@ -19972,16 +19978,16 @@
         <v>8119939</v>
       </c>
       <c r="C227" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D227" s="2">
         <v>45410.70833333334</v>
       </c>
       <c r="E227" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F227" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G227">
         <v>9</v>
@@ -19990,7 +19996,7 @@
         <v>11</v>
       </c>
       <c r="I227" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J227">
         <v>1.444</v>
@@ -20058,16 +20064,16 @@
         <v>8119940</v>
       </c>
       <c r="C228" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D228" s="2">
         <v>45410.79166666666</v>
       </c>
       <c r="E228" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F228" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20076,7 +20082,7 @@
         <v>1</v>
       </c>
       <c r="I228" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J228">
         <v>2</v>
@@ -20144,16 +20150,16 @@
         <v>8164270</v>
       </c>
       <c r="C229" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D229" s="2">
         <v>45413.66666666666</v>
       </c>
       <c r="E229" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F229" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -20162,7 +20168,7 @@
         <v>2</v>
       </c>
       <c r="I229" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J229">
         <v>1.615</v>
@@ -20230,16 +20236,16 @@
         <v>8170178</v>
       </c>
       <c r="C230" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D230" s="2">
         <v>45417.66666666666</v>
       </c>
       <c r="E230" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F230" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20248,7 +20254,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J230">
         <v>1.615</v>
@@ -20316,16 +20322,16 @@
         <v>8192701</v>
       </c>
       <c r="C231" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D231" s="2">
         <v>45422.875</v>
       </c>
       <c r="E231" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F231" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G231">
         <v>2</v>
@@ -20334,7 +20340,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J231">
         <v>1.666</v>
@@ -20402,16 +20408,16 @@
         <v>8192702</v>
       </c>
       <c r="C232" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D232" s="2">
         <v>45423.66666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G232">
         <v>3</v>
@@ -20420,7 +20426,7 @@
         <v>2</v>
       </c>
       <c r="I232" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J232">
         <v>1.533</v>
@@ -20488,16 +20494,16 @@
         <v>8192703</v>
       </c>
       <c r="C233" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D233" s="2">
         <v>45423.77083333334</v>
       </c>
       <c r="E233" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F233" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -20506,7 +20512,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J233">
         <v>1.533</v>
@@ -20574,16 +20580,16 @@
         <v>8192704</v>
       </c>
       <c r="C234" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D234" s="2">
         <v>45423.875</v>
       </c>
       <c r="E234" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F234" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G234">
         <v>2</v>
@@ -20592,7 +20598,7 @@
         <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J234">
         <v>1.363</v>
@@ -20660,16 +20666,16 @@
         <v>8192705</v>
       </c>
       <c r="C235" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D235" s="2">
         <v>45424.66666666666</v>
       </c>
       <c r="E235" t="s">
+        <v>45</v>
+      </c>
+      <c r="F235" t="s">
         <v>43</v>
-      </c>
-      <c r="F235" t="s">
-        <v>41</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -20678,7 +20684,7 @@
         <v>1</v>
       </c>
       <c r="I235" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J235">
         <v>2.8</v>
@@ -20746,16 +20752,16 @@
         <v>8192706</v>
       </c>
       <c r="C236" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D236" s="2">
         <v>45424.77083333334</v>
       </c>
       <c r="E236" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F236" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G236">
         <v>3</v>
@@ -20764,7 +20770,7 @@
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J236">
         <v>1.533</v>
@@ -20832,16 +20838,16 @@
         <v>8192707</v>
       </c>
       <c r="C237" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D237" s="2">
         <v>45424.85416666666</v>
       </c>
       <c r="E237" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F237" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -20850,7 +20856,7 @@
         <v>2</v>
       </c>
       <c r="I237" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J237">
         <v>2.4</v>
@@ -20918,16 +20924,16 @@
         <v>8192708</v>
       </c>
       <c r="C238" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D238" s="2">
         <v>45425.83333333334</v>
       </c>
       <c r="E238" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F238" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G238">
         <v>2</v>
@@ -20936,7 +20942,7 @@
         <v>1</v>
       </c>
       <c r="I238" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J238">
         <v>1.666</v>
@@ -20994,6 +21000,136 @@
       </c>
       <c r="AB238">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:28">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>27</v>
+      </c>
+      <c r="C239" t="s">
+        <v>29</v>
+      </c>
+      <c r="D239" s="2">
+        <v>45429.875</v>
+      </c>
+      <c r="E239" t="s">
+        <v>33</v>
+      </c>
+      <c r="F239" t="s">
+        <v>48</v>
+      </c>
+      <c r="J239">
+        <v>2.15</v>
+      </c>
+      <c r="K239">
+        <v>3.5</v>
+      </c>
+      <c r="L239">
+        <v>2.875</v>
+      </c>
+      <c r="M239">
+        <v>2.05</v>
+      </c>
+      <c r="N239">
+        <v>3.5</v>
+      </c>
+      <c r="O239">
+        <v>3</v>
+      </c>
+      <c r="P239">
+        <v>-0.25</v>
+      </c>
+      <c r="Q239">
+        <v>1.825</v>
+      </c>
+      <c r="R239">
+        <v>1.975</v>
+      </c>
+      <c r="S239">
+        <v>2.75</v>
+      </c>
+      <c r="T239">
+        <v>1.85</v>
+      </c>
+      <c r="U239">
+        <v>1.95</v>
+      </c>
+      <c r="V239">
+        <v>0</v>
+      </c>
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:28">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>28</v>
+      </c>
+      <c r="C240" t="s">
+        <v>29</v>
+      </c>
+      <c r="D240" s="2">
+        <v>45430.875</v>
+      </c>
+      <c r="E240" t="s">
+        <v>36</v>
+      </c>
+      <c r="F240" t="s">
+        <v>41</v>
+      </c>
+      <c r="J240">
+        <v>1.833</v>
+      </c>
+      <c r="K240">
+        <v>3.4</v>
+      </c>
+      <c r="L240">
+        <v>3.75</v>
+      </c>
+      <c r="M240">
+        <v>1.9</v>
+      </c>
+      <c r="N240">
+        <v>3.4</v>
+      </c>
+      <c r="O240">
+        <v>3.5</v>
+      </c>
+      <c r="P240">
+        <v>-0.5</v>
+      </c>
+      <c r="Q240">
+        <v>1.95</v>
+      </c>
+      <c r="R240">
+        <v>1.85</v>
+      </c>
+      <c r="S240">
+        <v>2.25</v>
+      </c>
+      <c r="T240">
+        <v>1.9</v>
+      </c>
+      <c r="U240">
+        <v>1.9</v>
+      </c>
+      <c r="V240">
+        <v>0</v>
+      </c>
+      <c r="W240">
+        <v>0</v>
+      </c>
+      <c r="X240">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -97,10 +97,25 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8192709</t>
+    <t>8192710</t>
+  </si>
+  <si>
+    <t>8192711</t>
   </si>
   <si>
     <t>8192712</t>
+  </si>
+  <si>
+    <t>8192713</t>
+  </si>
+  <si>
+    <t>8192714</t>
+  </si>
+  <si>
+    <t>8192715</t>
+  </si>
+  <si>
+    <t>8192716</t>
   </si>
   <si>
     <t>Bolivia Primera División</t>
@@ -531,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB240"/>
+  <dimension ref="A1:AB245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,16 +643,16 @@
         <v>6504822</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>45079.83333333334</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -646,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J2">
         <v>1.444</v>
@@ -714,16 +729,16 @@
         <v>6503942</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>45080.66666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -732,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J3">
         <v>2.5</v>
@@ -800,16 +815,16 @@
         <v>6505492</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>45080.77083333334</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -818,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J4">
         <v>3.2</v>
@@ -886,16 +901,16 @@
         <v>6504570</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2">
         <v>45080.875</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -904,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J5">
         <v>1.909</v>
@@ -972,16 +987,16 @@
         <v>6504571</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -990,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J6">
         <v>1.8</v>
@@ -1058,16 +1073,16 @@
         <v>6503943</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
         <v>45081.77083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1076,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J7">
         <v>1.166</v>
@@ -1144,16 +1159,16 @@
         <v>6504309</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>45081.85416666666</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1162,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J8">
         <v>2.5</v>
@@ -1230,16 +1245,16 @@
         <v>6504283</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2">
         <v>45082.66666666666</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1248,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J9">
         <v>2.2</v>
@@ -1316,16 +1331,16 @@
         <v>6669973</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2">
         <v>45088.85416666666</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1334,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J10">
         <v>1.6</v>
@@ -1402,16 +1417,16 @@
         <v>6504823</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>45100.66666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1420,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J11">
         <v>2.875</v>
@@ -1488,16 +1503,16 @@
         <v>6504824</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2">
         <v>45100.83333333334</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1506,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J12">
         <v>1.727</v>
@@ -1574,16 +1589,16 @@
         <v>6503944</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
         <v>45101.66666666666</v>
       </c>
       <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
         <v>40</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
       </c>
       <c r="G13">
         <v>6</v>
@@ -1592,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1660,16 +1675,16 @@
         <v>6503945</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2">
         <v>45101.875</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1678,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J14">
         <v>1.8</v>
@@ -1746,16 +1761,16 @@
         <v>6504572</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1764,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J15">
         <v>1.2</v>
@@ -1832,16 +1847,16 @@
         <v>6504573</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
         <v>45102.77083333334</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1850,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J16">
         <v>1.727</v>
@@ -1918,16 +1933,16 @@
         <v>6504284</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2">
         <v>45102.85416666666</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -1936,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J17">
         <v>1.909</v>
@@ -2004,16 +2019,16 @@
         <v>6504310</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>45103.83333333334</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2022,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2090,16 +2105,16 @@
         <v>6504574</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2">
         <v>45114.875</v>
       </c>
       <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
         <v>39</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2108,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J19">
         <v>1.727</v>
@@ -2176,16 +2191,16 @@
         <v>6505493</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2">
         <v>45115.66666666666</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2194,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J20">
         <v>1.666</v>
@@ -2262,16 +2277,16 @@
         <v>6504311</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2">
         <v>45115.77083333334</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2280,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J21">
         <v>1.285</v>
@@ -2348,16 +2363,16 @@
         <v>6504285</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2">
         <v>45115.875</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2366,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J22">
         <v>1.615</v>
@@ -2434,16 +2449,16 @@
         <v>6504825</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -2452,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J23">
         <v>1.5</v>
@@ -2520,16 +2535,16 @@
         <v>6503946</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2">
         <v>45116.77083333334</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -2538,7 +2553,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J24">
         <v>1.727</v>
@@ -2606,16 +2621,16 @@
         <v>6503947</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2624,7 +2639,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J25">
         <v>3.3</v>
@@ -2692,16 +2707,16 @@
         <v>6504312</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2">
         <v>45117.875</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2710,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J26">
         <v>1.5</v>
@@ -2775,85 +2790,85 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6504831</v>
+        <v>6504313</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2">
         <v>45122.66666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J27">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="K27">
         <v>3.6</v>
       </c>
       <c r="L27">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O27">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q27">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T27">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U27">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2861,85 +2876,85 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6504313</v>
+        <v>6504831</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>45122.66666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J28">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="K28">
         <v>3.6</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N28">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="P28">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q28">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R28">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T28">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y28">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB28">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2950,16 +2965,16 @@
         <v>6503948</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2">
         <v>45123.66666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2968,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J29">
         <v>2.625</v>
@@ -3036,16 +3051,16 @@
         <v>6504286</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2">
         <v>45123.77083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3054,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J30">
         <v>2.45</v>
@@ -3122,16 +3137,16 @@
         <v>6504575</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2">
         <v>45123.85416666666</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3140,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J31">
         <v>2.2</v>
@@ -3208,16 +3223,16 @@
         <v>6504576</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2">
         <v>45124.66666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3226,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J32">
         <v>1.833</v>
@@ -3294,16 +3309,16 @@
         <v>6503949</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2">
         <v>45124.77083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3312,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J33">
         <v>1.3</v>
@@ -3380,16 +3395,16 @@
         <v>6504287</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2">
         <v>45124.875</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3398,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J34">
         <v>1.666</v>
@@ -3466,16 +3481,16 @@
         <v>6504826</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2">
         <v>45129.66666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3484,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J35">
         <v>1.571</v>
@@ -3552,16 +3567,16 @@
         <v>6504288</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2">
         <v>45129.77083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3570,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J36">
         <v>1.5</v>
@@ -3638,16 +3653,16 @@
         <v>6504314</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2">
         <v>45130.66666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3656,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J37">
         <v>2.3</v>
@@ -3724,16 +3739,16 @@
         <v>6503950</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2">
         <v>45130.77083333334</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3742,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J38">
         <v>1.909</v>
@@ -3810,16 +3825,16 @@
         <v>6503951</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2">
         <v>45130.85416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3828,7 +3843,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J39">
         <v>1.727</v>
@@ -3896,16 +3911,16 @@
         <v>6504832</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2">
         <v>45131.66666666666</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3914,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J40">
         <v>1.2</v>
@@ -3982,16 +3997,16 @@
         <v>6504289</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2">
         <v>45131.79166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4000,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J41">
         <v>1.727</v>
@@ -4068,16 +4083,16 @@
         <v>6504315</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2">
         <v>45131.875</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4086,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J42">
         <v>1.8</v>
@@ -4154,16 +4169,16 @@
         <v>6503952</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2">
         <v>45135.85416666666</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4172,7 +4187,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J43">
         <v>1.909</v>
@@ -4240,16 +4255,16 @@
         <v>6504290</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2">
         <v>45136.66666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4258,7 +4273,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J44">
         <v>2.5</v>
@@ -4326,16 +4341,16 @@
         <v>6503953</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2">
         <v>45136.77083333334</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -4344,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J45">
         <v>1.2</v>
@@ -4412,16 +4427,16 @@
         <v>6504316</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2">
         <v>45136.875</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4430,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J46">
         <v>2.625</v>
@@ -4495,28 +4510,28 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6504578</v>
+        <v>6504291</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D47" s="2">
         <v>45137.66666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>1</v>
       </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
       <c r="I47" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -4525,34 +4540,34 @@
         <v>3.2</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M47">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N47">
         <v>3.6</v>
       </c>
       <c r="O47">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P47">
         <v>-0.75</v>
       </c>
       <c r="Q47">
+        <v>1.85</v>
+      </c>
+      <c r="R47">
         <v>1.95</v>
-      </c>
-      <c r="R47">
-        <v>1.85</v>
       </c>
       <c r="S47">
         <v>2.5</v>
       </c>
       <c r="T47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
         <v>-1</v>
@@ -4561,19 +4576,19 @@
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4581,28 +4596,28 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6504291</v>
+        <v>6504578</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2">
         <v>45137.66666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -4611,34 +4626,34 @@
         <v>3.2</v>
       </c>
       <c r="L48">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="N48">
         <v>3.6</v>
       </c>
       <c r="O48">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P48">
         <v>-0.75</v>
       </c>
       <c r="Q48">
+        <v>1.95</v>
+      </c>
+      <c r="R48">
         <v>1.85</v>
-      </c>
-      <c r="R48">
-        <v>1.95</v>
       </c>
       <c r="S48">
         <v>2.5</v>
       </c>
       <c r="T48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U48">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V48">
         <v>-1</v>
@@ -4647,19 +4662,19 @@
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB48">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -4670,16 +4685,16 @@
         <v>6504577</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2">
         <v>45137.85416666666</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4688,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4756,16 +4771,16 @@
         <v>6504833</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2">
         <v>45138.66666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4774,7 +4789,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J50">
         <v>2.9</v>
@@ -4842,16 +4857,16 @@
         <v>6970009</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D51" s="2">
         <v>45142.66666666666</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4860,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J51">
         <v>1.2</v>
@@ -4928,16 +4943,16 @@
         <v>6970390</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D52" s="2">
         <v>45142.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G52">
         <v>6</v>
@@ -4946,7 +4961,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J52">
         <v>1.333</v>
@@ -5014,16 +5029,16 @@
         <v>6970010</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D53" s="2">
         <v>45143.66666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G53">
         <v>6</v>
@@ -5032,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J53">
         <v>1.333</v>
@@ -5100,16 +5115,16 @@
         <v>6970011</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D54" s="2">
         <v>45143.77083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5118,7 +5133,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J54">
         <v>2.1</v>
@@ -5186,16 +5201,16 @@
         <v>6970012</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D55" s="2">
         <v>45143.875</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5204,7 +5219,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J55">
         <v>1.909</v>
@@ -5272,16 +5287,16 @@
         <v>6970013</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D56" s="2">
         <v>45144.66666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5290,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J56">
         <v>1.615</v>
@@ -5358,16 +5373,16 @@
         <v>6970014</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D57" s="2">
         <v>45144.77083333334</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5376,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J57">
         <v>3.3</v>
@@ -5444,16 +5459,16 @@
         <v>6970015</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D58" s="2">
         <v>45144.85416666666</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5462,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J58">
         <v>3.75</v>
@@ -5530,16 +5545,16 @@
         <v>6970267</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D59" s="2">
         <v>45149.66666666666</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5548,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J59">
         <v>2.2</v>
@@ -5616,16 +5631,16 @@
         <v>6970016</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D60" s="2">
         <v>45150.66666666666</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -5634,7 +5649,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J60">
         <v>2.1</v>
@@ -5702,16 +5717,16 @@
         <v>6970017</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2">
         <v>45150.77083333334</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5720,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J61">
         <v>1.909</v>
@@ -5788,16 +5803,16 @@
         <v>6970018</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D62" s="2">
         <v>45150.875</v>
       </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5806,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J62">
         <v>1.727</v>
@@ -5874,16 +5889,16 @@
         <v>6970019</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D63" s="2">
         <v>45151.66666666666</v>
       </c>
       <c r="E63" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5892,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J63">
         <v>2.2</v>
@@ -5960,16 +5975,16 @@
         <v>6970020</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D64" s="2">
         <v>45151.77083333334</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G64">
         <v>4</v>
@@ -5978,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J64">
         <v>1.25</v>
@@ -6046,16 +6061,16 @@
         <v>6970021</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D65" s="2">
         <v>45151.85416666666</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G65">
         <v>4</v>
@@ -6064,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J65">
         <v>1.615</v>
@@ -6132,16 +6147,16 @@
         <v>6970022</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D66" s="2">
         <v>45152.85416666666</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6150,7 +6165,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J66">
         <v>1.5</v>
@@ -6218,16 +6233,16 @@
         <v>6970023</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D67" s="2">
         <v>45156.83333333334</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6236,7 +6251,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J67">
         <v>2.3</v>
@@ -6304,16 +6319,16 @@
         <v>6970025</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2">
         <v>45156.875</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F68" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6322,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J68">
         <v>1.071</v>
@@ -6390,16 +6405,16 @@
         <v>6970024</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D69" s="2">
         <v>45157.66666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G69">
         <v>5</v>
@@ -6408,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J69">
         <v>2.2</v>
@@ -6476,16 +6491,16 @@
         <v>6970268</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2">
         <v>45157.875</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6494,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J70">
         <v>1.5</v>
@@ -6562,16 +6577,16 @@
         <v>6970269</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D71" s="2">
         <v>45158.66666666666</v>
       </c>
       <c r="E71" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6580,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J71">
         <v>2.375</v>
@@ -6648,16 +6663,16 @@
         <v>6970026</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D72" s="2">
         <v>45158.77083333334</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6666,7 +6681,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J72">
         <v>1.25</v>
@@ -6734,16 +6749,16 @@
         <v>6970028</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D73" s="2">
         <v>45159.875</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6752,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J73">
         <v>1.615</v>
@@ -6820,16 +6835,16 @@
         <v>7105139</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D74" s="2">
         <v>45161.66666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6838,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J74">
         <v>1.666</v>
@@ -6906,16 +6921,16 @@
         <v>6970030</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D75" s="2">
         <v>45161.875</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6924,7 +6939,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J75">
         <v>1.062</v>
@@ -6992,16 +7007,16 @@
         <v>6970031</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2">
         <v>45162.66666666666</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7010,7 +7025,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J76">
         <v>1.363</v>
@@ -7078,16 +7093,16 @@
         <v>6970032</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D77" s="2">
         <v>45162.89583333334</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7096,7 +7111,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J77">
         <v>1.909</v>
@@ -7164,16 +7179,16 @@
         <v>6970033</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D78" s="2">
         <v>45163.875</v>
       </c>
       <c r="E78" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7182,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J78">
         <v>1.4</v>
@@ -7250,16 +7265,16 @@
         <v>6970034</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D79" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -7268,7 +7283,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J79">
         <v>2.3</v>
@@ -7336,16 +7351,16 @@
         <v>7285413</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D80" s="2">
         <v>45202.66666666666</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7354,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J80">
         <v>2.375</v>
@@ -7422,16 +7437,16 @@
         <v>7285412</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D81" s="2">
         <v>45202.79166666666</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7440,7 +7455,7 @@
         <v>3</v>
       </c>
       <c r="I81" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J81">
         <v>2.375</v>
@@ -7508,16 +7523,16 @@
         <v>7285416</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D82" s="2">
         <v>45202.89583333334</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G82">
         <v>5</v>
@@ -7526,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J82">
         <v>1.444</v>
@@ -7594,16 +7609,16 @@
         <v>7285411</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D83" s="2">
         <v>45203.66666666666</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7612,7 +7627,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J83">
         <v>2.55</v>
@@ -7680,16 +7695,16 @@
         <v>7285417</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D84" s="2">
         <v>45203.79166666666</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7698,7 +7713,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J84">
         <v>1.444</v>
@@ -7766,16 +7781,16 @@
         <v>7285414</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D85" s="2">
         <v>45203.89583333334</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7784,7 +7799,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J85">
         <v>2.7</v>
@@ -7852,16 +7867,16 @@
         <v>7285418</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D86" s="2">
         <v>45204.66666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7870,7 +7885,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J86">
         <v>1.615</v>
@@ -7938,16 +7953,16 @@
         <v>7285415</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D87" s="2">
         <v>45204.875</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7956,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J87">
         <v>1.833</v>
@@ -8024,16 +8039,16 @@
         <v>7296594</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D88" s="2">
         <v>45206.66666666666</v>
       </c>
       <c r="E88" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8042,7 +8057,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J88">
         <v>2.15</v>
@@ -8110,16 +8125,16 @@
         <v>7296273</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D89" s="2">
         <v>45206.77083333334</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8128,7 +8143,7 @@
         <v>4</v>
       </c>
       <c r="I89" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J89">
         <v>1.4</v>
@@ -8196,16 +8211,16 @@
         <v>7296274</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2">
         <v>45207.66666666666</v>
       </c>
       <c r="E90" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8214,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J90">
         <v>1.363</v>
@@ -8282,16 +8297,16 @@
         <v>7296275</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D91" s="2">
         <v>45207.77083333334</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F91" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8300,7 +8315,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J91">
         <v>3.3</v>
@@ -8368,16 +8383,16 @@
         <v>7296595</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D92" s="2">
         <v>45207.85416666666</v>
       </c>
       <c r="E92" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8386,7 +8401,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J92">
         <v>2.3</v>
@@ -8454,16 +8469,16 @@
         <v>7296276</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D93" s="2">
         <v>45208.66319444445</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8472,7 +8487,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J93">
         <v>2.375</v>
@@ -8540,16 +8555,16 @@
         <v>7288493</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D94" s="2">
         <v>45208.79166666666</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8558,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J94">
         <v>1.4</v>
@@ -8626,16 +8641,16 @@
         <v>7296596</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D95" s="2">
         <v>45208.89583333334</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8644,7 +8659,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J95">
         <v>2.45</v>
@@ -8712,16 +8727,16 @@
         <v>7331144</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D96" s="2">
         <v>45214.70833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8730,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J96">
         <v>2.875</v>
@@ -8798,16 +8813,16 @@
         <v>7330592</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D97" s="2">
         <v>45218.83333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -8816,7 +8831,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J97">
         <v>2.25</v>
@@ -8884,16 +8899,16 @@
         <v>7331145</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D98" s="2">
         <v>45219.66666666666</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8902,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J98">
         <v>1.444</v>
@@ -8970,16 +8985,16 @@
         <v>7329842</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D99" s="2">
         <v>45219.83333333334</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8988,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J99">
         <v>1.166</v>
@@ -9056,16 +9071,16 @@
         <v>7331146</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D100" s="2">
         <v>45219.89583333334</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9074,7 +9089,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J100">
         <v>2.45</v>
@@ -9142,16 +9157,16 @@
         <v>7329843</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D101" s="2">
         <v>45220.75</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9160,7 +9175,7 @@
         <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J101">
         <v>1.363</v>
@@ -9228,16 +9243,16 @@
         <v>7331147</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D102" s="2">
         <v>45220.875</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F102" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9246,7 +9261,7 @@
         <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J102">
         <v>1.615</v>
@@ -9314,16 +9329,16 @@
         <v>7361187</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D103" s="2">
         <v>45221.70833333334</v>
       </c>
       <c r="E103" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9332,7 +9347,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J103">
         <v>1.909</v>
@@ -9400,16 +9415,16 @@
         <v>7331148</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D104" s="2">
         <v>45234.66666666666</v>
       </c>
       <c r="E104" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9418,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J104">
         <v>1.2</v>
@@ -9486,16 +9501,16 @@
         <v>7331149</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D105" s="2">
         <v>45234.66666666666</v>
       </c>
       <c r="E105" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9504,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J105">
         <v>1.8</v>
@@ -9572,16 +9587,16 @@
         <v>7329844</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D106" s="2">
         <v>45234.8125</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9590,7 +9605,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J106">
         <v>2.55</v>
@@ -9658,16 +9673,16 @@
         <v>7331150</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D107" s="2">
         <v>45235.66666666666</v>
       </c>
       <c r="E107" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9676,7 +9691,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J107">
         <v>2.15</v>
@@ -9744,16 +9759,16 @@
         <v>7329845</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D108" s="2">
         <v>45235.66666666666</v>
       </c>
       <c r="E108" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9762,7 +9777,7 @@
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J108">
         <v>3.1</v>
@@ -9830,16 +9845,16 @@
         <v>7330274</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D109" s="2">
         <v>45235.85416666666</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9848,7 +9863,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J109">
         <v>2.25</v>
@@ -9916,16 +9931,16 @@
         <v>7331151</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D110" s="2">
         <v>45236.79166666666</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G110">
         <v>4</v>
@@ -9934,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J110">
         <v>1.25</v>
@@ -10002,16 +10017,16 @@
         <v>7331152</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D111" s="2">
         <v>45236.875</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G111">
         <v>3</v>
@@ -10020,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J111">
         <v>1.7</v>
@@ -10088,16 +10103,16 @@
         <v>7438471</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D112" s="2">
         <v>45237.66666666666</v>
       </c>
       <c r="E112" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F112" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G112">
         <v>3</v>
@@ -10106,7 +10121,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J112">
         <v>1.3</v>
@@ -10174,16 +10189,16 @@
         <v>7438472</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D113" s="2">
         <v>45237.85416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G113">
         <v>4</v>
@@ -10192,7 +10207,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J113">
         <v>4</v>
@@ -10260,16 +10275,16 @@
         <v>7438452</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D114" s="2">
         <v>45238.66666666666</v>
       </c>
       <c r="E114" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G114">
         <v>4</v>
@@ -10278,7 +10293,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J114">
         <v>5</v>
@@ -10346,16 +10361,16 @@
         <v>7332665</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D115" s="2">
         <v>45240.79166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10364,7 +10379,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J115">
         <v>2.1</v>
@@ -10432,16 +10447,16 @@
         <v>7332666</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D116" s="2">
         <v>45240.875</v>
       </c>
       <c r="E116" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G116">
         <v>8</v>
@@ -10450,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J116">
         <v>1.083</v>
@@ -10518,16 +10533,16 @@
         <v>7332667</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D117" s="2">
         <v>45241.66666666666</v>
       </c>
       <c r="E117" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10536,7 +10551,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J117">
         <v>2.1</v>
@@ -10604,16 +10619,16 @@
         <v>7332668</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D118" s="2">
         <v>45241.77083333334</v>
       </c>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F118" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -10622,7 +10637,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J118">
         <v>1.2</v>
@@ -10690,16 +10705,16 @@
         <v>7332669</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D119" s="2">
         <v>45241.875</v>
       </c>
       <c r="E119" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10708,7 +10723,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J119">
         <v>2.375</v>
@@ -10776,16 +10791,16 @@
         <v>7332670</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D120" s="2">
         <v>45242.77083333334</v>
       </c>
       <c r="E120" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10794,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J120">
         <v>2.1</v>
@@ -10862,16 +10877,16 @@
         <v>7332671</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D121" s="2">
         <v>45242.85416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10880,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J121">
         <v>1.8</v>
@@ -10948,16 +10963,16 @@
         <v>7332672</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D122" s="2">
         <v>45243.85416666666</v>
       </c>
       <c r="E122" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -10966,7 +10981,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J122">
         <v>1.615</v>
@@ -11034,16 +11049,16 @@
         <v>7462540</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D123" s="2">
         <v>45248.66666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11052,7 +11067,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J123">
         <v>1.75</v>
@@ -11120,16 +11135,16 @@
         <v>7462535</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D124" s="2">
         <v>45248.77083333334</v>
       </c>
       <c r="E124" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G124">
         <v>6</v>
@@ -11138,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J124">
         <v>1.363</v>
@@ -11206,16 +11221,16 @@
         <v>7462536</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D125" s="2">
         <v>45249.66666666666</v>
       </c>
       <c r="E125" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -11224,7 +11239,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J125">
         <v>2.375</v>
@@ -11292,16 +11307,16 @@
         <v>7462537</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D126" s="2">
         <v>45249.77083333334</v>
       </c>
       <c r="E126" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11310,7 +11325,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J126">
         <v>1.444</v>
@@ -11378,16 +11393,16 @@
         <v>7462541</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D127" s="2">
         <v>45249.85416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11396,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J127">
         <v>1.666</v>
@@ -11464,16 +11479,16 @@
         <v>7462542</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D128" s="2">
         <v>45253.66666666666</v>
       </c>
       <c r="E128" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G128">
         <v>3</v>
@@ -11482,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J128">
         <v>1.363</v>
@@ -11550,16 +11565,16 @@
         <v>7462738</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D129" s="2">
         <v>45253.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11568,7 +11583,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J129">
         <v>4</v>
@@ -11636,16 +11651,16 @@
         <v>7462538</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D130" s="2">
         <v>45253.85416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11654,7 +11669,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J130">
         <v>1.444</v>
@@ -11722,16 +11737,16 @@
         <v>7506107</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D131" s="2">
         <v>45254.85416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F131" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11740,7 +11755,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J131">
         <v>1.727</v>
@@ -11808,16 +11823,16 @@
         <v>7506108</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D132" s="2">
         <v>45255.66666666666</v>
       </c>
       <c r="E132" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11826,7 +11841,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J132">
         <v>1.909</v>
@@ -11894,16 +11909,16 @@
         <v>7506109</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D133" s="2">
         <v>45255.77083333334</v>
       </c>
       <c r="E133" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G133">
         <v>6</v>
@@ -11912,7 +11927,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J133">
         <v>1.95</v>
@@ -11980,16 +11995,16 @@
         <v>7506110</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D134" s="2">
         <v>45255.85416666666</v>
       </c>
       <c r="E134" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11998,7 +12013,7 @@
         <v>7</v>
       </c>
       <c r="I134" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J134">
         <v>3</v>
@@ -12066,16 +12081,16 @@
         <v>7506111</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D135" s="2">
         <v>45256.66666666666</v>
       </c>
       <c r="E135" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12084,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J135">
         <v>2.25</v>
@@ -12152,16 +12167,16 @@
         <v>7506112</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D136" s="2">
         <v>45256.77083333334</v>
       </c>
       <c r="E136" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12170,7 +12185,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J136">
         <v>1.8</v>
@@ -12238,16 +12253,16 @@
         <v>7506113</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D137" s="2">
         <v>45256.85416666666</v>
       </c>
       <c r="E137" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12256,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J137">
         <v>1.444</v>
@@ -12324,16 +12339,16 @@
         <v>7506114</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D138" s="2">
         <v>45257.875</v>
       </c>
       <c r="E138" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12342,7 +12357,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J138">
         <v>1.444</v>
@@ -12410,16 +12425,16 @@
         <v>7532411</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D139" s="2">
         <v>45261.66666666666</v>
       </c>
       <c r="E139" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12428,7 +12443,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J139">
         <v>1.666</v>
@@ -12496,16 +12511,16 @@
         <v>7532429</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D140" s="2">
         <v>45261.83333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G140">
         <v>4</v>
@@ -12514,7 +12529,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J140">
         <v>1.3</v>
@@ -12582,16 +12597,16 @@
         <v>7532416</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D141" s="2">
         <v>45261.89583333334</v>
       </c>
       <c r="E141" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12600,7 +12615,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J141">
         <v>2.45</v>
@@ -12665,85 +12680,85 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7532430</v>
+        <v>7532412</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D142" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>3</v>
+      </c>
+      <c r="I142" t="s">
+        <v>56</v>
+      </c>
+      <c r="J142">
+        <v>1.727</v>
+      </c>
+      <c r="K142">
+        <v>3.75</v>
+      </c>
+      <c r="L142">
         <v>4</v>
       </c>
-      <c r="H142">
-        <v>1</v>
-      </c>
-      <c r="I142" t="s">
-        <v>49</v>
-      </c>
-      <c r="J142">
-        <v>1.4</v>
-      </c>
-      <c r="K142">
-        <v>4.2</v>
-      </c>
-      <c r="L142">
-        <v>7</v>
-      </c>
       <c r="M142">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="N142">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O142">
-        <v>8.5</v>
+        <v>2.875</v>
       </c>
       <c r="P142">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q142">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S142">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T142">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA142">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12751,85 +12766,85 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7532414</v>
+        <v>7532413</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D143" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
         <v>1</v>
       </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
       <c r="I143" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J143">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="K143">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L143">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M143">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="N143">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O143">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="P143">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q143">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S143">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T143">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U143">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12837,85 +12852,85 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7532412</v>
+        <v>7532414</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D144" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J144">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="K144">
         <v>3.75</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M144">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="N144">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="O144">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="P144">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q144">
+        <v>2</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
+        <v>3</v>
+      </c>
+      <c r="T144">
+        <v>1.85</v>
+      </c>
+      <c r="U144">
         <v>1.95</v>
       </c>
-      <c r="R144">
-        <v>1.85</v>
-      </c>
-      <c r="S144">
-        <v>2.75</v>
-      </c>
-      <c r="T144">
-        <v>1.925</v>
-      </c>
-      <c r="U144">
-        <v>1.875</v>
-      </c>
       <c r="V144">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA144">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12923,58 +12938,58 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7532413</v>
+        <v>7532430</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D145" s="2">
         <v>45262.66666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J145">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="K145">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L145">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="M145">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="N145">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O145">
-        <v>2.875</v>
+        <v>8.5</v>
       </c>
       <c r="P145">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q145">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R145">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T145">
         <v>1.9</v>
@@ -12983,25 +12998,25 @@
         <v>1.9</v>
       </c>
       <c r="V145">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z145">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13012,16 +13027,16 @@
         <v>7532415</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D146" s="2">
         <v>45263.79166666666</v>
       </c>
       <c r="E146" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G146">
         <v>6</v>
@@ -13030,7 +13045,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J146">
         <v>1.285</v>
@@ -13098,16 +13113,16 @@
         <v>7532418</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D147" s="2">
         <v>45265.66666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F147" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G147">
         <v>3</v>
@@ -13116,7 +13131,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J147">
         <v>5</v>
@@ -13181,19 +13196,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7532420</v>
+        <v>7532419</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D148" s="2">
         <v>45265.875</v>
       </c>
       <c r="E148" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13202,37 +13217,37 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J148">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="K148">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L148">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="M148">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="N148">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O148">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P148">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q148">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R148">
+        <v>1.9</v>
+      </c>
+      <c r="S148">
         <v>2</v>
-      </c>
-      <c r="S148">
-        <v>3.25</v>
       </c>
       <c r="T148">
         <v>1.95</v>
@@ -13241,7 +13256,7 @@
         <v>1.85</v>
       </c>
       <c r="V148">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13250,16 +13265,16 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB148">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13270,16 +13285,16 @@
         <v>7532421</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D149" s="2">
         <v>45265.875</v>
       </c>
       <c r="E149" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13288,7 +13303,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J149">
         <v>1.4</v>
@@ -13353,19 +13368,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7532419</v>
+        <v>7532420</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D150" s="2">
         <v>45265.875</v>
       </c>
       <c r="E150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F150" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13374,37 +13389,37 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J150">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="K150">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="L150">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="M150">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="N150">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="O150">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P150">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q150">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="T150">
         <v>1.95</v>
@@ -13413,7 +13428,7 @@
         <v>1.85</v>
       </c>
       <c r="V150">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="W150">
         <v>-1</v>
@@ -13422,16 +13437,16 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="151" spans="1:28">
@@ -13442,16 +13457,16 @@
         <v>7532422</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D151" s="2">
         <v>45266.66666666666</v>
       </c>
       <c r="E151" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13460,7 +13475,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J151">
         <v>1.8</v>
@@ -13528,16 +13543,16 @@
         <v>7532423</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D152" s="2">
         <v>45266.83333333334</v>
       </c>
       <c r="E152" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13546,7 +13561,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J152">
         <v>1.363</v>
@@ -13611,85 +13626,85 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7532431</v>
+        <v>7532417</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D153" s="2">
         <v>45266.875</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J153">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="K153">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L153">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="M153">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="N153">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O153">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="P153">
+        <v>-2.25</v>
+      </c>
+      <c r="Q153">
+        <v>1.95</v>
+      </c>
+      <c r="R153">
+        <v>1.85</v>
+      </c>
+      <c r="S153">
+        <v>3.75</v>
+      </c>
+      <c r="T153">
+        <v>1.975</v>
+      </c>
+      <c r="U153">
+        <v>1.825</v>
+      </c>
+      <c r="V153">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>0.95</v>
+      </c>
+      <c r="Z153">
+        <v>-1</v>
+      </c>
+      <c r="AA153">
+        <v>0.4875</v>
+      </c>
+      <c r="AB153">
         <v>-0.5</v>
-      </c>
-      <c r="Q153">
-        <v>1.825</v>
-      </c>
-      <c r="R153">
-        <v>1.975</v>
-      </c>
-      <c r="S153">
-        <v>3</v>
-      </c>
-      <c r="T153">
-        <v>2</v>
-      </c>
-      <c r="U153">
-        <v>1.8</v>
-      </c>
-      <c r="V153">
-        <v>0.833</v>
-      </c>
-      <c r="W153">
-        <v>-1</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>0.825</v>
-      </c>
-      <c r="Z153">
-        <v>-1</v>
-      </c>
-      <c r="AA153">
-        <v>0</v>
-      </c>
-      <c r="AB153">
-        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13697,67 +13712,67 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7532417</v>
+        <v>7532431</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D154" s="2">
         <v>45266.875</v>
       </c>
       <c r="E154" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G154">
+        <v>2</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154" t="s">
+        <v>54</v>
+      </c>
+      <c r="J154">
+        <v>2.3</v>
+      </c>
+      <c r="K154">
+        <v>3.5</v>
+      </c>
+      <c r="L154">
+        <v>2.625</v>
+      </c>
+      <c r="M154">
+        <v>1.833</v>
+      </c>
+      <c r="N154">
         <v>4</v>
       </c>
-      <c r="H154">
-        <v>0</v>
-      </c>
-      <c r="I154" t="s">
-        <v>49</v>
-      </c>
-      <c r="J154">
-        <v>1.3</v>
-      </c>
-      <c r="K154">
-        <v>4.5</v>
-      </c>
-      <c r="L154">
-        <v>8.5</v>
-      </c>
-      <c r="M154">
-        <v>1.166</v>
-      </c>
-      <c r="N154">
-        <v>8</v>
-      </c>
       <c r="O154">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q154">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S154">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T154">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U154">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V154">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="W154">
         <v>-1</v>
@@ -13766,16 +13781,16 @@
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AB154">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -13786,16 +13801,16 @@
         <v>7798427</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D155" s="2">
         <v>45338.875</v>
       </c>
       <c r="E155" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13804,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J155">
         <v>1.5</v>
@@ -13872,16 +13887,16 @@
         <v>7780026</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D156" s="2">
         <v>45339.77083333334</v>
       </c>
       <c r="E156" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F156" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -13890,7 +13905,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J156">
         <v>1.125</v>
@@ -13958,16 +13973,16 @@
         <v>7797857</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D157" s="2">
         <v>45339.875</v>
       </c>
       <c r="E157" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13976,7 +13991,7 @@
         <v>2</v>
       </c>
       <c r="I157" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J157">
         <v>1.909</v>
@@ -14044,16 +14059,16 @@
         <v>7779103</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D158" s="2">
         <v>45340.66666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14062,7 +14077,7 @@
         <v>3</v>
       </c>
       <c r="I158" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J158">
         <v>1.285</v>
@@ -14130,16 +14145,16 @@
         <v>7798428</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D159" s="2">
         <v>45340.77083333334</v>
       </c>
       <c r="E159" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F159" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14148,7 +14163,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J159">
         <v>1.571</v>
@@ -14216,16 +14231,16 @@
         <v>7779104</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D160" s="2">
         <v>45340.85416666666</v>
       </c>
       <c r="E160" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14234,7 +14249,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J160">
         <v>1.615</v>
@@ -14302,16 +14317,16 @@
         <v>7801314</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D161" s="2">
         <v>45342.79166666666</v>
       </c>
       <c r="E161" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F161" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14320,7 +14335,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J161">
         <v>1.55</v>
@@ -14388,16 +14403,16 @@
         <v>7801315</v>
       </c>
       <c r="C162" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D162" s="2">
         <v>45342.875</v>
       </c>
       <c r="E162" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G162">
         <v>3</v>
@@ -14406,7 +14421,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J162">
         <v>1.125</v>
@@ -14474,16 +14489,16 @@
         <v>7801316</v>
       </c>
       <c r="C163" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D163" s="2">
         <v>45343.66666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14492,7 +14507,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J163">
         <v>2.1</v>
@@ -14560,16 +14575,16 @@
         <v>7801318</v>
       </c>
       <c r="C164" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D164" s="2">
         <v>45343.875</v>
       </c>
       <c r="E164" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F164" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14578,7 +14593,7 @@
         <v>2</v>
       </c>
       <c r="I164" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J164">
         <v>2.625</v>
@@ -14646,16 +14661,16 @@
         <v>7801317</v>
       </c>
       <c r="C165" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D165" s="2">
         <v>45344.5</v>
       </c>
       <c r="E165" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14664,7 +14679,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J165">
         <v>3.75</v>
@@ -14732,16 +14747,16 @@
         <v>7801319</v>
       </c>
       <c r="C166" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D166" s="2">
         <v>45344.66666666666</v>
       </c>
       <c r="E166" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14750,7 +14765,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J166">
         <v>1.8</v>
@@ -14818,16 +14833,16 @@
         <v>7801321</v>
       </c>
       <c r="C167" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D167" s="2">
         <v>45345.66666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14836,7 +14851,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J167">
         <v>2.2</v>
@@ -14904,16 +14919,16 @@
         <v>7801322</v>
       </c>
       <c r="C168" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D168" s="2">
         <v>45346.66666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14922,7 +14937,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J168">
         <v>2.25</v>
@@ -14990,16 +15005,16 @@
         <v>7801323</v>
       </c>
       <c r="C169" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D169" s="2">
         <v>45346.77083333334</v>
       </c>
       <c r="E169" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15008,7 +15023,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J169">
         <v>1.615</v>
@@ -15076,16 +15091,16 @@
         <v>7801324</v>
       </c>
       <c r="C170" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D170" s="2">
         <v>45347.66666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15094,7 +15109,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J170">
         <v>2.5</v>
@@ -15162,16 +15177,16 @@
         <v>7801325</v>
       </c>
       <c r="C171" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D171" s="2">
         <v>45347.77083333334</v>
       </c>
       <c r="E171" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G171">
         <v>4</v>
@@ -15180,7 +15195,7 @@
         <v>4</v>
       </c>
       <c r="I171" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J171">
         <v>2.15</v>
@@ -15248,16 +15263,16 @@
         <v>7801326</v>
       </c>
       <c r="C172" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D172" s="2">
         <v>45347.85416666666</v>
       </c>
       <c r="E172" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15266,7 +15281,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J172">
         <v>2.3</v>
@@ -15334,16 +15349,16 @@
         <v>7801327</v>
       </c>
       <c r="C173" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D173" s="2">
         <v>45348.875</v>
       </c>
       <c r="E173" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15352,7 +15367,7 @@
         <v>2</v>
       </c>
       <c r="I173" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J173">
         <v>1.666</v>
@@ -15420,16 +15435,16 @@
         <v>7801328</v>
       </c>
       <c r="C174" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D174" s="2">
         <v>45349.875</v>
       </c>
       <c r="E174" t="s">
+        <v>50</v>
+      </c>
+      <c r="F174" t="s">
         <v>45</v>
-      </c>
-      <c r="F174" t="s">
-        <v>40</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15438,7 +15453,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J174">
         <v>2.5</v>
@@ -15506,16 +15521,16 @@
         <v>7892752</v>
       </c>
       <c r="C175" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D175" s="2">
         <v>45350.66666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G175">
         <v>5</v>
@@ -15524,7 +15539,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J175">
         <v>3.3</v>
@@ -15592,16 +15607,16 @@
         <v>7897430</v>
       </c>
       <c r="C176" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D176" s="2">
         <v>45352.875</v>
       </c>
       <c r="E176" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15610,7 +15625,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J176">
         <v>2.5</v>
@@ -15678,16 +15693,16 @@
         <v>7897428</v>
       </c>
       <c r="C177" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D177" s="2">
         <v>45353.66666666666</v>
       </c>
       <c r="E177" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15696,7 +15711,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J177">
         <v>1.363</v>
@@ -15764,16 +15779,16 @@
         <v>7897433</v>
       </c>
       <c r="C178" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D178" s="2">
         <v>45353.77083333334</v>
       </c>
       <c r="E178" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -15782,7 +15797,7 @@
         <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J178">
         <v>2.4</v>
@@ -15850,16 +15865,16 @@
         <v>7897432</v>
       </c>
       <c r="C179" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D179" s="2">
         <v>45353.875</v>
       </c>
       <c r="E179" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F179" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G179">
         <v>3</v>
@@ -15868,7 +15883,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J179">
         <v>2.2</v>
@@ -15936,16 +15951,16 @@
         <v>7897431</v>
       </c>
       <c r="C180" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D180" s="2">
         <v>45354.66666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15954,7 +15969,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J180">
         <v>1.571</v>
@@ -16022,16 +16037,16 @@
         <v>7897434</v>
       </c>
       <c r="C181" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D181" s="2">
         <v>45354.77083333334</v>
       </c>
       <c r="E181" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F181" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -16040,7 +16055,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J181">
         <v>1.666</v>
@@ -16108,16 +16123,16 @@
         <v>7897435</v>
       </c>
       <c r="C182" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D182" s="2">
         <v>45354.85416666666</v>
       </c>
       <c r="E182" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16126,7 +16141,7 @@
         <v>3</v>
       </c>
       <c r="I182" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J182">
         <v>1.75</v>
@@ -16194,16 +16209,16 @@
         <v>7897429</v>
       </c>
       <c r="C183" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D183" s="2">
         <v>45355.66666666666</v>
       </c>
       <c r="E183" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F183" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -16212,7 +16227,7 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J183">
         <v>1.909</v>
@@ -16280,16 +16295,16 @@
         <v>7928563</v>
       </c>
       <c r="C184" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D184" s="2">
         <v>45359.66666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16298,7 +16313,7 @@
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J184">
         <v>2.75</v>
@@ -16366,16 +16381,16 @@
         <v>7929910</v>
       </c>
       <c r="C185" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D185" s="2">
         <v>45359.89583333334</v>
       </c>
       <c r="E185" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16384,7 +16399,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J185">
         <v>2.1</v>
@@ -16452,16 +16467,16 @@
         <v>7929911</v>
       </c>
       <c r="C186" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D186" s="2">
         <v>45360.66666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F186" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16470,7 +16485,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J186">
         <v>1.833</v>
@@ -16538,16 +16553,16 @@
         <v>7929912</v>
       </c>
       <c r="C187" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D187" s="2">
         <v>45360.77083333334</v>
       </c>
       <c r="E187" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F187" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16556,7 +16571,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J187">
         <v>1.4</v>
@@ -16624,16 +16639,16 @@
         <v>7929913</v>
       </c>
       <c r="C188" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D188" s="2">
         <v>45360.87152777778</v>
       </c>
       <c r="E188" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F188" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G188">
         <v>3</v>
@@ -16642,7 +16657,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J188">
         <v>1.3</v>
@@ -16710,16 +16725,16 @@
         <v>7929914</v>
       </c>
       <c r="C189" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D189" s="2">
         <v>45361.66666666666</v>
       </c>
       <c r="E189" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16728,7 +16743,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J189">
         <v>2.55</v>
@@ -16796,16 +16811,16 @@
         <v>7929915</v>
       </c>
       <c r="C190" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D190" s="2">
         <v>45361.77083333334</v>
       </c>
       <c r="E190" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -16814,7 +16829,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J190">
         <v>2.55</v>
@@ -16882,16 +16897,16 @@
         <v>7929916</v>
       </c>
       <c r="C191" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D191" s="2">
         <v>45361.85416666666</v>
       </c>
       <c r="E191" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -16900,7 +16915,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J191">
         <v>2.55</v>
@@ -16968,16 +16983,16 @@
         <v>7931498</v>
       </c>
       <c r="C192" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D192" s="2">
         <v>45363.79166666666</v>
       </c>
       <c r="E192" t="s">
+        <v>47</v>
+      </c>
+      <c r="F192" t="s">
         <v>42</v>
-      </c>
-      <c r="F192" t="s">
-        <v>37</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -16986,7 +17001,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J192">
         <v>1.4</v>
@@ -17054,16 +17069,16 @@
         <v>7931499</v>
       </c>
       <c r="C193" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D193" s="2">
         <v>45363.875</v>
       </c>
       <c r="E193" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17072,7 +17087,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J193">
         <v>2.1</v>
@@ -17140,16 +17155,16 @@
         <v>7930864</v>
       </c>
       <c r="C194" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D194" s="2">
         <v>45364.66666666666</v>
       </c>
       <c r="E194" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17158,7 +17173,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J194">
         <v>1.333</v>
@@ -17226,16 +17241,16 @@
         <v>7931500</v>
       </c>
       <c r="C195" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D195" s="2">
         <v>45364.79166666666</v>
       </c>
       <c r="E195" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -17244,7 +17259,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J195">
         <v>1.909</v>
@@ -17312,16 +17327,16 @@
         <v>7930865</v>
       </c>
       <c r="C196" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D196" s="2">
         <v>45364.87152777778</v>
       </c>
       <c r="E196" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F196" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17330,7 +17345,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J196">
         <v>3</v>
@@ -17398,16 +17413,16 @@
         <v>7930866</v>
       </c>
       <c r="C197" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D197" s="2">
         <v>45365.79166666666</v>
       </c>
       <c r="E197" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F197" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -17416,7 +17431,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J197">
         <v>1.65</v>
@@ -17484,16 +17499,16 @@
         <v>7930867</v>
       </c>
       <c r="C198" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D198" s="2">
         <v>45365.875</v>
       </c>
       <c r="E198" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F198" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17502,7 +17517,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J198">
         <v>1.4</v>
@@ -17570,16 +17585,16 @@
         <v>7930868</v>
       </c>
       <c r="C199" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D199" s="2">
         <v>45366.875</v>
       </c>
       <c r="E199" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17588,7 +17603,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J199">
         <v>1.833</v>
@@ -17656,16 +17671,16 @@
         <v>7980297</v>
       </c>
       <c r="C200" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D200" s="2">
         <v>45371.83333333334</v>
       </c>
       <c r="E200" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F200" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G200">
         <v>4</v>
@@ -17674,7 +17689,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J200">
         <v>1.4</v>
@@ -17742,16 +17757,16 @@
         <v>7980042</v>
       </c>
       <c r="C201" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D201" s="2">
         <v>45379.66666666666</v>
       </c>
       <c r="E201" t="s">
+        <v>52</v>
+      </c>
+      <c r="F201" t="s">
         <v>47</v>
-      </c>
-      <c r="F201" t="s">
-        <v>42</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17760,7 +17775,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J201">
         <v>4.2</v>
@@ -17828,16 +17843,16 @@
         <v>7980298</v>
       </c>
       <c r="C202" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D202" s="2">
         <v>45379.875</v>
       </c>
       <c r="E202" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17846,7 +17861,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J202">
         <v>2.4</v>
@@ -17914,16 +17929,16 @@
         <v>8010637</v>
       </c>
       <c r="C203" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D203" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E203" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F203" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G203">
         <v>3</v>
@@ -17932,7 +17947,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J203">
         <v>1.727</v>
@@ -18000,16 +18015,16 @@
         <v>8010638</v>
       </c>
       <c r="C204" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D204" s="2">
         <v>45381.77083333334</v>
       </c>
       <c r="E204" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F204" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G204">
         <v>3</v>
@@ -18018,7 +18033,7 @@
         <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J204">
         <v>2.2</v>
@@ -18086,16 +18101,16 @@
         <v>8010639</v>
       </c>
       <c r="C205" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D205" s="2">
         <v>45381.875</v>
       </c>
       <c r="E205" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F205" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -18104,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J205">
         <v>1.363</v>
@@ -18172,16 +18187,16 @@
         <v>8010642</v>
       </c>
       <c r="C206" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D206" s="2">
         <v>45382.66666666666</v>
       </c>
       <c r="E206" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F206" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -18190,7 +18205,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J206">
         <v>1.4</v>
@@ -18258,16 +18273,16 @@
         <v>8010640</v>
       </c>
       <c r="C207" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D207" s="2">
         <v>45382.77083333334</v>
       </c>
       <c r="E207" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G207">
         <v>4</v>
@@ -18276,7 +18291,7 @@
         <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J207">
         <v>1.222</v>
@@ -18344,16 +18359,16 @@
         <v>8011587</v>
       </c>
       <c r="C208" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D208" s="2">
         <v>45382.85416666666</v>
       </c>
       <c r="E208" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F208" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G208">
         <v>4</v>
@@ -18362,7 +18377,7 @@
         <v>2</v>
       </c>
       <c r="I208" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J208">
         <v>1.533</v>
@@ -18430,16 +18445,16 @@
         <v>8010641</v>
       </c>
       <c r="C209" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D209" s="2">
         <v>45383.875</v>
       </c>
       <c r="E209" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F209" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G209">
         <v>3</v>
@@ -18448,7 +18463,7 @@
         <v>4</v>
       </c>
       <c r="I209" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J209">
         <v>1.7</v>
@@ -18516,16 +18531,16 @@
         <v>8038942</v>
       </c>
       <c r="C210" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D210" s="2">
         <v>45387.79166666666</v>
       </c>
       <c r="E210" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F210" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -18534,7 +18549,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J210">
         <v>1.571</v>
@@ -18599,85 +18614,85 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>8039390</v>
+        <v>8039389</v>
       </c>
       <c r="C211" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D211" s="2">
         <v>45388.70833333334</v>
       </c>
       <c r="E211" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F211" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J211">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="K211">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L211">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M211">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="N211">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O211">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P211">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q211">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R211">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S211">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T211">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U211">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V211">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18685,85 +18700,85 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>8039389</v>
+        <v>8039390</v>
       </c>
       <c r="C212" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D212" s="2">
         <v>45388.70833333334</v>
       </c>
       <c r="E212" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J212">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K212">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L212">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M212">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="N212">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O212">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="P212">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q212">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R212">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S212">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T212">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U212">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W212">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB212">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18774,16 +18789,16 @@
         <v>8054794</v>
       </c>
       <c r="C213" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D213" s="2">
         <v>45388.79166666666</v>
       </c>
       <c r="E213" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F213" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -18792,7 +18807,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J213">
         <v>1.95</v>
@@ -18857,19 +18872,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>8039392</v>
+        <v>8038943</v>
       </c>
       <c r="C214" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D214" s="2">
         <v>45389.70833333334</v>
       </c>
       <c r="E214" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G214">
         <v>2</v>
@@ -18878,46 +18893,46 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J214">
+        <v>2.3</v>
+      </c>
+      <c r="K214">
+        <v>3.5</v>
+      </c>
+      <c r="L214">
+        <v>2.625</v>
+      </c>
+      <c r="M214">
+        <v>2.8</v>
+      </c>
+      <c r="N214">
+        <v>3.6</v>
+      </c>
+      <c r="O214">
+        <v>2.375</v>
+      </c>
+      <c r="P214">
+        <v>0.25</v>
+      </c>
+      <c r="Q214">
+        <v>1.8</v>
+      </c>
+      <c r="R214">
         <v>2</v>
       </c>
-      <c r="K214">
+      <c r="S214">
         <v>3.25</v>
       </c>
-      <c r="L214">
-        <v>3.4</v>
-      </c>
-      <c r="M214">
-        <v>1.727</v>
-      </c>
-      <c r="N214">
-        <v>4</v>
-      </c>
-      <c r="O214">
-        <v>4.5</v>
-      </c>
-      <c r="P214">
-        <v>-0.75</v>
-      </c>
-      <c r="Q214">
-        <v>1.9</v>
-      </c>
-      <c r="R214">
-        <v>1.9</v>
-      </c>
-      <c r="S214">
-        <v>2.75</v>
-      </c>
       <c r="T214">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V214">
-        <v>0.7270000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -18926,16 +18941,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="Z214">
+        <v>-1</v>
+      </c>
+      <c r="AA214">
         <v>-0.5</v>
       </c>
-      <c r="AA214">
-        <v>0.45</v>
-      </c>
       <c r="AB214">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -18943,19 +18958,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>8038943</v>
+        <v>8039392</v>
       </c>
       <c r="C215" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D215" s="2">
         <v>45389.70833333334</v>
       </c>
       <c r="E215" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F215" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18964,46 +18979,46 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J215">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K215">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L215">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="M215">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="N215">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O215">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="P215">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q215">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R215">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T215">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U215">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>1.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19012,16 +19027,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA215">
+        <v>0.45</v>
+      </c>
+      <c r="AB215">
         <v>-0.5</v>
-      </c>
-      <c r="AB215">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -19032,16 +19047,16 @@
         <v>8039398</v>
       </c>
       <c r="C216" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D216" s="2">
         <v>45389.85416666666</v>
       </c>
       <c r="E216" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F216" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G216">
         <v>2</v>
@@ -19050,7 +19065,7 @@
         <v>1</v>
       </c>
       <c r="I216" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J216">
         <v>1.533</v>
@@ -19118,16 +19133,16 @@
         <v>8039391</v>
       </c>
       <c r="C217" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D217" s="2">
         <v>45390.83333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F217" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G217">
         <v>3</v>
@@ -19136,7 +19151,7 @@
         <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J217">
         <v>1.666</v>
@@ -19204,16 +19219,16 @@
         <v>8021846</v>
       </c>
       <c r="C218" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D218" s="2">
         <v>45393.83333333334</v>
       </c>
       <c r="E218" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19222,7 +19237,7 @@
         <v>3</v>
       </c>
       <c r="I218" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J218">
         <v>6</v>
@@ -19290,16 +19305,16 @@
         <v>8088970</v>
       </c>
       <c r="C219" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D219" s="2">
         <v>45396.66666666666</v>
       </c>
       <c r="E219" t="s">
+        <v>53</v>
+      </c>
+      <c r="F219" t="s">
         <v>48</v>
-      </c>
-      <c r="F219" t="s">
-        <v>43</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19308,7 +19323,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J219">
         <v>2.4</v>
@@ -19376,16 +19391,16 @@
         <v>8089547</v>
       </c>
       <c r="C220" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D220" s="2">
         <v>45396.77083333334</v>
       </c>
       <c r="E220" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -19394,7 +19409,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J220">
         <v>2.6</v>
@@ -19462,16 +19477,16 @@
         <v>8089492</v>
       </c>
       <c r="C221" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D221" s="2">
         <v>45396.85416666666</v>
       </c>
       <c r="E221" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F221" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -19480,7 +19495,7 @@
         <v>1</v>
       </c>
       <c r="I221" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J221">
         <v>1.533</v>
@@ -19548,16 +19563,16 @@
         <v>8090056</v>
       </c>
       <c r="C222" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D222" s="2">
         <v>45397.83333333334</v>
       </c>
       <c r="E222" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F222" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19566,7 +19581,7 @@
         <v>1</v>
       </c>
       <c r="I222" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J222">
         <v>2.2</v>
@@ -19634,16 +19649,16 @@
         <v>8091186</v>
       </c>
       <c r="C223" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D223" s="2">
         <v>45399.66666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F223" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G223">
         <v>3</v>
@@ -19652,7 +19667,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J223">
         <v>2.1</v>
@@ -19720,16 +19735,16 @@
         <v>8090748</v>
       </c>
       <c r="C224" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D224" s="2">
         <v>45399.875</v>
       </c>
       <c r="E224" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F224" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G224">
         <v>2</v>
@@ -19738,7 +19753,7 @@
         <v>1</v>
       </c>
       <c r="I224" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J224">
         <v>1.533</v>
@@ -19806,16 +19821,16 @@
         <v>8090539</v>
       </c>
       <c r="C225" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D225" s="2">
         <v>45400.83333333334</v>
       </c>
       <c r="E225" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F225" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -19824,7 +19839,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J225">
         <v>1.363</v>
@@ -19892,16 +19907,16 @@
         <v>8091314</v>
       </c>
       <c r="C226" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D226" s="2">
         <v>45400.875</v>
       </c>
       <c r="E226" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F226" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G226">
         <v>6</v>
@@ -19910,7 +19925,7 @@
         <v>8</v>
       </c>
       <c r="I226" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J226">
         <v>1.363</v>
@@ -19978,16 +19993,16 @@
         <v>8119939</v>
       </c>
       <c r="C227" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D227" s="2">
         <v>45410.70833333334</v>
       </c>
       <c r="E227" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F227" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G227">
         <v>9</v>
@@ -19996,7 +20011,7 @@
         <v>11</v>
       </c>
       <c r="I227" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J227">
         <v>1.444</v>
@@ -20064,16 +20079,16 @@
         <v>8119940</v>
       </c>
       <c r="C228" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D228" s="2">
         <v>45410.79166666666</v>
       </c>
       <c r="E228" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F228" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20082,7 +20097,7 @@
         <v>1</v>
       </c>
       <c r="I228" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J228">
         <v>2</v>
@@ -20150,16 +20165,16 @@
         <v>8164270</v>
       </c>
       <c r="C229" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D229" s="2">
         <v>45413.66666666666</v>
       </c>
       <c r="E229" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F229" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -20168,7 +20183,7 @@
         <v>2</v>
       </c>
       <c r="I229" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J229">
         <v>1.615</v>
@@ -20236,16 +20251,16 @@
         <v>8170178</v>
       </c>
       <c r="C230" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D230" s="2">
         <v>45417.66666666666</v>
       </c>
       <c r="E230" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F230" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20254,7 +20269,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J230">
         <v>1.615</v>
@@ -20322,16 +20337,16 @@
         <v>8192701</v>
       </c>
       <c r="C231" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D231" s="2">
         <v>45422.875</v>
       </c>
       <c r="E231" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F231" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G231">
         <v>2</v>
@@ -20340,7 +20355,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J231">
         <v>1.666</v>
@@ -20408,16 +20423,16 @@
         <v>8192702</v>
       </c>
       <c r="C232" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D232" s="2">
         <v>45423.66666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F232" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G232">
         <v>3</v>
@@ -20426,7 +20441,7 @@
         <v>2</v>
       </c>
       <c r="I232" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J232">
         <v>1.533</v>
@@ -20494,16 +20509,16 @@
         <v>8192703</v>
       </c>
       <c r="C233" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D233" s="2">
         <v>45423.77083333334</v>
       </c>
       <c r="E233" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F233" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -20512,7 +20527,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J233">
         <v>1.533</v>
@@ -20580,16 +20595,16 @@
         <v>8192704</v>
       </c>
       <c r="C234" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D234" s="2">
         <v>45423.875</v>
       </c>
       <c r="E234" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F234" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G234">
         <v>2</v>
@@ -20598,7 +20613,7 @@
         <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J234">
         <v>1.363</v>
@@ -20666,16 +20681,16 @@
         <v>8192705</v>
       </c>
       <c r="C235" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D235" s="2">
         <v>45424.66666666666</v>
       </c>
       <c r="E235" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F235" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -20684,7 +20699,7 @@
         <v>1</v>
       </c>
       <c r="I235" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J235">
         <v>2.8</v>
@@ -20752,16 +20767,16 @@
         <v>8192706</v>
       </c>
       <c r="C236" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D236" s="2">
         <v>45424.77083333334</v>
       </c>
       <c r="E236" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G236">
         <v>3</v>
@@ -20770,7 +20785,7 @@
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J236">
         <v>1.533</v>
@@ -20838,16 +20853,16 @@
         <v>8192707</v>
       </c>
       <c r="C237" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D237" s="2">
         <v>45424.85416666666</v>
       </c>
       <c r="E237" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F237" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -20856,7 +20871,7 @@
         <v>2</v>
       </c>
       <c r="I237" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J237">
         <v>2.4</v>
@@ -20924,16 +20939,16 @@
         <v>8192708</v>
       </c>
       <c r="C238" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D238" s="2">
         <v>45425.83333333334</v>
       </c>
       <c r="E238" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F238" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G238">
         <v>2</v>
@@ -20942,7 +20957,7 @@
         <v>1</v>
       </c>
       <c r="I238" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J238">
         <v>1.666</v>
@@ -21010,52 +21025,52 @@
         <v>27</v>
       </c>
       <c r="C239" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D239" s="2">
-        <v>45429.875</v>
+        <v>45430.66666666666</v>
       </c>
       <c r="E239" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F239" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J239">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="K239">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L239">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="M239">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="N239">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O239">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P239">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q239">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R239">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S239">
         <v>2.75</v>
       </c>
       <c r="T239">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U239">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V239">
         <v>0</v>
@@ -21075,46 +21090,46 @@
         <v>28</v>
       </c>
       <c r="C240" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D240" s="2">
-        <v>45430.875</v>
+        <v>45430.77083333334</v>
       </c>
       <c r="E240" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F240" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J240">
-        <v>1.833</v>
+        <v>1.2</v>
       </c>
       <c r="K240">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="L240">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="M240">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="N240">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O240">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="P240">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="Q240">
+        <v>1.85</v>
+      </c>
+      <c r="R240">
         <v>1.95</v>
       </c>
-      <c r="R240">
-        <v>1.85</v>
-      </c>
       <c r="S240">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T240">
         <v>1.9</v>
@@ -21129,6 +21144,331 @@
         <v>0</v>
       </c>
       <c r="X240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:24">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>29</v>
+      </c>
+      <c r="C241" t="s">
+        <v>34</v>
+      </c>
+      <c r="D241" s="2">
+        <v>45430.875</v>
+      </c>
+      <c r="E241" t="s">
+        <v>41</v>
+      </c>
+      <c r="F241" t="s">
+        <v>46</v>
+      </c>
+      <c r="J241">
+        <v>1.833</v>
+      </c>
+      <c r="K241">
+        <v>3.4</v>
+      </c>
+      <c r="L241">
+        <v>3.75</v>
+      </c>
+      <c r="M241">
+        <v>1.8</v>
+      </c>
+      <c r="N241">
+        <v>3.4</v>
+      </c>
+      <c r="O241">
+        <v>4.75</v>
+      </c>
+      <c r="P241">
+        <v>-0.75</v>
+      </c>
+      <c r="Q241">
+        <v>2.025</v>
+      </c>
+      <c r="R241">
+        <v>1.775</v>
+      </c>
+      <c r="S241">
+        <v>2.25</v>
+      </c>
+      <c r="T241">
+        <v>1.85</v>
+      </c>
+      <c r="U241">
+        <v>1.95</v>
+      </c>
+      <c r="V241">
+        <v>0</v>
+      </c>
+      <c r="W241">
+        <v>0</v>
+      </c>
+      <c r="X241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:24">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>30</v>
+      </c>
+      <c r="C242" t="s">
+        <v>34</v>
+      </c>
+      <c r="D242" s="2">
+        <v>45431.66666666666</v>
+      </c>
+      <c r="E242" t="s">
+        <v>42</v>
+      </c>
+      <c r="F242" t="s">
+        <v>35</v>
+      </c>
+      <c r="J242">
+        <v>2.1</v>
+      </c>
+      <c r="K242">
+        <v>3.4</v>
+      </c>
+      <c r="L242">
+        <v>3</v>
+      </c>
+      <c r="M242">
+        <v>2.15</v>
+      </c>
+      <c r="N242">
+        <v>3.2</v>
+      </c>
+      <c r="O242">
+        <v>3.4</v>
+      </c>
+      <c r="P242">
+        <v>-0.25</v>
+      </c>
+      <c r="Q242">
+        <v>1.85</v>
+      </c>
+      <c r="R242">
+        <v>1.95</v>
+      </c>
+      <c r="S242">
+        <v>2.25</v>
+      </c>
+      <c r="T242">
+        <v>2</v>
+      </c>
+      <c r="U242">
+        <v>1.8</v>
+      </c>
+      <c r="V242">
+        <v>0</v>
+      </c>
+      <c r="W242">
+        <v>0</v>
+      </c>
+      <c r="X242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:24">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>31</v>
+      </c>
+      <c r="C243" t="s">
+        <v>34</v>
+      </c>
+      <c r="D243" s="2">
+        <v>45431.77083333334</v>
+      </c>
+      <c r="E243" t="s">
+        <v>48</v>
+      </c>
+      <c r="F243" t="s">
+        <v>37</v>
+      </c>
+      <c r="J243">
+        <v>1.3</v>
+      </c>
+      <c r="K243">
+        <v>5</v>
+      </c>
+      <c r="L243">
+        <v>7.5</v>
+      </c>
+      <c r="M243">
+        <v>1.222</v>
+      </c>
+      <c r="N243">
+        <v>6</v>
+      </c>
+      <c r="O243">
+        <v>13</v>
+      </c>
+      <c r="P243">
+        <v>-2</v>
+      </c>
+      <c r="Q243">
+        <v>2</v>
+      </c>
+      <c r="R243">
+        <v>1.8</v>
+      </c>
+      <c r="S243">
+        <v>3.25</v>
+      </c>
+      <c r="T243">
+        <v>1.9</v>
+      </c>
+      <c r="U243">
+        <v>1.9</v>
+      </c>
+      <c r="V243">
+        <v>0</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:24">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>32</v>
+      </c>
+      <c r="C244" t="s">
+        <v>34</v>
+      </c>
+      <c r="D244" s="2">
+        <v>45431.85416666666</v>
+      </c>
+      <c r="E244" t="s">
+        <v>49</v>
+      </c>
+      <c r="F244" t="s">
+        <v>40</v>
+      </c>
+      <c r="J244">
+        <v>2.25</v>
+      </c>
+      <c r="K244">
+        <v>3.6</v>
+      </c>
+      <c r="L244">
+        <v>2.625</v>
+      </c>
+      <c r="M244">
+        <v>2.6</v>
+      </c>
+      <c r="N244">
+        <v>3.5</v>
+      </c>
+      <c r="O244">
+        <v>2.5</v>
+      </c>
+      <c r="P244">
+        <v>0</v>
+      </c>
+      <c r="Q244">
+        <v>1.925</v>
+      </c>
+      <c r="R244">
+        <v>1.875</v>
+      </c>
+      <c r="S244">
+        <v>2.25</v>
+      </c>
+      <c r="T244">
+        <v>1.9</v>
+      </c>
+      <c r="U244">
+        <v>1.9</v>
+      </c>
+      <c r="V244">
+        <v>0</v>
+      </c>
+      <c r="W244">
+        <v>0</v>
+      </c>
+      <c r="X244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:24">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>33</v>
+      </c>
+      <c r="C245" t="s">
+        <v>34</v>
+      </c>
+      <c r="D245" s="2">
+        <v>45432.83333333334</v>
+      </c>
+      <c r="E245" t="s">
+        <v>36</v>
+      </c>
+      <c r="F245" t="s">
+        <v>47</v>
+      </c>
+      <c r="J245">
+        <v>2.3</v>
+      </c>
+      <c r="K245">
+        <v>3.3</v>
+      </c>
+      <c r="L245">
+        <v>2.75</v>
+      </c>
+      <c r="M245">
+        <v>2.25</v>
+      </c>
+      <c r="N245">
+        <v>3.3</v>
+      </c>
+      <c r="O245">
+        <v>3.1</v>
+      </c>
+      <c r="P245">
+        <v>-0.25</v>
+      </c>
+      <c r="Q245">
+        <v>1.95</v>
+      </c>
+      <c r="R245">
+        <v>1.85</v>
+      </c>
+      <c r="S245">
+        <v>2.25</v>
+      </c>
+      <c r="T245">
+        <v>1.85</v>
+      </c>
+      <c r="U245">
+        <v>1.95</v>
+      </c>
+      <c r="V245">
+        <v>0</v>
+      </c>
+      <c r="W245">
+        <v>0</v>
+      </c>
+      <c r="X245">
         <v>0</v>
       </c>
     </row>

--- a/Bolivia Primera División/Bolivia Primera División.xlsx
+++ b/Bolivia Primera División/Bolivia Primera División.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -97,25 +97,22 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8192710</t>
+    <t>8192719</t>
   </si>
   <si>
-    <t>8192711</t>
+    <t>8192720</t>
   </si>
   <si>
-    <t>8192712</t>
+    <t>8192721</t>
   </si>
   <si>
-    <t>8192713</t>
+    <t>8192722</t>
   </si>
   <si>
-    <t>8192714</t>
+    <t>8192723</t>
   </si>
   <si>
-    <t>8192715</t>
-  </si>
-  <si>
-    <t>8192716</t>
+    <t>8192724</t>
   </si>
   <si>
     <t>Bolivia Primera División</t>
@@ -546,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB245"/>
+  <dimension ref="A1:AB253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,16 +640,16 @@
         <v>6504822</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>45079.83333333334</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -661,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2">
         <v>1.444</v>
@@ -729,16 +726,16 @@
         <v>6503942</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>45080.66666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -747,7 +744,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J3">
         <v>2.5</v>
@@ -815,16 +812,16 @@
         <v>6505492</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>45080.77083333334</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -833,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4">
         <v>3.2</v>
@@ -901,16 +898,16 @@
         <v>6504570</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>45080.875</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -919,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5">
         <v>1.909</v>
@@ -987,16 +984,16 @@
         <v>6504571</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>45081.66666666666</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1005,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6">
         <v>1.8</v>
@@ -1073,16 +1070,16 @@
         <v>6503943</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>45081.77083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1091,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7">
         <v>1.166</v>
@@ -1159,16 +1156,16 @@
         <v>6504309</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2">
         <v>45081.85416666666</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1177,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8">
         <v>2.5</v>
@@ -1245,16 +1242,16 @@
         <v>6504283</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>45082.66666666666</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1263,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9">
         <v>2.2</v>
@@ -1331,16 +1328,16 @@
         <v>6669973</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>45088.85416666666</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1349,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J10">
         <v>1.6</v>
@@ -1417,16 +1414,16 @@
         <v>6504823</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <v>45100.66666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1435,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11">
         <v>2.875</v>
@@ -1503,16 +1500,16 @@
         <v>6504824</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>45100.83333333334</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1521,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12">
         <v>1.727</v>
@@ -1589,16 +1586,16 @@
         <v>6503944</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>45101.66666666666</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>6</v>
@@ -1607,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1675,16 +1672,16 @@
         <v>6503945</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>45101.875</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1693,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J14">
         <v>1.8</v>
@@ -1761,16 +1758,16 @@
         <v>6504572</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>45102.66666666666</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1779,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15">
         <v>1.2</v>
@@ -1847,16 +1844,16 @@
         <v>6504573</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>45102.77083333334</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1865,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16">
         <v>1.727</v>
@@ -1933,16 +1930,16 @@
         <v>6504284</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>45102.85416666666</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -1951,7 +1948,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J17">
         <v>1.909</v>
@@ -2019,16 +2016,16 @@
         <v>6504310</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2">
         <v>45103.83333333334</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2037,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2105,16 +2102,16 @@
         <v>6504574</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>45114.875</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2123,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J19">
         <v>1.727</v>
@@ -2191,16 +2188,16 @@
         <v>6505493</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>45115.66666666666</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2209,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J20">
         <v>1.666</v>
@@ -2277,16 +2274,16 @@
         <v>6504311</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>45115.77083333334</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2295,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J21">
         <v>1.285</v>
@@ -2363,16 +2360,16 @@
         <v>6504285</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2">
         <v>45115.875</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2381,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J22">
         <v>1.615</v>
@@ -2449,16 +2446,16 @@
         <v>6504825</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2">
         <v>45116.66666666666</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -2467,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J23">
         <v>1.5</v>
@@ -2535,16 +2532,16 @@
         <v>6503946</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>45116.77083333334</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -2553,7 +2550,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J24">
         <v>1.727</v>
@@ -2621,16 +2618,16 @@
         <v>6503947</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>45116.85416666666</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2639,7 +2636,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J25">
         <v>3.3</v>
@@ -2707,16 +2704,16 @@
         <v>6504312</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2">
         <v>45117.875</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2725,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J26">
         <v>1.5</v>
@@ -2793,16 +2790,16 @@
         <v>6504313</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
         <v>45122.66666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2811,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J27">
         <v>1.75</v>
@@ -2879,16 +2876,16 @@
         <v>6504831</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2">
         <v>45122.66666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2897,7 +2894,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J28">
         <v>3.3</v>
@@ -2965,16 +2962,16 @@
         <v>6503948</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2">
         <v>45123.66666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2983,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J29">
         <v>2.625</v>
@@ -3051,16 +3048,16 @@
         <v>6504286</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2">
         <v>45123.77083333334</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3069,7 +30